--- a/online_inference/evaluation/evaluation.xlsx
+++ b/online_inference/evaluation/evaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E305"/>
+  <dimension ref="A1:E306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,64 +463,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>What year does Orson Scott Card 's 1986 novel take place ?</t>
+          <t>For the army that conflicted with the `` lashkars '' , what year did its soldier die ?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5270</t>
+          <t>3 November 1947</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>: The exact year in the story of *Speaker for the Dead* is around 5270. Despite the vast amount of time that has passed since the events of *Ender's Game*, the main character, Ender Wiggin, is only about 35 years old due to the effects of relativistic space travel.</t>
+          <t>: 1965</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Orson_Scott_Card_bibliography_0</t>
+          <t>Param_Vir_Chakra_0</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The driver who finished in position 4 in the 2004 United States Grand Prix was of what nationality ?</t>
+          <t>What is the state represented by the teen whose home town is one of the gateways to the Great Smoky Mountains National Park ?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>British</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Tennessee</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>: Tennessee and North Carolina</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2004_United_States_Grand_Prix_0</t>
+          <t>Miss_Teen_USA_special_awards_1</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>What is the country for the airport that it at an elevation of 5 m ( 16 ft ) , therefore at risk of serious flooding ?</t>
+          <t>What was the format of an event also known as GP that took place in a season which was fifth season ?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Belize City</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>Team Limited</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>: Booster Draft</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Central_America_4</t>
+          <t>Antoine_Ruel_0</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -530,22 +538,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>For the army that conflicted with the `` lashkars '' , what year did its soldier die ?</t>
+          <t>What team drafted this player from Salisbury , North Carolina ?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3 November 1947</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>: The specific year when a soldier from the Indian Army died during the conflict with the 'lashkars' is not documented in the provided data. The conflict is part of the broader context of the Indo-Pakistani War of 1947-1948. If you have additional details, please provide them for a more precise answer.</t>
+          <t>: The table content is missing, so it is impossible to determine which team drafted the player from Salisbury, North Carolina.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Param_Vir_Chakra_0</t>
+          <t>List_of_oldest_and_youngest_National_Basketball_Association_players_3</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -555,72 +563,72 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>What was the format of an event also known as GP that took place in a season which was fifth season ?</t>
+          <t>What year does Orson Scott Card 's 1986 novel take place ?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Team Limited</t>
+          <t>5270</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>: The format of the Grand Prix event in the fifth season was **Standard**.</t>
+          <t>: 5270</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Antoine_Ruel_0</t>
+          <t>Orson_Scott_Card_bibliography_0</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The college that opened in 1981 is located on how many acres of land ?</t>
+          <t>What is the country for the airport that it at an elevation of 5 m ( 16 ft ) , therefore at risk of serious flooding ?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>47 acres</t>
+          <t>Belize City</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>: The college that opened in 1981, All Saints' College, is located on 47 acres of land.</t>
+          <t>: The table content is missing, so it is impossible to determine the country of the airport at an elevation of 5 meters (16 feet).</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>List_of_schools_in_Perth,_Western_Australia_7</t>
+          <t>List_of_the_busiest_airports_in_Central_America_4</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>What is the state represented by the teen whose home town is one of the gateways to the Great Smoky Mountains National Park ?</t>
+          <t>What suburb is the stadium for the bulls located in ?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tennessee</t>
+          <t>Arcadia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>: The gateways to the Great Smoky Mountains National Park include Pigeon Forge, Tennessee, and Cherokee, North Carolina. However, based on the provided dataset, there is no record of a Miss Teen USA whose hometown is either Pigeon Forge or Cherokee. Therefore, the dataset does not contain information about a teen from these gateways. If you have additional data or another specific year or context in mind, please provide more details.</t>
+          <t>: Woolloongabba</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Miss_Teen_USA_special_awards_1</t>
+          <t>List_of_association_football_stadiums_by_country_6</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -630,72 +638,72 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>What is the middle name of the player with the second most National Football League career rushing yards ?</t>
+          <t>The driver who finished in position 4 in the 2004 United States Grand Prix was of what nationality ?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jerry</t>
+          <t>British</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>: The middle name of the player with the second most National Football League career rushing yards, Walter Payton, is Jerry.</t>
+          <t>: The table content was not found, so the nationality of the driver who finished in position 4 in the 2004 United States Grand Prix cannot be determined from the provided data.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>List_of_National_Football_League_rushing_yards_leaders_0</t>
+          <t>2004_United_States_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>What suburb is the stadium for the bulls located in ?</t>
+          <t>The college that opened in 1981 is located on how many acres of land ?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Arcadia</t>
+          <t>47 acres</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>: The suburb where the stadium for the Bulls is located is Arcadia.</t>
+          <t>: The table content is missing, so the information about the college that opened in 1981 and its land acreage cannot be determined.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>List_of_association_football_stadiums_by_country_6</t>
+          <t>List_of_schools_in_Perth,_Western_Australia_7</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>What team drafted this player from Salisbury , North Carolina ?</t>
+          <t>What is the middle name of the player with the second most National Football League career rushing yards ?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>: There is no recorded player from Salisbury, North Carolina in the provided data source, and therefore, the team that drafted such a player cannot be determined. If you have more information, please provide it for a more accurate response.</t>
+          <t>: The table content is missing, so it is impossible to determine the middle name of the player with the second most National Football League career rushing yards.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>List_of_oldest_and_youngest_National_Basketball_Association_players_3</t>
+          <t>List_of_National_Football_League_rushing_yards_leaders_0</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -705,22 +713,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>How many square kilometers are in the county where Bangor is located ?</t>
+          <t>where are located the terminals of the airport of the city the second most populous in Canada ?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2,448 km2</t>
+          <t>The airport terminals are located entirely in the suburb of Dorval</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>: The area of County Down, where Bangor is located, is 2,448 square kilometers.</t>
+          <t>: The terminals of the airport in the second most populous city of Canada (Montreal) are located in Dorval, Quebec.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Irish_Sea_0</t>
+          <t>List_of_the_busiest_airports_in_Canada_5</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -730,72 +738,72 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>where are located the terminals of the airport of the city the second most populous in Canada ?</t>
+          <t>Which championship occurred first ? Was it one which was originally raced in 1927 and won by Joe Davis , or the one which Judd Trump often wins ?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The airport terminals are located entirely in the suburb of Dorval</t>
+          <t>German Open</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>: The terminals of the airport serving the second most populous city in Canada, which is Greater Montreal, are located in the suburb of Dorval, Quebec.</t>
+          <t>: The championship originally raced in 1927 and won by Joe Davis occurred first, as 1927 precedes 2019 (the year Judd Trump often wins his championship).</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Canada_5</t>
+          <t>Ronnie_O'Sullivan_0</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Which championship occurred first ? Was it one which was originally raced in 1927 and won by Joe Davis , or the one which Judd Trump often wins ?</t>
+          <t>How many square kilometers are in the county where Bangor is located ?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>German Open</t>
+          <t>2,448 km2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>: The championship that occurred first is the one originally raced in 1927 and won by Joe Davis.</t>
+          <t>: 2,448</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ronnie_O'Sullivan_0</t>
+          <t>Irish_Sea_0</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>At what Bay does the route end whose highway was first established in early 1922 between Highway 2 in Whitby and Lindsay ?</t>
+          <t>The game released on 2011-05-17 developed by TopWare Interactive was subject to a lawsuit by what company ?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Georgian</t>
+          <t>Interplay Entertainment</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>: Highway 12, which was first established in early 1922 between Highway 2 in Whitby and Lindsay, ends at Georgian Bay near Midland, Ontario.</t>
+          <t>: Interplay Entertainment</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>List_of_highways_in_Ontario_0</t>
+          <t>List_of_Games_for_Windows_titles_5</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -805,26 +813,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>The game released on 2011-05-17 developed by TopWare Interactive was subject to a lawsuit by what company ?</t>
+          <t>At what Bay does the route end whose highway was first established in early 1922 between Highway 2 in Whitby and Lindsay ?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Interplay Entertainment</t>
+          <t>Georgian</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>: The game "Battle vs. Chess," released on 2011-05-17 and developed by TopWare Interactive, was subject to a lawsuit by Interplay. The lawsuit was related to a trademark issue, which led to the game being renamed from "Check vs. Mate" to "Battle vs. Chess." While the exact timing of the lawsuit in relation to the release date is not specified, it is clear that the game faced legal issues with Interplay.</t>
+          <t>: Sturgeon Bay</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>List_of_Games_for_Windows_titles_5</t>
+          <t>List_of_highways_in_Ontario_0</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -840,7 +848,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>: The noble families referenced by the title of the movie parodied by "The Gore of the Roses" are the House of Lancaster and the House of York.</t>
+          <t>: The House of Lancaster and the House of York.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -855,68 +863,72 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Which publication 's ranking put the person who finished the qualifying round of the French Grand Prix in 1:13.625 in 2001 at 30th out of all F1 drivers ?</t>
+          <t>Which author of the Kamakura period treasures died more recently ?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Times Online 's</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>Fujiwara no Teika</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>: The table content required to answer the query is missing. Please provide the table data for further assistance.</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2001_French_Grand_Prix_0</t>
+          <t>List_of_National_Treasures_of_Japan_(writings__Japanese_books)_0</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Which author of the Kamakura period treasures died more recently ?</t>
+          <t>How many MVP where born after 1970 and venue was Madison Square Garden ?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fujiwara no Teika</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>: Fujiwara no Teika, an author from the Kamakura period, died more recently on September 26, 1241.</t>
+          <t>: The table content is missing, so it is impossible to determine how many MVPs were born after 1970 and had a venue at Madison Square Garden. Please provide the table data for accurate analysis.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>List_of_National_Treasures_of_Japan_(writings__Japanese_books)_0</t>
+          <t>Big_East_Men's_Basketball_Tournament_0</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>How many MVP where born after 1970 and venue was Madison Square Garden ?</t>
+          <t>Which publication 's ranking put the person who finished the qualifying round of the French Grand Prix in 1:13.625 in 2001 at 30th out of all F1 drivers ?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Times Online 's</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>: The games where the MVPs played were held at Madison Square Garden. However, without the birth years of the MVPs, we cannot determine how many MVPs were born after 1970. If you can provide the birth years of the MVPs, I can complete the answer.</t>
+          <t>: Times Online</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Big_East_Men's_Basketball_Tournament_0</t>
+          <t>2001_French_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -936,7 +948,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>: The state whose name originates from the Ojibwe word "mishigamaa" is Michigan. The types of disasters that have hit Michigan include a tornado outbreak and a rural wildfire.</t>
+          <t>: Stampede</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -951,22 +963,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Which sects first settled the city which houses Rutgers University ?</t>
+          <t>Which of the athletes from the country whose capital is Rabat was sanctioned for using a medication which is derived from DHT ?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Quakers and Baptists</t>
+          <t>Mouhcine Cheaouri</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>: The sects that first settled New Brunswick, New Jersey, included the Presbyterians, as evidenced by the establishment of the First Presbyterian Church in or before 1726. For a more detailed and comprehensive answer, further historical research would be beneficial.</t>
+          <t>: There are no athletes from Morocco (the country whose capital is Rabat) sanctioned for using medication derived from DHT, as confirmed by the absence of such cases in the provided doping records.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1989_NCAA_Women's_Division_I_Basketball_Tournament_2</t>
+          <t>List_of_doping_cases_in_athletics_2</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -976,97 +988,97 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>What is the nationality of the driver that finished second at the 2001 Brazilian Grand Prix ?</t>
+          <t>Whose violation was the first one to occur in the 21st century ?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>Tony Dees</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>: The nationality of the driver that finished second at the 2001 Brazilian Grand Prix is German.</t>
+          <t>: The table content is missing, so it is impossible to determine whose violation was the first one to occur in the 21st century.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2001_Brazilian_Grand_Prix_0</t>
+          <t>List_of_doping_cases_in_athletics_3</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Whose violation was the first one to occur in the 21st century ?</t>
+          <t>Which sects first settled the city which houses Rutgers University ?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tony Dees</t>
+          <t>Quakers and Baptists</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>: The first violation to occur in the 21st century was committed by Tony Dees in 2001.</t>
+          <t>: French</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>List_of_doping_cases_in_athletics_3</t>
+          <t>1989_NCAA_Women's_Division_I_Basketball_Tournament_2</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>What were the core subjects of the university attended by Fred Felber at the time of its establishment ?</t>
+          <t>What is the 2010 Census of the Core-based statistical area that is home to more than 400 major corporate headquarter ?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>liberal arts</t>
+          <t>9,461,105</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>: The core subjects of the University of North Dakota at the time of its establishment in 1883 were rooted in a liberal arts foundation and likely included traditional disciplines such as Literature, History, Philosophy, Languages, Mathematics, and Sciences. These subjects formed the basis of the educational offerings when the university was founded.</t>
+          <t>: 9,461,105</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>List_of_Washington_Redskins_players_5</t>
+          <t>List_of_Core_Based_Statistical_Areas_0</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>What is the 2010 Census of the Core-based statistical area that is home to more than 400 major corporate headquarter ?</t>
+          <t>What is the nationality of the driver that finished second at the 2001 Brazilian Grand Prix ?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9,461,105</t>
+          <t>German</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>: The 2010 Census population of the Core-Based Statistical Area (CBSA) that is home to more than 400 major corporate headquarters, specifically the Chicago-Naperville-Elgin, IL-IN-WI Metropolitan Statistical Area, is 9,461,105.</t>
+          <t>: German</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>List_of_Core_Based_Statistical_Areas_0</t>
+          <t>2001_Brazilian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1076,47 +1088,47 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Which of the athletes from the country whose capital is Rabat was sanctioned for using a medication which is derived from DHT ?</t>
+          <t>What were the core subjects of the university attended by Fred Felber at the time of its establishment ?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mouhcine Cheaouri</t>
+          <t>liberal arts</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>: There are no athletes from Morocco who have been sanctioned for using a medication derived from DHT. The sanctions for Moroccan athletes mentioned in the data are related to other substances or abnormalities, but not specifically DHT or its derivatives.</t>
+          <t>: liberal arts</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>List_of_doping_cases_in_athletics_2</t>
+          <t>List_of_Washington_Redskins_players_5</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>What is the population of the location that contains a tree on the list that is a registered natural monument of the country ?</t>
+          <t>Who is the director of the most recent film to feature one of Shende 's songs ?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>over one million people</t>
+          <t>Gautham</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>: The Jaya Sri Maha Bodhi, located in Anuradhapura, Sri Lanka, is a tree that could be considered a registered natural monument due to its cultural and religious significance and the protections it receives. The specific population of Anuradhapura is not available in the provided data. For the most accurate population data, please refer to official sources such as the latest census data or government statistics.</t>
+          <t>: Ilaiyaraja</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>List_of_oldest_trees_1</t>
+          <t>Bela_Shende_0</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1126,22 +1138,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Who is the director of the most recent film to feature one of Shende 's songs ?</t>
+          <t>What is the population of the location that contains a tree on the list that is a registered natural monument of the country ?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Gautham</t>
+          <t>over one million people</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>: The director of the most recent film to feature one of Shende's songs, "Neethaane En Ponvasantham," is Gautham Menon.</t>
+          <t>: 2,500,000</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Bela_Shende_0</t>
+          <t>List_of_oldest_trees_1</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1151,22 +1163,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>What historic place is located in a city where U.S . Highways 2 and 169 are two of the main roads ?</t>
+          <t>What year did the university attended by Kentwan Balmer first start ending the practice of racially segregating students ?</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Frank Gran Farmstead</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>: The historic place located in a city where U.S. Highways 2 and 169 are two of the main roads is the Frank Gran Farmstead in La Prairie, Minnesota.</t>
+          <t>: 1951</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>National_Register_of_Historic_Places_listings_in_Itasca_County_Minnesota_0</t>
+          <t>List_of_Washington_Redskins_players_1</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1176,22 +1188,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>What year did the university attended by Kentwan Balmer first start ending the practice of racially segregating students ?</t>
+          <t>What historic place is located in a city where U.S . Highways 2 and 169 are two of the main roads ?</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>Frank Gran Farmstead</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>: The University of North Carolina, which was attended by Kentwan Balmer, first started ending the practice of racially segregating students in 1951.</t>
+          <t>: Frank Gran Farmstead</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>List_of_Washington_Redskins_players_1</t>
+          <t>National_Register_of_Historic_Places_listings_in_Itasca_County_Minnesota_0</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1211,7 +1223,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>: The total capacity of the Horns Rev wind farm, which was built in three phases with the first phase coming online in 2002, the second in 2009, and the third in 2019, is 407 MW for the Horns Rev 3 phase. To provide the total capacity of all phases, additional information would be required. However, based on the available data, the capacity of the last phase (Horns Rev 3) is 407 MW.</t>
+          <t>: 588</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,22 +1238,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>What is the release date of the game that features a number of new features and improvements to its predecessor , including multiplayer options ?</t>
+          <t>How many Democrats were born in the month of June ?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2010-09-28</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>: **Halo 2** was released in 2004, featuring a number of new features and improvements over its predecessor, including multiplayer options. However, the exact release date is not specified in the provided data. For the precise release date, additional sources may need to be consulted.</t>
+          <t>: 0</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>List_of_Games_for_Windows_titles_4</t>
+          <t>129th_Ohio_General_Assembly_1</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1261,7 +1273,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>: The distribution that is in-progress and uses binary blobs is Fedora, which is primarily sponsored by Red Hat Inc.</t>
+          <t>: Free Software Foundation</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1270,28 +1282,28 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>How many Democrats were born in the month of June ?</t>
+          <t>What is the release date of the game that features a number of new features and improvements to its predecessor , including multiplayer options ?</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2010-09-28</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>: We do not have enough data to determine how many Democrats were born in the month of June. The provided information only includes the month of first election, not the birth months of the individuals.</t>
+          <t>: November 2004</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>129th_Ohio_General_Assembly_1</t>
+          <t>List_of_Games_for_Windows_titles_4</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1301,68 +1313,72 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>How many employees work for the company that is located in a country where there are ten provinces and three territories ?</t>
+          <t>What is the nickname of the driver who finished with a time of 1:23.271 in the qualifying round of the 1998 British Grand Prix ?</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>The Flying Finn</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>: The query cannot be fully answered with the current information. The company located in Canada is Pratt &amp; Whitney Canada, but the exact number of employees working for this company is not available from the provided data.</t>
+          <t>: The Flying Finn</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Turboprop_0</t>
+          <t>1998_British_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>The squash player that won the 2019 CIB Egyptian Tour had previously won the Under-15 British Junior Open Squash title the same year the Under-19 title winner was a player that would go on to win a gold medal in what games ?</t>
+          <t>How many boroughs does the 10th most populated metro area have ?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2019 Pan American Games</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>Seven</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>: 16</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>British_Junior_Open_Squash_1</t>
+          <t>Metropolitan_areas_of_Mexico_0</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>How many boroughs does the 10th most populated metro area have ?</t>
+          <t>How many employees work for the company that is located in a country where there are ten provinces and three territories ?</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Seven</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>: The 10th most populated metro area, Greater Querétaro, has 7 boroughs.</t>
+          <t>: 6,000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Metropolitan_areas_of_Mexico_0</t>
+          <t>Turboprop_0</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1372,43 +1388,43 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>What is the nickname of the driver who finished with a time of 1:23.271 in the qualifying round of the 1998 British Grand Prix ?</t>
+          <t>The squash player that won the 2019 CIB Egyptian Tour had previously won the Under-15 British Junior Open Squash title the same year the Under-19 title winner was a player that would go on to win a gold medal in what games ?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>The Flying Finn</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>: The nickname of the driver who finished with a time of 1:23.271 in the qualifying round of the 1998 British Grand Prix is "The Flying Finn". This refers to Mika Häkkinen, based on the provided information.</t>
-        </is>
-      </c>
+          <t>2019 Pan American Games</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1998_British_Grand_Prix_0</t>
+          <t>British_Junior_Open_Squash_1</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Along what river is the town that the route which was redesignated as Leeds and Grenville County Road 32 goes to located ?</t>
+          <t>What was the major education bill of the president who appointed Gale Norton ?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Saint Lawrence</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>No Child Left Behind Act</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>: The major education bill of the president who appointed Gale Norton (George W. Bush) was the No Child Left Behind Act.</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>List_of_highways_in_Ontario_1</t>
+          <t>List_of_female_United_States_Cabinet_Secretaries_0</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1418,47 +1434,47 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>What was the major education bill of the president who appointed Gale Norton ?</t>
+          <t>Along what river is the town that the route which was redesignated as Leeds and Grenville County Road 32 goes to located ?</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>No Child Left Behind Act</t>
+          <t>Saint Lawrence</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>: The major education bill of the president who appointed Gale Norton was the No Child Left Behind Act.</t>
+          <t>: Gananoque River</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>List_of_female_United_States_Cabinet_Secretaries_0</t>
+          <t>List_of_highways_in_Ontario_1</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>what country submitted a not nominated film that had a director who born 1944 ?</t>
+          <t>What people founded the place in Elmore ?</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>French</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>: France submitted a not-nominated film that had a director who was born in 1944, specifically Maurice Pialat.</t>
+          <t>: Franklin H. Elmore</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>List_of_submissions_to_the_64th_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
+          <t>List_of_National_Historic_Landmarks_in_Alabama_0</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1468,22 +1484,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Which player attended the school with athletic teams called Rainbow Warriors and Rainbow Wāhine ?</t>
+          <t>what country submitted a not nominated film that had a director who born 1944 ?</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Bill Blanchette</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>: There is no specific player from the University of Hawaiʻi at Mānoa listed in the 1991 College Baseball All-America Team based on the provided materials. Therefore, the query cannot be fully resolved with the given information. If you are seeking information about a player in another context or sport, please provide additional details.</t>
+          <t>: No country submitted a film meeting the criteria, as the provided table content does not include director birth years, and all listed directors were born before 1944 (e.g., Miloš Forman, 1932; Volker Schlöndorff, 1939). The query's assumption of a director born in 1944 is unsupported by the available data.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1991_College_Baseball_All-America_Team_0</t>
+          <t>List_of_submissions_to_the_64th_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1493,22 +1509,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>What people founded the place in Elmore ?</t>
+          <t>For whom was this neighborhood constructed in the 18th century located in the district whose name means old city in Catalan ?</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>French</t>
+          <t>the Ribera neighborhood</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>: The place in Elmore is called "Fort Toulouse Site-Fort Jackson," which was founded by French colonists. No specific names of the founders are available in the provided information.</t>
+          <t>: The residents of the Ribera neighborhood.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>List_of_National_Historic_Landmarks_in_Alabama_0</t>
+          <t>List_of_libraries_in_Barcelona_0</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1528,7 +1544,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>: The player recruited from the Sturt Football Club, nicknamed "The Double Blues," is Jack Trengove, and he weighs 88 kilograms.</t>
+          <t>: 0</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1537,28 +1553,28 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>For whom was this neighborhood constructed in the 18th century located in the district whose name means old city in Catalan ?</t>
+          <t>Which player attended the school with athletic teams called Rainbow Warriors and Rainbow Wāhine ?</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>the Ribera neighborhood</t>
+          <t>Bill Blanchette</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>: La Barceloneta, a neighborhood in the Ciutat Vella district of Barcelona, was constructed in the 18th century for the residents of the Ribera neighborhood who had been displaced due to the construction of the Ciutadella of Barcelona.</t>
+          <t>: The school with athletic teams called Rainbow Warriors and Rainbow Wāhine is the University of Hawaiʻi at Mānoa. However, based on the provided materials (which lack table content for player information), the specific player who attended this school cannot be identified. The reference materials only confirm the school's team names and do not list individual players.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>List_of_libraries_in_Barcelona_0</t>
+          <t>1991_College_Baseball_All-America_Team_0</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1568,22 +1584,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>What is the song title of the artist who is known for his participation in the Eurovision Song Contests of 1967 and 1969 ?</t>
+          <t>What is the state population rank of the Bay Area city which contains the Charles M. Schulz Museum and Research Center ?</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ik heb zorgen</t>
+          <t>28th</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>: The song titles performed by Louis Neefs, who is known for his participation in the Eurovision Song Contests of 1967 and 1969, are "Ik heb zorgen" in 1967 and "Jennifer Jennings" in 1969.</t>
+          <t>: 28th</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Eurosong_(Belgium)_4</t>
+          <t>List_of_museums_in_the_San_Francisco_Bay_Area_4</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1593,51 +1609,51 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>What is the state population rank of the Bay Area city which contains the Charles M. Schulz Museum and Research Center ?</t>
+          <t>What is the name of the route that goes via the location whose population was 9,449 at the 2010 census ?</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>28th</t>
+          <t>CR 202</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>: The state population rank of the Bay Area city, Santa Rosa, which contains the Charles M. Schulz Museum and Research Center, is 28th in California.</t>
+          <t>: The table content is missing, so it is impossible to determine the name of the route that goes via the location with a population of 9,449 at the 2010 census.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>List_of_museums_in_the_San_Francisco_Bay_Area_4</t>
+          <t>List_of_county_routes_in_Wayne_County,_New_York_1</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>What is the position of the driver that earned the CART Championship in 2002 ?</t>
+          <t>What is the song title of the artist who is known for his participation in the Eurovision Song Contests of 1967 and 1969 ?</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>Ik heb zorgen</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>: While the exact position of Cristiano Monteiro da Matta in a specific CART race during the 2002 season is not provided in the available data, it is known that he won the CART Championship in 2002. This achievement indicates that he had an outstanding performance throughout the season, leading to his championship title. If you are interested in his position in a particular race, additional race-specific data would be required to provide that information.</t>
+          <t>: The song titles performed by Louis Neefs in the Eurovision Song Contest are **"Ik heb zorgen"** (1967) and **"Jennifer Jennings"** (1969).</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2004_German_Grand_Prix_0</t>
+          <t>Eurosong_(Belgium)_4</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1653,7 +1669,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>: The month of birth of the player with the fourth most National Football League career rushing yards, Curtis Martin, is May.</t>
+          <t>: July</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1662,28 +1678,28 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>What is the name of the route that goes via the location whose population was 9,449 at the 2010 census ?</t>
+          <t>What is the position of the driver that earned the CART Championship in 2002 ?</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CR 202</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>: Based on the provided materials, there is no information about a location with a population of 9,449 according to the 2010 census. Therefore, it is not possible to determine the name of the route that goes via this location. Additional data or a corrected reference to the appropriate table would be needed to answer the question accurately.</t>
+          <t>: 1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>List_of_county_routes_in_Wayne_County,_New_York_1</t>
+          <t>2004_German_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1703,7 +1719,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>: The Acanthamoeba parasite, which can affect the human eye, brain, and skin and is often transmitted by thin lenses placed directly on the surface of the eye, does not have a fixed shape due to its nature as an amoeba. Amoebae are known for their ability to change form and typically appear as irregular, blob-like structures with pseudopodia (false feet) for movement and feeding. To obtain a more precise description of the shape, consulting additional scientific resources would be necessary.</t>
+          <t>: The shape of the parasite that can affect the human eye, brain, and skin and is often associated with contact lens use (transmitted via thin lenses placed on the eye surface) is spherical. This refers to the cyst form of *Acanthamoeba*, a protozoan parasite commonly linked to ocular infections.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1712,7 +1728,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1728,7 +1744,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>: The original host of "Who Wants to Be a Millionaire" in America was Regis Philbin. However, there is no evidence of an author with 19 names who wrote a parody of this gameshow.</t>
+          <t>: Regis Philbin</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1737,28 +1753,28 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Who is the older brother of the driver with a lap time of 1:33.297 ?</t>
+          <t>Where was the organization , who won the third staging of the championship , founded ?</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Michael Schumacher</t>
+          <t>Hayes ' Hotel</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>: There is no information available regarding Jean Alesi having an older brother. The provided data does not contain details about the personal relationships or family members of the drivers. If the user's query was based on a specific context or additional information, it would be necessary to provide that context to accurately answer the question. Based on the data we have, we cannot determine who the older brother of the driver with a lap time closest to 1:33.297 (Jean Alesi) is.</t>
+          <t>: The table content is missing, so the founding location of the organization that won the third staging of the championship cannot be determined.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2001_Japanese_Grand_Prix_0</t>
+          <t>All-Ireland_Senior_Football_Championship_records_and_statistics_0</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1768,22 +1784,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Where was the organization , who won the third staging of the championship , founded ?</t>
+          <t>How many times did the musicians with the song If You Do n't Know Me by Now make the top ten singles of the United Kingdom ?</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Hayes ' Hotel</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>: The organization that organizes the championship is the U.S. Chess Federation, but the founding location of the U.S. Chess Federation is not provided in the available materials. Additional information is required to fully answer the query.</t>
+          <t>: The table content required to answer the query is not available. Therefore, it is impossible to determine how many times the song "If You Do n't Know Me by Now" made the top ten singles in the United Kingdom.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>All-Ireland_Senior_Football_Championship_records_and_statistics_0</t>
+          <t>List_of_year-end_number-one_singles_(New_Zealand)_0</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1793,22 +1809,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>How many times did the musicians with the song If You Do n't Know Me by Now make the top ten singles of the United Kingdom ?</t>
+          <t>Who is the older brother of the driver with a lap time of 1:33.297 ?</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>Michael Schumacher</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>: Harold Melvin &amp; the Blue Notes did not make the top ten singles chart in the United Kingdom. This conclusion is based on the absence of any relevant data in the provided materials, which suggests they did not achieve a top ten position in the UK singles chart.</t>
+          <t>: The table content is missing, so it is impossible to determine the older brother of the driver with a lap time of 1:33.297. Please provide the table data for further assistance.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>List_of_year-end_number-one_singles_(New_Zealand)_0</t>
+          <t>2001_Japanese_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1828,7 +1844,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>: Based on the available information, Lake Shasta Caverns, the most recent landmark, does not appear to have had a former name. There is no documentation of a previous name for this landmark in the provided sources.</t>
+          <t>: The table content was not found, so it is impossible to determine the former name of the most recent landmark.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1853,7 +1869,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>: The mountaintop of Pedra da Mina in Brazil, which stands at 2,798 meters above sea level, is made up of highly alkaline nepheline syenite. This type of rock is known for being easily eroded and is not commonly found at such high altitudes, making Pedra da Mina a unique geological feature.</t>
+          <t>: nepheline syenite</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1862,7 +1878,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1878,7 +1894,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>: The age of the player born on 28 October 1973 is 50 years old.</t>
+          <t>: 36</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1893,51 +1909,47 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>To what team did the athlete go who was from the team that was founded on 30 November 1896 as a sports club ?</t>
+          <t>What is the higher engine make/capacity value of a vehicle made in the largest city in Japan 's Chūbu region ?</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Internazionale</t>
+          <t>354 cc</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>: The provided materials do not contain sufficient information to determine the team to which the athlete from VfR Mannheim transferred. Additional data or context would be required to answer this query accurately.</t>
+          <t>: 354 cc</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Goalkeeper_(association_football)_0</t>
+          <t>List_of_microcars_by_country_of_origin__J_0</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>What is the higher engine make/capacity value of a vehicle made in the largest city in Japan 's Chūbu region ?</t>
+          <t>To what team did the athlete go who was from the team that was founded on 30 November 1896 as a sports club ?</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>354 cc</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>: The higher engine make/capacity value of a vehicle made in the largest city in Japan's Chūbu region (Nagoya) is 354 cubic centimeters (cc).</t>
-        </is>
-      </c>
+          <t>Internazionale</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>List_of_microcars_by_country_of_origin__J_0</t>
+          <t>Goalkeeper_(association_football)_0</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1953,7 +1965,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>: No, there is no evidence that the 41 cm/45 3rd Year Type gun was salvaged in the 1970s. Therefore, the user's query cannot be fully answered based on the provided information. The 41 cm/45 3rd Year Type gun, with a caliber of 410 mm, was primarily used on Japanese battleships such as the Yamato and Musashi, but there is no record of it being salvaged in the 1970s.</t>
+          <t>: Mutsu</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1962,28 +1974,28 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>What is the Chinese title of the film whose director was born on 7 March 1926 ?</t>
+          <t>What was the order of the religious people who lived at the building that was part of the largest medieval hospital in Denmark which King Christian I turned into an Augustinian priory 1497 ?</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>梁山伯与祝英台</t>
+          <t>Order of the Holy Ghost</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>: There is no director identified who was born on 7 March 1926 in the provided information, and therefore the Chinese title of a film directed by this person cannot be determined.</t>
+          <t>: Carmelite friars</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>List_of_Hong_Kong_submissions_for_the_Academy_Award_for_Best_Foreign_Language_Film_0</t>
+          <t>List_of_Christian_religious_houses_in_Denmark_0</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -1993,22 +2005,22 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>What was the order of the religious people who lived at the building that was part of the largest medieval hospital in Denmark which King Christian I turned into an Augustinian priory 1497 ?</t>
+          <t>What is the Chinese title of the film whose director was born on 7 March 1926 ?</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Order of the Holy Ghost</t>
+          <t>梁山伯与祝英台</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>: The order of the religious people who lived at the building that was part of the largest medieval hospital in Denmark, which King Christian I turned into an Augustinian priory in 1497, was the Augustinian Canons.</t>
+          <t>: 瀛台泣血</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>List_of_Christian_religious_houses_in_Denmark_0</t>
+          <t>List_of_Hong_Kong_submissions_for_the_Academy_Award_for_Best_Foreign_Language_Film_0</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2018,22 +2030,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>The owner of Dufferin Communications is a radio broadcasting company that operates an AM station that is the only what in Manitoba ?</t>
+          <t>How many total championship points did the constructor win whose driver won the 2008 FIA GT Championship ?</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>multilingual radio station</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>: The owner of Dufferin Communications is Evanov Radio Group, which is a radio broadcasting company. However, CKPC 1380 AM, operated by Evanov Radio Group, is not located in Manitoba, and there is no evidence that Evanov Radio Group operates any AM stations in Manitoba. Therefore, the statement that the AM station is the only one of its kind in Manitoba cannot be confirmed based on the available information.</t>
+          <t>: The information is not available in the provided content. The materials confirm Gianmaria Bruni won the 2008 FIA GT Championship but do not specify the constructor he drove for or the associated championship points.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Media_in_Winnipeg_1</t>
+          <t>2004_Canadian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2043,22 +2055,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>What city contains the home stadium of the winner of the 1993 John Hancock Bowl ?</t>
+          <t>During the AFL 2013 draft , the 4th pick drafted by Western Bulldogs was born in what month ?</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Norman , Oklahoma</t>
+          <t>November</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>: Norman, Oklahoma</t>
+          <t>: November</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Bowl_Coalition_0</t>
+          <t>2013_AFL_Draft_1</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2068,97 +2080,101 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>How many total championship points did the constructor win whose driver won the 2008 FIA GT Championship ?</t>
+          <t>What highway passes by the airport in Canada that had 168,889 airplanes move in a year ?</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>Highway 2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>: Based on the available information, we can confirm that Gianmaria Bruni won the 2008 FIA GT Championship and, given his association with Ferrari, it is reasonable to infer that he was driving for a Ferrari team during this championship. However, the exact number of championship points won by Ferrari in the 2008 FIA GT Championship is not provided in the given materials. To obtain the precise number of points, additional sources would be necessary. Therefore, while we can conclude that Ferrari won the championship, the specific total championship points remain unknown from the provided data.</t>
+          <t>: Highway 2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2004_Canadian_Grand_Prix_0</t>
+          <t>List_of_the_busiest_airports_in_Canada_8</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>What highway passes by the airport in Canada that had 168,889 airplanes move in a year ?</t>
+          <t>What kind of dam is the tallest dam in Europe ?</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Highway 2</t>
+          <t>Gravity</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>: The highway that passes by the airport in Canada which had 168,889 airplanes move in a year is Highway 2.</t>
+          <t>: Concrete gravity</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Canada_8</t>
+          <t>List_of_tallest_dams_in_the_world_0</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>During the AFL 2013 draft , the 4th pick drafted by Western Bulldogs was born in what month ?</t>
+          <t>What city contains the home stadium of the winner of the 1993 John Hancock Bowl ?</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>Norman , Oklahoma</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>: Marcus Bontempelli, the 4th pick in the AFL 2013 draft by the Western Bulldogs, was born in the month of November.</t>
+          <t>: Norman</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2013_AFL_Draft_1</t>
+          <t>Bowl_Coalition_0</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>What kind of dam is the tallest dam in Europe ?</t>
+          <t>The owner of Dufferin Communications is a radio broadcasting company that operates an AM station that is the only what in Manitoba ?</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Gravity</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
+          <t>multilingual radio station</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>: AM station</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>List_of_tallest_dams_in_the_world_0</t>
+          <t>Media_in_Winnipeg_1</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2174,7 +2190,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>: The road that is the end of route CR 10A, which is US 9 / NY 9N, has a length of 1.75 kilometers.</t>
+          <t>: 1.75</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2189,22 +2205,22 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>What is the team for the racer who was brought in to replace fellow Italian Jarno Trulli ?</t>
+          <t>What year did the empire of Portugal establish the city of Santos Dumont Airport ?</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>1565</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>: Ralf Schumacher, who was brought in to replace Jarno Trulli, was part of the Toyota team.</t>
+          <t>: The question contains a factual error. Santos Dumont Airport is located in **Rio de Janeiro, Brazil**, not in Portugal, and was not established by Portugal. The airport is named after **Alberto Santos Dumont**, a **Brazilian** aviation pioneer (1873–1932), and opened in **1939**. Portugal, as a colonial power, had no role in establishing the airport, as Brazil gained independence from Portugal in 1822. The provided materials confirm the airport serves Rio de Janeiro, Brazil, and is operated by Brazil's Infraero.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2005_French_Grand_Prix_0</t>
+          <t>List_of_the_busiest_airports_in_Latin_America_0</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2214,26 +2230,26 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>What year did the empire of Portugal establish the city of Santos Dumont Airport ?</t>
+          <t>What is the team for the racer who was brought in to replace fellow Italian Jarno Trulli ?</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1565</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>: The city of Rio de Janeiro, where Santos Dumont Airport is located, was established in the year 1565 by the Portuguese Empire.</t>
+          <t>: Jordan</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Latin_America_0</t>
+          <t>2005_French_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2249,7 +2265,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>: The residents near the Lucerne shipwreck do not almost exclusively live on Long Island. The shipwreck is located off the northeastern shore of Long Island, but the residents in the nearby area do not predominantly reside on Long Island.</t>
+          <t>: The table content is missing, so the information required to answer the query about the island near the Lucerne shipwreck cannot be retrieved.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2264,47 +2280,51 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>What Constructor made the vehicle for the Driver who overall won 32 Formula One races , 22 pole positions and 1,899 points from 311 starts ?</t>
+          <t>At the 2010 census , what was the population of the town that is the end of route CR 7 ?</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>1,163</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>: The constructor that made the vehicle for the driver who overall won 32 Formula One races, 22 pole positions, and 1,899 points from 311 starts is Renault. This conclusion is based on the assumption that the driver in question is Fernando Alonso, who is known for his significant achievements in Formula One and has driven for Renault. However, the exact career statistics mentioned in the query were not directly confirmed in the provided materials. For a more precise answer, additional data or sources would be needed to verify Fernando Alonso's specific career achievements.</t>
+          <t>: 1,163</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2004_Chinese_Grand_Prix_1</t>
+          <t>List_of_highways_in_Essex_County,_New_York_1</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>What kind of figure was the namesake of the stadium that has the same capacity as the stadium opened in 1981 , but is located in the city known as `` the city under Marko 's Towers '' ?</t>
+          <t>What Constructor made the vehicle for the Driver who overall won 32 Formula One races , 22 pole positions and 1,899 points from 311 starts ?</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Revolutionary</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>: Ferrari</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>List_of_football_stadiums_in_the_Republic_of_Macedonia_0</t>
+          <t>2004_Chinese_Grand_Prix_1</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2318,7 +2338,11 @@
           <t>1999 Summer Universiade in Palma</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>: There are no teams that did not play in the top division last season, as the SQL query returned an empty result. Therefore, the question cannot be answered.</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>List_of_football_clubs_in_Spain_0</t>
@@ -2331,72 +2355,72 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>What is the total winning percentage for the driver who came in first place ?</t>
+          <t>What kind of figure was the namesake of the stadium that has the same capacity as the stadium opened in 1981 , but is located in the city known as `` the city under Marko 's Towers '' ?</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>46.15%</t>
+          <t>Revolutionary</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>: The total winning percentage for the driver who came in first place, Michael Schumacher, based on the 2001 races is **100%**.</t>
+          <t>: The namesake of the stadium is a **revolutionary**. The stadium in question is Goce Delčev Stadium, named after Goce Delčev, a Macedonian revolutionary and leader of the Internal Macedonian Revolutionary Organization (IMRO). The stadium is located in Prilep (the city known as "the city under Marko's Towers") and has a capacity of 15,000, matching the stadium opened in 1981 (Ecolog Arena).</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1950_Italian_Grand_Prix_0</t>
+          <t>List_of_football_stadiums_in_the_Republic_of_Macedonia_0</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>What is the capacity in MWs of the farm belonging to the company based in Edmonton ?</t>
+          <t>Which school is featured in the Netflix sport series that debuted on July 29 , 2016 ?</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>149.4</t>
+          <t>East Mississippi Community College</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>: The capacity of the wind farm owned by the company based in Edmonton, which is the McBride Lake wind farm, is 75 MW.</t>
+          <t>: East Mississippi Community College</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>List_of_wind_farms_in_Canada_1</t>
+          <t>List_of_original_programs_distributed_by_Netflix_9</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Which school is featured in the Netflix sport series that debuted on July 29 , 2016 ?</t>
+          <t>What is the total winning percentage for the driver who came in first place ?</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>East Mississippi Community College</t>
+          <t>46.15%</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>: There is no Netflix sports series that debuted on July 29, 2016, and therefore no associated school can be identified. If you have additional information or another query, please let me know!</t>
+          <t>: 5.0</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>List_of_original_programs_distributed_by_Netflix_9</t>
+          <t>1950_Italian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -2406,22 +2430,22 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>At the 2010 census , what was the population of the town that is the end of route CR 7 ?</t>
+          <t>What is the capacity in MWs of the farm belonging to the company based in Edmonton ?</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1,163</t>
+          <t>149.4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>: The population of Elizabethtown at the 2010 census was 1,163.</t>
+          <t>: 149.4</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>List_of_highways_in_Essex_County,_New_York_1</t>
+          <t>List_of_wind_farms_in_Canada_1</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2439,85 +2463,89 @@
           <t>9.98</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>: 0.24</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>List_of_Coventry_Blaze_players_0</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Which year did the person who completed the qualifying race of the Canadian Grand Prix of 1999 in 1:19.440 first get onto the podium ?</t>
+          <t>What is the city of birth of the number 4 draft pick of the 2001 XFL Draft ?</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>Louisville</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>: The provided dataset does not contain the necessary information to determine which year the person who completed the qualifying race of the Canadian Grand Prix of 1999 in 1:19.440 first got onto the podium. Additional data is required to answer this question.</t>
+          <t>: Louisville</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1999_Canadian_Grand_Prix_0</t>
+          <t>2001_XFL_Draft_0</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>What age did the driver who finished at position 6 at the 2005 European Grand Prix qualifier start go-karting ?</t>
+          <t>What is the completion year for the church who 's ruins are currently being researched by members of the Jamestown Rediscovery project ?</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>1647</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>: Fernando Alonso, who finished at position 6 in the 2005 European Grand Prix qualifier, started go-karting at the age of three.</t>
+          <t>: 1639</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2005_European_Grand_Prix_0</t>
+          <t>List_of_the_oldest_churches_in_the_United_States_0</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>What is the completion year for the church who 's ruins are currently being researched by members of the Jamestown Rediscovery project ?</t>
+          <t>Which year did the person who completed the qualifying race of the Canadian Grand Prix of 1999 in 1:19.440 first get onto the podium ?</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1647</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>: The completion year for Historic St. Luke's Church, which is inferred to be the church whose ruins are being researched, is subject to a dating controversy. According to local tradition, the church was completed in 1632, while other evidence suggests a later completion date of 1682. Therefore, the exact completion year cannot be determined conclusively without resolving this historical debate.</t>
+          <t>: The qualifying time of 1:19.440 for the 1999 Canadian Grand Prix does not appear in the provided data. The fastest qualifying time listed in the table is 1:21.000 (Alexander Wurz, Position 11). Since no driver matches the queried time, the question cannot be answered as the required data is not present in the provided materials.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>List_of_the_oldest_churches_in_the_United_States_0</t>
+          <t>1999_Canadian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -2527,22 +2555,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>What is the city of birth of the number 4 draft pick of the 2001 XFL Draft ?</t>
+          <t>What branch is the youngest chief of defence from ?</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Louisville</t>
+          <t>Army</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>: The city of birth of the number 4 draft pick of the 2001 XFL Draft, Jeff Brohm, is Louisville, Kentucky.</t>
+          <t>: Army</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2001_XFL_Draft_0</t>
+          <t>Chief_of_Defence_(Norway)_0</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -2552,97 +2580,97 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>For how long was the husband of the actress that made her film debut in Last Action Hero ranked world No . 1 ?</t>
+          <t>What age did the driver who finished at position 6 at the 2005 European Grand Prix qualifier start go-karting ?</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>286 weeks</t>
+          <t>three</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>: The husband of the actress that made her film debut in *Last Action Hero*, Pete Sampras, was ranked world No. 1 for a total of 286 weeks.</t>
+          <t>: The table content required to answer the query was not provided, so the age of the driver who finished at position 6 at the 2005 European Grand Prix qualifier and the year they started go-karting cannot be determined.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Miss_Teen_USA_1</t>
+          <t>2005_European_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Which publication designated the person who created the artwork King at Rest as renown in the northwestern region of the US ?</t>
+          <t>For how long was the husband of the actress that made her film debut in Last Action Hero ranked world No . 1 ?</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Willamette Week</t>
+          <t>286 weeks</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>: Based on the available information, there is no evidence to suggest that any publication has designated Lorenzo Ghiglieri as renowned specifically in the northwestern region of the United States. The information provided only confirms that Lorenzo Ghiglieri is the artist of the public art titled "King at Rest," which is located in Indianapolis, a city in the Midwestern region of the United States. Additional sources would be required to accurately answer the original query.</t>
+          <t>: 286 weeks</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>List_of_public_art_in_Indianapolis_8</t>
+          <t>Miss_Teen_USA_1</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>What branch is the youngest chief of defence from ?</t>
+          <t>What month was the driver with a gap of +3.926 born ?</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Army</t>
+          <t>July</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>: The youngest Chief of Defence, Sigurd Frisvold, belongs to the Army.</t>
+          <t>: The table content is missing, so it is impossible to determine the birth month of the driver with a gap of +3.926.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Chief_of_Defence_(Norway)_0</t>
+          <t>2001_Japanese_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>What is the national title of the film whose production country is a unitary parliamentary democracy and constitutional monarchy ?</t>
+          <t>Which publication designated the person who created the artwork King at Rest as renown in the northwestern region of the US ?</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Dogville</t>
+          <t>Willamette Week</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>: The national titles of the films produced in the United Kingdom, which is a unitary parliamentary democracy and constitutional monarchy, are "Dogville" and "Match Point".</t>
+          <t>: The table content was not provided, so the question cannot be answered.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Golden_Eagle_Award_for_Best_Foreign_Language_Film_0</t>
+          <t>List_of_public_art_in_Indianapolis_8</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -2652,26 +2680,26 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>What month was the driver with a gap of +3.926 born ?</t>
+          <t>What is the national title of the film whose production country is a unitary parliamentary democracy and constitutional monarchy ?</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>Dogville</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>: Fernando Alonso, the driver with a gap of +3.926, was born in the month of July.</t>
+          <t>: Dogville, Match Point</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2001_Japanese_Grand_Prix_0</t>
+          <t>Golden_Eagle_Award_for_Best_Foreign_Language_Film_0</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2685,68 +2713,64 @@
           <t>Bruce</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>: The provided data does not contain enough information to determine the trail that has a section in the town where Highway 21 starts. The town where Highway 21 begins is not explicitly mentioned, and no trails are listed in the area between Sarnia and London. Additional information would be required to answer this query accurately.</t>
-        </is>
-      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
           <t>List_of_highways_in_Ontario_0</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>In which league was the player to debut against the Reggae Boyz the highest scorer ?</t>
+          <t>Which person had the most laps led from a winning manufacturer that had two men start the company on November 3 , 1911 with a pole position guy that had a three time champion of the Nascar Gander RV &amp; Outdoors Truck Series ?</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>K League 1</t>
+          <t>James Buescher</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>: The player who debuted against the Reggae Boyz is Lee Dong-Gook. While Lee Dong-Gook is known to have played in the K League, the provided materials do not contain sufficient information to determine if he was the highest scorer in the K League. Therefore, we cannot conclusively answer the original query. Additional data on Lee Dong-Gook's scoring record in the K League would be required to provide a definitive answer.</t>
+          <t>: James Buescher</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>South_Korea_national_football_team_records_2</t>
+          <t>2012_NASCAR_Camping_World_Truck_Series_0</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Which person had the most laps led from a winning manufacturer that had two men start the company on November 3 , 1911 with a pole position guy that had a three time champion of the Nascar Gander RV &amp; Outdoors Truck Series ?</t>
+          <t>In which league was the player to debut against the Reggae Boyz the highest scorer ?</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>James Buescher</t>
+          <t>K League 1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>: Matt Crafton, a three-time champion of the NASCAR Gander RV &amp; Outdoors Truck Series, led the most laps in at least one race (UNOH 225) during the 2012 NASCAR Camping World Truck Series season for Chevrolet, the manufacturer that was started by two men on November 3, 1911. The exact total number of laps led by Matt Crafton in the 2012 season is not available from the provided data.</t>
+          <t>: K League 1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2012_NASCAR_Camping_World_Truck_Series_0</t>
+          <t>South_Korea_national_football_team_records_2</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2762,7 +2786,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>: The area of the small old center of London, which is also known as the City of London or the Square Mile, is 1.12 square miles (2.9 km²). This area retains boundaries that closely follow its medieval limits.</t>
+          <t>: City of London</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2771,28 +2795,28 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>On which date was this spacecraft decommissioned , which was built to explore the C-type asteroid composed of primitive carbonaceous material ?</t>
+          <t>In what month did the season conclude the year that Owen Turtenwald won the Grand Prix in Nice ?</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1 November 2018</t>
+          <t>August</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>: The spacecraft built to explore the C-type asteroid composed of primitive carbonaceous material is **OSIRIS-REx**. Unfortunately, the provided materials do not contain information about the decommissioning date of the OSIRIS-REx spacecraft. Therefore, I cannot provide the decommissioning date based on the available information.</t>
+          <t>: December</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>List_of_comets_visited_by_spacecraft_3</t>
+          <t>Owen_Turtenwald_0</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -2812,7 +2836,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>: The month of birth of the number 3 ranked competitor in the 1997 World Junior Figure Skating Championships, Elena Ivanova, is November.</t>
+          <t>: The birth month of the number 3 ranked competitor is not provided in the given materials.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2821,79 +2845,78 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>In what month did the season conclude the year that Owen Turtenwald won the Grand Prix in Nice ?</t>
+          <t>What is the rank of the 555 meter South Korean building in the world in terms of height ?</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>: Based on the available data, there is no record of Owen Turtenwald winning the Grand Prix in Nice. Therefore, we cannot determine the month in which the season concluded for the year he won the Grand Prix in Nice. If you have additional information or a different source, please provide it so we can assist you further.</t>
+          <t>: 5</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Owen_Turtenwald_0</t>
+          <t>List_of_tallest_buildings_in_South_Korea_0</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>What is the rank of the 555 meter South Korean building in the world in terms of height ?</t>
+          <t>On which date was this spacecraft decommissioned , which was built to explore the C-type asteroid composed of primitive carbonaceous material ?</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>1 November 2018</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>: The Lotte World Tower, which stands at 555 meters tall, is ranked 1st in South Korea and 5th in the world in terms of height. 
-Note: The global ranking might vary depending on the most recent data, but based on the provided information, the Lotte World Tower is ranked 5th globally.</t>
+          <t>: The spacecraft Hayabusa2 was decommissioned on December 20, 2020.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>List_of_tallest_buildings_in_South_Korea_0</t>
+          <t>List_of_comets_visited_by_spacecraft_3</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>When was the fastest driver for McLaren , Mercedes born ?</t>
+          <t>In what year was the lyricist of `` Jis dil mein basa tha pyaar tera '' born ?</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>28 September 1968</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>: The fastest driver for McLaren, Mika Häkkinen, was born in 1968, and the fastest driver for Mercedes, Lewis Hamilton, was born in 1985.</t>
+          <t>: The birth year of Indeevar is not provided in the given reference materials. The mention of "1965" in the SQL execution result refers to the year a song with lyricist "Indeevar" appeared in the *Binaca Geetmala* annual chart, not Indeevar's birth year. The provided content does not include information about Indeevar's birth year.</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1998_Luxembourg_Grand_Prix_0</t>
+          <t>Binaca_Geetmala_annual_list_1975_0</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -2903,22 +2926,22 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>In what year was the lyricist of `` Jis dil mein basa tha pyaar tera '' born ?</t>
+          <t>When was the fastest driver for McLaren , Mercedes born ?</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>28 September 1968</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>: The birth year of Indeevar, the lyricist of the song "Jis dil mein basa tha pyaar tera," could not be determined from the provided information. Additional sources or data are required to answer this part of the query.</t>
+          <t>: The fastest driver for McLaren was born in 1968 (Mika Häkkinen), and the fastest driver for Mercedes was born in 1985 (Lewis Hamilton).</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Binaca_Geetmala_annual_list_1975_0</t>
+          <t>1998_Luxembourg_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -2928,51 +2951,51 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>How many undergrad majors are in the university attended by Henry Ellard ?</t>
+          <t>What is the name of the racecourse whose country was first inhabited by modern humans during the Upper Palaeolithic period ?</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>Bibury Racecourse</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>: The university attended by Henry Ellard, Fresno State University, offers 60 undergraduate majors.</t>
+          <t>The country first inhabited by modern humans during the Upper Paleolithic is Ethiopia, but the provided table contains only British racecourses (e.g., in England/Wales), and no racecourse in Ethiopia is listed in the reference materials. Therefore, no such racecourse name exists in the given data.&lt;/Answer&gt;</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>List_of_Washington_Redskins_players_4</t>
+          <t>List_of_British_racecourses_2</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>What is the name of the racecourse whose country was first inhabited by modern humans during the Upper Palaeolithic period ?</t>
+          <t>How many undergrad majors are in the university attended by Henry Ellard ?</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Bibury Racecourse</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>: There are no racecourses listed as being located in Jordan or Ethiopia according to the available data. Therefore, the user's query cannot be resolved with the provided information. If the user is interested in British racecourses, they may need to refine their query or provide additional context.</t>
+          <t>: 60</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>List_of_British_racecourses_2</t>
+          <t>List_of_Washington_Redskins_players_4</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -2988,10 +3011,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>: The leagues whose cities form part of the Pearl River Delta megalopolis are:
-- **Guangdong Sunray Cave** in **Guangzhou**
-- **Shenzhen NEO Capital** in **Shenzhen**
-These clubs are part of the 2014 China League One and their cities, Guangzhou and Shenzhen, are both located within the Pearl River Delta region.</t>
+          <t>: The table content is missing, so it is impossible to determine which league's city forms part of the Pearl River Delta megalopolis.</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3006,22 +3026,22 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>For the latest member to serve , what were some of the things her party opposed ?</t>
+          <t>Where is this Publisher located whose Platform only has one entry on the list ?</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>the abolition of slavery</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>: The Popular Democratic Party (PPD), to which Marisara Pont Marchese belongs, has historically opposed efforts to change Puerto Rico's political status from its current Commonwealth status. Specifically, the PPD opposes the statehood movement advocated by the New Progressive Party (PNP) and the independence movement supported by the Puerto Rican Independence Party (PIP). While the provided materials do not detail specific policies or actions opposed by the PPD, their main opposition is centered around maintaining the existing political relationship between Puerto Rico and the United States.</t>
+          <t>: The table content is missing, so it is impossible to determine the location of the publisher whose platform has only one entry on the list.</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>List_of_Secretaries_of_State_of_Puerto_Rico_0</t>
+          <t>2006_in_video_gaming_1</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -3031,22 +3051,22 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>What is the name of the airport in the city that is the most populous urban area in Central America ?</t>
+          <t>Which concrete arch dam is located in the country home to the two global cities and economic centres of Zürich and Geneva ?</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>La Aurora International Airport</t>
+          <t>Mauvoisin Dam</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>: The name of the airport in the city that is the most populous urban area in Central America is La Aurora International Airport.</t>
+          <t>: Mauvoisin Dam</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Central_America_4</t>
+          <t>List_of_tallest_dams_in_the_world_0</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -3056,26 +3076,22 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Where is this Publisher located whose Platform only has one entry on the list ?</t>
+          <t>For the latest member to serve , what were some of the things her party opposed ?</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>the abolition of slavery</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>: The Publisher with only one entry associated with a specific Platform is located as follows:
-- **Microsoft Game Studios** is located in Redmond, Washington.
-- For **10tacle Studios**, **Peter Stock**, and **Namco Bandai Games**, their locations are not specified in the provided materials.
-- **EA Sports** is a division of Electronic Arts, and its development primarily occurs in Burnaby, British Columbia, and Maitland, Florida.
-Since the user's query asks for the location of the Publisher whose Platform only has one entry on the list, and considering the available information, **Microsoft Game Studios** is the Publisher with a known location that fits the criteria. Therefore, the answer to the user's query is that the Publisher is located in **Redmond, Washington**.</t>
+          <t>: The materials do not specify what the PPD (Partido Popular Democrático) opposed. However, the provided content describes the Prohibition Party (PRO), which opposed alcohol consumption (temperance) and abortion (anti-abortion stance). Since the materials lack specific information about the PPD's positions, the answer relies on the only party-related oppositions mentioned (PRO), though this does not directly address the PPD.</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2006_in_video_gaming_1</t>
+          <t>List_of_Secretaries_of_State_of_Puerto_Rico_0</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -3085,22 +3101,22 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Near what pass is the volcano that last erupted in the Holocene era ?</t>
+          <t>What is the name of the airport in the city that is the most populous urban area in Central America ?</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Santiam Pass</t>
+          <t>La Aurora International Airport</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>: The volcano that last erupted in the Holocene era, Blue Lake Crater, is located near Santiam Pass.</t>
+          <t>: La Aurora International Airport</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>List_of_Cascade_volcanoes_2</t>
+          <t>List_of_the_busiest_airports_in_Central_America_4</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -3110,26 +3126,26 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Which concrete arch dam is located in the country home to the two global cities and economic centres of Zürich and Geneva ?</t>
+          <t>Near what pass is the volcano that last erupted in the Holocene era ?</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Mauvoisin Dam</t>
+          <t>Santiam Pass</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>: The concrete arch dam located in the country home to the two global cities and economic centers of Zürich and Geneva, which is Switzerland, is the Mauvoisin Dam.</t>
+          <t>: The table content is missing, so it is impossible to determine the pass near the volcano that last erupted in the Holocene era.</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>List_of_tallest_dams_in_the_world_0</t>
+          <t>List_of_Cascade_volcanoes_2</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -3145,7 +3161,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>: The park located in the district of 131,452 people in 2013 is Namsan Park, which has an elevation of 262 meters (860 feet).</t>
+          <t>: The provided materials do not contain elevation data for any park. The SQL execution result (Content 2) references park areas (e.g., "16,734.60㎥"), but elevation is not mentioned in either Content 1 or Content 2. Therefore, the elevation of the park in Jung District cannot be determined from the given information.</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3170,7 +3186,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>: The provided materials do not contain sufficient information to determine the home city of the team of competitor number 8. Additional context or details are needed to answer this question accurately.</t>
+          <t>: The table content required to answer the query is missing. Please provide the table data to determine the home city of competitor number 8's team.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3195,7 +3211,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>: William Lane was the prisoner who escaped from Rio Piedras State Penitentiary in Puerto Rico.</t>
+          <t>: The provided table content does not contain any record of a prisoner escaping from Rio Piedras State Penitentiary in Puerto Rico. The SQL query executed against the available data returned no results, and the referenced materials (including the table content) do not list this specific escape event. While a real-life helicopter escape occurred at Rio Piedras State Penitentiary in Puerto Rico in 1974 (involving prisoners such as Luis "Chico" Rivera), this event is not documented in the provided materials. Therefore, the name of the prisoner cannot be determined from the given data.</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3204,7 +3220,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3220,7 +3236,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>: The seat represented by Sir Thomas Rempston, Nottinghamshire, was likely split into two in the year 1832, based on the historical context of the Great Reform Act which led to similar changes in other counties.</t>
+          <t>: The table content is unavailable, so it is impossible to determine the year when the seat represented by the son of John Rempston was split into two.</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3229,7 +3245,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -3245,7 +3261,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>: The last year of the athletic program at the post-secondary school attended by Junior Galette, which is Stillman College, was 2015.</t>
+          <t>: 2015</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3270,7 +3286,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>: The Brice House, a significant historical landmark in Annapolis, the county seat of Anne Arundel County, is one of three similar preserved 18th-century Georgian style brick houses. Unfortunately, the specific designer of the Brice House is not mentioned in the provided information.</t>
+          <t>: The provided materials do not specify who designed a house in Annapolis, the county seat of Anne Arundel County. While the Brice House, Hammond-Harwood House, and William Paca House are mentioned as preserved 18th-century Georgian-style brick houses in Annapolis, the architect's name is not provided in the given content. Therefore, the designer cannot be identified from the available information.</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3285,23 +3301,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Located in Indianapolis , how many Grands Prix did this season consisted of where the event type usually takes place in the summer or autumn ?</t>
+          <t>What city was the trainer of the 1967 American Horse of the Year born ?</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Twenty</t>
+          <t>Centreville</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>: There were 0 Grands Prix in the season located in Indianapolis, regardless of the event type or the time of the year they usually take place.
-This concludes the query as there is no need to further investigate the timing of the events since no events met the initial location criterion.</t>
+          <t>: The table content is missing, so it is impossible to determine the city where the trainer of the 1967 American Horse of the Year was born.</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Luis_Scott-Vargas_0</t>
+          <t>American_Horse_of_the_Year_1</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -3311,47 +3326,47 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>How many clinical departments are contained in the post-secondary school attended by Charles Mann ?</t>
+          <t>Located in Indianapolis , how many Grands Prix did this season consisted of where the event type usually takes place in the summer or autumn ?</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>Twenty</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>: The University of Nevada, which Charles Mann attended, contains 16 clinical departments.</t>
+          <t>: 3</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>List_of_Washington_Redskins_players_12</t>
+          <t>Luis_Scott-Vargas_0</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>What city was the trainer of the 1967 American Horse of the Year born ?</t>
+          <t>How many years is the claimed age of the city where 103+ were killed by a vehicle bomb on 27th of January ?</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Centreville</t>
+          <t>3,500</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>: The birthplace of Frank Y. Whiteley, Jr., the trainer of the 1967 American Horse of the Year Damascus, could not be determined from the provided information. Additional sources or data would be required to answer this part of the query.</t>
+          <t>Over 3,500 years&lt;/Answer&gt;</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>American_Horse_of_the_Year_1</t>
+          <t>List_of_mass_car_bombings_0</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -3361,26 +3376,26 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>How many years is the claimed age of the city where 103+ were killed by a vehicle bomb on 27th of January ?</t>
+          <t>How many clinical departments are contained in the post-secondary school attended by Charles Mann ?</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>3,500</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>: Based on the available information, there is no record of an incident where 103+ people were killed by a vehicle bomb on the 27th of January. Therefore, the city and its claimed age cannot be determined. If you have additional details or if the date, number of deaths, or type of attack might be different, please provide further information.</t>
+          <t>: 16</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>List_of_mass_car_bombings_0</t>
+          <t>List_of_Washington_Redskins_players_12</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -3396,7 +3411,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>: Olivier Panis drove in Formula One for ten seasons.</t>
+          <t>: 10</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3421,7 +3436,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>: The provided materials do not contain information about an artist born on 3 December 1948, and therefore, I cannot determine the single/pack associated with the artist.</t>
+          <t>: No matching entry found in the provided data.</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3436,18 +3451,22 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>What was the time of the only driver in history to win seven Formula One World Championships , five of which he won consecutively ?</t>
+          <t>Out of all top scorers , which one is the oldest ?</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1:31.075</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
+          <t>Per Kristoffersen</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>: Carmelo Anthony</t>
+        </is>
+      </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2000_Australian_Grand_Prix_0</t>
+          <t>List_of_Norwegian_football_league_champions_2</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -3457,22 +3476,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Out of all top scorers , which one is the oldest ?</t>
+          <t>What was the time of the only driver in history to win seven Formula One World Championships , five of which he won consecutively ?</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Per Kristoffersen</t>
+          <t>1:31.075</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>: The oldest top scorer is Odd Iversen (Rosenborg), as he is the only player with 30 goals in the provided data.</t>
+          <t>: The only driver in history to win seven Formula One World Championships, with five consecutive titles, is Michael Schumacher. His five consecutive championships were won from 2000 to 2004. The query's reference to "time" appears to be a typo or misstatement; the intended question likely sought the driver's name or the years of consecutive wins.</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>List_of_Norwegian_football_league_champions_2</t>
+          <t>2000_Australian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -3482,72 +3501,72 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>What temperature scale was invented in the city that was the capital of Sweden from 1273 to 1436 ?</t>
+          <t>The route that goes through Treadwell Road ends at a town with what 2010 population ?</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Celsius</t>
+          <t>2,411</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>: The Celsius temperature scale was invented in the city of Uppsala, which was the capital of Sweden from 1273 to 1436.</t>
+          <t>: The table content is missing, so the 2010 population cannot be determined.</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>List_of_former_national_capitals_6</t>
+          <t>List_of_county_routes_in_Delaware_County,_New_York_0</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>The route that goes through Treadwell Road ends at a town with what 2010 population ?</t>
+          <t>What temperature scale was invented in the city that was the capital of Sweden from 1273 to 1436 ?</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2,411</t>
+          <t>Celsius</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>: The route that goes through Treadwell Road ends at CR 14 in Franklin, and the 2010 population of Franklin, North Carolina, was 3,845.</t>
+          <t>: Celsius</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>List_of_county_routes_in_Delaware_County,_New_York_0</t>
+          <t>List_of_former_national_capitals_6</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>How many Formula One races has the person who finished the qualifying race of the Canadian Grand Prix of 1999 in 1:20.378 obtained a win in ?</t>
+          <t>What is the area in km squared of the country that has members of the Baka ethnic group ?</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>79,343</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>: There is no driver who finished the qualifying race of the 1999 Canadian Grand Prix with a time of 1:20.378 in the provided data. Therefore, the question cannot be answered as stated. If there is a different time or additional data, please provide it for further assistance.</t>
+          <t>: The area in square kilometers is not provided in the given materials. The reference materials mention "Western Equatoria in South Sudan" as the region associated with the Baka ethnic group, but they do not include the area (km²) of South Sudan or any specific country. Therefore, the requested information cannot be determined from the available data.</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1999_Canadian_Grand_Prix_0</t>
+          <t>Ethnic_groups_in_Africa_4</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -3557,122 +3576,122 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>What is the seating capacity of the stadium that is built on the site of the former Lansdowne Road Stadium ?</t>
+          <t>What is the name of the bridge whose county 's population was 281,674 in 2010 ?</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>51,700</t>
+          <t>Androscoggin Swinging Bridge</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>: The seating capacity of the Aviva Stadium, which was built on the site of the former Lansdowne Road Stadium, is 51,700.</t>
+          <t>The county with a population of 281,674 in 2010 could not be identified in the provided table, so the corresponding bridge name cannot be determined.&lt;/Answer&gt;</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>List_of_association_football_stadiums_in_the_Republic_of_Ireland_0</t>
+          <t>List_of_bridges_on_the_National_Register_of_Historic_Places_in_Maine_0</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>What is the name of the bridge whose county 's population was 281,674 in 2010 ?</t>
+          <t>How many Formula One races has the person who finished the qualifying race of the Canadian Grand Prix of 1999 in 1:20.378 obtained a win in ?</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Androscoggin Swinging Bridge</t>
+          <t>three</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>: There is no bridge listed in the database for Montgomery County. If you are referring to a different Montgomery County or have additional information, please provide more details.</t>
+          <t>: 3</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>List_of_bridges_on_the_National_Register_of_Historic_Places_in_Maine_0</t>
+          <t>1999_Canadian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>What division was the man in the Air Force in 1943 assigned to shortly before the US joined WWII ?</t>
+          <t>What is the seating capacity of the stadium that is built on the site of the former Lansdowne Road Stadium ?</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Air War Plans</t>
+          <t>51,700</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>: The provided table and content do not contain specific information about men serving in the Air Force in 1943. To answer the question about the division a man was assigned to shortly before the US joined WWII, you may need to consult other historical records or databases that cover the Air Force during this period.</t>
+          <t>: 51,700</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>List_of_Medal_of_Honor_recipients_for_World_War_II_19</t>
+          <t>List_of_association_football_stadiums_in_the_Republic_of_Ireland_0</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>In 1998 the Champion team was a part of what division ?</t>
+          <t>What division was the man in the Air Force in 1943 assigned to shortly before the US joined WWII ?</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Atlantic Coast Conference of NCAA Division I soccer</t>
+          <t>Air War Plans</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>: In 1998, the Champion team, Clemson, was a part of the Atlantic Coast Conference (ACC) division.</t>
+          <t>: The query contains a historical inconsistency: the United States entered World War II on December 7, 1941, following the attack on Pearl Harbor. Therefore, "shortly before the US joined WWII" refers to late 1941, not 1943. Additionally, the table content required to answer this question was not provided, making it impossible to determine the specific division. The question likely contains a year error (1943 instead of 1941), and without the table or historical data, the division cannot be identified.</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ACC_Men's_Soccer_Tournament_0</t>
+          <t>List_of_Medal_of_Honor_recipients_for_World_War_II_19</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>What is the capacity of the stadium that was completed in March 1999 at a cost of A $ 690 million ?</t>
+          <t>In 1998 the Champion team was a part of what division ?</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>83,500</t>
+          <t>Atlantic Coast Conference of NCAA Division I soccer</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>: The capacity of Stadium Australia, which was completed in March 1999 at a cost of A $ 690 million, is 110,000 spectators.</t>
+          <t>: ACC</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>List_of_Oceanian_stadiums_by_capacity_0</t>
+          <t>ACC_Men's_Soccer_Tournament_0</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -3682,23 +3701,22 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>What is the area in km squared of the country that has members of the Baka ethnic group ?</t>
+          <t>What is the capacity of the stadium that was completed in March 1999 at a cost of A $ 690 million ?</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>79,343</t>
+          <t>83,500</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>: The area of South Sudan, the country that has members of the Baka ethnic group, is approximately 644,329 square kilometers. 
-This value is based on general knowledge, as the specific area was not provided in the given materials.</t>
+          <t>: 110,000</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Ethnic_groups_in_Africa_4</t>
+          <t>List_of_Oceanian_stadiums_by_capacity_0</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -3708,47 +3726,47 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>What is the venue of the event whose host gained worldwide attention when his single `` When You Say Nothing at All '' was featured in the film Notting Hill ?</t>
+          <t>When did the politician beaten by the current Minister of Mines and Energy resign as president of his party ?</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Rotterdam Ahoy</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>: The venue of the event whose host gained worldwide attention when his single "When You Say Nothing at All" was featured in the film Notting Hill is Rotterdam Ahoy.</t>
+          <t>: The table content is missing, so the information required to determine when the politician resigned as president of his party cannot be retrieved.</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>MTV_Europe_Music_Awards_0</t>
+          <t>Brazilian_gubernatorial_elections,_2010_0</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Which September 9 , 2000 main event person is youngest ?</t>
+          <t>What city hosted the World Championship in the season that Shouta Yasooka ranked 5th twice ?</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Justice Pain</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>: The youngest main event person on September 9, 2000, is Justice Pain (Christopher Wilson).</t>
+          <t>: Chiba</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>CZW_Cage_of_Death_0</t>
+          <t>Shouta_Yasooka_0</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -3758,47 +3776,47 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>What is the scheduling number of the site where the remains of a Romano-Celtic Temple can be found ?</t>
+          <t>Which September 9 , 2000 main event person is youngest ?</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1008211</t>
+          <t>Justice Pain</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>: The scheduling number of the site where the remains of a Romano-Celtic Temple can be found, which is Brean Down, is 1008211.</t>
+          <t>: The age information for the participants in the September 9, 2000 main event is not provided in the available materials.</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>List_of_National_Trust_properties_in_Somerset_0</t>
+          <t>CZW_Cage_of_Death_0</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>What is the nationality of the position 1 finisher of the 2000 San Marino Grand Prix ?</t>
+          <t>What is the venue of the event whose host gained worldwide attention when his single `` When You Say Nothing at All '' was featured in the film Notting Hill ?</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Finnish</t>
+          <t>Rotterdam Ahoy</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>: The nationality of the position 1 finisher of the 2000 San Marino Grand Prix is Finnish.</t>
+          <t>: Rotterdam Ahoy</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2000_San_Marino_Grand_Prix_0</t>
+          <t>MTV_Europe_Music_Awards_0</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -3808,47 +3826,47 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>What album was released in 1967 by American sunshine pop band of the 1960s that was a part of a label headquartered in Los Angeles , California ?</t>
+          <t>What is the birthday of Ford 's oldest winning driver ?</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Feelin ' Groovy</t>
+          <t>October 28 , 1944</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>: The album "Feelin' Groovy" was released in 1967 by the American sunshine pop band Harpers Bizarre, who were part of a label headquartered in Los Angeles, California.</t>
+          <t>: The birthday of Ford's oldest winning driver cannot be determined from the provided information, as the birthdates of the relevant drivers (Joe Ruttman, Butch Miller, Mike Bliss) are not included in the available data.</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Dick_Hyde_(musician)_0</t>
+          <t>1995_NASCAR_SuperTruck_Series_presented_by_Craftsman_0</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Which conflict caused the second place team of Campeonato Paulista in 1908 to not mention its German roots ?</t>
+          <t>What is the scheduling number of the site where the remains of a Romano-Celtic Temple can be found ?</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>World War II</t>
+          <t>1008211</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>: The provided materials do not contain explicit information about the second-place team in the 1908 Campeonato Paulista or any conflict that led to the team not mentioning its German roots. Based on historical context, it is possible that the team "Germânia" (later known as Sociedade Esportiva Palmeiras) could have been the runner-up, but there is no evidence of a conflict that led to the team not acknowledging its German heritage. If you have additional information or sources, please provide them for a more definitive answer.</t>
+          <t>: No scheduling number is available for a site with Romano-Celtic Temple remains in the provided data. The SQL query and content review confirmed no such site exists in the given materials.</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Campeonato_Paulista_1</t>
+          <t>List_of_National_Trust_properties_in_Somerset_0</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -3858,47 +3876,47 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>What is the birthday of Ford 's oldest winning driver ?</t>
+          <t>What is the nationality of the position 1 finisher of the 2000 San Marino Grand Prix ?</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>October 28 , 1944</t>
+          <t>Finnish</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>: Butch Miller's birthday is June 5, 1952.</t>
+          <t>: Finnish</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1995_NASCAR_SuperTruck_Series_presented_by_Craftsman_0</t>
+          <t>2000_San_Marino_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Which team did the driver that finished fastest in the qualifying round of the 2005 British Grand Prix make his Formula One debut with ?</t>
+          <t>What album was released in 1967 by American sunshine pop band of the 1960s that was a part of a label headquartered in Los Angeles , California ?</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Minardi</t>
+          <t>Feelin ' Groovy</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>: Fernando Alonso, who finished fastest in the qualifying round of the 2005 British Grand Prix, made his Formula One debut with Minardi.</t>
+          <t>: Smile</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2005_British_Grand_Prix_0</t>
+          <t>Dick_Hyde_(musician)_0</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -3908,22 +3926,22 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Which city is located nearby this elaborate tomb in this country bordered by Romania to the north ?</t>
+          <t>Which conflict caused the second place team of Campeonato Paulista in 1908 to not mention its German roots ?</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Kazanlak , Bulgaria</t>
+          <t>World War II</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>: Based on the available information, there is no specific city in Ukraine mentioned as being located near an elaborate tomb. However, historically significant tombs such as Scythian kurgans are found in various parts of Ukraine, particularly in the Dnieper region and the Crimean Peninsula. Notable cities near these sites include Kyiv (Kiev) and Simferopol. For a more precise answer, additional historical or archaeological sources would be needed.</t>
+          <t>: World War I</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>List_of_the_oldest_buildings_in_the_world_2</t>
+          <t>Campeonato_Paulista_1</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -3933,72 +3951,72 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>What film was directed by the director born on 28 November 1933 ?</t>
+          <t>Which team did the driver that finished fastest in the qualifying round of the 2005 British Grand Prix make his Formula One debut with ?</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>The Upthrown Stone</t>
+          <t>Minardi</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>: There is no director listed in the provided data who was born on 28 November 1933, and therefore, no film can be identified as being directed by such a director. If you have additional information or another source, please provide it so I can assist further.</t>
+          <t>: Minardi</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>List_of_submissions_to_the_42nd_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
+          <t>2005_British_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>The team that plays in the arena with the sixteenth-highest seating capacity were originally known by what name ?</t>
+          <t>Which city is located nearby this elaborate tomb in this country bordered by Romania to the north ?</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Minnesota North Stars</t>
+          <t>Kazanlak , Bulgaria</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>: The team that plays in the American Airlines Center, which has the sixteenth-highest seating capacity, was originally known as the Minnesota North Stars before relocating to Dallas and becoming the Dallas Stars.</t>
+          <t>: The information about a city located near an elaborate tomb in Ukraine is not available in the provided materials. The table content does not contain relevant data, and the textual references do not mention any specific tomb or associated city in Ukraine.</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>List_of_ice_hockey_arenas_by_capacity_0</t>
+          <t>List_of_the_oldest_buildings_in_the_world_2</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>What the original name of the team that won the FAI Cup in the 1925 - 26 season when they were founded ?</t>
+          <t>What film was directed by the director born on 28 November 1933 ?</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Fords F.C</t>
+          <t>The Upthrown Stone</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>: The team that won the FAI Cup in the 1925-26 season was Fordsons. However, based on the available information, we do not have the original name of the team Fordsons when they were founded. To provide a complete answer, additional historical research is necessary.</t>
+          <t>: The Aviator</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>FAI_Cup_0</t>
+          <t>List_of_submissions_to_the_42nd_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -4008,72 +4026,72 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>How many trees are approximately growing in the city which contains City Road Cemetery ?</t>
+          <t>The team that plays in the arena with the sixteenth-highest seating capacity were originally known by what name ?</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>4.5 million</t>
+          <t>Minnesota North Stars</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>: The approximate number of trees growing in Sheffield is around 4.5 million.</t>
+          <t>: Detroit</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>List_of_cemeteries_in_England_0</t>
+          <t>List_of_ice_hockey_arenas_by_capacity_0</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>The home stadium of the New York Jets is located how many miles west of New York City ?</t>
+          <t>What the original name of the team that won the FAI Cup in the 1925 - 26 season when they were founded ?</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>Fords F.C</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>: The home stadium of the New York Jets, MetLife Stadium, is located approximately 8 miles west of New York City.</t>
+          <t>: Fordsons</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>List_of_National_Football_League_attendance_figures_1</t>
+          <t>FAI_Cup_0</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Which university is the 1989 Most Outstanding Player of the America East Conference Men 's Basketball Tournament head basketball coach ?</t>
+          <t>How many trees are approximately growing in the city which contains City Road Cemetery ?</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>New Jersey City University</t>
+          <t>4.5 million</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>: Marc Brown, the Most Outstanding Player of the America East Conference Men's Basketball Tournament in 1989, is currently the head basketball coach at New Jersey City University.</t>
+          <t>: Approximately 4.5 million trees.</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>America_East_Men's_Basketball_Tournament_0</t>
+          <t>List_of_cemeteries_in_England_0</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -4083,73 +4101,72 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Who is the oldest Minardi , Ford driver ?</t>
+          <t>Which university is the 1989 Most Outstanding Player of the America East Conference Men 's Basketball Tournament head basketball coach ?</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Luca Badoer</t>
+          <t>New Jersey City University</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>: Based on the available data, Luca Badoer is considered the oldest between Luca Badoer and Marc Gené. However, this conclusion is based on lap time data rather than their actual birth dates. To provide a definitive answer, we would need the birth dates of the drivers. Given the current information, **Luca Badoer** is the oldest Minardi and Ford driver.</t>
+          <t>: Siena College</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1999_European_Grand_Prix_0</t>
+          <t>America_East_Men's_Basketball_Tournament_0</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>What is the full name of the oldest suspended athlete that violated rules in 2010 or later ?</t>
+          <t>The home stadium of the New York Jets is located how many miles west of New York City ?</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Ahmed Ibrahim Baday</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>: The full name of the oldest athlete among those suspended for violating rules in 2010 or later is **Živilė Balčiūnaitė**. 
-However, it's important to note that the exact age of Živilė Balčiūnaitė is not provided in the available data. Therefore, while she is the only athlete listed who meets the criteria, the determination of her being the oldest is based on the limited information available. If more detailed age information were provided, it could potentially change the conclusion.</t>
+          <t>: The home stadium of the New York Jets, MetLife Stadium, is located 8 miles west of New York City.</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>List_of_doping_cases_in_athletics_1</t>
+          <t>List_of_National_Football_League_attendance_figures_1</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>How many years did the person who finished the qualifying round of the French Grand Prix of 1952 in 2:21.6 drive in Formula One ?</t>
+          <t>Who is the oldest Minardi , Ford driver ?</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>fourteen</t>
+          <t>Luca Badoer</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>: Maurice Trintignant drove in Formula One for 14 years.</t>
+          <t>: Luca Badoer</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1952_French_Grand_Prix_0</t>
+          <t>1999_European_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -4159,22 +4176,22 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Which bridge spans the river that is the lower 12 miles ( 19 km ) of Washington state 's Green River ?</t>
+          <t>What is the full name of the oldest suspended athlete that violated rules in 2010 or later ?</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>First Avenue South Bridge</t>
+          <t>Ahmed Ibrahim Baday</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>: The lower 12 miles (19 km) of the Green River in Washington state is known as the Duwamish River. There is no single bridge that spans the entire 12 miles (19 km) of the Duwamish River. Instead, there are multiple smaller bridges along this stretch. If you need more specific information about these bridges, please let me know!</t>
+          <t>: The table content required to answer the query is missing. Please provide the table data for further assistance.</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>List_of_Seattle_bridges_0</t>
+          <t>List_of_doping_cases_in_athletics_1</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -4184,47 +4201,47 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>There 's a good chance Santiago J. Erevia is a graduate of what ?</t>
+          <t>How many years did the person who finished the qualifying round of the French Grand Prix of 1952 in 2:21.6 drive in Formula One ?</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>US Army Air Assault School</t>
+          <t>fourteen</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>: Based on the available information in the table, there is no specific mention of Santiago J. Erevia's educational background. Therefore, we cannot determine from where he might be a graduate. Additional sources would be required to answer this question accurately.</t>
+          <t>: 14</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>List_of_Hispanic_Medal_of_Honor_recipients_3</t>
+          <t>1952_French_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>What city hosted the World Championship in the season that Shouta Yasooka ranked 5th twice ?</t>
+          <t>Which bridge spans the river that is the lower 12 miles ( 19 km ) of Washington state 's Green River ?</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>First Avenue South Bridge</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>: Unfortunately, the provided data does not include information about the cities that hosted the World Championship in the 2010 and 2011 seasons. Additional data or sources would be required to answer your question accurately.</t>
+          <t>: No bridge in the provided data spans the lower 12 miles (19 km) of Washington state's Green River. The available table (List_of_Seattle_bridges_0.xlsx) lists bridges over waterways such as the Duwamish River, Lake Washington, and Lake Union, but does not reference any bridges over the Green River. SQL query results confirm the absence of such a bridge in the dataset.</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Shouta_Yasooka_0</t>
+          <t>List_of_Seattle_bridges_0</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -4234,23 +4251,22 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>How many games did the World Basketball Association team win during their only season of existence ?</t>
+          <t>There 's a good chance Santiago J. Erevia is a graduate of what ?</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>US Army Air Assault School</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>: The World Basketball Association teams won a total of 2 games during the 2004-2005 and 2006 seasons. 
-If the user intended to ask about a specific team within the WBA or a particular season, please provide additional details. Otherwise, based on the available information, this is the comprehensive answer to the query.</t>
+          <t>: The table content is missing, so it is not possible to determine Santiago J. Erevia's graduation institution.</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>List_of_professional_sports_teams_in_Alabama_0</t>
+          <t>List_of_Hispanic_Medal_of_Honor_recipients_3</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -4270,7 +4286,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>: The fans of the football club with 2016 revenue less than 169.3 but more than 164.8, which is Everton, are called Evertonians or Blues.</t>
+          <t>: Evertonians or Blues</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4285,47 +4301,47 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Where is the channel that broadcasts multiple languages located ?</t>
+          <t>How many games did the World Basketball Association team win during their only season of existence ?</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Winnipeg , Manitoba</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>: The channel that broadcasts in multiple languages, specifically APTN East, APTN West, and APTN HD, is located in Winnipeg, Manitoba.</t>
+          <t>: 1</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>List_of_television_stations_in_Canada_2</t>
+          <t>List_of_professional_sports_teams_in_Alabama_0</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>How many times was the player nicknamed The Georgia Peach runner-up ?</t>
+          <t>Where is the channel that broadcasts multiple languages located ?</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>Winnipeg , Manitoba</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>: Ty Cobb, nicknamed "The Georgia Peach," was runner-up 4 times.</t>
+          <t>: Winnipeg, Manitoba</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>List_of_Major_League_Baseball_home_run_champions_0</t>
+          <t>List_of_television_stations_in_Canada_2</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -4335,22 +4351,22 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Which former Most Outstanding Player was a first round draft selection of the Portland Trailblazers in 1978 ?</t>
+          <t>How many times was the player nicknamed The Georgia Peach runner-up ?</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ron Brewer</t>
+          <t>four</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>: The provided materials do not contain the necessary information to determine which former Most Outstanding Player was a first-round draft selection of the Portland Trail Blazers in 1978. Additional information or a different data source that includes the 1978 NBA draft selections for the Portland Trail Blazers is required to answer this question.</t>
+          <t>: 0</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>List_of_Southwestern_Athletic_Conference_Men's_Basketball_Tournament_Finals_broadcasters_0</t>
+          <t>List_of_Major_League_Baseball_home_run_champions_0</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -4360,22 +4376,26 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>What location was the twelfth season of the Magic 's event take place that was the main event of a minimum three-day mini-convention ?</t>
+          <t>Which former Most Outstanding Player was a first round draft selection of the Portland Trailblazers in 1978 ?</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>San Francisco</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr"/>
+          <t>Ron Brewer</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>: There is no former Most Outstanding Player (NBA MVP) who was a first-round draft selection of the Portland Trailblazers in 1978. The Trailblazers selected Jim Paxson in the first round (12th overall) of the 1978 NBA Draft, but he did not win the NBA MVP award during his career.</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Paulo_Vitor_Damo_da_Rosa_0</t>
+          <t>List_of_Southwestern_Athletic_Conference_Men's_Basketball_Tournament_Finals_broadcasters_0</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -4391,7 +4411,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>: There are no county routes listed in the provided dataset that explicitly cross the eastern part of New York. The dataset contains information on state routes, but not on county routes for this area. If you are interested in the lengths of state routes that cross the eastern part of New York, please specify, and I can provide that information instead.</t>
+          <t>: The table content required to answer the query was not found, so the length of the county route crossing the eastern part of New York State cannot be determined from the provided materials.</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4406,22 +4426,22 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>What is the area of the Seoul park located in the same district that is home to Konkuk University and Sejong Universityr ?</t>
+          <t>What location was the twelfth season of the Magic 's event take place that was the main event of a minimum three-day mini-convention ?</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>23,450㎡</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>: The total area of the Seoul parks located in Gwangjin District, which is home to both Konkuk University and Sejong University, is **616,486 square meters (㎡)**. This includes the areas of Achasan Ecological Park (23,450㎡) and Children's Grand Park (593,036㎡).</t>
+          <t>: The table content required to answer the query was not found, so the location of the twelfth season of the Magic's event cannot be determined.</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>List_of_parks_in_Seoul_0</t>
+          <t>Paulo_Vitor_Damo_da_Rosa_0</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -4431,22 +4451,22 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Which 1964 player is the oldest ?</t>
+          <t>What is the area of the Seoul park located in the same district that is home to Konkuk University and Sejong Universityr ?</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Syl Apps</t>
+          <t>23,450㎡</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>: The provided materials do not contain the birth years or ages of the players drafted in 1964, so it is not possible to determine which player is the oldest based on the available information. Additional sources would be required to answer this question accurately.</t>
+          <t>: The area of the parks located in Gwangjin-gu (the district home to Konkuk University and Sejong University) is 23,450㎡ for Achasan Echological Park and 593,036㎡ for Children's Grand Park.</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>List_of_New_York_Rangers_draft_picks_0</t>
+          <t>List_of_parks_in_Seoul_0</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -4466,7 +4486,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>: The establishment year of the university attended by Willie Adams, which is New Mexico State University, is 1904.</t>
+          <t>: The establishment year of the university attended by Willie Adams (New Mexico State University) is 1888.</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4475,28 +4495,28 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>What color is the mascot of the club who 's player is younger brother of former Collingwood and Fremantle player , Chris Tarrant ?</t>
+          <t>Which 1964 player is the oldest ?</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>Syl Apps</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>: There is no information available to determine the color of the mascot of the club whose player is the younger brother of Chris Tarrant, as there is no record of Chris Tarrant having a younger brother who played for Collingwood and Fremantle. If you have additional details or sources, please provide them so I can assist you further.</t>
+          <t>: The table content is missing, so it is impossible to determine which 1964 player is the oldest.</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2007_AFL_Draft_3</t>
+          <t>List_of_New_York_Rangers_draft_picks_0</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -4506,47 +4526,47 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>How many Formula One events did the person who finished the qualifying round of the San Marino Grand Prix of 1984 right behind Manfred Winkelhock compete in ?</t>
+          <t>What color is the mascot of the club who 's player is younger brother of former Collingwood and Fremantle player , Chris Tarrant ?</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>: Eddie Cheever, who finished the qualifying round of the San Marino Grand Prix of 1984 right behind Manfred Winkelhock, competed in 143 Formula One events throughout his career.</t>
+          <t>: grey</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1984_San_Marino_Grand_Prix_0</t>
+          <t>2007_AFL_Draft_3</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>How many seasons included the opponent that plays its home games at Madison Square Garden in the borough of Manhattan ?</t>
+          <t>Who is the brother of the winning driver of the pole position who drives the No . 14 Ford Mustang ?</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>Kurt Busch</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>: The New York Rangers, the team that plays its home games at Madison Square Garden in the borough of Manhattan, appear as an opponent in 13 seasons when considering all the provided data tables. If the scope is limited to the `list_of_nhl_playoff_series_26` table alone, the New York Rangers appear as an opponent in 1 season.</t>
+          <t>: The table content required to answer the query is missing, so it is impossible to determine who is the brother of the winning driver of the pole position who drives the No. 14 Ford Mustang.</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>List_of_NHL_playoff_series_26</t>
+          <t>2011_NASCAR_Camping_World_Truck_Series_0</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -4556,22 +4576,22 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Who is the brother of the winning driver of the pole position who drives the No . 14 Ford Mustang ?</t>
+          <t>How many Formula One events did the person who finished the qualifying round of the San Marino Grand Prix of 1984 right behind Manfred Winkelhock compete in ?</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Kurt Busch</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>: The brother of the winning driver of the pole position who drives the No. 14 Ford Mustang is Kurt Bowyer. Note that this answer is based on the assumption that the winning driver of the pole position driving the No. 14 Ford Mustang refers to Clint Bowyer, and the information about his brother comes from general knowledge outside the provided materials.</t>
+          <t>: 100</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2011_NASCAR_Camping_World_Truck_Series_0</t>
+          <t>1984_San_Marino_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -4591,7 +4611,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>: There are 2 players that were born in 1990, were acquired in 2012, and were defencemen (D).</t>
+          <t>: 2</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4606,47 +4626,47 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>What racist policy did the 1881 Major League Baseball batting champion support ?</t>
+          <t>How many seasons included the opponent that plays its home games at Madison Square Garden in the borough of Manhattan ?</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>segregation</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>: Cap Anson, the 1881 Major League Baseball batting champion, supported policies and actions that contributed to the racial segregation in professional baseball. He used his influence and prestige to establish and maintain segregation within the sport. On various occasions, Anson refused to play against teams that had black players on their rosters. Furthermore, he is believed to have played a significant role in the 1887 vote by the International League to prohibit the signing of new contracts with black players, which helped institutionalize the color barrier in professional baseball until the mid-20th century.</t>
+          <t>: 1</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>List_of_Major_League_Baseball_batting_champions_0</t>
+          <t>List_of_NHL_playoff_series_26</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Which peninsula contains the passage grave first built in France in 4850 BC ?</t>
+          <t>What racist policy did the 1881 Major League Baseball batting champion support ?</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Kernéléhen</t>
+          <t>segregation</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>: The Barnenez passage grave, which was first built in France in 4850 BC, is located on the Kernéléhen peninsula in northern Finistère, Brittany, France.</t>
+          <t>: Cap Anson, the 1881 Major League Baseball batting champion, supported the "color line" policy, which enforced racial segregation in professional baseball by excluding Black players from Major League teams. This policy was a systemic racist practice that persisted until Jackie Robinson broke the color barrier in 1947.</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>List_of_the_oldest_buildings_in_the_world_0</t>
+          <t>List_of_Major_League_Baseball_batting_champions_0</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -4656,22 +4676,22 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>What is the length ( km ) of the route whose via location is named after a Revolutionary War hero ?</t>
+          <t>Which peninsula contains the passage grave first built in France in 4850 BC ?</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>Kernéléhen</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>: There is no route in the provided database whose via location is named after a Revolutionary War hero. Therefore, the length in kilometers cannot be determined from the given information.</t>
+          <t>: Brittany</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>List_of_county_routes_in_Wayne_County,_New_York_1</t>
+          <t>List_of_the_oldest_buildings_in_the_world_0</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -4681,22 +4701,22 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>What is the full name of the politician that has served the most recently ?</t>
+          <t>What is the length ( km ) of the route whose via location is named after a Revolutionary War hero ?</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Angela Dawn Craig</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>: The full name of the politician that has served the most recently is Mark Foley.</t>
+          <t>: The table content was not found, so it is impossible to determine the length of the route whose via location is named after a Revolutionary War hero.</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>List_of_LGBT_Americans_in_the_United_States_Congress_0</t>
+          <t>List_of_county_routes_in_Wayne_County,_New_York_1</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -4706,97 +4726,97 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Regarding the routes that start at the county named in honor of an U.S. Revolution War general , which one of them has more than 3 miles of extension ?</t>
+          <t>What is the full name of the politician that has served the most recently ?</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CR 132</t>
+          <t>Angela Dawn Craig</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>: The route **CR 132**, which starts from Montgomery County, has an extension of more than 3 miles. Specifically, CR 132 has a length of 3.03 miles.</t>
+          <t>: Mark Foley</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>List_of_county_routes_in_Fulton_County,_New_York_1</t>
+          <t>List_of_LGBT_Americans_in_the_United_States_Congress_0</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>What is the best achievement the racer who finished just behind Mark Webber at the San Marino Grand Prix of 2004 has gotten in the drivers ' championship of the world ?</t>
+          <t>Regarding the routes that start at the county named in honor of an U.S. Revolution War general , which one of them has more than 3 miles of extension ?</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>sixth</t>
+          <t>CR 132</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>: Jarno Trulli's best achievement in the Drivers' Championship of the World is sixth place, which he achieved in 2004.</t>
+          <t>: No such route is listed in the provided materials. The county named in honor of a U.S. Revolution War general (Warren County, New York) does not have any documented routes exceeding 3 miles of extension in the available data. The materials describe Warren County's highway system as consisting of "short connectors" and lack specific route length details for verification.</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2004_San_Marino_Grand_Prix_0</t>
+          <t>List_of_county_routes_in_Fulton_County,_New_York_1</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>The senator representing a district that includes parts of Atoka , Choctaw , LeFlore , McCurtain and Pushmataha Counties , hails from a hometown that was named after a town in what state ?</t>
+          <t>What is the best achievement the racer who finished just behind Mark Webber at the San Marino Grand Prix of 2004 has gotten in the drivers ' championship of the world ?</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Nebraska</t>
+          <t>sixth</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>: The senator representing a district that includes parts of Atoka, Choctaw, LeFlore, McCurtain, and Pushmataha Counties, hails from a hometown that was named after a town in Nebraska.</t>
+          <t>: Runner-up (2nd place) in the 2001 Formula One World Drivers' Championship.</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>List_of_current_members_of_the_Oklahoma_Senate_0</t>
+          <t>2004_San_Marino_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>This athlete was born in Allahabad in 1990 and won a bronze medal at the games ?</t>
+          <t>The senator representing a district that includes parts of Atoka , Choctaw , LeFlore , McCurtain and Pushmataha Counties , hails from a hometown that was named after a town in what state ?</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ashish Kumar</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>: The provided data does not include an athlete born in Allahabad in 1990, and therefore, it is not possible to determine if such an athlete won a bronze medal at the games.</t>
+          <t>: Oklahoma</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>India_at_the_2010_Asian_Games_3</t>
+          <t>List_of_current_members_of_the_Oklahoma_Senate_0</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -4806,26 +4826,26 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>What is the net worth of the Governor of the state that was admitted to the Union on June 20 , 1863 ?</t>
+          <t>This athlete was born in Allahabad in 1990 and won a bronze medal at the games ?</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>$ 1.59 billion</t>
+          <t>Ashish Kumar</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>: The net worth of the Governor of the state that was admitted to the Union on June 20, 1863, which is West Virginia, is $1.59 billion.</t>
+          <t>: Vijay Kumar</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>List_of_richest_American_politicians_2</t>
+          <t>India_at_the_2010_Asian_Games_3</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -4841,7 +4861,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>: The exact full name of the Player of the Year in 1931 cannot be determined from the provided information. However, based on his significant achievements in 1931, a likely candidate for the Player of the Year award would be W.G. Richardson, also known as 'Ginger' Richardson, whose full name is William Ginger Richardson.</t>
+          <t>: J.R. Reid</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4856,22 +4876,22 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>what is the event of the competition that lasted from 6/22-6/25 ?</t>
+          <t>What is the net worth of the Governor of the state that was admitted to the Union on June 20 , 1863 ?</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Triple Jump</t>
+          <t>$ 1.59 billion</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>: There is no information available in the provided data about an event of a competition that lasted from June 22nd to June 25th. If you have more details or if the date range could be part of a different set of information, please let me know so I can assist further.</t>
+          <t>: The net worth of the Governor of West Virginia (the state admitted to the Union on June 20, 1863) cannot be determined from the provided table content, as no relevant data was available in the missing table.</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Will_Claye_1</t>
+          <t>List_of_richest_American_politicians_2</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -4881,22 +4901,22 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>What is the location whose winner was born on September 17 , 1978 ?</t>
+          <t>what is the event of the competition that lasted from 6/22-6/25 ?</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Triple Jump</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>: The provided table content does not include information about the birth dates of the winners. Therefore, it is not possible to determine the location whose winner was born on September 17, 1978, with the given data. Additional information or a different data source would be required to answer this question accurately.</t>
+          <t>: The table content is missing, so the event of the competition that lasted from 6/22-6/25 cannot be determined.</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2004_LPGA_Tour_0</t>
+          <t>Will_Claye_1</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -4906,22 +4926,22 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>How many municipalities are located in the state that transmits XETLAXHPBSD ?</t>
+          <t>What is the location whose winner was born on September 17 , 1978 ?</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>: According to the available data, there are 6 municipalities or regions within Oaxaca that are served by radio stations listed in the provided dataset. However, this does not represent the total number of municipalities in Oaxaca. For an accurate count of all municipalities in Oaxaca, please refer to official government sources or statistical databases.</t>
+          <t>: The table content is missing, so the location of the winner born on September 17, 1978, cannot be determined.</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Sistema_de_Radiodifusoras_Culturales_Indigenistas_0</t>
+          <t>2004_LPGA_Tour_0</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -4931,101 +4951,97 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>When was the person with the Time of 1:40.240 born ?</t>
+          <t>How many municipalities are located in the state that transmits XETLAXHPBSD ?</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>1 January 1981</t>
+          <t>570</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>: The birth year of the person with the Time of 1:40.240 cannot be determined from the available information. Additional data is required to answer this question.</t>
+          <t>: 570</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2004_Chinese_Grand_Prix_1</t>
+          <t>Sistema_de_Radiodifusoras_Culturales_Indigenistas_0</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>This politician from a Ohio city with a population of 10,546 , served as a Representative for what district before becoming an Ohio Senator ?</t>
+          <t>When was the person with the Time of 1:40.240 born ?</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>7th District</t>
+          <t>1 January 1981</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>: The politician from Richmond Heights, Ohio, served as a Representative for District 7 before becoming an Ohio Senator.</t>
+          <t>: 1981</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Ohio_House_of_Representatives,_127th_General_Assembly_0</t>
+          <t>2004_Chinese_Grand_Prix_1</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>What was the final position of the skater from the country occupied by the Soviet Union during World War II in the free skating segment ?</t>
+          <t>This politician from a Ohio city with a population of 10,546 , served as a Representative for what district before becoming an Ohio Senator ?</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7th District</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>: The final positions in the free skating segment for the skaters from the countries occupied by the Soviet Union during World War II are:
-- **Natalia Popova** from Ukraine: 15th
-- **Anastasia Kononenko** from Ukraine: 18th
-- **Johanna Allik** from Estonia: 17th
-If the user is looking for a single skater, they may need to specify which one they are interested in. However, based on the provided information, these are the final positions for the relevant skaters.</t>
+          <t>: The provided materials do not include an Ohio city with a population of 10,546. The only Ohio city referenced in the materials is Columbus, which has a population of 892,533 (as of 2018 estimates), significantly larger than the queried value. Therefore, the question cannot be answered based on the given information.</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2009_Coupe_Internationale_de_Nice_1</t>
+          <t>Ohio_House_of_Representatives,_127th_General_Assembly_0</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>What is the year of the song title whose artist has sold over 19 million albums worldwide ?</t>
+          <t>What was the final position of the skater from the country occupied by the Soviet Union during World War II in the free skating segment ?</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>: There is no song by Whitney Houston listed in the provided dataset, so we cannot determine the year of a song title by Whitney Houston from this data. Please specify a particular song by Whitney Houston for further assistance.</t>
+          <t>: The table content is missing, so the final position of the skater cannot be determined.</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>List_of_songs_in_Guitar_Hero_II_2</t>
+          <t>2009_Coupe_Internationale_de_Nice_1</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -5035,22 +5051,22 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>What genre was the earliest album ?</t>
+          <t>What is the year of the song title whose artist has sold over 19 million albums worldwide ?</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>progressive rock</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>: The genre of the earliest album, which was released in 1975 and titled "The Dark Side of the Moon" by Pink Floyd, is Rock.</t>
+          <t>: The year of the song cannot be determined from the provided materials, as the reference content only identifies Whitney Houston as the artist with over 19 million album sales (200 million worldwide) but does not include song titles or release years. The table content required to answer the year query was missing.</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>List_of_year-end_number-one_albums_(New_Zealand)_0</t>
+          <t>List_of_songs_in_Guitar_Hero_II_2</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -5060,68 +5076,72 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>In what year was the university in the 196th highest population city in the US formally adopted by the state ?</t>
+          <t>What genre was the earliest album ?</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>1901</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr"/>
+          <t>progressive rock</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>: The table content is missing, so it is impossible to determine the genre of the earliest album. Please provide the table data for accurate information.</t>
+        </is>
+      </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>List_of_Beta_Upsilon_Chi_chapters_0</t>
+          <t>List_of_year-end_number-one_albums_(New_Zealand)_0</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Who won the championship in the year where the Stars made the playoffs ?</t>
+          <t>What controls minds in the game released on October 25 , 2005 ?</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Montreal Canadiens</t>
+          <t>parasite</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>: The Montreal Canadiens won the championship in 1968, which is the year the Stars made the playoffs. If the context of the championship refers to a different sport, please specify.</t>
+          <t>: A parasite controls minds in the game *Resident Evil 4*, released on October 25, 2005. The game's plot involves villagers infected by a mind-controlling parasite, which is the mechanism responsible for the mind control described in the game's narrative.</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>List_of_NHL_playoff_series_13</t>
+          <t>2005_in_video_gaming_1</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Who are allowed in the event that was held at Yokohama among other places and was located at San Francisco ?</t>
+          <t>In what year was the university in the 196th highest population city in the US formally adopted by the state ?</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>All players</t>
+          <t>1901</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>: There is no event that was held at Yokohama among other places and was located at San Francisco.</t>
+          <t>: The query cannot be answered because the required table content (listing US cities by population and university adoption years) is missing. The provided materials only mention Denver (19th most populous) and Portland (25th most populous), but no data exists for the 196th highest population city or related university adoption information. Without the necessary table data, the question cannot be resolved.</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Luis_Scott-Vargas_0</t>
+          <t>List_of_Beta_Upsilon_Chi_chapters_0</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -5131,22 +5151,22 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>What was the name of the person who was attacked in the biggest city that is the largest city in the United States on the US-Canadian border ?</t>
+          <t>Who won the championship in the year where the Stars made the playoffs ?</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Elizabeth Rivera</t>
+          <t>Montreal Canadiens</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>: There is no record of an attack reported in Buffalo, New York, so the name of the person who was attacked cannot be determined based on the available information.</t>
+          <t>: Dallas Stars</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Fatal_dog_attacks_in_the_United_States_6</t>
+          <t>List_of_NHL_playoff_series_13</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -5156,47 +5176,47 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>What was the literal English translation of the name of the currency used until 2009 in the country where the capital and largest city is Bratislava ?</t>
+          <t>Who are allowed in the event that was held at Yokohama among other places and was located at San Francisco ?</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Slovak crown</t>
+          <t>All players</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>: The literal English translation of the name of the currency used until 2009 in the country where the capital and largest city is Bratislava (Slovakia) is "Slovak crown."</t>
+          <t>: The table content required to answer the query was not found, so it is impossible to determine who was allowed in the event based on the provided information.</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Currencies_of_the_European_Union_1</t>
+          <t>Luis_Scott-Vargas_0</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>What position was the oldest driver in 2010 Masters of Formula 3 race ?</t>
+          <t>What was the name of the person who was attacked in the biggest city that is the largest city in the United States on the US-Canadian border ?</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>Elizabeth Rivera</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>: The provided data does not contain the ages of the drivers, and therefore it is not possible to determine the position of the oldest driver in the 2010 Masters of Formula 3 race. Additional information about the drivers' ages is required to answer this question.</t>
+          <t>: The table content is missing, so the query cannot be answered.</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2010_Masters_of_Formula_3_0</t>
+          <t>Fatal_dog_attacks_in_the_United_States_6</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -5206,47 +5226,47 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Which river borders the village that is home to the Ratcliffe-on-Soar Power Station ?</t>
+          <t>What was the literal English translation of the name of the currency used until 2009 in the country where the capital and largest city is Bratislava ?</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>River Soar</t>
+          <t>Slovak crown</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>: The river that borders the village of Kegworth, Nottinghamshire, where the Ratcliffe-on-Soar Power Station is located, is the River Soar.</t>
+          <t>: crown</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>List_of_tallest_structures_in_the_United_Kingdom_3</t>
+          <t>Currencies_of_the_European_Union_1</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Of the athletes from the United States , who was born later ?</t>
+          <t>What position was the oldest driver in 2010 Masters of Formula 3 race ?</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Michael Weiss</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>: Don Barksdale, born on March 31, 1923, is the athlete from the United States who was born the latest among the listed athletes.</t>
+          <t>: 9</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Figure_skating_at_the_1998_Winter_Olympics_0</t>
+          <t>2010_Masters_of_Formula_3_0</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -5256,47 +5276,47 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>What controls minds in the game released on October 25 , 2005 ?</t>
+          <t>Of the athletes from the United States , who was born later ?</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>parasite</t>
+          <t>Michael Weiss</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>: In the game "Resident Evil 4," released on October 25, 2005, the minds are controlled by a parasitic organism. The villagers encountered by Leon are infected by a mind-controlling parasite, causing them to act aggressively and under the influence of a cult.</t>
+          <t>: Jillian Camarena-Williams</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2005_in_video_gaming_1</t>
+          <t>Figure_skating_at_the_1998_Winter_Olympics_0</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>What is the Location for the organization that is also known as `` DelPark '' ?</t>
+          <t>Which river borders the village that is home to the Ratcliffe-on-Soar Power Station ?</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Stanton</t>
+          <t>River Soar</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>: The location for the organization that is also known as 'DelPark' is Stanton, Delaware.</t>
+          <t>: River Soar</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Delaware_Sports_Museum_and_Hall_of_Fame_0</t>
+          <t>List_of_tallest_structures_in_the_United_Kingdom_3</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -5306,47 +5326,47 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>When did the home arena of the Calgary Flames receive its current name ?</t>
+          <t>What is the Location for the organization that is also known as `` DelPark '' ?</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>Stanton</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>: The Scotiabank Saddledome received its current name in October 2010.</t>
+          <t>: Stanton, Delaware</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>List_of_National_Hockey_League_attendance_figures_5</t>
+          <t>Delaware_Sports_Museum_and_Hall_of_Fame_0</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>When did the team with the second most games played change the spelling of their name ?</t>
+          <t>How many people established the football club whose 2018 revenue was less than 355.6 but more than 272.5 ?</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>eighteen</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>: There is no record of the Dallas Stars changing the spelling of their name.</t>
+          <t>: The table content is missing, so the query cannot be answered.</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>List_of_NHL_playoff_series_23</t>
+          <t>Deloitte_Football_Money_League_2</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -5356,45 +5376,47 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>What is the name of the best selling album from rock band formed in Liverpool ?</t>
+          <t>What is the population of the city that was the capital of Ireland from 1642 to 1651 ?</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Sgt . Pepper 's Lonely Hearts Club Band</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr"/>
+          <t>26,512</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>: The population of Dublin from 1642 to 1651 is not provided in the given materials. While Dublin was confirmed as the capital of Ireland during that period, the materials only include modern population figures (2016 data) and lack historical population data for the 17th century.</t>
+        </is>
+      </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>List_of_best-selling_albums_1</t>
+          <t>List_of_former_national_capitals_6</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>How many people established the football club whose 2018 revenue was less than 355.6 but more than 272.5 ?</t>
+          <t>When did the home arena of the Calgary Flames receive its current name ?</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>eighteen</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>: The number of people who established the football clubs with 2018 revenue between 272.5 and 355.6 million euros is known for only one club:
-- **Borussia Dortmund** was established by 18 football players from Dortmund in 1909.
-Unfortunately, the exact number of people who established **Tottenham Hotspur** and **Atlético Madrid** is not provided in the available information. Additional sources would be needed to determine the number of founders for these two clubs.</t>
+          <t>: The Calgary Flames' home arena received its current name, Scotiabank Saddledome, in 2004.</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Deloitte_Football_Money_League_2</t>
+          <t>List_of_National_Hockey_League_attendance_figures_5</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -5404,22 +5426,22 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>What is the population of the city that was the capital of Ireland from 1642 to 1651 ?</t>
+          <t>When did the team with the second most games played change the spelling of their name ?</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>26,512</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>: The population of Dublin, which was likely the capital of Ireland from 1642 to 1651, is 1,347,359 as of 2016.</t>
+          <t>: The team with the second most games played is the Dallas Stars. They changed their name from "Minnesota North Stars" to "Dallas Stars" for the 1993-94 NHL season (not a spelling change, but a full rebranding due to relocation). The answer is **1993-94**.</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>List_of_former_national_capitals_6</t>
+          <t>List_of_NHL_playoff_series_23</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -5429,22 +5451,22 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Which route connects , the freeway begins at the Peace Bridge in Fort Erie and the highway that was established in 1937 due to rerouting of Highway 9 ?</t>
+          <t>What is the name of the best selling album from rock band formed in Liverpool ?</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Highway 25</t>
+          <t>Sgt . Pepper 's Lonely Hearts Club Band</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>: The Queen Elizabeth Way (QEW) is the major highway starting from the Peace Bridge in Fort Erie. To connect to Highway 89, one would need to travel on the QEW and then take another highway or series of roads to reach Highway 89. There is no direct route connecting the Peace Bridge in Fort Erie and Highway 89.</t>
+          <t>: Abbey Road</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>List_of_highways_in_Ontario_1</t>
+          <t>List_of_best-selling_albums_1</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -5454,72 +5476,72 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>What was the personal name of the Emperor whose documents currently reside at Daitōkyū Memorial Library ?</t>
+          <t>Which route connects , the freeway begins at the Peace Bridge in Fort Erie and the highway that was established in 1937 due to rerouting of Highway 9 ?</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Liu Qi</t>
+          <t>Highway 25</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>: The personal name of the Emperor whose documents currently reside at the Daitōkyū Memorial Library is Liu Qi (劉啟), who is known as Emperor Jing of the Han Dynasty.</t>
+          <t>: Highway 403</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>List_of_National_Treasures_of_Japan_(writings__Chinese_books)_1</t>
+          <t>List_of_highways_in_Ontario_1</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>What is the capacty of the stadium located in the city that is the capital of the Department of Huila ?</t>
+          <t>What was the personal name of the Emperor whose documents currently reside at Daitōkyū Memorial Library ?</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>27,000</t>
+          <t>Liu Qi</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>: The capacity of the stadium located in the city that is the capital of the Department of Huila (Neiva) is 27,000.</t>
+          <t>: The table content required to answer the query was not found, so the personal name of the Emperor whose documents reside at Daitōkyū Memorial Library cannot be determined from the provided materials.</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>List_of_association_football_stadiums_by_country_1</t>
+          <t>List_of_National_Treasures_of_Japan_(writings__Chinese_books)_1</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Which site was the target of explosives at the Olympic Games in which Chan Sau Ying was the flag carrier for Hong Kong ?</t>
+          <t>What is the capacty of the stadium located in the city that is the capital of the Department of Huila ?</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Centennial Olympic Park</t>
+          <t>27,000</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>: There was no report of explosives targeting a site during the 1996 Summer Olympics, in which Chan Sau Ying was the flag carrier for Hong Kong. Therefore, no specific site can be identified as the target of explosives.</t>
+          <t>: The capacity of the stadium located in Neiva, the capital city of the Department of Huila, is 40,000.</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>List_of_flag_bearers_for_Hong_Kong_at_the_Olympics_0</t>
+          <t>List_of_association_football_stadiums_by_country_1</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -5539,7 +5561,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>: The person who finished the qualifying round of the British Grand Prix of 1952 right behind Ken Downing was Reg Parnell, and he gained 1 point for championships.</t>
+          <t>: 9</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5548,53 +5570,53 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Which line has a station located at the intersection of 36th Street and Northern Boulevard in Queens ?</t>
+          <t>Which site was the target of explosives at the Olympic Games in which Chan Sau Ying was the flag carrier for Hong Kong ?</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Queens Boulevard Line</t>
+          <t>Centennial Olympic Park</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>: The station located at the intersection of 36th Street and Northern Boulevard in Queens is on the IND Queens Boulevard Line.</t>
+          <t>: The provided materials do not mention a site targeted by explosives at the 1996 Summer Olympics. Historical context (Centennial Olympic Park bombing) is not reflected in the given reference materials, which only discuss shooting events, unrelated bombings, and general Olympic details without referencing explosives or a targeted site during the 1996 Games. Therefore, the answer cannot be determined from the provided content.</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>List_of_New_York_City_Subway_stations_in_Queens_1</t>
+          <t>List_of_flag_bearers_for_Hong_Kong_at_the_Olympics_0</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>What school did the player who was a pitcher for the Colorado Rockies of Major League Baseball ( MLB ) in 1996 and 1997 attend ?</t>
+          <t>Which line has a station located at the intersection of 36th Street and Northern Boulevard in Queens ?</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Florida State</t>
+          <t>Queens Boulevard Line</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>: The player who was a pitcher for the Colorado Rockies of Major League Baseball (MLB) in 1996 and 1997, John Chandler Burke, attended Wichita State University.</t>
+          <t>: Queens Boulevard Line</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>1991_College_Baseball_All-America_Team_0</t>
+          <t>List_of_New_York_City_Subway_stations_in_Queens_1</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -5604,22 +5626,22 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>The city that has a population of approximately 90,000 as at the 2016 Census has what school ?</t>
+          <t>What school did the player who was a pitcher for the Colorado Rockies of Major League Baseball ( MLB ) in 1996 and 1997 attend ?</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Al-Hidayah Islamic School</t>
+          <t>Florida State</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>: The provided materials do not contain the necessary information to determine which city has a population of approximately 90,000 as of the 2016 Census, and therefore, we cannot identify the school in that city. Additional data is required to answer the question.</t>
+          <t>: The table content required to answer the query is unavailable, so the school attended by the player cannot be determined.</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>List_of_schools_in_Perth,_Western_Australia_6</t>
+          <t>1991_College_Baseball_All-America_Team_0</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -5629,22 +5651,22 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Who is the developer of the game that features a new game engine , added weapons and vehicles , and new multiplayer maps ?</t>
+          <t>The city that has a population of approximately 90,000 as at the 2016 Census has what school ?</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Hired Gun</t>
+          <t>Al-Hidayah Islamic School</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>: The developer of the original **Halo 2** game, which features a new game engine, added weapons and vehicles, and new multiplayer maps, is **Bungie**. For the Windows Vista version of **Halo 2**, the developer is **Hired Gun**. Given the context of the user query, it is most likely referring to the original game, so the primary developer is **Bungie**.</t>
+          <t>: The provided materials do not contain information about a city with a population of approximately 90,000 as at the 2016 Census. No matching city or associated school can be identified from the available data.</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>List_of_Games_for_Windows_titles_1</t>
+          <t>List_of_schools_in_Perth,_Western_Australia_6</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -5654,22 +5676,22 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>What is the nationality of the person to have most recently found a fossil ?</t>
+          <t>Who is the developer of the game that features a new game engine , added weapons and vehicles , and new multiplayer maps ?</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>British</t>
+          <t>Hired Gun</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>: The nationality of the person who most recently found a fossil, Yohannes Haile-Selassie, is Ethiopian.</t>
+          <t>: Bungie</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>List_of_human_evolution_fossils_2</t>
+          <t>List_of_Games_for_Windows_titles_1</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -5679,18 +5701,22 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Which river flows through this city that has the largest football stadium in England ?</t>
+          <t>What is the nationality of the person to have most recently found a fossil ?</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>the River Thames</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr"/>
+          <t>British</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>: British</t>
+        </is>
+      </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>List_of_rugby_league_stadiums_by_capacity_0</t>
+          <t>List_of_human_evolution_fossils_2</t>
         </is>
       </c>
       <c r="E212" t="n">
@@ -5700,51 +5726,51 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Who is the daughter of the directer of the Argentinian film ?</t>
+          <t>Which river flows through this city that has the largest football stadium in England ?</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Guadalupe Subiela</t>
+          <t>the River Thames</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>: The daughter of the director of the Argentinian film, Eliseo Subiela, is Guadalupe Subiela. She is an actress who appeared in her father's film, *Pequeños Milagros*.</t>
+          <t>: Thames</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>List_of_submissions_to_the_65th_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
+          <t>List_of_rugby_league_stadiums_by_capacity_0</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>What country recognizes as their national language the language which is spoken by the ethnicity with 1.1 million people ?</t>
+          <t>From where did the Generalleutnant ranked pilot graduate ?</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>The Deutsche Verkehrsfliegerschule ( German Commercial Flyers ' School ) in Braunschweig</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>: The country that recognizes Chokwe as their national language is Angola.</t>
+          <t>: The table content is missing, so it is impossible to determine where the Generalleutnant ranked pilot graduated.</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Ethnic_groups_in_Africa_4</t>
+          <t>List_of_German_World_War_II_jet_aces_0</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -5760,7 +5786,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>: The current head coach of the basketball team at Norfolk State University, the university attended by Ralph Talley, is Robert Jones.</t>
+          <t>: Robert Jones</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5775,26 +5801,26 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>From where did the Generalleutnant ranked pilot graduate ?</t>
+          <t>What is the district whose winner died on May 4 , 1825 ?</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>The Deutsche Verkehrsfliegerschule ( German Commercial Flyers ' School ) in Braunschweig</t>
+          <t>Connecticut at-large</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>: Adolf Galland, who held the rank of Generalleutnant, graduated as a pilot from the Deutsche Verkehrsfliegerschule (German Commercial Flyers' School) in Braunschweig in 1932.</t>
+          <t>: The table content is missing, so the district whose winner died on May 4, 1825, cannot be determined.</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>List_of_German_World_War_II_jet_aces_0</t>
+          <t>List_of_special_elections_to_the_United_States_House_of_Representatives_in_New_York_0</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -5810,7 +5836,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>: José Martí International Airport was likely renamed in honor of José Martí, but the specific former name is not provided in the given references. It is possible that it was previously known as Havana International Airport or under another name before the renaming. To provide a precise answer, additional historical sources would be required.</t>
+          <t>: The table content is missing, so the former name of the airport serving 5,713,859 passengers annually cannot be determined from the provided information.</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5835,7 +5861,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>: The cheap airline based in the airport located in the city that is the capital of an Emirate is **flydubai**, operating from Dubai International Airport.</t>
+          <t>: There is no low-cost airline based at Abu Dhabi International Airport according to the provided information. The reference materials mention flydubai as a low-cost carrier operating from Dubai International Airport (DXB), but no low-cost airline is listed for Abu Dhabi International Airport (AUH).</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5844,78 +5870,78 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>What is the district whose winner died on May 4 , 1825 ?</t>
+          <t>What number pick was the player born on February 28 , 1999 ?</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Connecticut at-large</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>: There is no district recorded in the provided data where the cause of vacancy was due to someone dying on May 4, 1825. The information requested is not available in the given dataset.</t>
+          <t>: 3</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>List_of_special_elections_to_the_United_States_House_of_Representatives_in_New_York_0</t>
+          <t>Atlanta_Hawks_draft_history_0</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>In what division does the team playing at the stadium with the lowest total attendance play ?</t>
+          <t>What has the namesake of the airport that handled 6,453,100 flyers in 2009 been credited with contributing to ?</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>American Football Conference ( AFC ) South</t>
+          <t>Mexican independence</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>: The team playing at the stadium with the lowest total attendance, which is Lucas Oil Stadium, plays in the American Football Conference (AFC) South division.</t>
+          <t>: Guadalajara has been credited with contributing to the origin and cultural identity of the famous mariachi genre of music, as well as hosting globally renowned cultural events such as the Guadalajara International Film Festival and the Guadalajara International Book Fair.</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>List_of_National_Football_League_attendance_figures_2</t>
+          <t>List_of_the_busiest_airports_in_Latin_America_10</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>What number pick was the player born on February 28 , 1999 ?</t>
+          <t>What country recognizes as their national language the language which is spoken by the ethnicity with 1.1 million people ?</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>: Luka Dončić was selected as the 3rd overall pick in the draft.</t>
+          <t>: Angola</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Atlanta_Hawks_draft_history_0</t>
+          <t>Ethnic_groups_in_Africa_4</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -5925,22 +5951,22 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>What has the namesake of the airport that handled 6,453,100 flyers in 2009 been credited with contributing to ?</t>
+          <t>Who is the daughter of the directer of the Argentinian film ?</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Mexican independence</t>
+          <t>Guadalupe Subiela</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>: Miguel Hidalgo y Costilla has been credited with initiating the Mexican War of Independence. He played a crucial role in starting the movement that eventually led to Mexico's independence.</t>
+          <t>: Guadalupe Subiela</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Latin_America_10</t>
+          <t>List_of_submissions_to_the_65th_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -5960,7 +5986,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>: There is no record of an incident where 587 people were killed by a vehicle bomb on October fourteenth in the provided materials. Additional information is required to answer the query accurately.</t>
+          <t>: Banadir</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -5969,28 +5995,28 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>What title did the driver who finished with a time of 1:15.643 in the qualifying round of the 1992 Hungarian Grand Prix win in his debut season ?</t>
+          <t>Which area is the island with a population of 122,974 off the coast of ?</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>mainland China</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>: Nigel Mansell won the CART Indy Car World Series title in his debut season in CART (1993). This makes him the first person to win the CART title in his debut season and the only person to hold both the World Drivers' Championship and the American open-wheel National Championship simultaneously.</t>
+          <t>: 132</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>1992_Hungarian_Grand_Prix_0</t>
+          <t>List_of_islands_by_population_density_1</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -6000,26 +6026,26 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Which area is the island with a population of 122,974 off the coast of ?</t>
+          <t>What title did the driver who finished with a time of 1:15.643 in the qualifying round of the 1992 Hungarian Grand Prix win in his debut season ?</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>mainland China</t>
+          <t>CART</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>: The island with a population of 122,974, named Kinmen, is located off the southeastern coast of mainland China, near the city of Xiamen.</t>
+          <t>: World Drivers' Championship</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>List_of_islands_by_population_density_1</t>
+          <t>1992_Hungarian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -6035,7 +6061,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>: The town where George H.W. Bush, the leader who had a secretary named Barbara Hackman Franklin, was born is Milton, Massachusetts.</t>
+          <t>: Yorba Linda</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6050,72 +6076,72 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Who established the school that was the 2nd place winner of the 2002 Head of the River ( Queensland ) ?</t>
+          <t>Who was the teacher of the winner of the Gateway to the Open Mizuno Open Yomiuri Classic in 2010 when he was 10 ?</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Society of the Sacred Heart</t>
+          <t>Todd Baker</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>: The Society of the Sacred Heart established Stuartholme School, which was the 2nd place winner of the 2002 Head of the River (Queensland).</t>
+          <t>: The information about Shunsuke Sonoda's teacher when he was 10 years old is not present in the provided reference materials. The materials do not contain any data related to "Shunsuke Sonoda" or their educational background.</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Head_of_the_River_(Queensland)_13</t>
+          <t>2010_Japan_Golf_Tour_0</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Who was the teacher of the winner of the Gateway to the Open Mizuno Open Yomiuri Classic in 2010 when he was 10 ?</t>
+          <t>In what division does the team playing at the stadium with the lowest total attendance play ?</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Todd Baker</t>
+          <t>American Football Conference ( AFC ) South</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>: Todd Baker was the teacher of Shunsuke Sonoda when he was 10 years old.</t>
+          <t>: The table content is missing, so it is impossible to determine the division of the team playing at the stadium with the lowest total attendance.</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>2010_Japan_Golf_Tour_0</t>
+          <t>List_of_National_Football_League_attendance_figures_2</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>What is the club whose home city hosts an Airbus factory ?</t>
+          <t>What is the purpose of the 759 ft tower in Jersey City ?</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Getafe B</t>
+          <t>residential complex</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>: The club whose home city hosts an Airbus factory is Getafe CF.</t>
+          <t>: The purpose of the 759 ft tower in Jersey City (Journal Squared Tower 2) is to serve as part of Jersey City's banking and finance district, contributing to its nickname "Wall Street West."</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>List_of_football_clubs_in_Spain_2</t>
+          <t>List_of_tallest_buildings_in_the_United_States_3</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -6125,22 +6151,22 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>What is the purpose of the 759 ft tower in Jersey City ?</t>
+          <t>Who established the school that was the 2nd place winner of the 2002 Head of the River ( Queensland ) ?</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>residential complex</t>
+          <t>Society of the Sacred Heart</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>: The 759 ft (231 m) tower in Jersey City is known as Journal Squared Tower 2. While the exact purpose is not explicitly stated in the provided table, such towers in urban areas like Jersey City are typically mixed-use developments, which can include residential, commercial, or office spaces. Therefore, it is likely that Journal Squared Tower 2 serves a similar function, possibly including residential units or office space.</t>
+          <t>: The Society of the Sacred Heart</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>List_of_tallest_buildings_in_the_United_States_3</t>
+          <t>Head_of_the_River_(Queensland)_13</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -6150,22 +6176,22 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Of the albums for 11:11 and A Bit of You , which album charted in more countries ?</t>
+          <t>What is the club whose home city hosts an Airbus factory ?</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Want One</t>
+          <t>Getafe B</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>: Based on the available information, the album "11:11" likely charted in more countries than "A Bit of You," which did not chart in any countries. The exact number of countries for "11:11" is unknown.</t>
+          <t>: Getafe</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>List_of_songs_recorded_by_Rufus_Wainwright_0</t>
+          <t>List_of_football_clubs_in_Spain_2</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -6185,7 +6211,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>: The capital city of the state where the Sipat Thermal Power Station is located is Raipur.</t>
+          <t>: Raipur</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6200,47 +6226,43 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>What is the approximate ( object comparison ) size of the 2008 Phone Model that was available from 5 different carrier and uses technology that is also called cdmaOne ?</t>
+          <t>Of the albums for 11:11 and A Bit of You , which album charted in more countries ?</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Post-It Note</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>: There is no 2008 Phone Model that was available from 5 different carriers according to the provided information. Therefore, the query cannot be fully answered with the available data.</t>
-        </is>
-      </c>
+          <t>Want One</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
-          <t>List_of_Motorola_products_16</t>
+          <t>List_of_songs_recorded_by_Rufus_Wainwright_0</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Where did the second richest person move when he was 12 ?</t>
+          <t>How did the musician with the single Keep Me a Secret put out his first album ?</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>independently</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>: Based on the available information, Warren Buffett is the second richest person globally. However, there is no record of him moving when he was 12 years old in the provided materials. If you have more detailed information or another source, please share it so I can provide a more complete answer.</t>
+          <t>: The provided materials only confirm that "Keep Me a Secret" is the debut single by Ainslie Henderson (released February 24, 2003), not his first album. No information about his first album is available in the reference materials. The question conflates a single with an album, but the data explicitly identifies "Keep Me a Secret" as a *single*, not an album. Therefore, the query cannot be answered as phrased, as the materials do not contain details about his first album.</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>List_of_South_East_Asian_people_by_net_worth_1</t>
+          <t>Fame_Academy_discography_0</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -6250,22 +6272,22 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>How did the musician with the single Keep Me a Secret put out his first album ?</t>
+          <t>Who operates the airport that is located in Recife ?</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>independently</t>
+          <t>AENA</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>: Ainslie Henderson released his first album around the time of his single "Keep Me a Secret," which came out on February 24, 2003. The exact method of releasing the album is not specified, but it is common for artists to release an album in conjunction with a promotional single. Therefore, it is reasonable to conclude that his first album was released through a similar channel or event that promoted the single "Keep Me a Secret."</t>
+          <t>: AENA</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Fame_Academy_discography_0</t>
+          <t>List_of_the_busiest_airports_in_Latin_America_1</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -6275,51 +6297,51 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Who operates the airport that is located in Recife ?</t>
+          <t>Where did the second richest person move when he was 12 ?</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>AENA</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>: AENA operates the Recife/Guararapes-Gilberto Freyre International Airport.</t>
+          <t>: The table content required to answer the query is missing. Without the table data, it is impossible to determine where the second richest person moved when he was 12.</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Latin_America_1</t>
+          <t>List_of_South_East_Asian_people_by_net_worth_1</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>What was the venue of the match held in a coastal seaport city in western Canada with the winner being originally organized in New Westminster in 1889 ?</t>
+          <t>What is the approximate ( object comparison ) size of the 2008 Phone Model that was available from 5 different carrier and uses technology that is also called cdmaOne ?</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Empire Stadium</t>
+          <t>Post-It Note</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>: The venue of the match held in a coastal seaport city in western Canada with the winner being originally organized in New Westminster in 1889 cannot be determined because the British team, which won the match in Vancouver, was not originally organized in New Westminster in 1889.</t>
+          <t>: About the size of a post-it note</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>History_of_rugby_union_matches_between_the_British_and_Irish_Lions_and_other_countries_0</t>
+          <t>List_of_Motorola_products_16</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -6335,7 +6357,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>: There is no venue listed as a 5,200-seat multi-purpose arena in the provided data; therefore, the CAA Champion for an event at such a venue cannot be determined. If you have more details, please provide them.</t>
+          <t>: The table content is missing, so it is impossible to determine the CAA Champion for the specified venue.</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6350,22 +6372,22 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>What is the official mascot of the tournament champion of the 1988 America East Conference tournament ?</t>
+          <t>What was the venue of the match held in a coastal seaport city in western Canada with the winner being originally organized in New Westminster in 1889 ?</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Rhett the Boston Terrier</t>
+          <t>Empire Stadium</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>: The official mascot of the tournament champion of the 1988 America East Conference tournament, which was Boston University, is Rhett the Boston Terrier.</t>
+          <t>: Empire Stadium</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>America_East_Conference_11</t>
+          <t>History_of_rugby_union_matches_between_the_British_and_Irish_Lions_and_other_countries_0</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -6385,7 +6407,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>: Gastón Mazzacane, the driver with the highest numbered car (number 23), scored 0 championship points.</t>
+          <t>: The table content was not provided, so the championship points for the driver with car number 23 cannot be determined.</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6394,28 +6416,28 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Which player was from the university whose home games are played at the Breslin Student Events Center ?</t>
+          <t>What is the official mascot of the tournament champion of the 1988 America East Conference tournament ?</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Adreian Payne</t>
+          <t>Rhett the Boston Terrier</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>: Adreian Payne</t>
+          <t>: Rhett the Boston Terrier</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Atlanta_Hawks_draft_history_0</t>
+          <t>America_East_Conference_11</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -6425,47 +6447,47 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>what is the location of the Limited event during the the seventh season of the Magic : The Gathering Pro Tour ?</t>
+          <t>Which player was from the university whose home games are played at the Breslin Student Events Center ?</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Fukuoka</t>
+          <t>Adreian Payne</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>: The location of the Limited event during the seventh season of the Magic: The Gathering Pro Tour is not specified in the provided materials. To obtain this information, additional sources or data would be required.</t>
+          <t>: Adreian Payne</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Shuhei_Nakamura_0</t>
+          <t>Atlanta_Hawks_draft_history_0</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>What is the name of the system in the city that was originally part of the 1785 Rancho San Pedro Spanish land grant ?</t>
+          <t>what is the location of the Limited event during the the seventh season of the Magic : The Gathering Pro Tour ?</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Beach Cities Transit</t>
+          <t>Fukuoka</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>: Redondo Beach was part of the 1785 Rancho San Pedro Spanish land grant, but there is no specific bus transit system named after "Rancho San Pedro" listed in the provided database. If you are looking for a bus transit system in Redondo Beach, you may need to refer to other local transit systems that serve the area.</t>
+          <t>: The location of the Limited event during the seventh season of the Magic: The Gathering Pro Tour cannot be determined as the table content was not provided in the query materials.</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>List_of_bus_transit_systems_in_the_United_States_4</t>
+          <t>Shuhei_Nakamura_0</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -6475,25 +6497,22 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>What is the release date of the game that is a post-apocalyptic action role-playing video game ?</t>
+          <t>What is the name of the system in the city that was originally part of the 1785 Rancho San Pedro Spanish land grant ?</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2010-10-19</t>
+          <t>Beach Cities Transit</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>: The release dates for the games that are post-apocalyptic action role-playing video games are:
-- **Fallout: New Vegas**: October 19, 2010
-- **Fallout 3**: October 13, 2009 (based on the Game of the Year Edition release date)
-If you were asking about the original release date of Fallout 3, it is commonly known to be October 28, 2008, but this specific date is not confirmed in the provided materials. Therefore, the most accurate answer based on the given information is the Game of the Year Edition release date.</t>
+          <t>: Los Angeles</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>List_of_Games_for_Windows_titles_4</t>
+          <t>List_of_bus_transit_systems_in_the_United_States_4</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -6503,22 +6522,22 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Who founded Juan Pablo Montoya 's constructor ?</t>
+          <t>What is the release date of the game that is a post-apocalyptic action role-playing video game ?</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Sir Frank Williams</t>
+          <t>2010-10-19</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>: The constructor associated with Juan Pablo Montoya is Williams-BMW, and it was founded by Sir Frank Williams and Sir Patrick Head.</t>
+          <t>: October 2008</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>2001_Japanese_Grand_Prix_0</t>
+          <t>List_of_Games_for_Windows_titles_4</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -6528,114 +6547,122 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>What is the best league result for a club who beat another club with paralympic sports ?</t>
+          <t>Who founded Juan Pablo Montoya 's constructor ?</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr"/>
+          <t>Sir Frank Williams</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>: Sir Frank Williams and Sir Patrick Head founded Williams Racing, the constructor associated with Juan Pablo Montoya.</t>
+        </is>
+      </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Turkish_Cup_0</t>
+          <t>2001_Japanese_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>In 2009 , what percentage of its staff was lost by the developer of the game that is an Association Football manager simulation video game not available on Games for Windows - Live ?</t>
+          <t>What is the best league result for a club who beat another club with paralympic sports ?</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>80% of its staff</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr"/>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>: The table content is missing, so the query cannot be answered.</t>
+        </is>
+      </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>List_of_Games_for_Windows_titles_3</t>
+          <t>Turkish_Cup_0</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>What is the suburb of the school that enrolled approximately 1,500 students in 2018 ?</t>
+          <t>What is the alternative name for the historic place that is located in the township that was established in 1886 and that has the date listed # 14000426 ?</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Bossley Park</t>
+          <t>Portage Entry Light</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>: The suburb of the school that enrolled approximately 1,500 students in 2018 is Bossley Park.</t>
+          <t>: The table content required to answer the query could not be found, so the alternative name for the historic place cannot be determined.</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>List_of_schools_in_Greater_Western_Sydney_1</t>
+          <t>National_Register_of_Historic_Places_listings_in_Houghton_County,_Michigan_0</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>What is the alternative name for the historic place that is located in the township that was established in 1886 and that has the date listed # 14000426 ?</t>
+          <t>In 2009 , what percentage of its staff was lost by the developer of the game that is an Association Football manager simulation video game not available on Games for Windows - Live ?</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Portage Entry Light</t>
+          <t>80% of its staff</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>: The alternative name for the historic place that is located in the township established in 1886 and that has the date listed as #14000426 is the **Portage Entry Light**. This historic place is also known as the Keweenaw Waterway Lower Entrance Light.</t>
+          <t>: The query cannot be answered with the provided information. The term "Beautiful Game Studios" does not appear in the materials. The only relevant studio mentioned is "Aces Game Studio," which was closed in 2009 as part of Microsoft's job cuts. However, the materials do not specify the total staff size of Aces Game Studio, making it impossible to calculate the percentage of staff lost. Additionally, the provided table content (if any) does not contain staff-related metrics or data about layoffs. Therefore, the percentage of staff lost cannot be determined from the given materials.</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>National_Register_of_Historic_Places_listings_in_Houghton_County,_Michigan_0</t>
+          <t>List_of_Games_for_Windows_titles_3</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>The senator whose hometown is named after two prominent Cherokee brothers was born when ?</t>
+          <t>What is the suburb of the school that enrolled approximately 1,500 students in 2018 ?</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>September 30 , 1957</t>
+          <t>Bossley Park</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>: The provided dataset does not include a senator whose hometown is Adair, named after two prominent Cherokee brothers. Therefore, we cannot determine the birth year of the senator from the given information. Additional historical data may be required to answer this question accurately.</t>
+          <t>: Cabramatta</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>List_of_current_members_of_the_Oklahoma_Senate_0</t>
+          <t>List_of_schools_in_Greater_Western_Sydney_1</t>
         </is>
       </c>
       <c r="E250" t="n">
@@ -6645,22 +6672,22 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>What team did Pakistan play in the city founded by the Mughal Emperor Jehangir in 1607 ?</t>
+          <t>The senator whose hometown is named after two prominent Cherokee brothers was born when ?</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>September 30 , 1957</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>: There is no information available about Pakistan playing a match in Prayagraj (formerly Allahabad). The provided materials and the database do not contain any records of such a match.</t>
+          <t>: The table content is missing, so the query cannot be answered. The required information about the senator's hometown and birth year is not available in the provided materials.</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Pakistan_national_cricket_team_0</t>
+          <t>List_of_current_members_of_the_Oklahoma_Senate_0</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -6670,22 +6697,22 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Which driver had the most races in a single season and had a team that is one of the oldest surviving ?</t>
+          <t>What services does the station have that is located between Avenue of the Americas and Seventh Avenue ?</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Michael Schumacher</t>
+          <t>1 , 2 , 3</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>: Michael Schumacher had the most races won in a single season, with 13 wins, and the team associated with him, Scuderia Ferrari, is indeed one of the oldest surviving teams in Formula One, having competed in every world championship since the 1950 Formula One season.</t>
+          <t>: The station located between Avenue of the Americas (Sixth Avenue) and Seventh Avenue is **14th Street/Sixth Avenue**, which provides **F and L services**.</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>1998_Australian_Grand_Prix_0</t>
+          <t>List_of_New_York_City_Subway_stations_in_Manhattan_1</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -6695,22 +6722,22 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>What services does the station have that is located between Avenue of the Americas and Seventh Avenue ?</t>
+          <t>What team did Pakistan play in the city founded by the Mughal Emperor Jehangir in 1607 ?</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>1 , 2 , 3</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>: The 14th Street/Sixth Avenue station, which is located between Avenue of the Americas and Seventh Avenue, offers the following services: **1, 2, 3, L, B, D, F, M**. These services correspond to the IRT Broadway-Seventh Avenue Line, BMT Canarsie Line, and IND Sixth Avenue Line.</t>
+          <t>: The provided materials do not contain information about a city founded by Mughal Emperor Jehangir in 1607. The reference materials mention Hyderabad (founded in 1591 by a Qutb Shahi ruler) and Bhopal (founded in 1707), but neither matches the query. Since the city cannot be identified from the given data, the team Pakistan played in that city cannot be determined.</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>List_of_New_York_City_Subway_stations_in_Manhattan_1</t>
+          <t>Pakistan_national_cricket_team_0</t>
         </is>
       </c>
       <c r="E253" t="n">
@@ -6720,47 +6747,43 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>What year was representative that served as mayor of the village of Shreve first elected ?</t>
+          <t>Which driver had the most races in a single season and had a team that is one of the oldest surviving ?</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>: The representative who served as the mayor of the village of Shreve, James F. Carmichael, was first elected in the year 2000.</t>
-        </is>
-      </c>
+          <t>Michael Schumacher</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Ohio_House_of_Representatives,_127th_General_Assembly_0</t>
+          <t>1998_Australian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Where was the person who set a record in 1937 born ?</t>
+          <t>What year was representative that served as mayor of the village of Shreve first elected ?</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Russian</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>: The available information does not specify where Mikhail Gromov, who set a record in 1937, was born. Additional sources would be required to answer this part of the query.</t>
+          <t>: 1949</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Flight_distance_record_0</t>
+          <t>Ohio_House_of_Representatives,_127th_General_Assembly_0</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -6770,22 +6793,22 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>What is the estimated population of the hometown of the first African American winner of Miss Teen USA ?</t>
+          <t>Where was the person who set a record in 1937 born ?</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>112,525</t>
+          <t>Russian</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>: The estimated population of the hometown of the first African American winner of Miss Teen USA, Janel Bishop, is approximately 50,000 to 100,000 people, assuming a medium-sized U.S. city. If you have more specific information about her hometown, please provide it for a more accurate estimate.</t>
+          <t>: Soviet Union</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Miss_Teen_USA_1</t>
+          <t>Flight_distance_record_0</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -6795,22 +6818,22 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Between and Lahaina Historic District and Keauhou Holua Slide , which landmark 's location has the bigger population ?</t>
+          <t>What is the estimated population of the hometown of the first African American winner of Miss Teen USA ?</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Lahaina Historic District</t>
+          <t>112,525</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>: The location of Lahaina Historic District has a bigger population compared to the location of Keauhou Holua Slide.</t>
+          <t>: The estimated population of Manchester, New Hampshire (the hometown of Janel Bishop, the first African American winner of Miss Teen USA) is 112,525 as of 2018.</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>List_of_National_Historic_Landmarks_in_Hawaii_0</t>
+          <t>Miss_Teen_USA_1</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -6830,7 +6853,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>: John Capel, an athlete from the United States, was sanctioned for using a substance containing tetrahydrocannabinol (THC).</t>
+          <t>: Jacob Freeman</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -6839,7 +6862,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -6853,7 +6876,11 @@
           <t>Catherine Deneuve and Gérard Depardieu</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr"/>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>: The two actors who starred in the film directed by François Truffaut (director of "Day for Night") and submitted to the 53rd Academy Awards are Catherine Deneuve and Gérard Depardieu.</t>
+        </is>
+      </c>
       <c r="D259" t="inlineStr">
         <is>
           <t>List_of_submissions_to_the_53rd_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
@@ -6866,22 +6893,22 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>How many ODIs has the stadium first used in 2012 hosted ?</t>
+          <t>Between and Lahaina Historic District and Keauhou Holua Slide , which landmark 's location has the bigger population ?</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Lahaina Historic District</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>: The MCA Stadium, which was first used in 2012, has hosted 4 One Day Internationals (ODIs).</t>
+          <t>: Lahaina Historic District has a population of 11,704 (based on the Lahaina CDP data), while Keauhou Holua Slide is a historic landmark without a population (the 3,549 figure refers to the nearby Kahaluʻu-Keauhou CDP, not the landmark itself). Therefore, Lahaina Historic District's location has the bigger population.</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>List_of_cricket_grounds_in_India_30</t>
+          <t>List_of_National_Historic_Landmarks_in_Hawaii_0</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -6891,22 +6918,26 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Who beat the team in the World Series whose manager managed the Toronto Blue Jays from 1982 to 1985 ?</t>
+          <t>How many ODIs has the stadium first used in 2012 hosted ?</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Minnesota Twins</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>: The table content is missing, so the number of ODIs hosted by MCA Stadium cannot be determined.</t>
+        </is>
+      </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Major_League_Baseball_Manager_of_the_Year_Award_1</t>
+          <t>List_of_cricket_grounds_in_India_30</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -6922,7 +6953,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>: There is no athlete from Turkey who was sanctioned for using the brand Primobolan according to the provided data. Therefore, the query cannot be fully resolved with the available information.</t>
+          <t>: There are no athletes from Turkey (the country with capital Ankara) sanctioned for using Primobolan, as confirmed by the provided data. Therefore, the birth date cannot be determined.</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6937,22 +6968,22 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Does Butan or Manila house a university with preschool level courses ?</t>
+          <t>Who beat the team in the World Series whose manager managed the Toronto Blue Jays from 1982 to 1985 ?</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Butuan</t>
+          <t>Minnesota Twins</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>: Based on the available information, we cannot definitively determine whether the University of Santo Tomas (UST) or Universidad de Manila (UdM) offer preschool level courses. There is no specific mention of preschool education in the provided materials or the database. For a conclusive answer, you would need to check the official websites or contact the institutions directly.</t>
+          <t>: New York Mets</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>List_of_indoor_arenas_in_the_Philippines_1</t>
+          <t>Major_League_Baseball_Manager_of_the_Year_Award_1</t>
         </is>
       </c>
       <c r="E263" t="n">
@@ -6962,47 +6993,47 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>What is the name of the racecourse whose location was recognized by the Queen in 1957 because of the presence of Windsor Castle ?</t>
+          <t>Does Butan or Manila house a university with preschool level courses ?</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Abingdon Racecourse</t>
+          <t>Butuan</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>: The name of the racecourse located near Windsor Castle is **Ascot Racecourse**. However, there is no evidence to support that the location of Ascot Racecourse was specifically recognized by the Queen in 1957. Therefore, the original query cannot be fully confirmed based on the available information.</t>
+          <t>: Yes, Butuan (likely intended as "Butan" in the query) houses a university with preschool level courses (Father Saturnino Urios University), but Manila does not have a university offering preschool courses based on the provided materials. The universities in Manila (Pamantasan ng Lungsod ng Maynila and Universidad de Manila) are described as offering tertiary education only, with no mention of preschool programs.</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>List_of_British_racecourses_2</t>
+          <t>List_of_indoor_arenas_in_the_Philippines_1</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>What are the remarks of the treasure whose present location is considered the oldest national museum in Japan ?</t>
+          <t>What is the name of the racecourse whose location was recognized by the Queen in 1957 because of the presence of Windsor Castle ?</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Letter from Dahui 's exile in Meizhou to his friend , the lay practitioner Wuxiang</t>
+          <t>Abingdon Racecourse</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>: There are no remarks available for treasures whose present location is the Tokyo National Museum, according to the provided data. If you have additional information or if you believe there might be an error, please let me know.</t>
+          <t>: Ascot Racecourse</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>List_of_National_Treasures_of_Japan_(writings__others)_2</t>
+          <t>List_of_British_racecourses_2</t>
         </is>
       </c>
       <c r="E265" t="n">
@@ -7012,22 +7043,22 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>What is the difference in age between the man who is chairman of the Clermont Group and Lucio Tan ?</t>
+          <t>What are the remarks of the treasure whose present location is considered the oldest national museum in Japan ?</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>25 years</t>
+          <t>Letter from Dahui 's exile in Meizhou to his friend , the lay practitioner Wuxiang</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>: The difference in age between the man who is the chairman of the Clermont Group (Richard Fred Chandler) and Lucio Tan is either 12 or 13 years.</t>
+          <t>: The remarks of the treasure whose present location is the Tokyo National Museum are: "Imported from China during the Nara period; thirteen circular markers of mother of pearl, two elliptical sound-holes and rosewood fittings at the ends; ink inscription inside the body states the year and place (Jiulong County) of production."</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>List_of_South_East_Asian_people_by_net_worth_2</t>
+          <t>List_of_National_Treasures_of_Japan_(writings__others)_2</t>
         </is>
       </c>
       <c r="E266" t="n">
@@ -7037,26 +7068,26 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>What is the name of the second oldest opponent he played against between 1989 and 1991 ?</t>
+          <t>What is the difference in age between the man who is chairman of the Clermont Group and Lucio Tan ?</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Mike Hallett</t>
+          <t>25 years</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>: The name of the second oldest opponent John Parrott played against between 1989 and 1991 is Mike Hallett.</t>
+          <t>: The table content is missing, so the age of the chairman of the Clermont Group and Lucio Tan cannot be determined. Therefore, the age difference cannot be calculated.</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>John_Parrott_1</t>
+          <t>List_of_South_East_Asian_people_by_net_worth_2</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -7072,7 +7103,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>: There is insufficient information to determine which highway, if any, was rerouted south of Tonawanda, and therefore, we cannot answer the original question about the length of the most heavily traveled part of the highway connected to it.</t>
+          <t>: 80 km</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7087,72 +7118,72 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>What district is the city in Austria that hosted the Diplomacy Tournament located in ?</t>
+          <t>What is the former name of the stadium where the only NFL team to record 20 straight winning seasons plays ?</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Oberpullendorf</t>
+          <t>Cowboys Stadium</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>: The provided materials do not contain information about the district in which Lockenhaus, the city that hosted the Diplomacy Tournament in Austria, is located. Additional information is needed to answer this question accurately.</t>
+          <t>: Cowboys Stadium</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>International_prize_list_of_Diplomacy_0</t>
+          <t>List_of_National_Football_League_attendance_figures_0</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>What is the former name of the stadium where the only NFL team to record 20 straight winning seasons plays ?</t>
+          <t>What is the name of the second oldest opponent he played against between 1989 and 1991 ?</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Cowboys Stadium</t>
+          <t>Mike Hallett</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>: The former name of the stadium where the Dallas Cowboys, the only NFL team to record 20 straight winning seasons, plays is Cowboys Stadium.</t>
+          <t>: The table content is missing, so it is impossible to determine the name of the second oldest opponent played against between 1989 and 1991.</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>List_of_National_Football_League_attendance_figures_0</t>
+          <t>John_Parrott_1</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>This former Ohio Senator and Representative also served as Chancellor of the Ohio Department of Higher Education , and he lives in a city that is the county seat of what county ?</t>
+          <t>What district is the city in Austria that hosted the Diplomacy Tournament located in ?</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Wood County</t>
+          <t>Oberpullendorf</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>: The former Ohio Senator and Representative who also served as Chancellor of the Ohio Department of Higher Education is Randall L. Gardner. He is associated with Lancaster, Ohio, which is the county seat of Fairfield County. Therefore, the city where he lives is the county seat of Fairfield County.</t>
+          <t>: Lockenhaus</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Ohio_House_of_Representatives,_127th_General_Assembly_0</t>
+          <t>International_prize_list_of_Diplomacy_0</t>
         </is>
       </c>
       <c r="E271" t="n">
@@ -7162,22 +7193,22 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Who does the skater to finish 18th in the short program compete with ?</t>
+          <t>This former Ohio Senator and Representative also served as Chancellor of the Ohio Department of Higher Education , and he lives in a city that is the county seat of what county ?</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Sarah May Coward</t>
+          <t>Wood County</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>: Based on the available information, Luka Čadež finished 18th in the short program at the 2008 NRW Trophy. However, the provided data does not include information about who Luka Čadež competes with. Additional context or a different data source would be required to answer the part of the question regarding Luka Čadež's competitors.</t>
+          <t>: Franklin County</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>2008_NRW_Trophy_0</t>
+          <t>Ohio_House_of_Representatives,_127th_General_Assembly_0</t>
         </is>
       </c>
       <c r="E272" t="n">
@@ -7197,7 +7228,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>: J. J. Barea played for the United States national basketball team.</t>
+          <t>: Puerto Rican national team</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -7206,78 +7237,78 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>What is the population of the home country of Elena Pingacheva ?</t>
+          <t>Who does the skater to finish 18th in the short program compete with ?</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>146.7 million</t>
+          <t>Sarah May Coward</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>: The population of the home country of Elena Pingacheva, which is Russia, is 146.7 million as of 2020.</t>
+          <t>: Georgi Kenchadze</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>1996_World_Junior_Figure_Skating_Championships_1</t>
+          <t>2008_NRW_Trophy_0</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>What is the 2018 population of the 'Notes on Poetic Style Through the Ages ' treasure 's present location ?</t>
+          <t>What is the population of the home country of Elena Pingacheva ?</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>1.47 million</t>
+          <t>146.7 million</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>: The information required to answer the query is not available in the provided data. We need the current location of the 'Notes on Poetic Style Through the Ages' treasure to proceed.</t>
+          <t>: 146.7 million</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>List_of_National_Treasures_of_Japan_(writings__Japanese_books)_0</t>
+          <t>1996_World_Junior_Figure_Skating_Championships_1</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>How many times did the Husky of Honor with a hometown in Glenn Heights , Texas win the Nancy Lieberman Award ?</t>
+          <t>What is the 2018 population of the 'Notes on Poetic Style Through the Ages ' treasure 's present location ?</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>1.47 million</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>: The Husky of Honor from Glenn Heights, Texas won the Nancy Lieberman Award 0 times.</t>
+          <t>: The title "Notes on Poetic Style Through the Ages" does not appear in the provided National Treasures of Japan (writings) database. Since the treasure's location cannot be identified from the available data, its 2018 population cannot be determined. The query likely references a non-existent or misspelled entry in the given materials.</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Huskies_of_Honor_1</t>
+          <t>List_of_National_Treasures_of_Japan_(writings__Japanese_books)_0</t>
         </is>
       </c>
       <c r="E276" t="n">
@@ -7287,22 +7318,22 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>What is the 1993 population estimate of the city that is the second-largest city in Myanmar ?</t>
+          <t>How many times did the Husky of Honor with a hometown in Glenn Heights , Texas win the Nancy Lieberman Award ?</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>885,287</t>
+          <t>two</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>: The 1993 population estimate of the city that is the second-largest city in Myanmar, which is Mandalay, is 885,287.</t>
+          <t>: 2</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>List_of_cities_in_Burma_0</t>
+          <t>Huskies_of_Honor_1</t>
         </is>
       </c>
       <c r="E277" t="n">
@@ -7312,47 +7343,47 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>The driver who finished at position 4 in the 2005 Japanese Grand Prix was of born in what year ?</t>
+          <t>What is the 1993 population estimate of the city that is the second-largest city in Myanmar ?</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>885,287</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>: The driver who finished at position 4 in the 2005 Japanese Grand Prix, Christian Klien, was born in the year 1983.</t>
+          <t>: 104,660</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>2005_Japanese_Grand_Prix_0</t>
+          <t>List_of_cities_in_Burma_0</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>How many uninterrupted baseball seasons of more wins than losses have happened at the university attended by Todd Moser ?</t>
+          <t>The driver who finished at position 4 in the 2005 Japanese Grand Prix was of born in what year ?</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>: Florida Atlantic University (FAU) has had 19 uninterrupted baseball seasons with more wins than losses as of the 2017 season.</t>
+          <t>: 1983</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>1999_College_Baseball_All-America_Team_0</t>
+          <t>2005_Japanese_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E279" t="n">
@@ -7372,7 +7403,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>: There is no evidence to support the presence of prehistoric immigrants from Lebanon in North America. Prehistoric migrations to North America primarily involved groups from East Asia who crossed the Bering land bridge during the last Ice Age, rather than from the Levant or Mediterranean regions. Therefore, the query about prehistoric immigrants to the continent of the nation with 500,000 residents of Lebanese origin (the United States) cannot be substantiated with the available historical and archaeological data.</t>
+          <t>: Paleo-Indians</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -7381,57 +7412,57 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>What is the nation of the athlete who was born on August 1 , 1979 ?</t>
+          <t>How many uninterrupted baseball seasons of more wins than losses have happened at the university attended by Todd Moser ?</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>: Based on the provided materials, there is no information about an athlete born on August 1, 1979. Therefore, I cannot determine the nation of the athlete with the specified birth date. If you have additional information or if the birth date is incorrect, please provide more details.</t>
+          <t>: 19</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>1997_World_Junior_Figure_Skating_Championships_0</t>
+          <t>1999_College_Baseball_All-America_Team_0</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>What was the house in Cass County as station of ?</t>
+          <t>What is the nation of the athlete who was born on August 1 , 1979 ?</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Underground Railway</t>
+          <t>China</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>: The house of Jarius Hitchcox in Cass County, Michigan, was used as a station on the Underground Railroad.</t>
+          <t>: The table content is missing, so the nation of the athlete born on August 1, 1979, cannot be determined from the provided information.</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>List_of_National_Historic_Landmarks_in_Iowa_0</t>
+          <t>1997_World_Junior_Figure_Skating_Championships_0</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -7447,7 +7478,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>: None of the teams that have won at least two MVC Tournament titles have won a title in a game where Indiana State was the runner-up. Therefore, there is no team that fits the criteria of winning their 2nd MVC Tournament title against Indiana State.</t>
+          <t>: The table content required to answer the query is missing. Without access to the table data containing MVC Tournament results, it is impossible to determine which team won their 2nd MVC Tournament title against Indiana State.</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -7462,22 +7493,22 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>What animal returns yearly to rear offspring in the park near La Pointe ?</t>
+          <t>What was the house in Cass County as station of ?</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Bald eagles</t>
+          <t>Underground Railway</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>: The park near La Pointe is **Guaracara Park**. However, the available information does not specify any animals that are known to return there annually to rear offspring. If you have more specific details or another source of information, please provide it so I can give a more precise response.</t>
+          <t>: Jarius Hitchcox House</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>National_Register_of_Historic_Places_listings_in_Ashland_County,_Wisconsin_0</t>
+          <t>List_of_National_Historic_Landmarks_in_Iowa_0</t>
         </is>
       </c>
       <c r="E284" t="n">
@@ -7487,68 +7518,72 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>In which state lays the burial place of the United States president that led the Union Army as Commanding General of the United States Army in winning the American Civil War ?</t>
+          <t>What animal returns yearly to rear offspring in the park near La Pointe ?</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>New York City</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr"/>
+          <t>Bald eagles</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>: The table content required to answer the query is not available, so the question cannot be answered with the provided information.</t>
+        </is>
+      </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>List_of_burial_places_of_Presidents_of_the_United_States_0</t>
+          <t>National_Register_of_Historic_Places_listings_in_Ashland_County,_Wisconsin_0</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>How many square km is the area of the country of the pair ranked 2nd at the 2011 NRW Trophy ?</t>
+          <t>What is the championship team whose top scorer was born on 25 November 1918 ?</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>357,386</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>: The area of Germany, the country of the pair ranked 2nd at the 2011 NRW Trophy, is 357,386 square kilometers.</t>
+          <t>: The table content is missing, so it is impossible to determine the championship team whose top scorer was born on 25 November 1918.</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>2011_NRW_Trophy_7</t>
+          <t>List_of_Serbian_football_champions_6</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>What is the championship team whose top scorer was born on 25 November 1918 ?</t>
+          <t>In which state lays the burial place of the United States president that led the Union Army as Commanding General of the United States Army in winning the American Civil War ?</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>: There is no evidence from the provided materials to suggest that Hajduk Split was the championship team in the 1948-49 season. Therefore, the championship team whose top scorer was born on 25 November 1918 could not be determined based on the available data.</t>
+          <t>: New York</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>List_of_Serbian_football_champions_6</t>
+          <t>List_of_burial_places_of_Presidents_of_the_United_States_0</t>
         </is>
       </c>
       <c r="E287" t="n">
@@ -7558,47 +7593,47 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>What is the population of the city for the school that opened in 1907 ?</t>
+          <t>How many square km is the area of the country of the pair ranked 2nd at the 2011 NRW Trophy ?</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>57,449 people</t>
+          <t>357,386</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>: The population of the city (Bromley) where Carmel Adventist College Primary is located is 87,889 as of 2011.</t>
+          <t>: 357386</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>List_of_schools_in_Perth,_Western_Australia_6</t>
+          <t>2011_NRW_Trophy_7</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>The driver who held the record for most Grand Prix victories until 2001 finished in what position ?</t>
+          <t>What is the population of the city for the school that opened in 1907 ?</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>57,449 people</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>: Alain Prost's final position in the Formula One World Championship standings in 1993 was 1st.</t>
+          <t>: The population of Bickley is not listed in the provided materials. The reference materials mention Bromley's population as 87,889 (for the entire Bromley town, not Bickley specifically) and describe Bickley as a suburb in Western Australia without population data. The SQL result incorrectly interpreted "population" as the count of schools (1), which is unrelated to human population. Therefore, the population of Bickley cannot be determined from the given information.</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>1984_Dallas_Grand_Prix_0</t>
+          <t>List_of_schools_in_Perth,_Western_Australia_6</t>
         </is>
       </c>
       <c r="E289" t="n">
@@ -7608,22 +7643,22 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>What is the residence of the Senator born September 18 , 1971 ?</t>
+          <t>The driver who held the record for most Grand Prix victories until 2001 finished in what position ?</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Toledo</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>: There is no senator born on September 18, 1971, based on the provided data.</t>
+          <t>: 1st</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>129th_Ohio_General_Assembly_0</t>
+          <t>1984_Dallas_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E290" t="n">
@@ -7643,7 +7678,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>: Bharathiar University is the institution established in 1982 that is located in a place also known as Kovai and Koyamuthur.</t>
+          <t>: Bharathiar University</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -7658,47 +7693,47 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>How many beds are available in the city named after the only U.S . Senator ever killed in military combat ?</t>
+          <t>What is the residence of the Senator born September 18 , 1971 ?</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>Toledo</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>: There are 25 beds available in Baker City, the city named after Edward Dickinson Baker, the only U.S. Senator ever killed in military combat.</t>
+          <t>: The table content required to answer the query is missing. Therefore, the residence of the Senator born September 18, 1971 cannot be determined from the provided information.</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>List_of_hospitals_in_Oregon_0</t>
+          <t>129th_Ohio_General_Assembly_0</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>How many seats is the twin turboprop transport/passenger aircraft designed in 1957 manufactured by the company that works closely with a turbine manufacturer located in Zaporizhia ?</t>
+          <t>How many beds are available in the city named after the only U.S . Senator ever killed in military combat ?</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>: The twin turboprop transport/passenger aircraft designed in 1957 by Antonov, specifically the Antonov An-24, has 44 seats.</t>
+          <t>: 25</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Turboprop_0</t>
+          <t>List_of_hospitals_in_Oregon_0</t>
         </is>
       </c>
       <c r="E293" t="n">
@@ -7708,48 +7743,47 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>what is the elevation of a dormant volcano in the Caucasus Mountains in Southern Russia , near the border with Georgia ?</t>
+          <t>How many seats is the twin turboprop transport/passenger aircraft designed in 1957 manufactured by the company that works closely with a turbine manufacturer located in Zaporizhia ?</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>5,642</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>: The elevation of a dormant volcano in the Caucasus Mountains in Southern Russia, near the border with Georgia, specifically Mount Elbrus, is 5,642 meters.</t>
+          <t>: The provided materials do not indicate the existence of a turbine manufacturer located in Zaporizhia. Zaporizhia is referenced as a Ukrainian city with industrial focus on steel, aluminum, and aircraft engines (e.g., Dnieper Hydroelectric Station), but no turbine manufacturer is associated with it. The only turbine manufacturer mentioned (Siemens Gamesa Renewable Energy) is based in Spain (Zamudio, Biscay), not Zaporizhia. Therefore, the premise of the query is invalid, and the seat count cannot be determined.</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>List_of_European_ultra_prominent_peaks_14</t>
+          <t>Turboprop_0</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>What is the full name of the person who won a medal in 1948 ?</t>
+          <t>what is the elevation of a dormant volcano in the Caucasus Mountains in Southern Russia , near the border with Georgia ?</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Mohammad-Jafar Salmasi</t>
+          <t>5,642</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>: Jafar Salmasi is the full name of the person who won a medal in 1948. 
-This answer is based on the provided SQL execution result which is specific to Iran's participation in the 1948 Olympics. If the context of the original table was different, please provide additional details or clarify the context.</t>
+          <t>: The table content required to answer the query was not provided, so the elevation of the dormant volcano cannot be determined from the available information.</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Iran_at_the_Olympics_3</t>
+          <t>List_of_European_ultra_prominent_peaks_14</t>
         </is>
       </c>
       <c r="E295" t="n">
@@ -7759,97 +7793,97 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Which Ohio county does Randy Gardner live in ?</t>
+          <t>What is the full name of the person who won a medal in 1948 ?</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Wood County</t>
+          <t>Mohammad-Jafar Salmasi</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>: Randy Gardner lives in Wood County, Ohio.</t>
+          <t>: The table content is missing, so the question cannot be answered.</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>127th_Ohio_General_Assembly_1</t>
+          <t>Iran_at_the_Olympics_3</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>What has the school of the tournament runner up of the 1990 America East Conference tournament won national championships in ?</t>
+          <t>Which Ohio county does Randy Gardner live in ?</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>skiing</t>
+          <t>Wood County</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>: The University of Vermont, the school of the tournament runner-up of the 1990 America East Conference tournament, has not won any national championships based on the available information. If you are interested in specific types of championships or achievements in other areas, please specify, and I can assist further.</t>
+          <t>: Wood County</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>America_East_Conference_11</t>
+          <t>127th_Ohio_General_Assembly_1</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>How many drivers does the constructor known as `` The Prancing Horse '' have ?</t>
+          <t>What has the school of the tournament runner up of the 1990 America East Conference tournament won national championships in ?</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>skiing</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>: According to the data from the 2004 Brazilian Grand Prix, Scuderia Ferrari S.p.A. had 0 drivers listed in the provided dataset for that particular race. However, it is important to note that Scuderia Ferrari S.p.A. typically fields two drivers per season in Formula One. The specific result pertains only to the 2004 Brazilian Grand Prix and may not represent the usual number of drivers associated with the constructor. If you require information for a different season or race, please provide additional data or specify the context.</t>
+          <t>: The school Vermont has won six national championships, all in skiing.</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>2004_Brazilian_Grand_Prix_0</t>
+          <t>America_East_Conference_11</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>The third busiest airport in Brazil has what IATA code ?</t>
+          <t>How many drivers does the constructor known as `` The Prancing Horse '' have ?</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>BSB</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>: The IATA code for the third busiest airport in Brazil, which is Presidente Juscelino Kubitschek International Airport, is BSB.</t>
+          <t>: 2</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Brazil_0</t>
+          <t>2004_Brazilian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E299" t="n">
@@ -7859,26 +7893,26 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>What is the % change of the Metropolitan statistical area which is built around the Mississippi river ?</t>
+          <t>The third busiest airport in Brazil has what IATA code ?</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>+8.37%</t>
+          <t>BSB</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>: The percentage change of the Metropolitan Statistical Area built around the Mississippi River, specifically the Minneapolis-Saint Paul-Bloomington MN-WI Metropolitan Statistical Area, is +8.37%.</t>
+          <t>: BSB</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>List_of_Metropolitan_Statistical_Areas_0</t>
+          <t>List_of_the_busiest_airports_in_Brazil_0</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -7894,7 +7928,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>: Based on the provided materials, Giancarlo Fisichella did not finish the 1999 Hungarian Grand Prix with the fastest lap. To accurately determine the total number of times he finished a race with the fastest lap during his entire Formula 1 career, additional data is required. Therefore, the answer to the original question is that we do not have enough information to state how many times Giancarlo Fisichella finished a race with the fastest lap over his entire career.</t>
+          <t>: 3</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -7903,7 +7937,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -7919,7 +7953,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>: Eugene Joseph O'Conor was a representative of the Buller electorate around 1887. If you have more specific details about an adjacent electorate, please provide them for a more accurate answer.</t>
+          <t>: The table content required to answer the query was not provided, making it impossible to determine the person associated with the electorate adjacent to Buller until 1887. Please ensure the relevant table content is included for accurate response.</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -7934,22 +7968,22 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>What is the league whose city has a history of over 2,200 years and was a major terminus of the maritime Silk Road ?</t>
+          <t>What is the % change of the Metropolitan statistical area which is built around the Mississippi river ?</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Hong Kong Premier League</t>
+          <t>+8.37%</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>: The leagues associated with the city of Guangzhou, which has a history of over 2,200 years and was a major terminus of the maritime Silk Road, are the Chinese Super League and the Hong Kong Premier League. The clubs representing Guangzhou in these leagues are Guangzhou Evergrande Taobao F.C and Guangzhou R &amp; F F.C in the Chinese Super League, and R &amp; F in the Hong Kong Premier League.</t>
+          <t>: The table content required to answer the query is missing. Please provide the table data for further assistance.</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Guangdong_1</t>
+          <t>List_of_Metropolitan_Statistical_Areas_0</t>
         </is>
       </c>
       <c r="E303" t="n">
@@ -7969,7 +8003,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>: There are no turboprop engine manufacturers from China listed in the provided dataset, so the number of cylinders used by manufacturers from China is 0.</t>
+          <t>: 14</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -7978,31 +8012,56 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
+          <t>What is the league whose city has a history of over 2,200 years and was a major terminus of the maritime Silk Road ?</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Hong Kong Premier League</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>: The city with a history of over 2,200 years and a major terminus of the maritime Silk Road is Quanzhou (also known as Zayton). Note: The query mentions "league," which may be a typographical error; the intended reference is likely to the city itself, as Quanzhou was a prominent port city along the maritime Silk Road during ancient times.</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Guangdong_1</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
           <t>Of the free and open source software browsers , which is currently on stable version 10 ?</t>
         </is>
       </c>
-      <c r="B305" t="inlineStr">
+      <c r="B306" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
       </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>: Based on the available information, there is no free and open-source software browser listed that has a current stable version of 10. If you have a specific browser in mind or additional details, please provide them for a more accurate response.</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>: There is no free and open source software browser currently on stable version 10, as major browsers like Firefox and Chromium have long since surpassed version 10 (e.g., Firefox 10 was released in 2011, and current versions are over 120).</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
         <is>
           <t>Mobile_browser_0</t>
         </is>
       </c>
-      <c r="E305" t="n">
+      <c r="E306" t="n">
         <v>0</v>
       </c>
     </row>

--- a/online_inference/evaluation/evaluation.xlsx
+++ b/online_inference/evaluation/evaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E306"/>
+  <dimension ref="A1:E235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>For the army that conflicted with the `` lashkars '' , what year did its soldier die ?</t>
+          <t>What suburb is the stadium for the bulls located in ?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3 November 1947</t>
+          <t>Arcadia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>: 1965</t>
+          <t>: Pretoria</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Param_Vir_Chakra_0</t>
+          <t>List_of_association_football_stadiums_by_country_6</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -488,122 +488,114 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>What is the state represented by the teen whose home town is one of the gateways to the Great Smoky Mountains National Park ?</t>
+          <t>What team drafted this player from Salisbury , North Carolina ?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tennessee</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>: Tennessee and North Carolina</t>
-        </is>
-      </c>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Miss_Teen_USA_special_awards_1</t>
+          <t>List_of_oldest_and_youngest_National_Basketball_Association_players_3</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>What was the format of an event also known as GP that took place in a season which was fifth season ?</t>
+          <t>What is the country for the airport that it at an elevation of 5 m ( 16 ft ) , therefore at risk of serious flooding ?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Team Limited</t>
+          <t>Belize City</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>: Booster Draft</t>
+          <t>: Belize</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Antoine_Ruel_0</t>
+          <t>List_of_the_busiest_airports_in_Central_America_4</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>What team drafted this player from Salisbury , North Carolina ?</t>
+          <t>What year does Orson Scott Card 's 1986 novel take place ?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>: The table content is missing, so it is impossible to determine which team drafted the player from Salisbury, North Carolina.</t>
-        </is>
-      </c>
+          <t>5270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>List_of_oldest_and_youngest_National_Basketball_Association_players_3</t>
+          <t>Orson_Scott_Card_bibliography_0</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>What year does Orson Scott Card 's 1986 novel take place ?</t>
+          <t>What was the format of an event also known as GP that took place in a season which was fifth season ?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5270</t>
+          <t>Team Limited</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>: 5270</t>
+          <t>: Booster Draft</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Orson_Scott_Card_bibliography_0</t>
+          <t>Antoine_Ruel_0</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>What is the country for the airport that it at an elevation of 5 m ( 16 ft ) , therefore at risk of serious flooding ?</t>
+          <t>The driver who finished in position 4 in the 2004 United States Grand Prix was of what nationality ?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Belize City</t>
+          <t>British</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>: The table content is missing, so it is impossible to determine the country of the airport at an elevation of 5 meters (16 feet).</t>
+          <t>: The table does not provide the nationality of the driver. The driver who finished in position 4 was Jenson Button, but nationality information is not included in the provided table content.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Central_America_4</t>
+          <t>2004_United_States_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -613,22 +605,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>What suburb is the stadium for the bulls located in ?</t>
+          <t>For the army that conflicted with the `` lashkars '' , what year did its soldier die ?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Arcadia</t>
+          <t>3 November 1947</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>: Woolloongabba</t>
+          <t>: 1948</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>List_of_association_football_stadiums_by_country_6</t>
+          <t>Param_Vir_Chakra_0</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -638,22 +630,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>The driver who finished in position 4 in the 2004 United States Grand Prix was of what nationality ?</t>
+          <t>What is the middle name of the player with the second most National Football League career rushing yards ?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>British</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>: The table content was not found, so the nationality of the driver who finished in position 4 in the 2004 United States Grand Prix cannot be determined from the provided data.</t>
+          <t>: The player with the second most National Football League career rushing yards is Walter Payton, and he does not have a middle name. His full name is Walter Payton, with "Walter" as his first name and "Payton" as his last name. The table does not list a middle name for any player, confirming that Walter Payton's name does not include a middle name.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2004_United_States_Grand_Prix_0</t>
+          <t>List_of_National_Football_League_rushing_yards_leaders_0</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -673,7 +665,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>: The table content is missing, so the information about the college that opened in 1981 and its land acreage cannot be determined.</t>
+          <t>: The table provided does not include a column for land area or acres of land. Therefore, the information about how many acres of land the college that opened in 1981 (All Saints' College) is located on cannot be determined from the given data.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -688,47 +680,47 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>What is the middle name of the player with the second most National Football League career rushing yards ?</t>
+          <t>Which noble families are referenced by the title of the movie parodied by The Gore of the Roses ?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jerry</t>
+          <t>Houses of York and Lancaster</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>: The table content is missing, so it is impossible to determine the middle name of the player with the second most National Football League career rushing yards.</t>
+          <t>: York and Lancaster</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>List_of_National_Football_League_rushing_yards_leaders_0</t>
+          <t>List_of_film_spoofs_in_Mad_4</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>where are located the terminals of the airport of the city the second most populous in Canada ?</t>
+          <t>How many square kilometers are in the county where Bangor is located ?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>The airport terminals are located entirely in the suburb of Dorval</t>
+          <t>2,448 km2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>: The terminals of the airport in the second most populous city of Canada (Montreal) are located in Dorval, Quebec.</t>
+          <t>: 2,448 km²</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Canada_5</t>
+          <t>Irish_Sea_0</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -738,22 +730,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Which championship occurred first ? Was it one which was originally raced in 1927 and won by Joe Davis , or the one which Judd Trump often wins ?</t>
+          <t>How many MVP where born after 1970 and venue was Madison Square Garden ?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>German Open</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>: The championship originally raced in 1927 and won by Joe Davis occurred first, as 1927 precedes 2019 (the year Judd Trump often wins his championship).</t>
+          <t>: 0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ronnie_O'Sullivan_0</t>
+          <t>Big_East_Men's_Basketball_Tournament_0</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -763,22 +755,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>How many square kilometers are in the county where Bangor is located ?</t>
+          <t>What is the state represented by the teen whose home town is one of the gateways to the Great Smoky Mountains National Park ?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2,448 km2</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>: 2,448</t>
+          <t>: Tennessee</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Irish_Sea_0</t>
+          <t>Miss_Teen_USA_special_awards_1</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -788,72 +780,72 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>The game released on 2011-05-17 developed by TopWare Interactive was subject to a lawsuit by what company ?</t>
+          <t>Which publication 's ranking put the person who finished the qualifying round of the French Grand Prix in 1:13.625 in 2001 at 30th out of all F1 drivers ?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Interplay Entertainment</t>
+          <t>Times Online 's</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>: Interplay Entertainment</t>
+          <t>: The table provided contains qualifying results for the 2001 French Grand Prix, where Juan Pablo Montoya (driver No. 6) recorded a lap time of 1:13.625 (qualifying position 6). However, the table does not include any publication rankings or information about drivers' positions ranked 30th out of all F1 drivers. The query references a publication ranking that is not present in the provided data, making it impossible to answer with the given table. The qualifying position (6th) differs from the claimed 30th rank, and no publication data is available to verify this claim.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>List_of_Games_for_Windows_titles_5</t>
+          <t>2001_French_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>At what Bay does the route end whose highway was first established in early 1922 between Highway 2 in Whitby and Lindsay ?</t>
+          <t>The game released on 2011-05-17 developed by TopWare Interactive was subject to a lawsuit by what company ?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Georgian</t>
+          <t>Interplay Entertainment</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>: Sturgeon Bay</t>
+          <t>: Interplay Entertainment</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>List_of_highways_in_Ontario_0</t>
+          <t>List_of_Games_for_Windows_titles_5</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Which noble families are referenced by the title of the movie parodied by The Gore of the Roses ?</t>
+          <t>What type of disaster hit the state whose name originates from the Ojibwe word mishigamaa ?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Houses of York and Lancaster</t>
+          <t>Wildfire</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>: The House of Lancaster and the House of York.</t>
+          <t>: Wildfire</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>List_of_film_spoofs_in_Mad_4</t>
+          <t>List_of_disasters_in_the_United_States_by_death_toll_1</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -863,22 +855,18 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Which author of the Kamakura period treasures died more recently ?</t>
+          <t>Which championship occurred first ? Was it one which was originally raced in 1927 and won by Joe Davis , or the one which Judd Trump often wins ?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fujiwara no Teika</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>: The table content required to answer the query is missing. Please provide the table data for further assistance.</t>
-        </is>
-      </c>
+          <t>German Open</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>List_of_National_Treasures_of_Japan_(writings__Japanese_books)_0</t>
+          <t>Ronnie_O'Sullivan_0</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -888,22 +876,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>How many MVP where born after 1970 and venue was Madison Square Garden ?</t>
+          <t>where are located the terminals of the airport of the city the second most populous in Canada ?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>The airport terminals are located entirely in the suburb of Dorval</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>: The table content is missing, so it is impossible to determine how many MVPs were born after 1970 and had a venue at Madison Square Garden. Please provide the table data for accurate analysis.</t>
+          <t>: The terminals of the airport serving Montreal (the second most populous city in Canada) are located in **Montreal**. This is confirmed by the airport listed in the table as "Montréal-Pierre Elliott Trudeau International Airport" (rank 4), which serves "Greater Montreal."</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Big_East_Men's_Basketball_Tournament_0</t>
+          <t>List_of_the_busiest_airports_in_Canada_5</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -913,47 +901,39 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Which publication 's ranking put the person who finished the qualifying round of the French Grand Prix in 1:13.625 in 2001 at 30th out of all F1 drivers ?</t>
+          <t>Which author of the Kamakura period treasures died more recently ?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Times Online 's</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>: Times Online</t>
-        </is>
-      </c>
+          <t>Fujiwara no Teika</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2001_French_Grand_Prix_0</t>
+          <t>List_of_National_Treasures_of_Japan_(writings__Japanese_books)_0</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>What type of disaster hit the state whose name originates from the Ojibwe word mishigamaa ?</t>
+          <t>At what Bay does the route end whose highway was first established in early 1922 between Highway 2 in Whitby and Lindsay ?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Wildfire</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>: Stampede</t>
-        </is>
-      </c>
+          <t>Georgian</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>List_of_disasters_in_the_United_States_by_death_toll_1</t>
+          <t>List_of_highways_in_Ontario_0</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -963,47 +943,47 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Which of the athletes from the country whose capital is Rabat was sanctioned for using a medication which is derived from DHT ?</t>
+          <t>Whose violation was the first one to occur in the 21st century ?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mouhcine Cheaouri</t>
+          <t>Tony Dees</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>: There are no athletes from Morocco (the country whose capital is Rabat) sanctioned for using medication derived from DHT, as confirmed by the absence of such cases in the provided doping records.</t>
+          <t>: Tony Dees</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>List_of_doping_cases_in_athletics_2</t>
+          <t>List_of_doping_cases_in_athletics_3</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Whose violation was the first one to occur in the 21st century ?</t>
+          <t>What is the 2010 Census of the Core-based statistical area that is home to more than 400 major corporate headquarter ?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tony Dees</t>
+          <t>9,461,105</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>: The table content is missing, so it is impossible to determine whose violation was the first one to occur in the 21st century.</t>
+          <t>: The provided table does not contain information about the number of corporate headquarters in each Core-based statistical area. Therefore, it is impossible to determine the 2010 Census figure for an area home to more than 400 major corporate headquarters based on the given data.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>List_of_doping_cases_in_athletics_3</t>
+          <t>List_of_Core_Based_Statistical_Areas_0</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1013,22 +993,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Which sects first settled the city which houses Rutgers University ?</t>
+          <t>What were the core subjects of the university attended by Fred Felber at the time of its establishment ?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Quakers and Baptists</t>
+          <t>liberal arts</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>: French</t>
+          <t>: The reference materials do not contain information about Fred Felber's university or its core subjects at the time of establishment. The table lists "North Dakota" as his college, but it does not provide historical details about the university's curriculum, founding principles, or core subjects. No additional data sources were provided to answer this query.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1989_NCAA_Women's_Division_I_Basketball_Tournament_2</t>
+          <t>List_of_Washington_Redskins_players_5</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1038,72 +1018,72 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>What is the 2010 Census of the Core-based statistical area that is home to more than 400 major corporate headquarter ?</t>
+          <t>What is the population of the location that contains a tree on the list that is a registered natural monument of the country ?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9,461,105</t>
+          <t>over one million people</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>: 9,461,105</t>
+          <t>: The location of the tree that is a registered natural monument is Abarkuh, Yazd. However, the population of Abarkuh, Yazd is not provided in the given table. Therefore, the population data cannot be determined from the provided information.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>List_of_Core_Based_Statistical_Areas_0</t>
+          <t>List_of_oldest_trees_1</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>What is the nationality of the driver that finished second at the 2001 Brazilian Grand Prix ?</t>
+          <t>Who is the director of the most recent film to feature one of Shende 's songs ?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>Gautham</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>: German</t>
+          <t>: Ilaiyaraja</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2001_Brazilian_Grand_Prix_0</t>
+          <t>Bela_Shende_0</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>What were the core subjects of the university attended by Fred Felber at the time of its establishment ?</t>
+          <t>What year did the university attended by Kentwan Balmer first start ending the practice of racially segregating students ?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>liberal arts</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>: liberal arts</t>
+          <t>: 1951</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>List_of_Washington_Redskins_players_5</t>
+          <t>List_of_Washington_Redskins_players_1</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1113,72 +1093,68 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Who is the director of the most recent film to feature one of Shende 's songs ?</t>
+          <t>What is the nationality of the driver that finished second at the 2001 Brazilian Grand Prix ?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Gautham</t>
+          <t>German</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>: Ilaiyaraja</t>
+          <t>: German</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Bela_Shende_0</t>
+          <t>2001_Brazilian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>What is the population of the location that contains a tree on the list that is a registered natural monument of the country ?</t>
+          <t>What historic place is located in a city where U.S . Highways 2 and 169 are two of the main roads ?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>over one million people</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>: 2,500,000</t>
-        </is>
-      </c>
+          <t>Frank Gran Farmstead</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>List_of_oldest_trees_1</t>
+          <t>National_Register_of_Historic_Places_listings_in_Itasca_County_Minnesota_0</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>What year did the university attended by Kentwan Balmer first start ending the practice of racially segregating students ?</t>
+          <t>What is the capacity in MW of the wind farm that was built in three phases , with the first coming online in 2002 , the second in 2009 and the third in 2019 ?</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>407</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>: 1951</t>
+          <t>: 407</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>List_of_Washington_Redskins_players_1</t>
+          <t>List_of_offshore_wind_farms_0</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1188,47 +1164,47 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>What historic place is located in a city where U.S . Highways 2 and 169 are two of the main roads ?</t>
+          <t>Who sponsors the distribution that is in-progress and using binary blobs ?</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Frank Gran Farmstead</t>
+          <t>Red Hat Inc.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>: Frank Gran Farmstead</t>
+          <t>: Fedora</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>National_Register_of_Historic_Places_listings_in_Itasca_County_Minnesota_0</t>
+          <t>List_of_Linux_distributions_endorsed_by_the_Free_Software_Foundation_1</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>What is the capacity in MW of the wind farm that was built in three phases , with the first coming online in 2002 , the second in 2009 and the third in 2019 ?</t>
+          <t>Which sects first settled the city which houses Rutgers University ?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>Quakers and Baptists</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>: 588</t>
+          <t>: Presbyterian</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>List_of_offshore_wind_farms_0</t>
+          <t>1989_NCAA_Women's_Division_I_Basketball_Tournament_2</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1238,122 +1214,118 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>How many Democrats were born in the month of June ?</t>
+          <t>Which of the athletes from the country whose capital is Rabat was sanctioned for using a medication which is derived from DHT ?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Mouhcine Cheaouri</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>: 0</t>
+          <t>: Mouhcine Cheaouri</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>129th_Ohio_General_Assembly_1</t>
+          <t>List_of_doping_cases_in_athletics_2</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Who sponsors the distribution that is in-progress and using binary blobs ?</t>
+          <t>The squash player that won the 2019 CIB Egyptian Tour had previously won the Under-15 British Junior Open Squash title the same year the Under-19 title winner was a player that would go on to win a gold medal in what games ?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Red Hat Inc.</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>: Free Software Foundation</t>
-        </is>
-      </c>
+          <t>2019 Pan American Games</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>List_of_Linux_distributions_endorsed_by_the_Free_Software_Foundation_1</t>
+          <t>British_Junior_Open_Squash_1</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>What is the release date of the game that features a number of new features and improvements to its predecessor , including multiplayer options ?</t>
+          <t>What was the major education bill of the president who appointed Gale Norton ?</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2010-09-28</t>
+          <t>No Child Left Behind Act</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>: November 2004</t>
+          <t>: The table does not contain information about education bills. Therefore, the major education bill of George W. Bush cannot be determined from the provided table content. However, historically, George W. Bush's major education bill was the No Child Left Behind Act (2002), but this is external knowledge not present in the given table.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>List_of_Games_for_Windows_titles_4</t>
+          <t>List_of_female_United_States_Cabinet_Secretaries_0</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>What is the nickname of the driver who finished with a time of 1:23.271 in the qualifying round of the 1998 British Grand Prix ?</t>
+          <t>How many boroughs does the 10th most populated metro area have ?</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>The Flying Finn</t>
+          <t>Seven</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>: The Flying Finn</t>
+          <t>: The table provided lists Mexican metropolitan areas and does not contain any information about boroughs. The term "boroughs" refers to administrative divisions in certain U.S. cities (e.g., New York City's five boroughs), but Mexican metropolitan areas are structured differently and do not use the term "boroughs." The 10th most populated metro area in the table is "Greater Querétaro," but the table does not include data on boroughs or administrative subdivisions. Therefore, the question cannot be answered using the provided materials.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1998_British_Grand_Prix_0</t>
+          <t>Metropolitan_areas_of_Mexico_0</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>How many boroughs does the 10th most populated metro area have ?</t>
+          <t>How many employees work for the company that is located in a country where there are ten provinces and three territories ?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Seven</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>: 16</t>
+          <t>: The table provided does not contain information about the number of employees for any company. Therefore, it is impossible to determine how many employees work for the company located in a country with ten provinces and three territories (Canada) based on the given data.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Metropolitan_areas_of_Mexico_0</t>
+          <t>Turboprop_0</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1363,68 +1335,68 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>How many employees work for the company that is located in a country where there are ten provinces and three territories ?</t>
+          <t>How many Democrats were born in the month of June ?</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>: 6,000</t>
+          <t>: 0</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Turboprop_0</t>
+          <t>129th_Ohio_General_Assembly_1</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>The squash player that won the 2019 CIB Egyptian Tour had previously won the Under-15 British Junior Open Squash title the same year the Under-19 title winner was a player that would go on to win a gold medal in what games ?</t>
+          <t>What is the release date of the game that features a number of new features and improvements to its predecessor , including multiplayer options ?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2019 Pan American Games</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>2010-09-28</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>: 2010-09-28</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>British_Junior_Open_Squash_1</t>
+          <t>List_of_Games_for_Windows_titles_4</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>What was the major education bill of the president who appointed Gale Norton ?</t>
+          <t>How many kilograms does the player recruited from the club nicknamed The Double Blues weigh ?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>No Child Left Behind Act</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>: The major education bill of the president who appointed Gale Norton (George W. Bush) was the No Child Left Behind Act.</t>
-        </is>
-      </c>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>List_of_female_United_States_Cabinet_Secretaries_0</t>
+          <t>2009_AFL_Draft_2</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1434,51 +1406,43 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Along what river is the town that the route which was redesignated as Leeds and Grenville County Road 32 goes to located ?</t>
+          <t>What people founded the place in Elmore ?</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Saint Lawrence</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>: Gananoque River</t>
-        </is>
-      </c>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>List_of_highways_in_Ontario_1</t>
+          <t>List_of_National_Historic_Landmarks_in_Alabama_0</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>What people founded the place in Elmore ?</t>
+          <t>Along what river is the town that the route which was redesignated as Leeds and Grenville County Road 32 goes to located ?</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>French</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>: Franklin H. Elmore</t>
-        </is>
-      </c>
+          <t>Saint Lawrence</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>List_of_National_Historic_Landmarks_in_Alabama_0</t>
+          <t>List_of_highways_in_Ontario_1</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1494,7 +1458,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>: No country submitted a film meeting the criteria, as the provided table content does not include director birth years, and all listed directors were born before 1944 (e.g., Miloš Forman, 1932; Volker Schlöndorff, 1939). The query's assumption of a director born in 1944 is unsupported by the available data.</t>
+          <t>: The tables do not include director birth years, so the query cannot be answered with the provided data.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1509,47 +1473,43 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>For whom was this neighborhood constructed in the 18th century located in the district whose name means old city in Catalan ?</t>
+          <t>Which player attended the school with athletic teams called Rainbow Warriors and Rainbow Wāhine ?</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>the Ribera neighborhood</t>
+          <t>Bill Blanchette</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>: The residents of the Ribera neighborhood.</t>
+          <t>: Bill Blanchette</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>List_of_libraries_in_Barcelona_0</t>
+          <t>1991_College_Baseball_All-America_Team_0</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>How many kilograms does the player recruited from the club nicknamed The Double Blues weigh ?</t>
+          <t>For whom was this neighborhood constructed in the 18th century located in the district whose name means old city in Catalan ?</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>: 0</t>
-        </is>
-      </c>
+          <t>the Ribera neighborhood</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2009_AFL_Draft_2</t>
+          <t>List_of_libraries_in_Barcelona_0</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1559,26 +1519,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Which player attended the school with athletic teams called Rainbow Warriors and Rainbow Wāhine ?</t>
+          <t>What is the name of the route that goes via the location whose population was 9,449 at the 2010 census ?</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Bill Blanchette</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>: The school with athletic teams called Rainbow Warriors and Rainbow Wāhine is the University of Hawaiʻi at Mānoa. However, based on the provided materials (which lack table content for player information), the specific player who attended this school cannot be identified. The reference materials only confirm the school's team names and do not list individual players.</t>
-        </is>
-      </c>
+          <t>CR 202</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1991_College_Baseball_All-America_Team_0</t>
+          <t>List_of_county_routes_in_Wayne_County,_New_York_1</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1594,7 +1550,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>: 28th</t>
+          <t>: The city containing the Charles M. Schulz Museum and Research Center is Santa Rosa. However, the provided table does not include population data or state population rankings, so the state population rank of Santa Rosa cannot be determined from the given information.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1603,53 +1559,53 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>What is the name of the route that goes via the location whose population was 9,449 at the 2010 census ?</t>
+          <t>What is the song title of the artist who is known for his participation in the Eurovision Song Contests of 1967 and 1969 ?</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CR 202</t>
+          <t>Ik heb zorgen</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>: The table content is missing, so it is impossible to determine the name of the route that goes via the location with a population of 9,449 at the 2010 census.</t>
+          <t>: Ik heb zorgen, Jennifer Jennings</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>List_of_county_routes_in_Wayne_County,_New_York_1</t>
+          <t>Eurosong_(Belgium)_4</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>What is the song title of the artist who is known for his participation in the Eurovision Song Contests of 1967 and 1969 ?</t>
+          <t>What is the nickname of the driver who finished with a time of 1:23.271 in the qualifying round of the 1998 British Grand Prix ?</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ik heb zorgen</t>
+          <t>The Flying Finn</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>: The song titles performed by Louis Neefs in the Eurovision Song Contest are **"Ik heb zorgen"** (1967) and **"Jennifer Jennings"** (1969).</t>
+          <t>: The Flying Finn</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Eurosong_(Belgium)_4</t>
+          <t>1998_British_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1659,22 +1615,18 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>What is the month of birth of the player with the fourth most National Football League career rushing yards ?</t>
+          <t>What is the shape of the parasite that can affect the human eye , brain , and skin and is often transmitted by thin lens placed directly on the surface of the eye ?</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>July</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>: July</t>
-        </is>
-      </c>
+          <t>Amoeboid</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>List_of_National_Football_League_rushing_yards_leaders_0</t>
+          <t>List_of_parasites_of_humans_0</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1684,22 +1636,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>What is the position of the driver that earned the CART Championship in 2002 ?</t>
+          <t>What is the month of birth of the player with the fourth most National Football League career rushing yards ?</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>July</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>: 1</t>
+          <t>: The table provided does not contain birth month information for any players, including Barry Sanders, who is the fourth-ranked player in career rushing yards. Therefore, the birth month cannot be determined from the given data.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2004_German_Grand_Prix_0</t>
+          <t>List_of_National_Football_League_rushing_yards_leaders_0</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1709,72 +1661,68 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>What is the shape of the parasite that can affect the human eye , brain , and skin and is often transmitted by thin lens placed directly on the surface of the eye ?</t>
+          <t>An author with 19 names penned a parody of a gameshow developed for the U.S. by Michael Davies that was originally hosted in American by what person ?</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Amoeboid</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>: The shape of the parasite that can affect the human eye, brain, and skin and is often associated with contact lens use (transmitted via thin lenses placed on the eye surface) is spherical. This refers to the cyst form of *Acanthamoeba*, a protozoan parasite commonly linked to ocular infections.</t>
-        </is>
-      </c>
+          <t>by Regis Philbin</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>List_of_parasites_of_humans_0</t>
+          <t>List_of_television_show_spoofs_in_Mad_5</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>An author with 19 names penned a parody of a gameshow developed for the U.S. by Michael Davies that was originally hosted in American by what person ?</t>
+          <t>What is the position of the driver that earned the CART Championship in 2002 ?</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>by Regis Philbin</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>: Regis Philbin</t>
+          <t>: 1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>List_of_television_show_spoofs_in_Mad_5</t>
+          <t>2004_German_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Where was the organization , who won the third staging of the championship , founded ?</t>
+          <t>What was the former name of the most recent landmark ?</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Hayes ' Hotel</t>
+          <t>Chalk Cave and Baird Cave</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>: The table content is missing, so the founding location of the organization that won the third staging of the championship cannot be determined.</t>
+          <t>: The table does not contain information about former names of landmarks. The most recent landmark listed is "Lake Shasta Caverns" (designated May 2012), but no former name is provided in the table. Therefore, the former name cannot be determined from the given data.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>All-Ireland_Senior_Football_Championship_records_and_statistics_0</t>
+          <t>List_of_National_Natural_Landmarks_in_California_0</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1794,7 +1742,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>: The table content required to answer the query is not available. Therefore, it is impossible to determine how many times the song "If You Do n't Know Me by Now" made the top ten singles in the United Kingdom.</t>
+          <t>: The provided table contains New Zealand's year-end number-one singles, not the United Kingdom's chart data. The song "If You Do n't Know Me by Now" by Simply Red appears in the table as a New Zealand number-one single for 1989 (5 weeks at number one), but the table does not include any information about the United Kingdom's top ten singles. Therefore, the query cannot be answered using the provided data.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1809,22 +1757,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Who is the older brother of the driver with a lap time of 1:33.297 ?</t>
+          <t>Where was the organization , who won the third staging of the championship , founded ?</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Michael Schumacher</t>
+          <t>Hayes ' Hotel</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>: The table content is missing, so it is impossible to determine the older brother of the driver with a lap time of 1:33.297. Please provide the table data for further assistance.</t>
+          <t>: Tipperary</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2001_Japanese_Grand_Prix_0</t>
+          <t>All-Ireland_Senior_Football_Championship_records_and_statistics_0</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1834,22 +1782,18 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>What was the former name of the most recent landmark ?</t>
+          <t>To what team did the athlete go who was from the team that was founded on 30 November 1896 as a sports club ?</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Chalk Cave and Baird Cave</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>: The table content was not found, so it is impossible to determine the former name of the most recent landmark.</t>
-        </is>
-      </c>
+          <t>Internazionale</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>List_of_National_Natural_Landmarks_in_California_0</t>
+          <t>Goalkeeper_(association_football)_0</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1869,7 +1813,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>: nepheline syenite</t>
+          <t>: The peak at 2,798 meters above sea level in Brazil is **Pedra da Mina** (located in São Paulo state, Serra da Mantiqueira range). The provided table does not mention "syenite" (a type of igneous rock) or any rock composition details. The term "syenite" appears to be a **typo or misunderstanding**, as the table only lists peak names, states, and elevations. The correct answer based on the table is **Pedra da Mina**.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1892,110 +1836,110 @@
           <t>46</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>: 36</t>
-        </is>
-      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
           <t>2009_Universitario_de_Deportes_season_0</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>What is the higher engine make/capacity value of a vehicle made in the largest city in Japan 's Chūbu region ?</t>
+          <t>What was the order of the religious people who lived at the building that was part of the largest medieval hospital in Denmark which King Christian I turned into an Augustinian priory 1497 ?</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>354 cc</t>
+          <t>Order of the Holy Ghost</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>: 354 cc</t>
+          <t>: The order of the religious people who lived at the Hospital of the Holy Ghost, Copenhagen after 1497 was **Augustinian canons**. This is confirmed by the table entry noting the transition from "Order of the Holy Ghost to 1497, Augustinian canons thereafter" and historical context that King Christian I converted the hospital into an Augustinian priory in 1497.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>List_of_microcars_by_country_of_origin__J_0</t>
+          <t>List_of_Christian_religious_houses_in_Denmark_0</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>To what team did the athlete go who was from the team that was founded on 30 November 1896 as a sports club ?</t>
+          <t>What is the higher engine make/capacity value of a vehicle made in the largest city in Japan 's Chūbu region ?</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Internazionale</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>354 cc</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>: The higher engine make/capacity value of a vehicle made in the largest city (Nagoya) in Japan's Chūbu region is **354 cc**, corresponding to the "Cony 360 Coach" manufactured by Aichi Machine Industry Co Ltd, Nagoya. This is the maximum engine capacity value for vehicles produced in Nagoya as confirmed by the table data.</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Goalkeeper_(association_football)_0</t>
+          <t>List_of_microcars_by_country_of_origin__J_0</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Which ship had the cannon with a caliber of less than 412.8 but more than 406 millimeters which was salvaged in the seventies ?</t>
+          <t>What city contains the home stadium of the winner of the 1993 John Hancock Bowl ?</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mutsu</t>
+          <t>Norman , Oklahoma</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>: Mutsu</t>
+          <t>: Norman</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>List_of_the_largest_cannon_by_caliber_2</t>
+          <t>Bowl_Coalition_0</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>What was the order of the religious people who lived at the building that was part of the largest medieval hospital in Denmark which King Christian I turned into an Augustinian priory 1497 ?</t>
+          <t>Which ship had the cannon with a caliber of less than 412.8 but more than 406 millimeters which was salvaged in the seventies ?</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Order of the Holy Ghost</t>
+          <t>Mutsu</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>: Carmelite friars</t>
+          <t>: The table does not contain information about salvage dates or ship names associated with the cannons. While the "41 cm/45 3rd Year Type" cannon (caliber 410 mm) meets the caliber requirement (406 mm &lt; 410 mm &lt; 412.8 mm), the table lacks data on salvage events or the specific ship it was mounted on. Therefore, the query cannot be answered with the provided information.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>List_of_Christian_religious_houses_in_Denmark_0</t>
+          <t>List_of_the_largest_cannon_by_caliber_2</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2005,47 +1949,47 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>What is the Chinese title of the film whose director was born on 7 March 1926 ?</t>
+          <t>What kind of dam is the tallest dam in Europe ?</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>梁山伯与祝英台</t>
+          <t>Gravity</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>: 瀛台泣血</t>
+          <t>: Concrete gravity</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>List_of_Hong_Kong_submissions_for_the_Academy_Award_for_Best_Foreign_Language_Film_0</t>
+          <t>List_of_tallest_dams_in_the_world_0</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>How many total championship points did the constructor win whose driver won the 2008 FIA GT Championship ?</t>
+          <t>How long , in kilometers , is the road that is the end of route CR 10A ?</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>522.59 km</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>: The information is not available in the provided content. The materials confirm Gianmaria Bruni won the 2008 FIA GT Championship but do not specify the constructor he drove for or the associated championship points.</t>
+          <t>: 1.75</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2004_Canadian_Grand_Prix_0</t>
+          <t>List_of_highways_in_Essex_County,_New_York_1</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2055,47 +1999,47 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>During the AFL 2013 draft , the 4th pick drafted by Western Bulldogs was born in what month ?</t>
+          <t>What year did the empire of Portugal establish the city of Santos Dumont Airport ?</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>1565</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>: November</t>
+          <t>: The question contains a misconception. Santos Dumont Airport is located in **Rio de Janeiro, Brazil**, not a city named "Santos Dumont." It is named after **Alberto Santos-Dumont** (1873–1932), a **Brazilian** aviation pioneer, not a Portuguese entity. The Portuguese Empire colonized Brazil but did not establish this airport. The provided table does not include the airport's establishment year, and the materials confirm it serves **Rio de Janeiro, Brazil**, with no historical or founding-year data. The airport was established in **1939** (external historical fact), but this is not reflected in the table. The query's premise is incorrect: Portugal's empire did not establish the airport, and the table lacks this information.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2013_AFL_Draft_1</t>
+          <t>List_of_the_busiest_airports_in_Latin_America_0</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>What highway passes by the airport in Canada that had 168,889 airplanes move in a year ?</t>
+          <t>What is the team for the racer who was brought in to replace fellow Italian Jarno Trulli ?</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Highway 2</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>: Highway 2</t>
+          <t>: Renault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Canada_8</t>
+          <t>2005_French_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2105,22 +2049,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>What kind of dam is the tallest dam in Europe ?</t>
+          <t>What highway passes by the airport in Canada that had 168,889 airplanes move in a year ?</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Gravity</t>
+          <t>Highway 2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>: Concrete gravity</t>
+          <t>: The airport with 168,889 aircraft movements is Edmonton International Airport. However, the provided table does not include information about highways passing by airports, so the specific highway cannot be determined from the given data.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>List_of_tallest_dams_in_the_world_0</t>
+          <t>List_of_the_busiest_airports_in_Canada_8</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2130,22 +2074,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>What city contains the home stadium of the winner of the 1993 John Hancock Bowl ?</t>
+          <t>How many total championship points did the constructor win whose driver won the 2008 FIA GT Championship ?</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Norman , Oklahoma</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>: Norman</t>
+          <t>: The table provided contains data from the 2004 Canadian Grand Prix (Formula 1), not the 2008 FIA GT Championship. The FIA GT Championship is a separate motorsport series, and the table does not include any information about the 2008 FIA GT Championship or its constructors/drivers. Therefore, the query cannot be answered using the provided table.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Bowl_Coalition_0</t>
+          <t>2004_Canadian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2155,47 +2099,47 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>The owner of Dufferin Communications is a radio broadcasting company that operates an AM station that is the only what in Manitoba ?</t>
+          <t>Who is the older brother of the driver with a lap time of 1:33.297 ?</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>multilingual radio station</t>
+          <t>Michael Schumacher</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>: AM station</t>
+          <t>: Michael Schumacher</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Media_in_Winnipeg_1</t>
+          <t>2001_Japanese_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>How long , in kilometers , is the road that is the end of route CR 10A ?</t>
+          <t>What is the Chinese title of the film whose director was born on 7 March 1926 ?</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>522.59 km</t>
+          <t>梁山伯与祝英台</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>: 1.75</t>
+          <t>: 霸王别姬</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>List_of_highways_in_Essex_County,_New_York_1</t>
+          <t>List_of_Hong_Kong_submissions_for_the_Academy_Award_for_Best_Foreign_Language_Film_0</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2205,22 +2149,22 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>What year did the empire of Portugal establish the city of Santos Dumont Airport ?</t>
+          <t>During the AFL 2013 draft , the 4th pick drafted by Western Bulldogs was born in what month ?</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1565</t>
+          <t>November</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>: The question contains a factual error. Santos Dumont Airport is located in **Rio de Janeiro, Brazil**, not in Portugal, and was not established by Portugal. The airport is named after **Alberto Santos Dumont**, a **Brazilian** aviation pioneer (1873–1932), and opened in **1939**. Portugal, as a colonial power, had no role in establishing the airport, as Brazil gained independence from Portugal in 1822. The provided materials confirm the airport serves Rio de Janeiro, Brazil, and is operated by Brazil's Infraero.</t>
+          <t>: The table does not contain birth month information for Marcus Bontempelli, so the birth month cannot be determined from the provided data.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Latin_America_0</t>
+          <t>2013_AFL_Draft_1</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2230,22 +2174,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>What is the team for the racer who was brought in to replace fellow Italian Jarno Trulli ?</t>
+          <t>At the 2010 census , what was the population of the town that is the end of route CR 7 ?</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>1,163</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>: Jordan</t>
+          <t>: The table provided does not include population data for any towns, including Elizabethtown (the endpoint of CR 7). Therefore, the 2010 census population of Elizabethtown cannot be determined from the given information.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2005_French_Grand_Prix_0</t>
+          <t>List_of_highways_in_Essex_County,_New_York_1</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2255,22 +2199,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>What island do the residents near the Lucerne shipwreck almost exclusively live on ?</t>
+          <t>What Constructor made the vehicle for the Driver who overall won 32 Formula One races , 22 pole positions and 1,899 points from 311 starts ?</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Madeline Island</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>: The table content is missing, so the information required to answer the query about the island near the Lucerne shipwreck cannot be retrieved.</t>
+          <t>: Ferrari</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>National_Register_of_Historic_Places_listings_in_Ashland_County,_Wisconsin_0</t>
+          <t>2004_Chinese_Grand_Prix_1</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2280,72 +2224,72 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>At the 2010 census , what was the population of the town that is the end of route CR 7 ?</t>
+          <t>Of the teams that did not play in the top division last season , the oldest one plays out of a stadium that was originally built to host what event ?</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1,163</t>
+          <t>1999 Summer Universiade in Palma</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>: 1,163</t>
+          <t>: The oldest team that did not play in the top division last season is Osasuna (first season in top division: 1935-36). However, the provided table and materials do not specify the original event for which El Sadar stadium was built. The answer cannot be determined from the given information.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>List_of_highways_in_Essex_County,_New_York_1</t>
+          <t>List_of_football_clubs_in_Spain_0</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>What Constructor made the vehicle for the Driver who overall won 32 Formula One races , 22 pole positions and 1,899 points from 311 starts ?</t>
+          <t>Which school is featured in the Netflix sport series that debuted on July 29 , 2016 ?</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>East Mississippi Community College</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>: Ferrari</t>
+          <t>: East Mississippi Community College</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2004_Chinese_Grand_Prix_1</t>
+          <t>List_of_original_programs_distributed_by_Netflix_9</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Of the teams that did not play in the top division last season , the oldest one plays out of a stadium that was originally built to host what event ?</t>
+          <t>What is the city of birth of the number 4 draft pick of the 2001 XFL Draft ?</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1999 Summer Universiade in Palma</t>
+          <t>Louisville</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>: There are no teams that did not play in the top division last season, as the SQL query returned an empty result. Therefore, the question cannot be answered.</t>
+          <t>: The city of birth for the 4th draft pick is not provided in the given materials. The table lists the player (Jeff Brohm) and college (Louisville), but does not include birthplace information.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>List_of_football_clubs_in_Spain_0</t>
+          <t>2001_XFL_Draft_0</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2355,47 +2299,43 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>What kind of figure was the namesake of the stadium that has the same capacity as the stadium opened in 1981 , but is located in the city known as `` the city under Marko 's Towers '' ?</t>
+          <t>What island do the residents near the Lucerne shipwreck almost exclusively live on ?</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Revolutionary</t>
+          <t>Madeline Island</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>: The namesake of the stadium is a **revolutionary**. The stadium in question is Goce Delčev Stadium, named after Goce Delčev, a Macedonian revolutionary and leader of the Internal Macedonian Revolutionary Organization (IMRO). The stadium is located in Prilep (the city known as "the city under Marko's Towers") and has a capacity of 15,000, matching the stadium opened in 1981 (Ecolog Arena).</t>
+          <t>: Long Island</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>List_of_football_stadiums_in_the_Republic_of_Macedonia_0</t>
+          <t>National_Register_of_Historic_Places_listings_in_Ashland_County,_Wisconsin_0</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Which school is featured in the Netflix sport series that debuted on July 29 , 2016 ?</t>
+          <t>How many million square kilometres is the country who had a player whose 2012-13 club 's arena is known locally as the Thunderdome ?</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>East Mississippi Community College</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>: East Mississippi Community College</t>
-        </is>
-      </c>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>List_of_original_programs_distributed_by_Netflix_9</t>
+          <t>List_of_Coventry_Blaze_players_0</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -2415,7 +2355,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>: 5.0</t>
+          <t>: 100%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2430,22 +2370,22 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>What is the capacity in MWs of the farm belonging to the company based in Edmonton ?</t>
+          <t>What branch is the youngest chief of defence from ?</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>149.4</t>
+          <t>Army</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>: 149.4</t>
+          <t>: Army</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>List_of_wind_farms_in_Canada_1</t>
+          <t>Chief_of_Defence_(Norway)_0</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2455,22 +2395,22 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>How many million square kilometres is the country who had a player whose 2012-13 club 's arena is known locally as the Thunderdome ?</t>
+          <t>The owner of Dufferin Communications is a radio broadcasting company that operates an AM station that is the only what in Manitoba ?</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>9.98</t>
+          <t>multilingual radio station</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>: 0.24</t>
+          <t>: The table does not contain information about Dufferin Communications as an owner, nor does it provide details about radio stations in Manitoba. The query references a location (Manitoba) and entity (Dufferin Communications) not present in the provided London, Ontario media table. Therefore, the question cannot be answered using the given data.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>List_of_Coventry_Blaze_players_0</t>
+          <t>Media_in_Winnipeg_1</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2480,22 +2420,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>What is the city of birth of the number 4 draft pick of the 2001 XFL Draft ?</t>
+          <t>What is the completion year for the church who 's ruins are currently being researched by members of the Jamestown Rediscovery project ?</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Louisville</t>
+          <t>1647</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>: Louisville</t>
+          <t>: The completion year for the church whose ruins are currently being researched by members of the Jamestown Rediscovery project is 1647. This corresponds to the Jamestown Church in Jamestown, Virginia, which was completed in 1647 and is noted as the oldest church in the original 13 colonies, with only floor tiles and foundations remaining from the original structure.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2001_XFL_Draft_0</t>
+          <t>List_of_the_oldest_churches_in_the_United_States_0</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2505,47 +2445,43 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>What is the completion year for the church who 's ruins are currently being researched by members of the Jamestown Rediscovery project ?</t>
+          <t>What kind of figure was the namesake of the stadium that has the same capacity as the stadium opened in 1981 , but is located in the city known as `` the city under Marko 's Towers '' ?</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1647</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>: 1639</t>
-        </is>
-      </c>
+          <t>Revolutionary</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>List_of_the_oldest_churches_in_the_United_States_0</t>
+          <t>List_of_football_stadiums_in_the_Republic_of_Macedonia_0</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Which year did the person who completed the qualifying race of the Canadian Grand Prix of 1999 in 1:19.440 first get onto the podium ?</t>
+          <t>What is the capacity in MWs of the farm belonging to the company based in Edmonton ?</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>149.4</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>: The qualifying time of 1:19.440 for the 1999 Canadian Grand Prix does not appear in the provided data. The fastest qualifying time listed in the table is 1:21.000 (Alexander Wurz, Position 11). Since no driver matches the queried time, the question cannot be answered as the required data is not present in the provided materials.</t>
+          <t>: 63.0</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1999_Canadian_Grand_Prix_0</t>
+          <t>List_of_wind_farms_in_Canada_1</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -2555,22 +2491,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>What branch is the youngest chief of defence from ?</t>
+          <t>Which year did the person who completed the qualifying race of the Canadian Grand Prix of 1999 in 1:19.440 first get onto the podium ?</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Army</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>: Army</t>
+          <t>: 1995</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Chief_of_Defence_(Norway)_0</t>
+          <t>1999_Canadian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -2580,97 +2516,89 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>What age did the driver who finished at position 6 at the 2005 European Grand Prix qualifier start go-karting ?</t>
+          <t>For how long was the husband of the actress that made her film debut in Last Action Hero ranked world No . 1 ?</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>three</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>: The table content required to answer the query was not provided, so the age of the driver who finished at position 6 at the 2005 European Grand Prix qualifier and the year they started go-karting cannot be determined.</t>
-        </is>
-      </c>
+          <t>286 weeks</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2005_European_Grand_Prix_0</t>
+          <t>Miss_Teen_USA_1</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>For how long was the husband of the actress that made her film debut in Last Action Hero ranked world No . 1 ?</t>
+          <t>What age did the driver who finished at position 6 at the 2005 European Grand Prix qualifier start go-karting ?</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>286 weeks</t>
+          <t>three</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>: 286 weeks</t>
+          <t>: The table provided does not contain information about the drivers' ages or when they started go-karting. The driver who finished at position 6 was Fernando Alonso, but the table only includes race results (position, constructor, lap time, etc.), not personal details like age or go-karting history. Therefore, the requested information cannot be determined from the given data.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Miss_Teen_USA_1</t>
+          <t>2005_European_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>What month was the driver with a gap of +3.926 born ?</t>
+          <t>What Trail has a section in the town that starts the highway that ends in a town on the eastern shore of Lake Huron at the mouth of the Maitland River ?</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>July</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>: The table content is missing, so it is impossible to determine the birth month of the driver with a gap of +3.926.</t>
-        </is>
-      </c>
+          <t>Bruce</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2001_Japanese_Grand_Prix_0</t>
+          <t>List_of_highways_in_Ontario_0</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Which publication designated the person who created the artwork King at Rest as renown in the northwestern region of the US ?</t>
+          <t>What is the national title of the film whose production country is a unitary parliamentary democracy and constitutional monarchy ?</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Willamette Week</t>
+          <t>Dogville</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>: The table content was not provided, so the question cannot be answered.</t>
+          <t>: Dogville, Match Point</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>List_of_public_art_in_Indianapolis_8</t>
+          <t>Golden_Eagle_Award_for_Best_Foreign_Language_Film_0</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -2680,118 +2608,118 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>What is the national title of the film whose production country is a unitary parliamentary democracy and constitutional monarchy ?</t>
+          <t>Which person had the most laps led from a winning manufacturer that had two men start the company on November 3 , 1911 with a pole position guy that had a three time champion of the Nascar Gander RV &amp; Outdoors Truck Series ?</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Dogville</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>: Dogville, Match Point</t>
-        </is>
-      </c>
+          <t>James Buescher</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Golden_Eagle_Award_for_Best_Foreign_Language_Film_0</t>
+          <t>2012_NASCAR_Camping_World_Truck_Series_0</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>What Trail has a section in the town that starts the highway that ends in a town on the eastern shore of Lake Huron at the mouth of the Maitland River ?</t>
+          <t>What is the area of the small old center of the city that Big Brother participant Ben Duncan is from ?</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Bruce</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
+          <t>1.12 square miles</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>: The table lists Ben Duncan's hometown as London, but it does not provide information about the specific area or small old center within London. Therefore, the requested area cannot be determined from the given table.</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>List_of_highways_in_Ontario_0</t>
+          <t>Big_Brother_11_(UK)_0</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Which person had the most laps led from a winning manufacturer that had two men start the company on November 3 , 1911 with a pole position guy that had a three time champion of the Nascar Gander RV &amp; Outdoors Truck Series ?</t>
+          <t>In which league was the player to debut against the Reggae Boyz the highest scorer ?</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>James Buescher</t>
+          <t>K League 1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>: James Buescher</t>
+          <t>: The table provided contains information about the South Korea national football team's debut records but does not include details about players' club leagues or scoring records. The player who debuted against Jamaica (the Reggae Boyz) is Lee Dong-Gook, but the table does not specify the league in which he was the highest scorer. Therefore, the required information is not available in the provided table.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2012_NASCAR_Camping_World_Truck_Series_0</t>
+          <t>South_Korea_national_football_team_records_2</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>In which league was the player to debut against the Reggae Boyz the highest scorer ?</t>
+          <t>What is the rank of the 555 meter South Korean building in the world in terms of height ?</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>K League 1</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>: K League 1</t>
+          <t>: The Lotte World Tower, with a height of 555 meters, is ranked **1st** in South Korea based on the provided table. The table lists rankings within South Korea, not globally. Therefore, the rank of the 555-meter building in South Korea is **1**. The query's reference to "the world" appears to be a misunderstanding, as the table does not provide global rankings.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>South_Korea_national_football_team_records_2</t>
+          <t>List_of_tallest_buildings_in_South_Korea_0</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>What is the area of the small old center of the city that Big Brother participant Ben Duncan is from ?</t>
+          <t>In what year was the lyricist of `` Jis dil mein basa tha pyaar tera '' born ?</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1.12 square miles</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>: City of London</t>
+          <t>: The table does not provide the birth year of the lyricist Indeevar. While the table confirms that Indeevar was the lyricist for the song "Jis dil mein basa tha pyaar tera" (1965), it contains no information about the lyricist's birth year. Therefore, the requested information is not available in the provided data.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Big_Brother_11_(UK)_0</t>
+          <t>Binaca_Geetmala_annual_list_1975_0</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -2801,22 +2729,22 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>In what month did the season conclude the year that Owen Turtenwald won the Grand Prix in Nice ?</t>
+          <t>On which date was this spacecraft decommissioned , which was built to explore the C-type asteroid composed of primitive carbonaceous material ?</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>1 November 2018</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>: December</t>
+          <t>: The table provided lists comets visited by spacecraft, not asteroids. The query asks about a spacecraft built to explore a C-type asteroid (composed of primitive carbonaceous material), but the table's "Body Discovered" entries are all comets. Therefore, the table does not contain information about spacecraft intended for C-type asteroids, as the listed missions were for comets. The spacecraft mentioned in the table (e.g., Rosetta, Dawn, Hayabusa) were designed for comet or asteroid missions, but the specific context of a C-type asteroid is not reflected in the table's data. The query cannot be answered using the provided table.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Owen_Turtenwald_0</t>
+          <t>List_of_comets_visited_by_spacecraft_3</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -2836,7 +2764,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>: The birth month of the number 3 ranked competitor is not provided in the given materials.</t>
+          <t>: The table provided does not contain information about the birth months of the competitors. Therefore, the month of birth for the number 3 ranked competitor (Elena Ivanova) cannot be determined from the given data.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2851,47 +2779,47 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>What is the rank of the 555 meter South Korean building in the world in terms of height ?</t>
+          <t>What is the name of the racecourse whose country was first inhabited by modern humans during the Upper Palaeolithic period ?</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>Bibury Racecourse</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>: 5</t>
+          <t>: The table provided does not contain information about when the countries (Wales or England) were first inhabited by modern humans during the Upper Palaeolithic period. The "Country" column lists the location of each racecourse, but the table does not include historical data regarding the habitation periods of these countries. Therefore, the query cannot be answered using the given table content.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>List_of_tallest_buildings_in_South_Korea_0</t>
+          <t>List_of_British_racecourses_2</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>On which date was this spacecraft decommissioned , which was built to explore the C-type asteroid composed of primitive carbonaceous material ?</t>
+          <t>What month was the driver with a gap of +3.926 born ?</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1 November 2018</t>
+          <t>July</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>: The spacecraft Hayabusa2 was decommissioned on December 20, 2020.</t>
+          <t>: The table provided does not contain information about the birth months of the drivers. Therefore, it is not possible to determine the month in which Fernando Alonso (the driver with a gap of +3.926) was born based on the given data.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>List_of_comets_visited_by_spacecraft_3</t>
+          <t>2001_Japanese_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -2901,22 +2829,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>In what year was the lyricist of `` Jis dil mein basa tha pyaar tera '' born ?</t>
+          <t>How many undergrad majors are in the university attended by Henry Ellard ?</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>: The birth year of Indeevar is not provided in the given reference materials. The mention of "1965" in the SQL execution result refers to the year a song with lyricist "Indeevar" appeared in the *Binaca Geetmala* annual chart, not Indeevar's birth year. The provided content does not include information about Indeevar's birth year.</t>
+          <t>: The table does not provide information about the number of undergrad majors at Fresno State University. Therefore, the answer cannot be determined from the given data.</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Binaca_Geetmala_annual_list_1975_0</t>
+          <t>List_of_Washington_Redskins_players_4</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -2926,22 +2854,22 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>When was the fastest driver for McLaren , Mercedes born ?</t>
+          <t>Where is this Publisher located whose Platform only has one entry on the list ?</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>28 September 1968</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>: The fastest driver for McLaren was born in 1968 (Mika Häkkinen), and the fastest driver for Mercedes was born in 1985 (Lewis Hamilton).</t>
+          <t>: The publishers with only one platform entry in the table are 10tacle Studios, Capcom, EA Sports, Electronic Arts, Microsoft Game Studios, Namco Bandai Games, Peter Stock, RedOctane, and THQ. The table does not contain location information for publishers, so the question about "where" is based on a misunderstanding of the data provided.</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1998_Luxembourg_Grand_Prix_0</t>
+          <t>2006_in_video_gaming_1</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -2951,22 +2879,22 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>What is the name of the racecourse whose country was first inhabited by modern humans during the Upper Palaeolithic period ?</t>
+          <t>What is the league whose city forms part of the Pearl River Delta megalopolis ?</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Bibury Racecourse</t>
+          <t>China Futsal Super League</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>The country first inhabited by modern humans during the Upper Paleolithic is Ethiopia, but the provided table contains only British racecourses (e.g., in England/Wales), and no racecourse in Ethiopia is listed in the reference materials. Therefore, no such racecourse name exists in the given data.&lt;/Answer&gt;</t>
+          <t>: China League One</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>List_of_British_racecourses_2</t>
+          <t>Guangdong_1</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -2976,47 +2904,47 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>How many undergrad majors are in the university attended by Henry Ellard ?</t>
+          <t>Which publication designated the person who created the artwork King at Rest as renown in the northwestern region of the US ?</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>Willamette Week</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>: 60</t>
+          <t>The New York Times&lt;/Answer&gt;</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>List_of_Washington_Redskins_players_4</t>
+          <t>List_of_public_art_in_Indianapolis_8</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>What is the league whose city forms part of the Pearl River Delta megalopolis ?</t>
+          <t>For the latest member to serve , what were some of the things her party opposed ?</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>China Futsal Super League</t>
+          <t>the abolition of slavery</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>: The table content is missing, so it is impossible to determine which league's city forms part of the Pearl River Delta megalopolis.</t>
+          <t>: The latest member to serve as Secretary of State of Puerto Rico was Marisara Pont Marchese (Party: PPD). However, the provided table does not contain information about what the PPD party opposed.</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Guangdong_1</t>
+          <t>List_of_Secretaries_of_State_of_Puerto_Rico_0</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -3026,22 +2954,22 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Where is this Publisher located whose Platform only has one entry on the list ?</t>
+          <t>In what month did the season conclude the year that Owen Turtenwald won the Grand Prix in Nice ?</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>August</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>: The table content is missing, so it is impossible to determine the location of the publisher whose platform has only one entry on the list.</t>
+          <t>: December</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2006_in_video_gaming_1</t>
+          <t>Owen_Turtenwald_0</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -3051,72 +2979,68 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Which concrete arch dam is located in the country home to the two global cities and economic centres of Zürich and Geneva ?</t>
+          <t>When was the fastest driver for McLaren , Mercedes born ?</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Mauvoisin Dam</t>
+          <t>28 September 1968</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>: Mauvoisin Dam</t>
+          <t>: The fastest driver for McLaren, Mercedes in the 1998 Luxembourg Grand Prix was Mika Häkkinen. However, the provided table does not contain birth date information for any drivers, so the birth year cannot be determined from the given data.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>List_of_tallest_dams_in_the_world_0</t>
+          <t>1998_Luxembourg_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>For the latest member to serve , what were some of the things her party opposed ?</t>
+          <t>What was the name of the prisoner who escape from Rio Piedras State Penitentiary in Puerto Rico ?</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>the abolition of slavery</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>: The materials do not specify what the PPD (Partido Popular Democrático) opposed. However, the provided content describes the Prohibition Party (PRO), which opposed alcohol consumption (temperance) and abortion (anti-abortion stance). Since the materials lack specific information about the PPD's positions, the answer relies on the only party-related oppositions mentioned (PRO), though this does not directly address the PPD.</t>
-        </is>
-      </c>
+          <t>William Lane</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>List_of_Secretaries_of_State_of_Puerto_Rico_0</t>
+          <t>List_of_helicopter_prison_escapes_0</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>What is the name of the airport in the city that is the most populous urban area in Central America ?</t>
+          <t>What was the last year of the athletic program at the post-secondary school attended by Junior Galette ?</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>La Aurora International Airport</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>: La Aurora International Airport</t>
+          <t>: 2015</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Central_America_4</t>
+          <t>List_of_Washington_Redskins_players_6</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -3126,72 +3050,64 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Near what pass is the volcano that last erupted in the Holocene era ?</t>
+          <t>What is the home city of competitor number 8 's team ?</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Santiam Pass</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>: The table content is missing, so it is impossible to determine the pass near the volcano that last erupted in the Holocene era.</t>
-        </is>
-      </c>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>List_of_Cascade_volcanoes_2</t>
+          <t>2013_New_York_Red_Bulls_season_1</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>What is the elevation of this park located in the district of 131,452 people in 2013 ?</t>
+          <t>Near what pass is the volcano that last erupted in the Holocene era ?</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>125 metres</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>: The provided materials do not contain elevation data for any park. The SQL execution result (Content 2) references park areas (e.g., "16,734.60㎥"), but elevation is not mentioned in either Content 1 or Content 2. Therefore, the elevation of the park in Jung District cannot be determined from the given information.</t>
-        </is>
-      </c>
+          <t>Santiam Pass</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>List_of_parks_in_Seoul_0</t>
+          <t>List_of_Cascade_volcanoes_2</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>What is the home city of competitor number 8 's team ?</t>
+          <t>In which year was the seat represented by the son of John Rempston split into two ?</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>1832</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>: The table content required to answer the query is missing. Please provide the table data to determine the home city of competitor number 8's team.</t>
+          <t>: John Rempston is not listed in the table. The table contains an entry for Thomas Rempston (not John Rempston), but there is no mention of John Rempston or his son. Therefore, the query cannot be answered as the premise is incorrect.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2013_New_York_Red_Bulls_season_1</t>
+          <t>Records_of_members_of_parliament_of_the_United_Kingdom_6</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -3201,97 +3117,93 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>What was the name of the prisoner who escape from Rio Piedras State Penitentiary in Puerto Rico ?</t>
+          <t>Which concrete arch dam is located in the country home to the two global cities and economic centres of Zürich and Geneva ?</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>William Lane</t>
+          <t>Mauvoisin Dam</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>: The provided table content does not contain any record of a prisoner escaping from Rio Piedras State Penitentiary in Puerto Rico. The SQL query executed against the available data returned no results, and the referenced materials (including the table content) do not list this specific escape event. While a real-life helicopter escape occurred at Rio Piedras State Penitentiary in Puerto Rico in 1974 (involving prisoners such as Luis "Chico" Rivera), this event is not documented in the provided materials. Therefore, the name of the prisoner cannot be determined from the given data.</t>
+          <t>: Mauvoisin Dam</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>List_of_helicopter_prison_escapes_0</t>
+          <t>List_of_tallest_dams_in_the_world_0</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>In which year was the seat represented by the son of John Rempston split into two ?</t>
+          <t>Located in Indianapolis , how many Grands Prix did this season consisted of where the event type usually takes place in the summer or autumn ?</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1832</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>: The table content is unavailable, so it is impossible to determine the year when the seat represented by the son of John Rempston was split into two.</t>
-        </is>
-      </c>
+          <t>Twenty</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Records_of_members_of_parliament_of_the_United_Kingdom_6</t>
+          <t>Luis_Scott-Vargas_0</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>What was the last year of the athletic program at the post-secondary school attended by Junior Galette ?</t>
+          <t>What city was the trainer of the 1967 American Horse of the Year born ?</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>Centreville</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>: 2015</t>
+          <t>: The table does not provide information about the birthplace or city of the trainer. The 1967 American Horse of the Year was trained by Frank Y. Whiteley, Jr., but the table does not include details about the trainer's birthplace.</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>List_of_Washington_Redskins_players_6</t>
+          <t>American_Horse_of_the_Year_1</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Who designed a house in the county seat of Anne Arundel County ?</t>
+          <t>What is the elevation of this park located in the district of 131,452 people in 2013 ?</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>William Buckland</t>
+          <t>125 metres</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>: The provided materials do not specify who designed a house in Annapolis, the county seat of Anne Arundel County. While the Brice House, Hammond-Harwood House, and William Paca House are mentioned as preserved 18th-century Georgian-style brick houses in Annapolis, the architect's name is not provided in the given content. Therefore, the designer cannot be identified from the available information.</t>
+          <t>: The provided data does not include elevation information for parks. The parks located in Jung-gu (the district with a population of 131,452 in 2013) are Hunlyunwon Park (area: 16,734.60㎥) and Hwangudan Park (area: 8,661.16㎡). Elevation is not recorded in the table.</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>List_of_National_Historic_Landmarks_in_Maryland_0</t>
+          <t>List_of_parks_in_Seoul_0</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -3301,22 +3213,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>What city was the trainer of the 1967 American Horse of the Year born ?</t>
+          <t>How many clinical departments are contained in the post-secondary school attended by Charles Mann ?</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Centreville</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>: The table content is missing, so it is impossible to determine the city where the trainer of the 1967 American Horse of the Year was born.</t>
+          <t>: The table does not contain information about clinical departments at Nevada, the post-secondary school attended by Charles Mann. Therefore, the number of clinical departments cannot be determined from the provided data.</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>American_Horse_of_the_Year_1</t>
+          <t>List_of_Washington_Redskins_players_12</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -3326,47 +3238,47 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Located in Indianapolis , how many Grands Prix did this season consisted of where the event type usually takes place in the summer or autumn ?</t>
+          <t>How many seasons did the driver who finished 8th in the 2004 Chinese Grand Prix qualifying round drive in Formula One ?</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Twenty</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>: 3</t>
+          <t>: 10</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Luis_Scott-Vargas_0</t>
+          <t>2004_Chinese_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>How many years is the claimed age of the city where 103+ were killed by a vehicle bomb on 27th of January ?</t>
+          <t>What is the single/pack of the artist who was born on 3 December 1948 ?</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>3,500</t>
+          <t>Guitar Hero Track Pack 1</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Over 3,500 years&lt;/Answer&gt;</t>
+          <t>: No matching artist found in the provided data. The table does not contain birth dates of artists, and the query references a date (3 December 1948) that does not correspond to any artist listed in the table.</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>List_of_mass_car_bombings_0</t>
+          <t>List_of_songs_in_Guitar_Hero_II_2</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -3376,97 +3288,97 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>How many clinical departments are contained in the post-secondary school attended by Charles Mann ?</t>
+          <t>What is the name of the airport in the city that is the most populous urban area in Central America ?</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>La Aurora International Airport</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>: 16</t>
+          <t>: The table does not provide population data for the cities served by the airports, so it is not possible to determine the airport in the most populous urban area of Central America based on the given information.</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>List_of_Washington_Redskins_players_12</t>
+          <t>List_of_the_busiest_airports_in_Central_America_4</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>How many seasons did the driver who finished 8th in the 2004 Chinese Grand Prix qualifying round drive in Formula One ?</t>
+          <t>Out of all top scorers , which one is the oldest ?</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>Per Kristoffersen</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>: 10</t>
+          <t>: The table does not contain age information for the leading goalscorers. Therefore, it is impossible to determine which top scorer is the oldest based on the provided data.</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2004_Chinese_Grand_Prix_0</t>
+          <t>List_of_Norwegian_football_league_champions_2</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>What is the single/pack of the artist who was born on 3 December 1948 ?</t>
+          <t>What was the time of the only driver in history to win seven Formula One World Championships , five of which he won consecutively ?</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Guitar Hero Track Pack 1</t>
+          <t>1:31.075</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>: No matching entry found in the provided data.</t>
+          <t>: The time of Michael Schumacher in the 2000 Australian Grand Prix, where he was driving for Ferrari, is **1:31.075**. This is the race time listed in the provided table for the driver who later won seven Formula One World Championships (with five consecutive titles). The "time" referenced in the query corresponds to the race duration recorded in the table, not the championship history.</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>List_of_songs_in_Guitar_Hero_II_2</t>
+          <t>2000_Australian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Out of all top scorers , which one is the oldest ?</t>
+          <t>What is the area in km squared of the country that has members of the Baka ethnic group ?</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Per Kristoffersen</t>
+          <t>79,343</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>: Carmelo Anthony</t>
+          <t>: The area in square kilometers of South Sudan (the country associated with the Baka ethnic group) is not provided in the given table. The table lists the country as "Western Equatoria in South Sudan" but does not include area data for any country.</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>List_of_Norwegian_football_league_champions_2</t>
+          <t>Ethnic_groups_in_Africa_4</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -3476,72 +3388,68 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>What was the time of the only driver in history to win seven Formula One World Championships , five of which he won consecutively ?</t>
+          <t>What temperature scale was invented in the city that was the capital of Sweden from 1273 to 1436 ?</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1:31.075</t>
+          <t>Celsius</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>: The only driver in history to win seven Formula One World Championships, with five consecutive titles, is Michael Schumacher. His five consecutive championships were won from 2000 to 2004. The query's reference to "time" appears to be a typo or misstatement; the intended question likely sought the driver's name or the years of consecutive wins.</t>
+          <t>: Celsius</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2000_Australian_Grand_Prix_0</t>
+          <t>List_of_former_national_capitals_6</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>The route that goes through Treadwell Road ends at a town with what 2010 population ?</t>
+          <t>Who designed a house in the county seat of Anne Arundel County ?</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2,411</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>: The table content is missing, so the 2010 population cannot be determined.</t>
-        </is>
-      </c>
+          <t>William Buckland</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>List_of_county_routes_in_Delaware_County,_New_York_0</t>
+          <t>List_of_National_Historic_Landmarks_in_Maryland_0</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>What temperature scale was invented in the city that was the capital of Sweden from 1273 to 1436 ?</t>
+          <t>How many Formula One races has the person who finished the qualifying race of the Canadian Grand Prix of 1999 in 1:20.378 obtained a win in ?</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Celsius</t>
+          <t>three</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>: Celsius</t>
+          <t>: 3</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>List_of_former_national_capitals_6</t>
+          <t>1999_Canadian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -3551,22 +3459,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>What is the area in km squared of the country that has members of the Baka ethnic group ?</t>
+          <t>The route that goes through Treadwell Road ends at a town with what 2010 population ?</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>79,343</t>
+          <t>2,411</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>: The area in square kilometers is not provided in the given materials. The reference materials mention "Western Equatoria in South Sudan" as the region associated with the Baka ethnic group, but they do not include the area (km²) of South Sudan or any specific country. Therefore, the requested information cannot be determined from the available data.</t>
+          <t>: The route that goes through Treadwell Road is CR 16, which ends at Franklin. However, the 2010 population data for Franklin is not provided in the given table.</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Ethnic_groups_in_Africa_4</t>
+          <t>List_of_county_routes_in_Delaware_County,_New_York_0</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -3576,22 +3484,22 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>What is the name of the bridge whose county 's population was 281,674 in 2010 ?</t>
+          <t>What division was the man in the Air Force in 1943 assigned to shortly before the US joined WWII ?</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Androscoggin Swinging Bridge</t>
+          <t>Air War Plans</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>The county with a population of 281,674 in 2010 could not be identified in the provided table, so the corresponding bridge name cannot be determined.&lt;/Answer&gt;</t>
+          <t>: Army Air Forces</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>List_of_bridges_on_the_National_Register_of_Historic_Places_in_Maine_0</t>
+          <t>List_of_Medal_of_Honor_recipients_for_World_War_II_19</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -3601,26 +3509,26 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>How many Formula One races has the person who finished the qualifying race of the Canadian Grand Prix of 1999 in 1:20.378 obtained a win in ?</t>
+          <t>In 1998 the Champion team was a part of what division ?</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>Atlantic Coast Conference of NCAA Division I soccer</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>: 3</t>
+          <t>: ACC</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1999_Canadian_Grand_Prix_0</t>
+          <t>ACC_Men's_Soccer_Tournament_0</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3651,22 +3559,22 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>What division was the man in the Air Force in 1943 assigned to shortly before the US joined WWII ?</t>
+          <t>What is the capacity of the stadium that was completed in March 1999 at a cost of A $ 690 million ?</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Air War Plans</t>
+          <t>83,500</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>: The query contains a historical inconsistency: the United States entered World War II on December 7, 1941, following the attack on Pearl Harbor. Therefore, "shortly before the US joined WWII" refers to late 1941, not 1943. Additionally, the table content required to answer this question was not provided, making it impossible to determine the specific division. The question likely contains a year error (1943 instead of 1941), and without the table or historical data, the division cannot be identified.</t>
+          <t>: 110,000</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>List_of_Medal_of_Honor_recipients_for_World_War_II_19</t>
+          <t>List_of_Oceanian_stadiums_by_capacity_0</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -3676,22 +3584,22 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>In 1998 the Champion team was a part of what division ?</t>
+          <t>When did the politician beaten by the current Minister of Mines and Energy resign as president of his party ?</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Atlantic Coast Conference of NCAA Division I soccer</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>: ACC</t>
+          <t>: The provided table contains information about the 2010 Brazilian gubernatorial elections, but it does not include any data related to the Minister of Mines and Energy (a federal position) or resignations of party presidents. The query references a "current" Minister of Mines and Energy, which cannot be verified against the 2010 gubernatorial election data. Therefore, the question cannot be answered using the provided table.</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>ACC_Men's_Soccer_Tournament_0</t>
+          <t>Brazilian_gubernatorial_elections,_2010_0</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -3701,97 +3609,85 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>What is the capacity of the stadium that was completed in March 1999 at a cost of A $ 690 million ?</t>
+          <t>How many years is the claimed age of the city where 103+ were killed by a vehicle bomb on 27th of January ?</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>83,500</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>: 110,000</t>
-        </is>
-      </c>
+          <t>3,500</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>List_of_Oceanian_stadiums_by_capacity_0</t>
+          <t>List_of_mass_car_bombings_0</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>When did the politician beaten by the current Minister of Mines and Energy resign as president of his party ?</t>
+          <t>What is the scheduling number of the site where the remains of a Romano-Celtic Temple can be found ?</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>: The table content is missing, so the information required to determine when the politician resigned as president of his party cannot be retrieved.</t>
-        </is>
-      </c>
+          <t>1008211</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Brazilian_gubernatorial_elections,_2010_0</t>
+          <t>List_of_National_Trust_properties_in_Somerset_0</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>What city hosted the World Championship in the season that Shouta Yasooka ranked 5th twice ?</t>
+          <t>What is the name of the bridge whose county 's population was 281,674 in 2010 ?</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Chiba</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>: Chiba</t>
-        </is>
-      </c>
+          <t>Androscoggin Swinging Bridge</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Shouta_Yasooka_0</t>
+          <t>List_of_bridges_on_the_National_Register_of_Historic_Places_in_Maine_0</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Which September 9 , 2000 main event person is youngest ?</t>
+          <t>What is the birthday of Ford 's oldest winning driver ?</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Justice Pain</t>
+          <t>October 28 , 1944</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>: The age information for the participants in the September 9, 2000 main event is not provided in the available materials.</t>
+          <t>: The table provided does not contain birthday information for any drivers. While the winning drivers for Ford-manufactured races are Joe Ruttman (races 9 and 16), Butch Miller (race 11), and Mike Bliss (race 17), the table lacks birthdates or age data. Therefore, the birthday of Ford's oldest winning driver cannot be determined from the given information.</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>CZW_Cage_of_Death_0</t>
+          <t>1995_NASCAR_SuperTruck_Series_presented_by_Craftsman_0</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -3811,7 +3707,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>: Rotterdam Ahoy</t>
+          <t>: Point Theatre</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3820,103 +3716,99 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>What is the birthday of Ford 's oldest winning driver ?</t>
+          <t>Which team did the driver that finished fastest in the qualifying round of the 2005 British Grand Prix make his Formula One debut with ?</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>October 28 , 1944</t>
+          <t>Minardi</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>: The birthday of Ford's oldest winning driver cannot be determined from the provided information, as the birthdates of the relevant drivers (Joe Ruttman, Butch Miller, Mike Bliss) are not included in the available data.</t>
+          <t>: Minardi</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1995_NASCAR_SuperTruck_Series_presented_by_Craftsman_0</t>
+          <t>2005_British_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>What is the scheduling number of the site where the remains of a Romano-Celtic Temple can be found ?</t>
+          <t>What is the nationality of the position 1 finisher of the 2000 San Marino Grand Prix ?</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1008211</t>
+          <t>Finnish</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>: No scheduling number is available for a site with Romano-Celtic Temple remains in the provided data. The SQL query and content review confirmed no such site exists in the given materials.</t>
+          <t>: Finnish</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>List_of_National_Trust_properties_in_Somerset_0</t>
+          <t>2000_San_Marino_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>What is the nationality of the position 1 finisher of the 2000 San Marino Grand Prix ?</t>
+          <t>Which conflict caused the second place team of Campeonato Paulista in 1908 to not mention its German roots ?</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Finnish</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>: Finnish</t>
-        </is>
-      </c>
+          <t>World War II</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2000_San_Marino_Grand_Prix_0</t>
+          <t>Campeonato_Paulista_1</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>What album was released in 1967 by American sunshine pop band of the 1960s that was a part of a label headquartered in Los Angeles , California ?</t>
+          <t>What city hosted the World Championship in the season that Shouta Yasooka ranked 5th twice ?</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Feelin ' Groovy</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>: Smile</t>
+          <t>: Paris</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Dick_Hyde_(musician)_0</t>
+          <t>Shouta_Yasooka_0</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -3926,72 +3818,68 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Which conflict caused the second place team of Campeonato Paulista in 1908 to not mention its German roots ?</t>
+          <t>Which city is located nearby this elaborate tomb in this country bordered by Romania to the north ?</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>World War II</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>: World War I</t>
-        </is>
-      </c>
+          <t>Kazanlak , Bulgaria</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Campeonato_Paulista_1</t>
+          <t>List_of_the_oldest_buildings_in_the_world_2</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Which team did the driver that finished fastest in the qualifying round of the 2005 British Grand Prix make his Formula One debut with ?</t>
+          <t>Which September 9 , 2000 main event person is youngest ?</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Minardi</t>
+          <t>Justice Pain</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>: Minardi</t>
+          <t>: The information about the ages of the participants in the September 9, 2000 main event ("Lobo vs. John Zandig versus Justice Pain") is not provided in the table. The table contains event details, names, and dates but does not include age data for the wrestlers. Therefore, it is impossible to determine who among Lobo, John Zandig, and Justice Pain is the youngest based on the given materials.</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2005_British_Grand_Prix_0</t>
+          <t>CZW_Cage_of_Death_0</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Which city is located nearby this elaborate tomb in this country bordered by Romania to the north ?</t>
+          <t>What film was directed by the director born on 28 November 1933 ?</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Kazanlak , Bulgaria</t>
+          <t>The Upthrown Stone</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>: The information about a city located near an elaborate tomb in Ukraine is not available in the provided materials. The table content does not contain relevant data, and the textual references do not mention any specific tomb or associated city in Ukraine.</t>
+          <t>: Palaver</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>List_of_the_oldest_buildings_in_the_world_2</t>
+          <t>List_of_submissions_to_the_42nd_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -4001,22 +3889,22 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>What film was directed by the director born on 28 November 1933 ?</t>
+          <t>Which university is the 1989 Most Outstanding Player of the America East Conference Men 's Basketball Tournament head basketball coach ?</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>The Upthrown Stone</t>
+          <t>New Jersey City University</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>: The Aviator</t>
+          <t>: Siena</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>List_of_submissions_to_the_42nd_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
+          <t>America_East_Men's_Basketball_Tournament_0</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -4036,7 +3924,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>: Detroit</t>
+          <t>: Dallas Stars</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4051,22 +3939,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>What the original name of the team that won the FAI Cup in the 1925 - 26 season when they were founded ?</t>
+          <t>The home stadium of the New York Jets is located how many miles west of New York City ?</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Fords F.C</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>: Fordsons</t>
+          <t>: The table does not provide information about the distance of MetLife Stadium from New York City. Therefore, the question cannot be answered using the provided data.</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>FAI_Cup_0</t>
+          <t>List_of_National_Football_League_attendance_figures_1</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -4076,22 +3964,22 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>How many trees are approximately growing in the city which contains City Road Cemetery ?</t>
+          <t>Who is the oldest Minardi , Ford driver ?</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>4.5 million</t>
+          <t>Luca Badoer</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>: Approximately 4.5 million trees.</t>
+          <t>: Luca Badoer</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>List_of_cemeteries_in_England_0</t>
+          <t>1999_European_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -4101,22 +3989,22 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Which university is the 1989 Most Outstanding Player of the America East Conference Men 's Basketball Tournament head basketball coach ?</t>
+          <t>How many years did the person who finished the qualifying round of the French Grand Prix of 1952 in 2:21.6 drive in Formula One ?</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>New Jersey City University</t>
+          <t>fourteen</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>: Siena College</t>
+          <t>: The table provided contains the 1952 French Grand Prix race results but does not include information about Maurice Trintignant's career duration in Formula One. Therefore, the number of years he drove in Formula One cannot be determined from the given table.</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>America_East_Men's_Basketball_Tournament_0</t>
+          <t>1952_French_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -4126,72 +4014,72 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>The home stadium of the New York Jets is located how many miles west of New York City ?</t>
+          <t>There 's a good chance Santiago J. Erevia is a graduate of what ?</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>US Army Air Assault School</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>: The home stadium of the New York Jets, MetLife Stadium, is located 8 miles west of New York City.</t>
+          <t>: The table provided does not contain information about Santiago J. Erevia's educational background or graduation. The table only includes details related to his military service, rank, unit, and actions during the Vietnam War. Therefore, it is not possible to determine what institution he graduated from based on the given data.</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>List_of_National_Football_League_attendance_figures_1</t>
+          <t>List_of_Hispanic_Medal_of_Honor_recipients_3</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Who is the oldest Minardi , Ford driver ?</t>
+          <t>What is the full name of the oldest suspended athlete that violated rules in 2010 or later ?</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Luca Badoer</t>
+          <t>Ahmed Ibrahim Baday</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>: Luca Badoer</t>
+          <t>: Ahmed Baday</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1999_European_Grand_Prix_0</t>
+          <t>List_of_doping_cases_in_athletics_1</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>What is the full name of the oldest suspended athlete that violated rules in 2010 or later ?</t>
+          <t>Which bridge spans the river that is the lower 12 miles ( 19 km ) of Washington state 's Green River ?</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Ahmed Ibrahim Baday</t>
+          <t>First Avenue South Bridge</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>: The table content required to answer the query is missing. Please provide the table data for further assistance.</t>
+          <t>: None of the bridges listed in the provided table span the Green River. The table includes bridges spanning bodies of water such as Lake Washington, Duwamish River, Salmon Bay, and others, but there is no bridge listed that spans the Green River or its lower 12 miles.</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>List_of_doping_cases_in_athletics_1</t>
+          <t>List_of_Seattle_bridges_0</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -4201,72 +4089,72 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>How many years did the person who finished the qualifying round of the French Grand Prix of 1952 in 2:21.6 drive in Formula One ?</t>
+          <t>What are fans of the football club with 2016 revenue less than 169.3 but more than 164.8 called ?</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>fourteen</t>
+          <t>Evertonians or Blues</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>: 14</t>
+          <t>No football club in the 2016 Deloitte Football Money League table has revenue between 164.8 and 169.3 € million. All listed clubs have revenues ≥180.4 € million.&lt;/Answer&gt;</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>1952_French_Grand_Prix_0</t>
+          <t>Deloitte_Football_Money_League_5</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Which bridge spans the river that is the lower 12 miles ( 19 km ) of Washington state 's Green River ?</t>
+          <t>Where is the channel that broadcasts multiple languages located ?</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>First Avenue South Bridge</t>
+          <t>Winnipeg , Manitoba</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>: No bridge in the provided data spans the lower 12 miles (19 km) of Washington state's Green River. The available table (List_of_Seattle_bridges_0.xlsx) lists bridges over waterways such as the Duwamish River, Lake Washington, and Lake Union, but does not reference any bridges over the Green River. SQL query results confirm the absence of such a bridge in the dataset.</t>
+          <t>: Winnipeg, Manitoba</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>List_of_Seattle_bridges_0</t>
+          <t>List_of_television_stations_in_Canada_2</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>There 's a good chance Santiago J. Erevia is a graduate of what ?</t>
+          <t>How many times was the player nicknamed The Georgia Peach runner-up ?</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>US Army Air Assault School</t>
+          <t>four</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>: The table content is missing, so it is not possible to determine Santiago J. Erevia's graduation institution.</t>
+          <t>: 0</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>List_of_Hispanic_Medal_of_Honor_recipients_3</t>
+          <t>List_of_Major_League_Baseball_home_run_champions_0</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -4276,26 +4164,26 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>What are fans of the football club with 2016 revenue less than 169.3 but more than 164.8 called ?</t>
+          <t>What the original name of the team that won the FAI Cup in the 1925 - 26 season when they were founded ?</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Evertonians or Blues</t>
+          <t>Fords F.C</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>: Evertonians or Blues</t>
+          <t>: Fordsons</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Deloitte_Football_Money_League_5</t>
+          <t>FAI_Cup_0</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -4311,7 +4199,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>: 1</t>
+          <t>: 0</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4326,22 +4214,22 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Where is the channel that broadcasts multiple languages located ?</t>
+          <t>What album was released in 1967 by American sunshine pop band of the 1960s that was a part of a label headquartered in Los Angeles , California ?</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Winnipeg , Manitoba</t>
+          <t>Feelin ' Groovy</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>: Winnipeg, Manitoba</t>
+          <t>: The album released in 1967 by the American sunshine pop band Harpers Bizarre, which was part of a label headquartered in Los Angeles, California (Warner Bros.), is "Feelin' Groovy".</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>List_of_television_stations_in_Canada_2</t>
+          <t>Dick_Hyde_(musician)_0</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -4351,26 +4239,22 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>How many times was the player nicknamed The Georgia Peach runner-up ?</t>
+          <t>What location was the twelfth season of the Magic 's event take place that was the main event of a minimum three-day mini-convention ?</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>four</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>: 0</t>
-        </is>
-      </c>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
         <is>
-          <t>List_of_Major_League_Baseball_home_run_champions_0</t>
+          <t>Paulo_Vitor_Damo_da_Rosa_0</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -4384,68 +4268,64 @@
           <t>Ron Brewer</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>: There is no former Most Outstanding Player (NBA MVP) who was a first-round draft selection of the Portland Trailblazers in 1978. The Trailblazers selected Jim Paxson in the first round (12th overall) of the 1978 NBA Draft, but he did not win the NBA MVP award during his career.</t>
-        </is>
-      </c>
+      <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
           <t>List_of_Southwestern_Athletic_Conference_Men's_Basketball_Tournament_Finals_broadcasters_0</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>What is the length in km of the county route that cross the eastern part of the american state of New York ?</t>
+          <t>What was the establishment year of the university attended by Willie Adams ?</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>: The table content required to answer the query was not found, so the length of the county route crossing the eastern part of New York State cannot be determined from the provided materials.</t>
+          <t>: The establishment year of New Mexico State University, attended by Willie Adams, is 1888.</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>List_of_county_routes_in_Fulton_County,_New_York_1</t>
+          <t>List_of_Washington_Redskins_players_0</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>What location was the twelfth season of the Magic 's event take place that was the main event of a minimum three-day mini-convention ?</t>
+          <t>How many trees are approximately growing in the city which contains City Road Cemetery ?</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>4.5 million</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>: The table content required to answer the query was not found, so the location of the twelfth season of the Magic's event cannot be determined.</t>
+          <t>: The city containing City Road Cemetery is Sheffield. According to the reference materials, Sheffield is estimated to contain around 4.5 million trees. Therefore, the approximate number of trees growing in the city is 4.5 million.</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Paulo_Vitor_Damo_da_Rosa_0</t>
+          <t>List_of_cemeteries_in_England_0</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -4459,11 +4339,7 @@
           <t>23,450㎡</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>: The area of the parks located in Gwangjin-gu (the district home to Konkuk University and Sejong University) is 23,450㎡ for Achasan Echological Park and 593,036㎡ for Children's Grand Park.</t>
-        </is>
-      </c>
+      <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
           <t>List_of_parks_in_Seoul_0</t>
@@ -4476,47 +4352,47 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>What was the establishment year of the university attended by Willie Adams ?</t>
+          <t>How many Formula One events did the person who finished the qualifying round of the San Marino Grand Prix of 1984 right behind Manfred Winkelhock compete in ?</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>: The establishment year of the university attended by Willie Adams (New Mexico State University) is 1888.</t>
+          <t>: The table provided only contains qualifying results for the 1984 San Marino Grand Prix and does not include information about the total number of Formula One events Eddie Cheever competed in. Therefore, the answer cannot be determined from the given table content.</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>List_of_Washington_Redskins_players_0</t>
+          <t>1984_San_Marino_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Which 1964 player is the oldest ?</t>
+          <t>What is the length in km of the county route that cross the eastern part of the american state of New York ?</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Syl Apps</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>: The table content is missing, so it is impossible to determine which 1964 player is the oldest.</t>
+          <t>: The table provided contains county routes for Fulton County, New York, which is located in the central part of the state, not the eastern part. None of the listed routes cross into the eastern portion of New York State. Therefore, there is no county route in the provided table that meets the criteria, and the length cannot be determined from the given data.</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>List_of_New_York_Rangers_draft_picks_0</t>
+          <t>List_of_county_routes_in_Fulton_County,_New_York_1</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -4526,22 +4402,22 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>What color is the mascot of the club who 's player is younger brother of former Collingwood and Fremantle player , Chris Tarrant ?</t>
+          <t>Which 1964 player is the oldest ?</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>Syl Apps</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>: grey</t>
+          <t>: Bob Graham</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2007_AFL_Draft_3</t>
+          <t>List_of_New_York_Rangers_draft_picks_0</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -4551,47 +4427,43 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Who is the brother of the winning driver of the pole position who drives the No . 14 Ford Mustang ?</t>
+          <t>What color is the mascot of the club who 's player is younger brother of former Collingwood and Fremantle player , Chris Tarrant ?</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Kurt Busch</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>: The table content required to answer the query is missing, so it is impossible to determine who is the brother of the winning driver of the pole position who drives the No. 14 Ford Mustang.</t>
-        </is>
-      </c>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2011_NASCAR_Camping_World_Truck_Series_0</t>
+          <t>2007_AFL_Draft_3</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>How many Formula One events did the person who finished the qualifying round of the San Marino Grand Prix of 1984 right behind Manfred Winkelhock compete in ?</t>
+          <t>Who is the brother of the winning driver of the pole position who drives the No . 14 Ford Mustang ?</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>Kurt Busch</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>: 100</t>
+          <t>: The table does not contain information about the brothers of the drivers or the Ford Mustang manufacturer, as the winning manufacturers listed are Toyota and Chevrolet. The query references a "No. 14 Ford Mustang," but the table's "Winning manufacturer" column shows Chevrolet for race No. 14 (Kevin Harvick), and Ford is not listed as a manufacturer in the provided data. Additionally, the table does not include any details about drivers' family relationships. Therefore, the query cannot be answered with the given table content.</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>1984_San_Marino_Grand_Prix_0</t>
+          <t>2011_NASCAR_Camping_World_Truck_Series_0</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -4601,22 +4473,22 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>How many players that were born in 1990 and were acquired in 2012 , were defencemen ( D ) ?</t>
+          <t>What racist policy did the 1881 Major League Baseball batting champion support ?</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>segregation</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>: 2</t>
+          <t>: racial segregation</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>HK_Lida_0</t>
+          <t>List_of_Major_League_Baseball_batting_champions_0</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -4634,64 +4506,60 @@
           <t>8</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>: 1</t>
-        </is>
-      </c>
+      <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
           <t>List_of_NHL_playoff_series_26</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>What racist policy did the 1881 Major League Baseball batting champion support ?</t>
+          <t>Which peninsula contains the passage grave first built in France in 4850 BC ?</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>segregation</t>
+          <t>Kernéléhen</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>: Cap Anson, the 1881 Major League Baseball batting champion, supported the "color line" policy, which enforced racial segregation in professional baseball by excluding Black players from Major League teams. This policy was a systemic racist practice that persisted until Jackie Robinson broke the color barrier in 1947.</t>
+          <t>: Brittany</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>List_of_Major_League_Baseball_batting_champions_0</t>
+          <t>List_of_the_oldest_buildings_in_the_world_0</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Which peninsula contains the passage grave first built in France in 4850 BC ?</t>
+          <t>What is the length ( km ) of the route whose via location is named after a Revolutionary War hero ?</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Kernéléhen</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>: Brittany</t>
+          <t>: 2.41</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>List_of_the_oldest_buildings_in_the_world_0</t>
+          <t>List_of_county_routes_in_Wayne_County,_New_York_1</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -4701,47 +4569,47 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>What is the length ( km ) of the route whose via location is named after a Revolutionary War hero ?</t>
+          <t>How many players that were born in 1990 and were acquired in 2012 , were defencemen ( D ) ?</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>: The table content was not found, so it is impossible to determine the length of the route whose via location is named after a Revolutionary War hero.</t>
+          <t>: 2</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>List_of_county_routes_in_Wayne_County,_New_York_1</t>
+          <t>HK_Lida_0</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>What is the full name of the politician that has served the most recently ?</t>
+          <t>This athlete was born in Allahabad in 1990 and won a bronze medal at the games ?</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Angela Dawn Craig</t>
+          <t>Ashish Kumar</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>: Mark Foley</t>
+          <t>: Vijay Kumar</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>List_of_LGBT_Americans_in_the_United_States_Congress_0</t>
+          <t>India_at_the_2010_Asian_Games_3</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -4751,22 +4619,22 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Regarding the routes that start at the county named in honor of an U.S. Revolution War general , which one of them has more than 3 miles of extension ?</t>
+          <t>What is the best achievement the racer who finished just behind Mark Webber at the San Marino Grand Prix of 2004 has gotten in the drivers ' championship of the world ?</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>CR 132</t>
+          <t>sixth</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>: No such route is listed in the provided materials. The county named in honor of a U.S. Revolution War general (Warren County, New York) does not have any documented routes exceeding 3 miles of extension in the available data. The materials describe Warren County's highway system as consisting of "short connectors" and lack specific route length details for verification.</t>
+          <t>: The driver who finished just behind Mark Webber (position 9) at the 2004 San Marino Grand Prix is Jarno Trulli. However, the provided table does not contain information about his best achievement in the drivers' championship. The table only includes race results for the 2004 San Marino Grand Prix and does not provide historical championship data.</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>List_of_county_routes_in_Fulton_County,_New_York_1</t>
+          <t>2004_San_Marino_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -4776,47 +4644,43 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>What is the best achievement the racer who finished just behind Mark Webber at the San Marino Grand Prix of 2004 has gotten in the drivers ' championship of the world ?</t>
+          <t>The senator representing a district that includes parts of Atoka , Choctaw , LeFlore , McCurtain and Pushmataha Counties , hails from a hometown that was named after a town in what state ?</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>sixth</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>: Runner-up (2nd place) in the 2001 Formula One World Drivers' Championship.</t>
-        </is>
-      </c>
+          <t>Nebraska</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2004_San_Marino_Grand_Prix_0</t>
+          <t>List_of_current_members_of_the_Oklahoma_Senate_0</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>The senator representing a district that includes parts of Atoka , Choctaw , LeFlore , McCurtain and Pushmataha Counties , hails from a hometown that was named after a town in what state ?</t>
+          <t>What is the full name of the politician that has served the most recently ?</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Nebraska</t>
+          <t>Angela Dawn Craig</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>: Oklahoma</t>
+          <t>: Angie Craig</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>List_of_current_members_of_the_Oklahoma_Senate_0</t>
+          <t>List_of_LGBT_Americans_in_the_United_States_Congress_0</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -4826,72 +4690,72 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>This athlete was born in Allahabad in 1990 and won a bronze medal at the games ?</t>
+          <t>Regarding the routes that start at the county named in honor of an U.S. Revolution War general , which one of them has more than 3 miles of extension ?</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ashish Kumar</t>
+          <t>CR 132</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>: Vijay Kumar</t>
+          <t>: CR 132</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>India_at_the_2010_Asian_Games_3</t>
+          <t>List_of_county_routes_in_Fulton_County,_New_York_1</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>What is the full name of the earliest player of the year ?</t>
+          <t>What is the net worth of the Governor of the state that was admitted to the Union on June 20 , 1863 ?</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Mário Rui Correia Tomás</t>
+          <t>$ 1.59 billion</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>: J.R. Reid</t>
+          <t>: The net worth of the Governor of West Virginia, the state admitted to the Union on June 20, 1863, is **$1.59 billion** (Jim Justice, Governor of West Virginia, 2017-present).</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>SJPF_Segunda_Liga_Player_of_the_Month_0</t>
+          <t>List_of_richest_American_politicians_2</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>What is the net worth of the Governor of the state that was admitted to the Union on June 20 , 1863 ?</t>
+          <t>What is the location whose winner was born on September 17 , 1978 ?</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>$ 1.59 billion</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>: The net worth of the Governor of West Virginia (the state admitted to the Union on June 20, 1863) cannot be determined from the provided table content, as no relevant data was available in the missing table.</t>
+          <t>: No such location exists in the provided data. The table does not contain any information about winners' birth dates, making it impossible to determine the location based on the given query.</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>List_of_richest_American_politicians_2</t>
+          <t>2004_LPGA_Tour_0</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -4901,22 +4765,22 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>what is the event of the competition that lasted from 6/22-6/25 ?</t>
+          <t>When was the person with the Time of 1:40.240 born ?</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Triple Jump</t>
+          <t>1 January 1981</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>: The table content is missing, so the event of the competition that lasted from 6/22-6/25 cannot be determined.</t>
+          <t>: The table provided does not contain birth date information for any drivers. Therefore, the birth date of Zsolt Baumgartner (the driver with Time 1:40.240) cannot be determined from the given data.</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Will_Claye_1</t>
+          <t>2004_Chinese_Grand_Prix_1</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -4926,72 +4790,72 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>What is the location whose winner was born on September 17 , 1978 ?</t>
+          <t>What was the final position of the skater from the country occupied by the Soviet Union during World War II in the free skating segment ?</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>: The table content is missing, so the location of the winner born on September 17, 1978, cannot be determined.</t>
+          <t>: 17</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2004_LPGA_Tour_0</t>
+          <t>2009_Coupe_Internationale_de_Nice_1</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>How many municipalities are located in the state that transmits XETLAXHPBSD ?</t>
+          <t>This politician from a Ohio city with a population of 10,546 , served as a Representative for what district before becoming an Ohio Senator ?</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>7th District</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>: 570</t>
+          <t>: 1</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Sistema_de_Radiodifusoras_Culturales_Indigenistas_0</t>
+          <t>Ohio_House_of_Representatives,_127th_General_Assembly_0</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>When was the person with the Time of 1:40.240 born ?</t>
+          <t>What is the full name of the earliest player of the year ?</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>1 January 1981</t>
+          <t>Mário Rui Correia Tomás</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>: 1981</t>
+          <t>: Marinho</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2004_Chinese_Grand_Prix_1</t>
+          <t>SJPF_Segunda_Liga_Player_of_the_Month_0</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -5001,22 +4865,22 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>This politician from a Ohio city with a population of 10,546 , served as a Representative for what district before becoming an Ohio Senator ?</t>
+          <t>What is the year of the song title whose artist has sold over 19 million albums worldwide ?</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>7th District</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>: The provided materials do not include an Ohio city with a population of 10,546. The only Ohio city referenced in the materials is Columbus, which has a population of 892,533 (as of 2018 estimates), significantly larger than the queried value. Therefore, the question cannot be answered based on the given information.</t>
+          <t>: The year of the song title whose artist has sold over 19 million albums worldwide is 2006. This corresponds to the My Chemical Romance songs "Famous Last Words," "Teenagers," and "This Is How I Disappear" listed in the table under the "My Chemical Romance Pack" release.</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Ohio_House_of_Representatives,_127th_General_Assembly_0</t>
+          <t>List_of_songs_in_Guitar_Hero_II_2</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -5026,22 +4890,22 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>What was the final position of the skater from the country occupied by the Soviet Union during World War II in the free skating segment ?</t>
+          <t>what is the event of the competition that lasted from 6/22-6/25 ?</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>Triple Jump</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>: The table content is missing, so the final position of the skater cannot be determined.</t>
+          <t>: The table does not contain date information for competitions, so it is not possible to determine the event of a competition that lasted from June 22 to June 25 based on the provided data.</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2009_Coupe_Internationale_de_Nice_1</t>
+          <t>Will_Claye_1</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -5051,47 +4915,43 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>What is the year of the song title whose artist has sold over 19 million albums worldwide ?</t>
+          <t>How many municipalities are located in the state that transmits XETLAXHPBSD ?</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>: The year of the song cannot be determined from the provided materials, as the reference content only identifies Whitney Houston as the artist with over 19 million album sales (200 million worldwide) but does not include song titles or release years. The table content required to answer the year query was missing.</t>
-        </is>
-      </c>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>List_of_songs_in_Guitar_Hero_II_2</t>
+          <t>Sistema_de_Radiodifusoras_Culturales_Indigenistas_0</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>What genre was the earliest album ?</t>
+          <t>Who won the championship in the year where the Stars made the playoffs ?</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>progressive rock</t>
+          <t>Montreal Canadiens</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>: The table content is missing, so it is impossible to determine the genre of the earliest album. Please provide the table data for accurate information.</t>
+          <t>: The Montreal Canadiens won the NHL championship in 1968, the year the Dallas Stars made the playoffs. This is confirmed by the 1968 Stanley Cup playoffs, where the Montreal Canadiens defeated the St. Louis Blues in four straight games to claim the title.</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>List_of_year-end_number-one_albums_(New_Zealand)_0</t>
+          <t>List_of_NHL_playoff_series_13</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -5111,7 +4971,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>: A parasite controls minds in the game *Resident Evil 4*, released on October 25, 2005. The game's plot involves villagers infected by a mind-controlling parasite, which is the mechanism responsible for the mind control described in the game's narrative.</t>
+          <t>: The games released on October 25, 2005, are Resident Evil 4 and Civilization IV. The phrase "controls minds" appears to be a typo or error in the query, as the table does not contain information about mind control features. The correct answer based on the provided table is Resident Evil 4 and Civilization IV.</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5120,28 +4980,28 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>In what year was the university in the 196th highest population city in the US formally adopted by the state ?</t>
+          <t>What was the literal English translation of the name of the currency used until 2009 in the country where the capital and largest city is Bratislava ?</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>1901</t>
+          <t>Slovak crown</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>: The query cannot be answered because the required table content (listing US cities by population and university adoption years) is missing. The provided materials only mention Denver (19th most populous) and Portland (25th most populous), but no data exists for the 196th highest population city or related university adoption information. Without the necessary table data, the question cannot be resolved.</t>
+          <t>: crown</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>List_of_Beta_Upsilon_Chi_chapters_0</t>
+          <t>Currencies_of_the_European_Union_1</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -5151,22 +5011,18 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Who won the championship in the year where the Stars made the playoffs ?</t>
+          <t>What was the name of the person who was attacked in the biggest city that is the largest city in the United States on the US-Canadian border ?</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Montreal Canadiens</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>: Dallas Stars</t>
-        </is>
-      </c>
+          <t>Elizabeth Rivera</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
-          <t>List_of_NHL_playoff_series_13</t>
+          <t>Fatal_dog_attacks_in_the_United_States_6</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -5176,47 +5032,47 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Who are allowed in the event that was held at Yokohama among other places and was located at San Francisco ?</t>
+          <t>What position was the oldest driver in 2010 Masters of Formula 3 race ?</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>All players</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>: The table content required to answer the query was not found, so it is impossible to determine who was allowed in the event based on the provided information.</t>
+          <t>: 18</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Luis_Scott-Vargas_0</t>
+          <t>2010_Masters_of_Formula_3_0</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>What was the name of the person who was attacked in the biggest city that is the largest city in the United States on the US-Canadian border ?</t>
+          <t>Of the athletes from the United States , who was born later ?</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Elizabeth Rivera</t>
+          <t>Michael Weiss</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>: The table content is missing, so the query cannot be answered.</t>
+          <t>: The table does not contain birth date information for any athletes, so it is impossible to determine who was born later among the United States athletes. The provided data includes only ranks, names, nations, and competition scores (SP, FS, TFP).</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Fatal_dog_attacks_in_the_United_States_6</t>
+          <t>Figure_skating_at_the_1998_Winter_Olympics_0</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -5226,22 +5082,22 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>What was the literal English translation of the name of the currency used until 2009 in the country where the capital and largest city is Bratislava ?</t>
+          <t>In what year was the university in the 196th highest population city in the US formally adopted by the state ?</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Slovak crown</t>
+          <t>1901</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>: crown</t>
+          <t>: The provided table does not contain population data for the cities listed, so it is impossible to determine which city is the 196th highest in population or the year a university in that city was formally adopted by the state. The query requires information beyond the scope of the given table.</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Currencies_of_the_European_Union_1</t>
+          <t>List_of_Beta_Upsilon_Chi_chapters_0</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -5251,22 +5107,22 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>What position was the oldest driver in 2010 Masters of Formula 3 race ?</t>
+          <t>Who are allowed in the event that was held at Yokohama among other places and was located at San Francisco ?</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>All players</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>: 9</t>
+          <t>: The table does not provide information about who is allowed to participate in the events. It only lists Luis Scott-Vargas' rank in each event. Additionally, there is no event listed in the table held at Yokohama, and the location "San Francisco" appears in the table for events in 2007 and 2011, but the table does not contain participant details.</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2010_Masters_of_Formula_3_0</t>
+          <t>Luis_Scott-Vargas_0</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -5276,22 +5132,22 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Of the athletes from the United States , who was born later ?</t>
+          <t>Which river borders the village that is home to the Ratcliffe-on-Soar Power Station ?</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Michael Weiss</t>
+          <t>River Soar</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>: Jillian Camarena-Williams</t>
+          <t>: River Trent</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Figure_skating_at_the_1998_Winter_Olympics_0</t>
+          <t>List_of_tallest_structures_in_the_United_Kingdom_3</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -5301,47 +5157,47 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Which river borders the village that is home to the Ratcliffe-on-Soar Power Station ?</t>
+          <t>What is the Location for the organization that is also known as `` DelPark '' ?</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>River Soar</t>
+          <t>Stanton</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>: River Soar</t>
+          <t>: Stanton, Delaware</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>List_of_tallest_structures_in_the_United_Kingdom_3</t>
+          <t>Delaware_Sports_Museum_and_Hall_of_Fame_0</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>What is the Location for the organization that is also known as `` DelPark '' ?</t>
+          <t>What is the population of the city that was the capital of Ireland from 1642 to 1651 ?</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Stanton</t>
+          <t>26,512</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>: Stanton, Delaware</t>
+          <t>: The table provided does not include population data for any cities. The capital city of Ireland from 1642 to 1651 was Kilkenny (as confirmed by the table), but population figures are not listed in the given table content. Therefore, the population cannot be determined from the provided information.</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Delaware_Sports_Museum_and_Hall_of_Fame_0</t>
+          <t>List_of_former_national_capitals_6</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -5351,22 +5207,22 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>How many people established the football club whose 2018 revenue was less than 355.6 but more than 272.5 ?</t>
+          <t>What genre was the earliest album ?</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>eighteen</t>
+          <t>progressive rock</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>: The table content is missing, so the query cannot be answered.</t>
+          <t>: The table does not contain genre information for any albums, so the genre of the earliest album (Pink Floyd's "The Dark Side of the Moon" from 1975) cannot be determined from the provided data.</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Deloitte_Football_Money_League_2</t>
+          <t>List_of_year-end_number-one_albums_(New_Zealand)_0</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -5376,22 +5232,22 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>What is the population of the city that was the capital of Ireland from 1642 to 1651 ?</t>
+          <t>When did the home arena of the Calgary Flames receive its current name ?</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>26,512</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>: The population of Dublin from 1642 to 1651 is not provided in the given materials. While Dublin was confirmed as the capital of Ireland during that period, the materials only include modern population figures (2016 data) and lack historical population data for the 17th century.</t>
+          <t>: The table lists the Calgary Flames' home arena as "Scotiabank Saddledome" but does not provide information about when the arena received its current name. Therefore, the specific year of the name change cannot be determined from the provided data.</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>List_of_former_national_capitals_6</t>
+          <t>List_of_National_Hockey_League_attendance_figures_5</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -5401,22 +5257,18 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>When did the home arena of the Calgary Flames receive its current name ?</t>
+          <t>Which route connects , the freeway begins at the Peace Bridge in Fort Erie and the highway that was established in 1937 due to rerouting of Highway 9 ?</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>: The Calgary Flames' home arena received its current name, Scotiabank Saddledome, in 2004.</t>
-        </is>
-      </c>
+          <t>Highway 25</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
-          <t>List_of_National_Hockey_League_attendance_figures_5</t>
+          <t>List_of_highways_in_Ontario_1</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -5426,22 +5278,22 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>When did the team with the second most games played change the spelling of their name ?</t>
+          <t>What was the personal name of the Emperor whose documents currently reside at Daitōkyū Memorial Library ?</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>Liu Qi</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>: The team with the second most games played is the Dallas Stars. They changed their name from "Minnesota North Stars" to "Dallas Stars" for the 1993-94 NHL season (not a spelling change, but a full rebranding due to relocation). The answer is **1993-94**.</t>
+          <t>: Jing</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>List_of_NHL_playoff_series_23</t>
+          <t>List_of_National_Treasures_of_Japan_(writings__Chinese_books)_1</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -5451,47 +5303,43 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>What is the name of the best selling album from rock band formed in Liverpool ?</t>
+          <t>How many points for championships were gained by the person who finished the qualifying round of the British Grand Prix of 1952 right behind Ken Downing ?</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Sgt . Pepper 's Lonely Hearts Club Band</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>: Abbey Road</t>
-        </is>
-      </c>
+          <t>nine</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
-          <t>List_of_best-selling_albums_1</t>
+          <t>1952_British_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Which route connects , the freeway begins at the Peace Bridge in Fort Erie and the highway that was established in 1937 due to rerouting of Highway 9 ?</t>
+          <t>How many people established the football club whose 2018 revenue was less than 355.6 but more than 272.5 ?</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Highway 25</t>
+          <t>eighteen</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>: Highway 403</t>
+          <t>: The table does not provide information about the number of people who established any football clubs. The query asks for a count of founders, but the table only contains financial data (revenue) and club rankings. Therefore, the question cannot be answered with the provided information.</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>List_of_highways_in_Ontario_1</t>
+          <t>Deloitte_Football_Money_League_2</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -5501,26 +5349,22 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>What was the personal name of the Emperor whose documents currently reside at Daitōkyū Memorial Library ?</t>
+          <t>When did the team with the second most games played change the spelling of their name ?</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Liu Qi</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>: The table content required to answer the query was not found, so the personal name of the Emperor whose documents reside at Daitōkyū Memorial Library cannot be determined from the provided materials.</t>
-        </is>
-      </c>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
-          <t>List_of_National_Treasures_of_Japan_(writings__Chinese_books)_1</t>
+          <t>List_of_NHL_playoff_series_23</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -5536,7 +5380,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>: The capacity of the stadium located in Neiva, the capital city of the Department of Huila, is 40,000.</t>
+          <t>: The capacity of the stadium located in Neiva, the capital city of the Department of Huila, is 27,000. This is confirmed by the stadium "Estadio Guillermo Plazas Alcid" listed in the table under Neiva with a capacity of 27,000.</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5545,32 +5389,32 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>How many points for championships were gained by the person who finished the qualifying round of the British Grand Prix of 1952 right behind Ken Downing ?</t>
+          <t>What is the nationality of the person to have most recently found a fossil ?</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>nine</t>
+          <t>British</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>: 9</t>
+          <t>: Kenyan</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1952_British_Grand_Prix_0</t>
+          <t>List_of_human_evolution_fossils_2</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -5586,7 +5430,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>: The provided materials do not mention a site targeted by explosives at the 1996 Summer Olympics. Historical context (Centennial Olympic Park bombing) is not reflected in the given reference materials, which only discuss shooting events, unrelated bombings, and general Olympic details without referencing explosives or a targeted site during the 1996 Games. Therefore, the answer cannot be determined from the provided content.</t>
+          <t>: Centennial Olympic Park</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5595,78 +5439,74 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Which line has a station located at the intersection of 36th Street and Northern Boulevard in Queens ?</t>
+          <t>Which river flows through this city that has the largest football stadium in England ?</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Queens Boulevard Line</t>
+          <t>the River Thames</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>: Queens Boulevard Line</t>
+          <t>: Thames</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>List_of_New_York_City_Subway_stations_in_Queens_1</t>
+          <t>List_of_rugby_league_stadiums_by_capacity_0</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>What school did the player who was a pitcher for the Colorado Rockies of Major League Baseball ( MLB ) in 1996 and 1997 attend ?</t>
+          <t>Which line has a station located at the intersection of 36th Street and Northern Boulevard in Queens ?</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Florida State</t>
+          <t>Queens Boulevard Line</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>: The table content required to answer the query is unavailable, so the school attended by the player cannot be determined.</t>
+          <t>: Queens Boulevard Line</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>1991_College_Baseball_All-America_Team_0</t>
+          <t>List_of_New_York_City_Subway_stations_in_Queens_1</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>The city that has a population of approximately 90,000 as at the 2016 Census has what school ?</t>
+          <t>Who is the developer of the game that features a new game engine , added weapons and vehicles , and new multiplayer maps ?</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Al-Hidayah Islamic School</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>: The provided materials do not contain information about a city with a population of approximately 90,000 as at the 2016 Census. No matching city or associated school can be identified from the available data.</t>
-        </is>
-      </c>
+          <t>Hired Gun</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr">
         <is>
-          <t>List_of_schools_in_Perth,_Western_Australia_6</t>
+          <t>List_of_Games_for_Windows_titles_1</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -5676,22 +5516,22 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Who is the developer of the game that features a new game engine , added weapons and vehicles , and new multiplayer maps ?</t>
+          <t>The city that has a population of approximately 90,000 as at the 2016 Census has what school ?</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Hired Gun</t>
+          <t>Al-Hidayah Islamic School</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>: Bungie</t>
+          <t>: The provided table does not contain population data for any suburbs or LGAs. Since the table lacks a population column and the SQL query returned no matches for a suburb or LGA with a population of approximately 90,000, **the question cannot be answered using the given table**. The table only lists school names, suburbs, LGAs, categories, opening years, and websites, but does not include demographic or population statistics.</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>List_of_Games_for_Windows_titles_1</t>
+          <t>List_of_schools_in_Perth,_Western_Australia_6</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -5701,47 +5541,47 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>What is the nationality of the person to have most recently found a fossil ?</t>
+          <t>Who is the daughter of the directer of the Argentinian film ?</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>British</t>
+          <t>Guadalupe Subiela</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>: British</t>
+          <t>: The director of the Argentinian film "The Dark Side of the Heart" is Eliseo Subiela. However, the table does not provide information about the director's family members, including his daughter. Therefore, the name of the director's daughter cannot be determined from the given table content.</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>List_of_human_evolution_fossils_2</t>
+          <t>List_of_submissions_to_the_65th_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Which river flows through this city that has the largest football stadium in England ?</t>
+          <t>What is the name of the best selling album from rock band formed in Liverpool ?</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>the River Thames</t>
+          <t>Sgt . Pepper 's Lonely Hearts Club Band</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>: Thames</t>
+          <t>: The best-selling album from the rock band formed in Liverpool (The Beatles) is "1".</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>List_of_rugby_league_stadiums_by_capacity_0</t>
+          <t>List_of_best-selling_albums_1</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -5751,22 +5591,22 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>From where did the Generalleutnant ranked pilot graduate ?</t>
+          <t>What school did the player who was a pitcher for the Colorado Rockies of Major League Baseball ( MLB ) in 1996 and 1997 attend ?</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>The Deutsche Verkehrsfliegerschule ( German Commercial Flyers ' School ) in Braunschweig</t>
+          <t>Florida State</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>: The table content is missing, so it is impossible to determine where the Generalleutnant ranked pilot graduated.</t>
+          <t>: Florida</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>List_of_German_World_War_II_jet_aces_0</t>
+          <t>1991_College_Baseball_All-America_Team_0</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -5776,72 +5616,68 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Who presently heads the basketball team of the university attended by Ralph Talley ?</t>
+          <t>From where did the Generalleutnant ranked pilot graduate ?</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Robert Jones</t>
+          <t>The Deutsche Verkehrsfliegerschule ( German Commercial Flyers ' School ) in Braunschweig</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>: Robert Jones</t>
+          <t>: The provided table does not contain information about where the Generalleutnant-ranked pilot (Adolf Galland) graduated. The table includes details such as rank, victories, units, and notes about his military assignments and wounds, but no data regarding his education or graduation.</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>NABC_Player_of_the_Year_1</t>
+          <t>List_of_German_World_War_II_jet_aces_0</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>What is the district whose winner died on May 4 , 1825 ?</t>
+          <t>What country recognizes as their national language the language which is spoken by the ethnicity with 1.1 million people ?</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Connecticut at-large</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>: The table content is missing, so the district whose winner died on May 4, 1825, cannot be determined.</t>
-        </is>
-      </c>
+          <t>Angola</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>List_of_special_elections_to_the_United_States_House_of_Representatives_in_New_York_0</t>
+          <t>Ethnic_groups_in_Africa_4</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>What is the former name of the airport that serves 5,713,859 passengers a year ?</t>
+          <t>What is the district whose winner died on May 4 , 1825 ?</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Rancho-Boyeros Airport</t>
+          <t>Connecticut at-large</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>: The table content is missing, so the former name of the airport serving 5,713,859 passengers annually cannot be determined from the provided information.</t>
+          <t>: The table provided does not contain any district where the winner died on May 4, 1825. All dates in the table range from June 22, 1789, to April 18, 1796, and no entries reference the year 1825 or the specified date. Therefore, no such district exists in the provided data.</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_the_Caribbean_0</t>
+          <t>List_of_special_elections_to_the_United_States_House_of_Representatives_in_New_York_0</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -5851,47 +5687,43 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Which cheap airline is based in the airport in the city that is the capital of an Emirate ?</t>
+          <t>What number pick was the player born on February 28 , 1999 ?</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>flydubai</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>: There is no low-cost airline based at Abu Dhabi International Airport according to the provided information. The reference materials mention flydubai as a low-cost carrier operating from Dubai International Airport (DXB), but no low-cost airline is listed for Abu Dhabi International Airport (AUH).</t>
+          <t>: 3</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Asia_7</t>
+          <t>Atlanta_Hawks_draft_history_0</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>What number pick was the player born on February 28 , 1999 ?</t>
+          <t>What has the namesake of the airport that handled 6,453,100 flyers in 2009 been credited with contributing to ?</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>: 3</t>
-        </is>
-      </c>
+          <t>Mexican independence</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Atlanta_Hawks_draft_history_0</t>
+          <t>List_of_the_busiest_airports_in_Latin_America_10</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -5901,22 +5733,22 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>What has the namesake of the airport that handled 6,453,100 flyers in 2009 been credited with contributing to ?</t>
+          <t>Which area is the island with a population of 122,974 off the coast of ?</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Mexican independence</t>
+          <t>mainland China</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>: Guadalajara has been credited with contributing to the origin and cultural identity of the famous mariachi genre of music, as well as hosting globally renowned cultural events such as the Guadalajara International Film Festival and the Guadalajara International Book Fair.</t>
+          <t>: 132</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Latin_America_10</t>
+          <t>List_of_islands_by_population_density_1</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -5926,47 +5758,47 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>What country recognizes as their national language the language which is spoken by the ethnicity with 1.1 million people ?</t>
+          <t>What is the former name of the airport that serves 5,713,859 passengers a year ?</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Rancho-Boyeros Airport</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>: Angola</t>
+          <t>: The airport serving 5,713,859 passengers annually is José Martí International Airport (Havana, Cuba). The provided table does not include information about the airport's former name.</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Ethnic_groups_in_Africa_4</t>
+          <t>List_of_the_busiest_airports_in_the_Caribbean_0</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Who is the daughter of the directer of the Argentinian film ?</t>
+          <t>In what division does the team playing at the stadium with the lowest total attendance play ?</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Guadalupe Subiela</t>
+          <t>American Football Conference ( AFC ) South</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>: Guadalupe Subiela</t>
+          <t>: AFC South</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>List_of_submissions_to_the_65th_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
+          <t>List_of_National_Football_League_attendance_figures_2</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -5986,7 +5818,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>: Banadir</t>
+          <t>: Somalia</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -5995,28 +5827,28 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Which area is the island with a population of 122,974 off the coast of ?</t>
+          <t>Which cheap airline is based in the airport in the city that is the capital of an Emirate ?</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>mainland China</t>
+          <t>flydubai</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>: 132</t>
+          <t>: The table provided does not contain information about airlines or their pricing (e.g., "cheap airline"). While the airport in the city that is the capital of an Emirate (Dubai International Airport) can be identified from the table, the query specifically asks for a "cheap airline," which is not listed or described in the given data. Therefore, the question cannot be answered using the provided table.</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>List_of_islands_by_population_density_1</t>
+          <t>List_of_the_busiest_airports_in_Asia_7</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -6036,7 +5868,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>: World Drivers' Championship</t>
+          <t>: CART Indy Car World Series</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6045,28 +5877,28 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>What town was the leader born in who had a secretary who was a member of the Richard Nixon , Gerald Ford , Jimmy Carter , and Ronald Reagan administrations ?</t>
+          <t>Who was the teacher of the winner of the Gateway to the Open Mizuno Open Yomiuri Classic in 2010 when he was 10 ?</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Greenwich</t>
+          <t>Todd Baker</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>: Yorba Linda</t>
+          <t>The table does not contain information about the winner's teacher or any personal details such as their age when they were 10. The winner of the tournament was Shunsuke Sonoda, but no data regarding his teacher is provided in the given dataset.&lt;/Answer&gt;</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>List_of_female_United_States_Cabinet_Secretaries_0</t>
+          <t>2010_Japan_Golf_Tour_0</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -6076,22 +5908,22 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Who was the teacher of the winner of the Gateway to the Open Mizuno Open Yomiuri Classic in 2010 when he was 10 ?</t>
+          <t>What is the purpose of the 759 ft tower in Jersey City ?</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Todd Baker</t>
+          <t>residential complex</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>: The information about Shunsuke Sonoda's teacher when he was 10 years old is not present in the provided reference materials. The materials do not contain any data related to "Shunsuke Sonoda" or their educational background.</t>
+          <t>: The purpose of the 759 ft tower in Jersey City (Journal Squared Tower 2) is not specified in the provided table, as the Notes column for this entry is empty.</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>2010_Japan_Golf_Tour_0</t>
+          <t>List_of_tallest_buildings_in_the_United_States_3</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -6101,22 +5933,22 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>In what division does the team playing at the stadium with the lowest total attendance play ?</t>
+          <t>Who presently heads the basketball team of the university attended by Ralph Talley ?</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>American Football Conference ( AFC ) South</t>
+          <t>Robert Jones</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>: The table content is missing, so it is impossible to determine the division of the team playing at the stadium with the lowest total attendance.</t>
+          <t>: The table provides historical data on the Player of the Year but does not include information about current or past head coaches of the universities. Ralph Talley attended Norfolk State University (as shown in the 1986-87 season), but the table does not list the current head coach of Norfolk State's basketball team. Therefore, the query cannot be answered using the provided table content.</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>List_of_National_Football_League_attendance_figures_2</t>
+          <t>NABC_Player_of_the_Year_1</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -6126,97 +5958,93 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>What is the purpose of the 759 ft tower in Jersey City ?</t>
+          <t>What town was the leader born in who had a secretary who was a member of the Richard Nixon , Gerald Ford , Jimmy Carter , and Ronald Reagan administrations ?</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>residential complex</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>: The purpose of the 759 ft tower in Jersey City (Journal Squared Tower 2) is to serve as part of Jersey City's banking and finance district, contributing to its nickname "Wall Street West."</t>
-        </is>
-      </c>
+          <t>Greenwich</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
-          <t>List_of_tallest_buildings_in_the_United_States_3</t>
+          <t>List_of_female_United_States_Cabinet_Secretaries_0</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Who established the school that was the 2nd place winner of the 2002 Head of the River ( Queensland ) ?</t>
+          <t>What is the club whose home city hosts an Airbus factory ?</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Society of the Sacred Heart</t>
+          <t>Getafe B</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>: The Society of the Sacred Heart</t>
+          <t>Getafe B&lt;/Answer&gt;</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Head_of_the_River_(Queensland)_13</t>
+          <t>List_of_football_clubs_in_Spain_2</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>What is the club whose home city hosts an Airbus factory ?</t>
+          <t>What is the capital city of the state where the Sipat Thermal Power Station is located ?</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Getafe B</t>
+          <t>Raipur</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>: Getafe</t>
+          <t>: Raipur</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>List_of_football_clubs_in_Spain_2</t>
+          <t>NTPC_Limited_1</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>What is the capital city of the state where the Sipat Thermal Power Station is located ?</t>
+          <t>Who operates the airport that is located in Recife ?</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Raipur</t>
+          <t>AENA</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>: Raipur</t>
+          <t>: AENA</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>NTPC_Limited_1</t>
+          <t>List_of_the_busiest_airports_in_Latin_America_1</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -6234,14 +6062,18 @@
           <t>Want One</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr"/>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>: The table does not provide information about the number of countries each album charted in. While "11:11" is associated with the album "Want One" and "A Bit of You" is associated with "Rufus Wainwright [ Japan ]", the table lacks data on chart performance or country-specific charting. Therefore, it is impossible to determine which album charted in more countries based on the provided information.</t>
+        </is>
+      </c>
       <c r="D233" t="inlineStr">
         <is>
           <t>List_of_songs_recorded_by_Rufus_Wainwright_0</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -6257,7 +6089,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>: The provided materials only confirm that "Keep Me a Secret" is the debut single by Ainslie Henderson (released February 24, 2003), not his first album. No information about his first album is available in the reference materials. The question conflates a single with an album, but the data explicitly identifies "Keep Me a Secret" as a *single*, not an album. Therefore, the query cannot be answered as phrased, as the materials do not contain details about his first album.</t>
+          <t>: The table lists the single "Keep Me a Secret" by Ainslie Henderson, but it does not contain information about the musician's first album. The provided data only includes song titles, release dates, and chart positions for singles, not album details. Therefore, the question cannot be answered with the given table content.</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6272,1796 +6104,25 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Who operates the airport that is located in Recife ?</t>
+          <t>Who established the school that was the 2nd place winner of the 2002 Head of the River ( Queensland ) ?</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>AENA</t>
+          <t>Society of the Sacred Heart</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>: AENA</t>
+          <t>: The table does not contain information about who established Stuartholme, so the question cannot be answered based on the provided data.</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Latin_America_1</t>
+          <t>Head_of_the_River_(Queensland)_13</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Where did the second richest person move when he was 12 ?</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Philippines</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>: The table content required to answer the query is missing. Without the table data, it is impossible to determine where the second richest person moved when he was 12.</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>List_of_South_East_Asian_people_by_net_worth_1</t>
-        </is>
-      </c>
-      <c r="E236" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>What is the approximate ( object comparison ) size of the 2008 Phone Model that was available from 5 different carrier and uses technology that is also called cdmaOne ?</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Post-It Note</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>: About the size of a post-it note</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>List_of_Motorola_products_16</t>
-        </is>
-      </c>
-      <c r="E237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Who was the CAA Champion when the venue was the one that was a 5,200-seat multi-purpose arena ?</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Old Dominion</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>: The table content is missing, so it is impossible to determine the CAA Champion for the specified venue.</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>Colonial_Athletic_Association_8</t>
-        </is>
-      </c>
-      <c r="E238" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>What was the venue of the match held in a coastal seaport city in western Canada with the winner being originally organized in New Westminster in 1889 ?</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Empire Stadium</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>: Empire Stadium</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>History_of_rugby_union_matches_between_the_British_and_Irish_Lions_and_other_countries_0</t>
-        </is>
-      </c>
-      <c r="E239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>How many championship points did the driver with the highest numbered car score ?</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>: The table content was not provided, so the championship points for the driver with car number 23 cannot be determined.</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>2001_Malaysian_Grand_Prix_0</t>
-        </is>
-      </c>
-      <c r="E240" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>What is the official mascot of the tournament champion of the 1988 America East Conference tournament ?</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Rhett the Boston Terrier</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>: Rhett the Boston Terrier</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>America_East_Conference_11</t>
-        </is>
-      </c>
-      <c r="E241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Which player was from the university whose home games are played at the Breslin Student Events Center ?</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Adreian Payne</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>: Adreian Payne</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Atlanta_Hawks_draft_history_0</t>
-        </is>
-      </c>
-      <c r="E242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>what is the location of the Limited event during the the seventh season of the Magic : The Gathering Pro Tour ?</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Fukuoka</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>: The location of the Limited event during the seventh season of the Magic: The Gathering Pro Tour cannot be determined as the table content was not provided in the query materials.</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Shuhei_Nakamura_0</t>
-        </is>
-      </c>
-      <c r="E243" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>What is the name of the system in the city that was originally part of the 1785 Rancho San Pedro Spanish land grant ?</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Beach Cities Transit</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>: Los Angeles</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>List_of_bus_transit_systems_in_the_United_States_4</t>
-        </is>
-      </c>
-      <c r="E244" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>What is the release date of the game that is a post-apocalyptic action role-playing video game ?</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>2010-10-19</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>: October 2008</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>List_of_Games_for_Windows_titles_4</t>
-        </is>
-      </c>
-      <c r="E245" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Who founded Juan Pablo Montoya 's constructor ?</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Sir Frank Williams</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>: Sir Frank Williams and Sir Patrick Head founded Williams Racing, the constructor associated with Juan Pablo Montoya.</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>2001_Japanese_Grand_Prix_0</t>
-        </is>
-      </c>
-      <c r="E246" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>What is the best league result for a club who beat another club with paralympic sports ?</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>: The table content is missing, so the query cannot be answered.</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Turkish_Cup_0</t>
-        </is>
-      </c>
-      <c r="E247" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>What is the alternative name for the historic place that is located in the township that was established in 1886 and that has the date listed # 14000426 ?</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Portage Entry Light</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>: The table content required to answer the query could not be found, so the alternative name for the historic place cannot be determined.</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>National_Register_of_Historic_Places_listings_in_Houghton_County,_Michigan_0</t>
-        </is>
-      </c>
-      <c r="E248" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>In 2009 , what percentage of its staff was lost by the developer of the game that is an Association Football manager simulation video game not available on Games for Windows - Live ?</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>80% of its staff</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>: The query cannot be answered with the provided information. The term "Beautiful Game Studios" does not appear in the materials. The only relevant studio mentioned is "Aces Game Studio," which was closed in 2009 as part of Microsoft's job cuts. However, the materials do not specify the total staff size of Aces Game Studio, making it impossible to calculate the percentage of staff lost. Additionally, the provided table content (if any) does not contain staff-related metrics or data about layoffs. Therefore, the percentage of staff lost cannot be determined from the given materials.</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>List_of_Games_for_Windows_titles_3</t>
-        </is>
-      </c>
-      <c r="E249" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>What is the suburb of the school that enrolled approximately 1,500 students in 2018 ?</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Bossley Park</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>: Cabramatta</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>List_of_schools_in_Greater_Western_Sydney_1</t>
-        </is>
-      </c>
-      <c r="E250" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>The senator whose hometown is named after two prominent Cherokee brothers was born when ?</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>September 30 , 1957</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>: The table content is missing, so the query cannot be answered. The required information about the senator's hometown and birth year is not available in the provided materials.</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>List_of_current_members_of_the_Oklahoma_Senate_0</t>
-        </is>
-      </c>
-      <c r="E251" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>What services does the station have that is located between Avenue of the Americas and Seventh Avenue ?</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>1 , 2 , 3</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>: The station located between Avenue of the Americas (Sixth Avenue) and Seventh Avenue is **14th Street/Sixth Avenue**, which provides **F and L services**.</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>List_of_New_York_City_Subway_stations_in_Manhattan_1</t>
-        </is>
-      </c>
-      <c r="E252" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>What team did Pakistan play in the city founded by the Mughal Emperor Jehangir in 1607 ?</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>: The provided materials do not contain information about a city founded by Mughal Emperor Jehangir in 1607. The reference materials mention Hyderabad (founded in 1591 by a Qutb Shahi ruler) and Bhopal (founded in 1707), but neither matches the query. Since the city cannot be identified from the given data, the team Pakistan played in that city cannot be determined.</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>Pakistan_national_cricket_team_0</t>
-        </is>
-      </c>
-      <c r="E253" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>Which driver had the most races in a single season and had a team that is one of the oldest surviving ?</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Michael Schumacher</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr"/>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>1998_Australian_Grand_Prix_0</t>
-        </is>
-      </c>
-      <c r="E254" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>What year was representative that served as mayor of the village of Shreve first elected ?</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>: 1949</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>Ohio_House_of_Representatives,_127th_General_Assembly_0</t>
-        </is>
-      </c>
-      <c r="E255" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Where was the person who set a record in 1937 born ?</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Russian</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>: Soviet Union</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>Flight_distance_record_0</t>
-        </is>
-      </c>
-      <c r="E256" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>What is the estimated population of the hometown of the first African American winner of Miss Teen USA ?</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>112,525</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>: The estimated population of Manchester, New Hampshire (the hometown of Janel Bishop, the first African American winner of Miss Teen USA) is 112,525 as of 2018.</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>Miss_Teen_USA_1</t>
-        </is>
-      </c>
-      <c r="E257" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>Which athlete from the country whose largest city is New York , was sanctioned for using a substance composed of tetrahydrocannabinol ?</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>John Capel</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>: Jacob Freeman</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>List_of_doping_cases_in_athletics_2</t>
-        </is>
-      </c>
-      <c r="E258" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>The director of `` Day for Night '' also directed a film submitted to the 53rd Academy Awards that starred what two actors ?</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Catherine Deneuve and Gérard Depardieu</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>: The two actors who starred in the film directed by François Truffaut (director of "Day for Night") and submitted to the 53rd Academy Awards are Catherine Deneuve and Gérard Depardieu.</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>List_of_submissions_to_the_53rd_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
-        </is>
-      </c>
-      <c r="E259" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>Between and Lahaina Historic District and Keauhou Holua Slide , which landmark 's location has the bigger population ?</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Lahaina Historic District</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>: Lahaina Historic District has a population of 11,704 (based on the Lahaina CDP data), while Keauhou Holua Slide is a historic landmark without a population (the 3,549 figure refers to the nearby Kahaluʻu-Keauhou CDP, not the landmark itself). Therefore, Lahaina Historic District's location has the bigger population.</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>List_of_National_Historic_Landmarks_in_Hawaii_0</t>
-        </is>
-      </c>
-      <c r="E260" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>How many ODIs has the stadium first used in 2012 hosted ?</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>: The table content is missing, so the number of ODIs hosted by MCA Stadium cannot be determined.</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>List_of_cricket_grounds_in_India_30</t>
-        </is>
-      </c>
-      <c r="E261" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>What is the birth date of the athlete from the country whose capital is Ankara and was sanctioned for using the brand Primobolan ?</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>June 10 , 1983</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>: There are no athletes from Turkey (the country with capital Ankara) sanctioned for using Primobolan, as confirmed by the provided data. Therefore, the birth date cannot be determined.</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>List_of_doping_cases_in_athletics_2</t>
-        </is>
-      </c>
-      <c r="E262" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Who beat the team in the World Series whose manager managed the Toronto Blue Jays from 1982 to 1985 ?</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Minnesota Twins</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>: New York Mets</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>Major_League_Baseball_Manager_of_the_Year_Award_1</t>
-        </is>
-      </c>
-      <c r="E263" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>Does Butan or Manila house a university with preschool level courses ?</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Butuan</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>: Yes, Butuan (likely intended as "Butan" in the query) houses a university with preschool level courses (Father Saturnino Urios University), but Manila does not have a university offering preschool courses based on the provided materials. The universities in Manila (Pamantasan ng Lungsod ng Maynila and Universidad de Manila) are described as offering tertiary education only, with no mention of preschool programs.</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>List_of_indoor_arenas_in_the_Philippines_1</t>
-        </is>
-      </c>
-      <c r="E264" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>What is the name of the racecourse whose location was recognized by the Queen in 1957 because of the presence of Windsor Castle ?</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Abingdon Racecourse</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>: Ascot Racecourse</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>List_of_British_racecourses_2</t>
-        </is>
-      </c>
-      <c r="E265" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>What are the remarks of the treasure whose present location is considered the oldest national museum in Japan ?</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Letter from Dahui 's exile in Meizhou to his friend , the lay practitioner Wuxiang</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>: The remarks of the treasure whose present location is the Tokyo National Museum are: "Imported from China during the Nara period; thirteen circular markers of mother of pearl, two elliptical sound-holes and rosewood fittings at the ends; ink inscription inside the body states the year and place (Jiulong County) of production."</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>List_of_National_Treasures_of_Japan_(writings__others)_2</t>
-        </is>
-      </c>
-      <c r="E266" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>What is the difference in age between the man who is chairman of the Clermont Group and Lucio Tan ?</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>25 years</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>: The table content is missing, so the age of the chairman of the Clermont Group and Lucio Tan cannot be determined. Therefore, the age difference cannot be calculated.</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>List_of_South_East_Asian_people_by_net_worth_2</t>
-        </is>
-      </c>
-      <c r="E267" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>How long is the most heavily traveled part of the highway that has the highway that was rerouted south of Tonawanda going to it ?</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>50-mile</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>: 80 km</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>List_of_state_routes_in_New_York_1</t>
-        </is>
-      </c>
-      <c r="E268" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>What is the former name of the stadium where the only NFL team to record 20 straight winning seasons plays ?</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Cowboys Stadium</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>: Cowboys Stadium</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>List_of_National_Football_League_attendance_figures_0</t>
-        </is>
-      </c>
-      <c r="E269" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>What is the name of the second oldest opponent he played against between 1989 and 1991 ?</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Mike Hallett</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>: The table content is missing, so it is impossible to determine the name of the second oldest opponent played against between 1989 and 1991.</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>John_Parrott_1</t>
-        </is>
-      </c>
-      <c r="E270" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>What district is the city in Austria that hosted the Diplomacy Tournament located in ?</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Oberpullendorf</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>: Lockenhaus</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>International_prize_list_of_Diplomacy_0</t>
-        </is>
-      </c>
-      <c r="E271" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>This former Ohio Senator and Representative also served as Chancellor of the Ohio Department of Higher Education , and he lives in a city that is the county seat of what county ?</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Wood County</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>: Franklin County</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>Ohio_House_of_Representatives,_127th_General_Assembly_0</t>
-        </is>
-      </c>
-      <c r="E272" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>For the player born June 26 , 1984 , what national team did he play on ?</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Puerto Rican National Team</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>: Puerto Rican national team</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>List_of_oldest_and_youngest_National_Basketball_Association_players_1</t>
-        </is>
-      </c>
-      <c r="E273" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Who does the skater to finish 18th in the short program compete with ?</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>Sarah May Coward</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>: Georgi Kenchadze</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>2008_NRW_Trophy_0</t>
-        </is>
-      </c>
-      <c r="E274" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>What is the population of the home country of Elena Pingacheva ?</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>146.7 million</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>: 146.7 million</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>1996_World_Junior_Figure_Skating_Championships_1</t>
-        </is>
-      </c>
-      <c r="E275" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>What is the 2018 population of the 'Notes on Poetic Style Through the Ages ' treasure 's present location ?</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>1.47 million</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>: The title "Notes on Poetic Style Through the Ages" does not appear in the provided National Treasures of Japan (writings) database. Since the treasure's location cannot be identified from the available data, its 2018 population cannot be determined. The query likely references a non-existent or misspelled entry in the given materials.</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>List_of_National_Treasures_of_Japan_(writings__Japanese_books)_0</t>
-        </is>
-      </c>
-      <c r="E276" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>How many times did the Husky of Honor with a hometown in Glenn Heights , Texas win the Nancy Lieberman Award ?</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>two</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>: 2</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>Huskies_of_Honor_1</t>
-        </is>
-      </c>
-      <c r="E277" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>What is the 1993 population estimate of the city that is the second-largest city in Myanmar ?</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>885,287</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>: 104,660</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>List_of_cities_in_Burma_0</t>
-        </is>
-      </c>
-      <c r="E278" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>The driver who finished at position 4 in the 2005 Japanese Grand Prix was of born in what year ?</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>: 1983</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>2005_Japanese_Grand_Prix_0</t>
-        </is>
-      </c>
-      <c r="E279" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Which prehistoric immigrants got to the continent of the nation with 500,000 residents with origins in Lebanon ?</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>Paleo-Indians</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>: Paleo-Indians</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>Lebanese_people_0</t>
-        </is>
-      </c>
-      <c r="E280" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>How many uninterrupted baseball seasons of more wins than losses have happened at the university attended by Todd Moser ?</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>: 19</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>1999_College_Baseball_All-America_Team_0</t>
-        </is>
-      </c>
-      <c r="E281" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>What is the nation of the athlete who was born on August 1 , 1979 ?</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>: The table content is missing, so the nation of the athlete born on August 1, 1979, cannot be determined from the provided information.</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>1997_World_Junior_Figure_Skating_Championships_0</t>
-        </is>
-      </c>
-      <c r="E282" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Which team won their 2nd MVC Tournament title against Indiana State ?</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>Creighton</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>: The table content required to answer the query is missing. Without access to the table data containing MVC Tournament results, it is impossible to determine which team won their 2nd MVC Tournament title against Indiana State.</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>List_of_Missouri_Valley_Conference_Men's_Basketball_Tournament_Finals_broadcasters_0</t>
-        </is>
-      </c>
-      <c r="E283" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>What was the house in Cass County as station of ?</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>Underground Railway</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>: Jarius Hitchcox House</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>List_of_National_Historic_Landmarks_in_Iowa_0</t>
-        </is>
-      </c>
-      <c r="E284" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>What animal returns yearly to rear offspring in the park near La Pointe ?</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>Bald eagles</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>: The table content required to answer the query is not available, so the question cannot be answered with the provided information.</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>National_Register_of_Historic_Places_listings_in_Ashland_County,_Wisconsin_0</t>
-        </is>
-      </c>
-      <c r="E285" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>What is the championship team whose top scorer was born on 25 November 1918 ?</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>Partizan</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>: The table content is missing, so it is impossible to determine the championship team whose top scorer was born on 25 November 1918.</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>List_of_Serbian_football_champions_6</t>
-        </is>
-      </c>
-      <c r="E286" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>In which state lays the burial place of the United States president that led the Union Army as Commanding General of the United States Army in winning the American Civil War ?</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>New York City</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>: New York</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>List_of_burial_places_of_Presidents_of_the_United_States_0</t>
-        </is>
-      </c>
-      <c r="E287" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>How many square km is the area of the country of the pair ranked 2nd at the 2011 NRW Trophy ?</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>357,386</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>: 357386</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>2011_NRW_Trophy_7</t>
-        </is>
-      </c>
-      <c r="E288" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>What is the population of the city for the school that opened in 1907 ?</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>57,449 people</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>: The population of Bickley is not listed in the provided materials. The reference materials mention Bromley's population as 87,889 (for the entire Bromley town, not Bickley specifically) and describe Bickley as a suburb in Western Australia without population data. The SQL result incorrectly interpreted "population" as the count of schools (1), which is unrelated to human population. Therefore, the population of Bickley cannot be determined from the given information.</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>List_of_schools_in_Perth,_Western_Australia_6</t>
-        </is>
-      </c>
-      <c r="E289" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>The driver who held the record for most Grand Prix victories until 2001 finished in what position ?</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>: 1st</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>1984_Dallas_Grand_Prix_0</t>
-        </is>
-      </c>
-      <c r="E290" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Which institution established in 1982 is located in a place that is also known as Kovai and Koyamuthur ?</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>Bharathiar University</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>: Bharathiar University</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>List_of_Tamil_Nadu_Government_educational_institutions_0</t>
-        </is>
-      </c>
-      <c r="E291" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>What is the residence of the Senator born September 18 , 1971 ?</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>Toledo</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>: The table content required to answer the query is missing. Therefore, the residence of the Senator born September 18, 1971 cannot be determined from the provided information.</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>129th_Ohio_General_Assembly_0</t>
-        </is>
-      </c>
-      <c r="E292" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>How many beds are available in the city named after the only U.S . Senator ever killed in military combat ?</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>: 25</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>List_of_hospitals_in_Oregon_0</t>
-        </is>
-      </c>
-      <c r="E293" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>How many seats is the twin turboprop transport/passenger aircraft designed in 1957 manufactured by the company that works closely with a turbine manufacturer located in Zaporizhia ?</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>: The provided materials do not indicate the existence of a turbine manufacturer located in Zaporizhia. Zaporizhia is referenced as a Ukrainian city with industrial focus on steel, aluminum, and aircraft engines (e.g., Dnieper Hydroelectric Station), but no turbine manufacturer is associated with it. The only turbine manufacturer mentioned (Siemens Gamesa Renewable Energy) is based in Spain (Zamudio, Biscay), not Zaporizhia. Therefore, the premise of the query is invalid, and the seat count cannot be determined.</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>Turboprop_0</t>
-        </is>
-      </c>
-      <c r="E294" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>what is the elevation of a dormant volcano in the Caucasus Mountains in Southern Russia , near the border with Georgia ?</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>5,642</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>: The table content required to answer the query was not provided, so the elevation of the dormant volcano cannot be determined from the available information.</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>List_of_European_ultra_prominent_peaks_14</t>
-        </is>
-      </c>
-      <c r="E295" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>What is the full name of the person who won a medal in 1948 ?</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Mohammad-Jafar Salmasi</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>: The table content is missing, so the question cannot be answered.</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>Iran_at_the_Olympics_3</t>
-        </is>
-      </c>
-      <c r="E296" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Which Ohio county does Randy Gardner live in ?</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>Wood County</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>: Wood County</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>127th_Ohio_General_Assembly_1</t>
-        </is>
-      </c>
-      <c r="E297" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>What has the school of the tournament runner up of the 1990 America East Conference tournament won national championships in ?</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>skiing</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>: The school Vermont has won six national championships, all in skiing.</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>America_East_Conference_11</t>
-        </is>
-      </c>
-      <c r="E298" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>How many drivers does the constructor known as `` The Prancing Horse '' have ?</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>: 2</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>2004_Brazilian_Grand_Prix_0</t>
-        </is>
-      </c>
-      <c r="E299" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>The third busiest airport in Brazil has what IATA code ?</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>BSB</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>: BSB</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>List_of_the_busiest_airports_in_Brazil_0</t>
-        </is>
-      </c>
-      <c r="E300" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>How many times in F1 did the person who finished the Hungarian Grand Prix qualifier in 1:18.515 in 1999 finish a race fastest ?</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>three</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>: 3</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>1999_Hungarian_Grand_Prix_0</t>
-        </is>
-      </c>
-      <c r="E301" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>What person is apart of the Electorate that was located in the adjacent Buller electorate until 1887 ?</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>Patrick O'Regan</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>: The table content required to answer the query was not provided, making it impossible to determine the person associated with the electorate adjacent to Buller until 1887. Please ensure the relevant table content is included for accurate response.</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>Baby_of_the_House_2</t>
-        </is>
-      </c>
-      <c r="E302" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>What is the % change of the Metropolitan statistical area which is built around the Mississippi river ?</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>+8.37%</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>: The table content required to answer the query is missing. Please provide the table data for further assistance.</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>List_of_Metropolitan_Statistical_Areas_0</t>
-        </is>
-      </c>
-      <c r="E303" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>How many cylinders did the manufacturers use whose country is the third largest country by area ?</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>: 14</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>Turboprop_0</t>
-        </is>
-      </c>
-      <c r="E304" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>What is the league whose city has a history of over 2,200 years and was a major terminus of the maritime Silk Road ?</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>Hong Kong Premier League</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>: The city with a history of over 2,200 years and a major terminus of the maritime Silk Road is Quanzhou (also known as Zayton). Note: The query mentions "league," which may be a typographical error; the intended reference is likely to the city itself, as Quanzhou was a prominent port city along the maritime Silk Road during ancient times.</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>Guangdong_1</t>
-        </is>
-      </c>
-      <c r="E305" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>Of the free and open source software browsers , which is currently on stable version 10 ?</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>: There is no free and open source software browser currently on stable version 10, as major browsers like Firefox and Chromium have long since surpassed version 10 (e.g., Firefox 10 was released in 2011, and current versions are over 120).</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>Mobile_browser_0</t>
-        </is>
-      </c>
-      <c r="E306" t="n">
         <v>0</v>
       </c>
     </row>

--- a/online_inference/evaluation/evaluation.xlsx
+++ b/online_inference/evaluation/evaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E235"/>
+  <dimension ref="A1:E305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,43 +463,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>What suburb is the stadium for the bulls located in ?</t>
+          <t>The driver who finished in position 4 in the 2004 United States Grand Prix was of what nationality ?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arcadia</t>
+          <t>British</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>: Pretoria</t>
+          <t>: The driver who finished in position 4 in the 2004 United States Grand Prix was of British nationality.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>List_of_association_football_stadiums_by_country_6</t>
+          <t>2004_United_States_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>What team drafted this player from Salisbury , North Carolina ?</t>
+          <t>The college that opened in 1981 is located on how many acres of land ?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>47 acres</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>: The college that opened in 1981, All Saints' College, is located on 47 acres of land.</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>List_of_oldest_and_youngest_National_Basketball_Association_players_3</t>
+          <t>List_of_schools_in_Perth,_Western_Australia_7</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -509,168 +513,172 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>What is the country for the airport that it at an elevation of 5 m ( 16 ft ) , therefore at risk of serious flooding ?</t>
+          <t>What team drafted this player from Salisbury , North Carolina ?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Belize City</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>: Belize</t>
+          <t>: There is no player listed as being from Salisbury, North Carolina in the provided table. Therefore, no team drafted a player from Salisbury, North Carolina based on the given information.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Central_America_4</t>
+          <t>List_of_oldest_and_youngest_National_Basketball_Association_players_3</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>What year does Orson Scott Card 's 1986 novel take place ?</t>
+          <t>What is the state represented by the teen whose home town is one of the gateways to the Great Smoky Mountains National Park ?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5270</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Tennessee</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>: Based on the available information, there is no Miss Teen USA contestant whose hometown is listed as one of the known gateways to the Great Smoky Mountains National Park (Gatlinburg, Pigeon Forge, or Cherokee). Hence, we cannot determine the state represented by such a teen.</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Orson_Scott_Card_bibliography_0</t>
+          <t>Miss_Teen_USA_special_awards_1</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>What was the format of an event also known as GP that took place in a season which was fifth season ?</t>
+          <t>What suburb is the stadium for the bulls located in ?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Team Limited</t>
+          <t>Arcadia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>: Booster Draft</t>
+          <t>: The stadium for the Bulls is located in the Arcadia suburb of Pretoria.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Antoine_Ruel_0</t>
+          <t>List_of_association_football_stadiums_by_country_6</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The driver who finished in position 4 in the 2004 United States Grand Prix was of what nationality ?</t>
+          <t>What is the middle name of the player with the second most National Football League career rushing yards ?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>British</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>: The table does not provide the nationality of the driver. The driver who finished in position 4 was Jenson Button, but nationality information is not included in the provided table content.</t>
+          <t>: The middle name of the player with the second most National Football League career rushing yards is Jerry.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2004_United_States_Grand_Prix_0</t>
+          <t>List_of_National_Football_League_rushing_yards_leaders_0</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>For the army that conflicted with the `` lashkars '' , what year did its soldier die ?</t>
+          <t>What is the country for the airport that it at an elevation of 5 m ( 16 ft ) , therefore at risk of serious flooding ?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3 November 1947</t>
+          <t>Belize City</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>: 1948</t>
+          <t>: The country for the airport that is at an elevation of 5 meters (16 feet) and therefore at risk of serious flooding is Belize.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Param_Vir_Chakra_0</t>
+          <t>List_of_the_busiest_airports_in_Central_America_4</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>What is the middle name of the player with the second most National Football League career rushing yards ?</t>
+          <t>What year does Orson Scott Card 's 1986 novel take place ?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jerry</t>
+          <t>5270</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>: The player with the second most National Football League career rushing yards is Walter Payton, and he does not have a middle name. His full name is Walter Payton, with "Walter" as his first name and "Payton" as his last name. The table does not list a middle name for any player, confirming that Walter Payton's name does not include a middle name.</t>
+          <t>: The novel "Speaker for the Dead" by Orson Scott Card, published in 1986, takes place around the year 5270, approximately 3,000 years after the events in "Ender's Game." However, due to relativistic space travel at near light speed, Ender himself is only about 35 years old during the events of "Speaker for the Dead."</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>List_of_National_Football_League_rushing_yards_leaders_0</t>
+          <t>Orson_Scott_Card_bibliography_0</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>The college that opened in 1981 is located on how many acres of land ?</t>
+          <t>What was the format of an event also known as GP that took place in a season which was fifth season ?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>47 acres</t>
+          <t>Team Limited</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>: The table provided does not include a column for land area or acres of land. Therefore, the information about how many acres of land the college that opened in 1981 (All Saints' College) is located on cannot be determined from the given data.</t>
+          <t>: The format of the Grand Prix event that took place in the 2003-04 season was **Booster Draft**.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>List_of_schools_in_Perth,_Western_Australia_7</t>
+          <t>Antoine_Ruel_0</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -680,47 +688,47 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Which noble families are referenced by the title of the movie parodied by The Gore of the Roses ?</t>
+          <t>For the army that conflicted with the `` lashkars '' , what year did its soldier die ?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Houses of York and Lancaster</t>
+          <t>3 November 1947</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>: York and Lancaster</t>
+          <t>: There is no specific conflict listed in the provided materials that involves 'lashkars'. Therefore, I cannot determine the year when a soldier from the opposing side died in such a conflict. If you have additional context or sources, please provide them for further analysis.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>List_of_film_spoofs_in_Mad_4</t>
+          <t>Param_Vir_Chakra_0</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>How many square kilometers are in the county where Bangor is located ?</t>
+          <t>where are located the terminals of the airport of the city the second most populous in Canada ?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2,448 km2</t>
+          <t>The airport terminals are located entirely in the suburb of Dorval</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>: 2,448 km²</t>
+          <t>: The terminals at Montréal-Pierre Elliott Trudeau International Airport are located entirely in the suburb of Dorval.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Irish_Sea_0</t>
+          <t>List_of_the_busiest_airports_in_Canada_5</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -730,22 +738,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>How many MVP where born after 1970 and venue was Madison Square Garden ?</t>
+          <t>Which championship occurred first ? Was it one which was originally raced in 1927 and won by Joe Davis , or the one which Judd Trump often wins ?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>German Open</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>: 0</t>
+          <t>: The championship that occurred first is the World Snooker Championship, which was first held in 1927 and won by Joe Davis. This championship is also one of the prominent tournaments frequently won by Judd Trump.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Big_East_Men's_Basketball_Tournament_0</t>
+          <t>Ronnie_O'Sullivan_0</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -755,22 +763,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>What is the state represented by the teen whose home town is one of the gateways to the Great Smoky Mountains National Park ?</t>
+          <t>How many square kilometers are in the county where Bangor is located ?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tennessee</t>
+          <t>2,448 km2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>: Tennessee</t>
+          <t>: The county where Bangor is located, County Down, has an area of 2,448 square kilometers.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Miss_Teen_USA_special_awards_1</t>
+          <t>Irish_Sea_0</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -780,22 +788,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Which publication 's ranking put the person who finished the qualifying round of the French Grand Prix in 1:13.625 in 2001 at 30th out of all F1 drivers ?</t>
+          <t>The game released on 2011-05-17 developed by TopWare Interactive was subject to a lawsuit by what company ?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Times Online 's</t>
+          <t>Interplay Entertainment</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>: The table provided contains qualifying results for the 2001 French Grand Prix, where Juan Pablo Montoya (driver No. 6) recorded a lap time of 1:13.625 (qualifying position 6). However, the table does not include any publication rankings or information about drivers' positions ranked 30th out of all F1 drivers. The query references a publication ranking that is not present in the provided data, making it impossible to answer with the given table. The qualifying position (6th) differs from the claimed 30th rank, and no publication data is available to verify this claim.</t>
+          <t>: The game "Battle vs. Chess," released on 2011-05-17 and developed by TopWare Interactive, does not have any recorded lawsuits mentioned in the provided information. If you have additional details or sources that mention such a lawsuit, please provide them for further clarification.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2001_French_Grand_Prix_0</t>
+          <t>List_of_Games_for_Windows_titles_5</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -805,22 +813,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>The game released on 2011-05-17 developed by TopWare Interactive was subject to a lawsuit by what company ?</t>
+          <t>At what Bay does the route end whose highway was first established in early 1922 between Highway 2 in Whitby and Lindsay ?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Interplay Entertainment</t>
+          <t>Georgian</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>: Interplay Entertainment</t>
+          <t>: The route that was first established in early 1922 between Highway 2 in Whitby and Lindsay (Highway 12) ends at Georgian Bay near Midland, Ontario.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>List_of_Games_for_Windows_titles_5</t>
+          <t>List_of_highways_in_Ontario_0</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -830,22 +838,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>What type of disaster hit the state whose name originates from the Ojibwe word mishigamaa ?</t>
+          <t>Which noble families are referenced by the title of the movie parodied by The Gore of the Roses ?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Wildfire</t>
+          <t>Houses of York and Lancaster</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>: Wildfire</t>
+          <t>: The noble families referenced in the movie parodied by "The Gore of the Roses" are the House of Lancaster and the House of York.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>List_of_disasters_in_the_United_States_by_death_toll_1</t>
+          <t>List_of_film_spoofs_in_Mad_4</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -855,85 +863,97 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Which championship occurred first ? Was it one which was originally raced in 1927 and won by Joe Davis , or the one which Judd Trump often wins ?</t>
+          <t>Which author of the Kamakura period treasures died more recently ?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>German Open</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>Fujiwara no Teika</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>: Fujiwara no Teika died more recently than Fujiwara no Shunzei.</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ronnie_O'Sullivan_0</t>
+          <t>List_of_National_Treasures_of_Japan_(writings__Japanese_books)_0</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>where are located the terminals of the airport of the city the second most populous in Canada ?</t>
+          <t>How many MVP where born after 1970 and venue was Madison Square Garden ?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The airport terminals are located entirely in the suburb of Dorval</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>: The terminals of the airport serving Montreal (the second most populous city in Canada) are located in **Montreal**. This is confirmed by the airport listed in the table as "Montréal-Pierre Elliott Trudeau International Airport" (rank 4), which serves "Greater Montreal."</t>
+          <t>: Based on the provided information and the birth years of the MVPs who played in games held at Madison Square Garden, 6 MVPs were born after 1970. These MVPs are Alonzo Mourning, Terry Dehere, Kerry Kittles, Scoonie Penn, Khalid El-Amin, and Kevin Freeman.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Canada_5</t>
+          <t>Big_East_Men's_Basketball_Tournament_0</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Which author of the Kamakura period treasures died more recently ?</t>
+          <t>Which publication 's ranking put the person who finished the qualifying round of the French Grand Prix in 1:13.625 in 2001 at 30th out of all F1 drivers ?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fujiwara no Teika</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>Times Online 's</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>: The publication that ranked Juan Pablo Montoya 30th out of all F1 drivers is **Times Online**. This ranking was based on a list published in October 2009, which included the top 50 Formula One drivers of all time.</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>List_of_National_Treasures_of_Japan_(writings__Japanese_books)_0</t>
+          <t>2001_French_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>At what Bay does the route end whose highway was first established in early 1922 between Highway 2 in Whitby and Lindsay ?</t>
+          <t>What type of disaster hit the state whose name originates from the Ojibwe word mishigamaa ?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Georgian</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>Wildfire</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>: The types of disasters that hit the state whose name originates from the Ojibwe word "mishigamaa" (Michigan) are wildfire and tornado outbreak.</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>List_of_highways_in_Ontario_0</t>
+          <t>List_of_disasters_in_the_United_States_by_death_toll_1</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -943,22 +963,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Whose violation was the first one to occur in the 21st century ?</t>
+          <t>Which of the athletes from the country whose capital is Rabat was sanctioned for using a medication which is derived from DHT ?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tony Dees</t>
+          <t>Mouhcine Cheaouri</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>: Tony Dees</t>
+          <t>: The athlete from Morocco who was sanctioned for using a medication derived from DHT is Mouhcine Cheaouri.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>List_of_doping_cases_in_athletics_3</t>
+          <t>List_of_doping_cases_in_athletics_2</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -968,47 +988,47 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>What is the 2010 Census of the Core-based statistical area that is home to more than 400 major corporate headquarter ?</t>
+          <t>Whose violation was the first one to occur in the 21st century ?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9,461,105</t>
+          <t>Tony Dees</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>: The provided table does not contain information about the number of corporate headquarters in each Core-based statistical area. Therefore, it is impossible to determine the 2010 Census figure for an area home to more than 400 major corporate headquarters based on the given data.</t>
+          <t>: The athlete with the earliest date of violation in the 21st century is **Tony Dees** from the United States, who had a violation in 2001.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>List_of_Core_Based_Statistical_Areas_0</t>
+          <t>List_of_doping_cases_in_athletics_3</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>What were the core subjects of the university attended by Fred Felber at the time of its establishment ?</t>
+          <t>Which sects first settled the city which houses Rutgers University ?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>liberal arts</t>
+          <t>Quakers and Baptists</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>: The reference materials do not contain information about Fred Felber's university or its core subjects at the time of establishment. The table lists "North Dakota" as his college, but it does not provide historical details about the university's curriculum, founding principles, or core subjects. No additional data sources were provided to answer this query.</t>
+          <t>: Presbyterians were among the early settlers in New Brunswick, New Jersey, as indicated by the founding of the First Presbyterian Church (New Brunswick, New Jersey) in 1726 or before. However, to determine if they were the very first sects to settle the city, further historical research is required.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>List_of_Washington_Redskins_players_5</t>
+          <t>1989_NCAA_Women's_Division_I_Basketball_Tournament_2</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1018,72 +1038,79 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>What is the population of the location that contains a tree on the list that is a registered natural monument of the country ?</t>
+          <t>What is the 2010 Census of the Core-based statistical area that is home to more than 400 major corporate headquarter ?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>over one million people</t>
+          <t>9,461,105</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>: The location of the tree that is a registered natural monument is Abarkuh, Yazd. However, the population of Abarkuh, Yazd is not provided in the given table. Therefore, the population data cannot be determined from the provided information.</t>
+          <t>: The 2010 Census population of the Chicago-Naperville-Elgin, IL-IN-WI Metropolitan Statistical Area is 9,461,105.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>List_of_oldest_trees_1</t>
+          <t>List_of_Core_Based_Statistical_Areas_0</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Who is the director of the most recent film to feature one of Shende 's songs ?</t>
+          <t>What is the nationality of the driver that finished second at the 2001 Brazilian Grand Prix ?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Gautham</t>
+          <t>German</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>: Ilaiyaraja</t>
+          <t>: The nationality of the driver that finished second at the 2001 Brazilian Grand Prix is German.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bela_Shende_0</t>
+          <t>2001_Brazilian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>What year did the university attended by Kentwan Balmer first start ending the practice of racially segregating students ?</t>
+          <t>What were the core subjects of the university attended by Fred Felber at the time of its establishment ?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>liberal arts</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>: 1951</t>
+          <t>: Based on the available information, the University of North Dakota (UND) was founded with a strong foundation in liberal arts. Therefore, the core subjects at the time of its establishment likely included:
+- Literature
+- History
+- Philosophy
+- Languages
+- Mathematics
+- Sciences
+These traditional liberal arts disciplines would have been central to the university's early curriculum.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>List_of_Washington_Redskins_players_1</t>
+          <t>List_of_Washington_Redskins_players_5</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1093,22 +1120,18 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>What is the nationality of the driver that finished second at the 2001 Brazilian Grand Prix ?</t>
+          <t>Who is the director of the most recent film to feature one of Shende 's songs ?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>German</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>: German</t>
-        </is>
-      </c>
+          <t>Gautham</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2001_Brazilian_Grand_Prix_0</t>
+          <t>Bela_Shende_0</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1118,43 +1141,47 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>What historic place is located in a city where U.S . Highways 2 and 169 are two of the main roads ?</t>
+          <t>What is the population of the location that contains a tree on the list that is a registered natural monument of the country ?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Frank Gran Farmstead</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>over one million people</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>: The population of the location that contains a tree on the list that is a registered natural monument of the country (Antalya, Turkey) is over one million people in its metropolitan area.</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>National_Register_of_Historic_Places_listings_in_Itasca_County_Minnesota_0</t>
+          <t>List_of_oldest_trees_1</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>What is the capacity in MW of the wind farm that was built in three phases , with the first coming online in 2002 , the second in 2009 and the third in 2019 ?</t>
+          <t>What year did the university attended by Kentwan Balmer first start ending the practice of racially segregating students ?</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>: 407</t>
+          <t>: The University of North Carolina first started ending the practice of racially segregating students in 1951.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>List_of_offshore_wind_farms_0</t>
+          <t>List_of_Washington_Redskins_players_1</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1164,93 +1191,97 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Who sponsors the distribution that is in-progress and using binary blobs ?</t>
+          <t>What historic place is located in a city where U.S . Highways 2 and 169 are two of the main roads ?</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Red Hat Inc.</t>
+          <t>Frank Gran Farmstead</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>: Fedora</t>
+          <t>: The historic place located in a city where U.S. Highways 2 and 169 are two of the main roads is the Frank Gran Farmstead.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>List_of_Linux_distributions_endorsed_by_the_Free_Software_Foundation_1</t>
+          <t>National_Register_of_Historic_Places_listings_in_Itasca_County_Minnesota_0</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Which sects first settled the city which houses Rutgers University ?</t>
+          <t>What is the capacity in MW of the wind farm that was built in three phases , with the first coming online in 2002 , the second in 2009 and the third in 2019 ?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Quakers and Baptists</t>
+          <t>407</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>: Presbyterian</t>
+          <t>: The capacity in MW of the wind farm that was built in three phases, with the first coming online in 2002, the second in 2009, and the third in 2019, is 407 MW.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1989_NCAA_Women's_Division_I_Basketball_Tournament_2</t>
+          <t>List_of_offshore_wind_farms_0</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Which of the athletes from the country whose capital is Rabat was sanctioned for using a medication which is derived from DHT ?</t>
+          <t>How many Democrats were born in the month of June ?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mouhcine Cheaouri</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>: Mouhcine Cheaouri</t>
+          <t>: Out of the identified Democrats in the 129th Ohio General Assembly, only **Nickie Antonio** was born in June. Therefore, the number of Democrats born in the month of June is **1**.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>List_of_doping_cases_in_athletics_2</t>
+          <t>129th_Ohio_General_Assembly_1</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>The squash player that won the 2019 CIB Egyptian Tour had previously won the Under-15 British Junior Open Squash title the same year the Under-19 title winner was a player that would go on to win a gold medal in what games ?</t>
+          <t>Who sponsors the distribution that is in-progress and using binary blobs ?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2019 Pan American Games</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>Red Hat Inc.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>: The distribution that is in-progress for reproducible builds and uses binary blobs is Fedora. Fedora is primarily sponsored by Red Hat Inc., with minor support from other companies.</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>British_Junior_Open_Squash_1</t>
+          <t>List_of_Linux_distributions_endorsed_by_the_Free_Software_Foundation_1</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1260,22 +1291,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>What was the major education bill of the president who appointed Gale Norton ?</t>
+          <t>What is the release date of the game that features a number of new features and improvements to its predecessor , including multiplayer options ?</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>No Child Left Behind Act</t>
+          <t>2010-09-28</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>: The table does not contain information about education bills. Therefore, the major education bill of George W. Bush cannot be determined from the provided table content. However, historically, George W. Bush's major education bill was the No Child Left Behind Act (2002), but this is external knowledge not present in the given table.</t>
+          <t>: The release date of the game "Dead Rising 2," which features a number of new features and improvements to its predecessor, including multiplayer options, is September 28, 2010.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>List_of_female_United_States_Cabinet_Secretaries_0</t>
+          <t>List_of_Games_for_Windows_titles_4</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1285,22 +1316,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>How many boroughs does the 10th most populated metro area have ?</t>
+          <t>What is the nickname of the driver who finished with a time of 1:23.271 in the qualifying round of the 1998 British Grand Prix ?</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Seven</t>
+          <t>The Flying Finn</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>: The table provided lists Mexican metropolitan areas and does not contain any information about boroughs. The term "boroughs" refers to administrative divisions in certain U.S. cities (e.g., New York City's five boroughs), but Mexican metropolitan areas are structured differently and do not use the term "boroughs." The 10th most populated metro area in the table is "Greater Querétaro," but the table does not include data on boroughs or administrative subdivisions. Therefore, the question cannot be answered using the provided materials.</t>
+          <t>: The nickname of the driver who finished with a time of 1:23.271 in the qualifying round of the 1998 British Grand Prix is Mika Häkkinen. However, it's important to note that "Mika Häkkinen" is his full name rather than a specific nickname. If you are looking for a more colloquial or well-known nickname, please let me know!</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Metropolitan_areas_of_Mexico_0</t>
+          <t>1998_British_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1310,22 +1341,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>How many employees work for the company that is located in a country where there are ten provinces and three territories ?</t>
+          <t>How many boroughs does the 10th most populated metro area have ?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>Seven</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>: The table provided does not contain information about the number of employees for any company. Therefore, it is impossible to determine how many employees work for the company located in a country with ten provinces and three territories (Canada) based on the given data.</t>
+          <t>: The 10th most populated metropolitan area, Greater Querétaro, has 2 federative entities (boroughs).</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Turboprop_0</t>
+          <t>Metropolitan_areas_of_Mexico_0</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1335,22 +1366,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>How many Democrats were born in the month of June ?</t>
+          <t>How many employees work for the company that is located in a country where there are ten provinces and three territories ?</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>: 0</t>
+          <t>: The company located in a country with ten provinces and three territories (Canada) is Pratt &amp; Whitney Canada, which has approximately 10,000 employees worldwide, including 6,000 in Canada.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>129th_Ohio_General_Assembly_1</t>
+          <t>Turboprop_0</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1360,22 +1391,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>What is the release date of the game that features a number of new features and improvements to its predecessor , including multiplayer options ?</t>
+          <t>The squash player that won the 2019 CIB Egyptian Tour had previously won the Under-15 British Junior Open Squash title the same year the Under-19 title winner was a player that would go on to win a gold medal in what games ?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2010-09-28</t>
+          <t>2019 Pan American Games</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>: 2010-09-28</t>
+          <t>: Diego Elías won a gold medal at the 2019 Pan American Games in Lima, Peru.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>List_of_Games_for_Windows_titles_4</t>
+          <t>British_Junior_Open_Squash_1</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1385,18 +1416,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>How many kilograms does the player recruited from the club nicknamed The Double Blues weigh ?</t>
+          <t>What was the major education bill of the president who appointed Gale Norton ?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>No Child Left Behind Act</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>: The major education bill of the president who appointed Gale Norton was the No Child Left Behind Act.</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2009_AFL_Draft_2</t>
+          <t>List_of_female_United_States_Cabinet_Secretaries_0</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1406,18 +1441,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>What people founded the place in Elmore ?</t>
+          <t>Along what river is the town that the route which was redesignated as Leeds and Grenville County Road 32 goes to located ?</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>French</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>Saint Lawrence</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>: The river located near Seeleys Bay is the St. Lawrence River.</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>List_of_National_Historic_Landmarks_in_Alabama_0</t>
+          <t>List_of_highways_in_Ontario_1</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1427,18 +1466,18 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Along what river is the town that the route which was redesignated as Leeds and Grenville County Road 32 goes to located ?</t>
+          <t>What people founded the place in Elmore ?</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Saint Lawrence</t>
+          <t>French</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>List_of_highways_in_Ontario_1</t>
+          <t>List_of_National_Historic_Landmarks_in_Alabama_0</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1456,85 +1495,89 @@
           <t>Cuba</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>: The tables do not include director birth years, so the query cannot be answered with the provided data.</t>
-        </is>
-      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
           <t>List_of_submissions_to_the_64th_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Which player attended the school with athletic teams called Rainbow Warriors and Rainbow Wāhine ?</t>
+          <t>For whom was this neighborhood constructed in the 18th century located in the district whose name means old city in Catalan ?</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bill Blanchette</t>
+          <t>the Ribera neighborhood</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>: Bill Blanchette</t>
+          <t>: There is no library in the Ciutat Vella district named after an 18th-century masia or neighborhood constructed in the 18th century. The only library associated with an 18th-century masia is "Can Rosés," which is located in the Les Corts district.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1991_College_Baseball_All-America_Team_0</t>
+          <t>List_of_libraries_in_Barcelona_0</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>For whom was this neighborhood constructed in the 18th century located in the district whose name means old city in Catalan ?</t>
+          <t>How many kilograms does the player recruited from the club nicknamed The Double Blues weigh ?</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>the Ribera neighborhood</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>: The player recruited from the club nicknamed "The Double Blues" weighs 88 kilograms (194 lb).</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>List_of_libraries_in_Barcelona_0</t>
+          <t>2009_AFL_Draft_2</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>What is the name of the route that goes via the location whose population was 9,449 at the 2010 census ?</t>
+          <t>Which player attended the school with athletic teams called Rainbow Warriors and Rainbow Wāhine ?</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CR 202</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>Bill Blanchette</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>: No player from the 1991 College Baseball All-America Team attended the University of Hawaii at Manoa. However, Alapati Noga, an AP first team All-American, did attend the University of Hawaii at Manoa.</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>List_of_county_routes_in_Wayne_County,_New_York_1</t>
+          <t>1991_College_Baseball_All-America_Team_0</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1550,7 +1593,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>: The city containing the Charles M. Schulz Museum and Research Center is Santa Rosa. However, the provided table does not include population data or state population rankings, so the state population rank of Santa Rosa cannot be determined from the given information.</t>
+          <t>: The state population rank of Santa Rosa, which contains the Charles M. Schulz Museum and Research Center, is 28th.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1559,74 +1602,78 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>What is the song title of the artist who is known for his participation in the Eurovision Song Contests of 1967 and 1969 ?</t>
+          <t>What is the name of the route that goes via the location whose population was 9,449 at the 2010 census ?</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ik heb zorgen</t>
+          <t>CR 202</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>: Ik heb zorgen, Jennifer Jennings</t>
+          <t>: The routes that go via the location whose population was 9,449 at the 2010 census (Walworth) are CR 201, CR 202, CR 203, CR 204 (1), CR 204 (2), CR 205, CR 207, and CR 208.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Eurosong_(Belgium)_4</t>
+          <t>List_of_county_routes_in_Wayne_County,_New_York_1</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>What is the nickname of the driver who finished with a time of 1:23.271 in the qualifying round of the 1998 British Grand Prix ?</t>
+          <t>What is the song title of the artist who is known for his participation in the Eurovision Song Contests of 1967 and 1969 ?</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>The Flying Finn</t>
+          <t>Ik heb zorgen</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>: The Flying Finn</t>
+          <t>: The song titles for Louis Neefs in the Eurovision Song Contests of 1967 and 1969 are "Ik heb zorgen" and "Jennifer Jennings," respectively.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1998_British_Grand_Prix_0</t>
+          <t>Eurosong_(Belgium)_4</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>What is the shape of the parasite that can affect the human eye , brain , and skin and is often transmitted by thin lens placed directly on the surface of the eye ?</t>
+          <t>What is the month of birth of the player with the fourth most National Football League career rushing yards ?</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Amoeboid</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>: The month of birth of the player with the fourth most National Football League career rushing yards is July.</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>List_of_parasites_of_humans_0</t>
+          <t>List_of_National_Football_League_rushing_yards_leaders_0</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1636,22 +1683,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>What is the month of birth of the player with the fourth most National Football League career rushing yards ?</t>
+          <t>What is the position of the driver that earned the CART Championship in 2002 ?</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>: The table provided does not contain birth month information for any players, including Barry Sanders, who is the fourth-ranked player in career rushing yards. Therefore, the birth month cannot be determined from the given data.</t>
+          <t>: The position of the driver who won the CART Championship in 2002, Cristiano Monteiro da Matta, in the 2004 German Grand Prix was 15th.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>List_of_National_Football_League_rushing_yards_leaders_0</t>
+          <t>2004_German_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1661,18 +1708,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>An author with 19 names penned a parody of a gameshow developed for the U.S. by Michael Davies that was originally hosted in American by what person ?</t>
+          <t>What is the shape of the parasite that can affect the human eye , brain , and skin and is often transmitted by thin lens placed directly on the surface of the eye ?</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>by Regis Philbin</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>Amoeboid</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>: The parasite that can affect the human eye, brain, and skin and is often transmitted by thin lenses placed directly on the surface of the eye (contact lenses) is **Acanthamoeba spp**. Acanthamoeba spp typically have an amoeboid shape, which allows them to move and change form by extending pseudopodia.</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>List_of_television_show_spoofs_in_Mad_5</t>
+          <t>List_of_parasites_of_humans_0</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1682,47 +1733,47 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>What is the position of the driver that earned the CART Championship in 2002 ?</t>
+          <t>An author with 19 names penned a parody of a gameshow developed for the U.S. by Michael Davies that was originally hosted in American by what person ?</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>by Regis Philbin</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>: 1</t>
+          <t>: The original host of "Who Wants to Be a Millionaire" in the United States was Regis Philbin.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2004_German_Grand_Prix_0</t>
+          <t>List_of_television_show_spoofs_in_Mad_5</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>What was the former name of the most recent landmark ?</t>
+          <t>Where was the organization , who won the third staging of the championship , founded ?</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chalk Cave and Baird Cave</t>
+          <t>Hayes ' Hotel</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>: The table does not contain information about former names of landmarks. The most recent landmark listed is "Lake Shasta Caverns" (designated May 2012), but no former name is provided in the table. Therefore, the former name cannot be determined from the given data.</t>
+          <t>: The county of Cork does not have a specific founding date as it is a geographical region with a long history. The city of Cork, which is located within the county, was expanded by Viking invaders around 915 AD and received its charter from Prince John in 1185. The administrative county of Cork likely aligns with the broader historical development of counties in Ireland during the Norman invasion in the late 12th century.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>List_of_National_Natural_Landmarks_in_California_0</t>
+          <t>All-Ireland_Senior_Football_Championship_records_and_statistics_0</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1742,7 +1793,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>: The provided table contains New Zealand's year-end number-one singles, not the United Kingdom's chart data. The song "If You Do n't Know Me by Now" by Simply Red appears in the table as a New Zealand number-one single for 1989 (5 weeks at number one), but the table does not include any information about the United Kingdom's top ten singles. Therefore, the query cannot be answered using the provided data.</t>
+          <t>: The song "If You Do n't Know Me by Now" by Simply Red made the top ten singles of the United Kingdom at least three times, as it reached No. 1 on three separate occasions.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1757,47 +1808,51 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Where was the organization , who won the third staging of the championship , founded ?</t>
+          <t>Who is the older brother of the driver with a lap time of 1:33.297 ?</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Hayes ' Hotel</t>
+          <t>Michael Schumacher</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>: Tipperary</t>
+          <t>: The older brother of the driver with a lap time of 1:33.297 (Ralf Schumacher) is Michael Schumacher.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>All-Ireland_Senior_Football_Championship_records_and_statistics_0</t>
+          <t>2001_Japanese_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>To what team did the athlete go who was from the team that was founded on 30 November 1896 as a sports club ?</t>
+          <t>What was the former name of the most recent landmark ?</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Internazionale</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>Chalk Cave and Baird Cave</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>: The former names of the most recent National Natural Landmark, Lake Shasta Caverns, were Chalk Cave and Baird Cave, named after Spencer Fullerton Baird.</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Goalkeeper_(association_football)_0</t>
+          <t>List_of_National_Natural_Landmarks_in_California_0</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1813,7 +1868,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>: The peak at 2,798 meters above sea level in Brazil is **Pedra da Mina** (located in São Paulo state, Serra da Mantiqueira range). The provided table does not mention "syenite" (a type of igneous rock) or any rock composition details. The term "syenite" appears to be a **typo or misunderstanding**, as the table only lists peak names, states, and elevations. The correct answer based on the table is **Pedra da Mina**.</t>
+          <t>: The mountaintop of Pedra da Mina in Brazil, which is 2,798 meters above sea level, is made up of highly alkaline nepheline syenite. This type of rock is easily eroded and for this reason is not usually found at very high altitudes.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1822,7 +1877,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1836,35 +1891,39 @@
           <t>46</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>: The table does not contain information about a player born on 28 October 1973. Therefore, the age of such a player cannot be determined from the provided data.</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>2009_Universitario_de_Deportes_season_0</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>What was the order of the religious people who lived at the building that was part of the largest medieval hospital in Denmark which King Christian I turned into an Augustinian priory 1497 ?</t>
+          <t>What is the higher engine make/capacity value of a vehicle made in the largest city in Japan 's Chūbu region ?</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Order of the Holy Ghost</t>
+          <t>354 cc</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>: The order of the religious people who lived at the Hospital of the Holy Ghost, Copenhagen after 1497 was **Augustinian canons**. This is confirmed by the table entry noting the transition from "Order of the Holy Ghost to 1497, Augustinian canons thereafter" and historical context that King Christian I converted the hospital into an Augustinian priory in 1497.</t>
+          <t>: There are no vehicles listed in the provided table that were manufactured in Nagoya, Japan. Therefore, it is not possible to determine the higher engine make/capacity value for a vehicle made in the largest city of Japan's Chūbu region.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>List_of_Christian_religious_houses_in_Denmark_0</t>
+          <t>List_of_microcars_by_country_of_origin__J_0</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1874,72 +1933,72 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>What is the higher engine make/capacity value of a vehicle made in the largest city in Japan 's Chūbu region ?</t>
+          <t>To what team did the athlete go who was from the team that was founded on 30 November 1896 as a sports club ?</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>354 cc</t>
+          <t>Internazionale</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>: The higher engine make/capacity value of a vehicle made in the largest city (Nagoya) in Japan's Chūbu region is **354 cc**, corresponding to the "Cony 360 Coach" manufactured by Aichi Machine Industry Co Ltd, Nagoya. This is the maximum engine capacity value for vehicles produced in Nagoya as confirmed by the table data.</t>
+          <t>: Based on the provided table content, there is no information about a player who transferred from Hannover 96. Therefore, I cannot determine which team such a player went to. Additional sources would be required to answer this query accurately.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>List_of_microcars_by_country_of_origin__J_0</t>
+          <t>Goalkeeper_(association_football)_0</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>What city contains the home stadium of the winner of the 1993 John Hancock Bowl ?</t>
+          <t>Which ship had the cannon with a caliber of less than 412.8 but more than 406 millimeters which was salvaged in the seventies ?</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Norman , Oklahoma</t>
+          <t>Mutsu</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>: Norman</t>
+          <t>: The Japanese battleship Mutsu had the naval gun with a caliber of 410 millimeters (41 cm/45 3rd Year Type), and two turrets and their guns from this type were salvaged during the 1970s.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Bowl_Coalition_0</t>
+          <t>List_of_the_largest_cannon_by_caliber_2</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Which ship had the cannon with a caliber of less than 412.8 but more than 406 millimeters which was salvaged in the seventies ?</t>
+          <t>What was the order of the religious people who lived at the building that was part of the largest medieval hospital in Denmark which King Christian I turned into an Augustinian priory 1497 ?</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mutsu</t>
+          <t>Order of the Holy Ghost</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>: The table does not contain information about salvage dates or ship names associated with the cannons. While the "41 cm/45 3rd Year Type" cannon (caliber 410 mm) meets the caliber requirement (406 mm &lt; 410 mm &lt; 412.8 mm), the table lacks data on salvage events or the specific ship it was mounted on. Therefore, the query cannot be answered with the provided information.</t>
+          <t>: The order of the religious people who lived at the Hospital of the Holy Ghost, Copenhagen after it was turned into an Augustinian priory in 1497 by King Christian I is **Augustinian canons**.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>List_of_the_largest_cannon_by_caliber_2</t>
+          <t>List_of_Christian_religious_houses_in_Denmark_0</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -1949,47 +2008,47 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>What kind of dam is the tallest dam in Europe ?</t>
+          <t>What is the Chinese title of the film whose director was born on 7 March 1926 ?</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Gravity</t>
+          <t>梁山伯与祝英台</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>: Concrete gravity</t>
+          <t>: The Chinese title of the film whose director was born on 7 March 1926 is 瀛台泣血.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>List_of_tallest_dams_in_the_world_0</t>
+          <t>List_of_Hong_Kong_submissions_for_the_Academy_Award_for_Best_Foreign_Language_Film_0</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>How long , in kilometers , is the road that is the end of route CR 10A ?</t>
+          <t>How many total championship points did the constructor win whose driver won the 2008 FIA GT Championship ?</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>522.59 km</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>: 1.75</t>
+          <t>: The constructor whose driver won the 2008 FIA GT Championship (Ferrari) won a total of 2 championship points in the 2004 Canadian Grand Prix.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>List_of_highways_in_Essex_County,_New_York_1</t>
+          <t>2004_Canadian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -1999,47 +2058,47 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>What year did the empire of Portugal establish the city of Santos Dumont Airport ?</t>
+          <t>During the AFL 2013 draft , the 4th pick drafted by Western Bulldogs was born in what month ?</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1565</t>
+          <t>November</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>: The question contains a misconception. Santos Dumont Airport is located in **Rio de Janeiro, Brazil**, not a city named "Santos Dumont." It is named after **Alberto Santos-Dumont** (1873–1932), a **Brazilian** aviation pioneer, not a Portuguese entity. The Portuguese Empire colonized Brazil but did not establish this airport. The provided table does not include the airport's establishment year, and the materials confirm it serves **Rio de Janeiro, Brazil**, with no historical or founding-year data. The airport was established in **1939** (external historical fact), but this is not reflected in the table. The query's premise is incorrect: Portugal's empire did not establish the airport, and the table lacks this information.</t>
+          <t>: Marcus Bontempelli, who was the 4th pick drafted by Western Bulldogs in the 2013 AFL Draft, was born in November. Therefore, the birth month of the 4th pick drafted by Western Bulldogs is **November**.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Latin_America_0</t>
+          <t>2013_AFL_Draft_1</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>What is the team for the racer who was brought in to replace fellow Italian Jarno Trulli ?</t>
+          <t>What highway passes by the airport in Canada that had 168,889 airplanes move in a year ?</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Highway 2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>: Renault</t>
+          <t>: The highway that passes by the airport in Canada that had 168,889 airplanes move in a year is **Highway 2**.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2005_French_Grand_Prix_0</t>
+          <t>List_of_the_busiest_airports_in_Canada_8</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2049,97 +2108,97 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>What highway passes by the airport in Canada that had 168,889 airplanes move in a year ?</t>
+          <t>What kind of dam is the tallest dam in Europe ?</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Highway 2</t>
+          <t>Gravity</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>: The airport with 168,889 aircraft movements is Edmonton International Airport. However, the provided table does not include information about highways passing by airports, so the specific highway cannot be determined from the given data.</t>
+          <t>: The tallest dam in Europe is the **Grande Dixence Dam**, which has a height of 285 meters (935 feet) and is a concrete gravity dam.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Canada_8</t>
+          <t>List_of_tallest_dams_in_the_world_0</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>How many total championship points did the constructor win whose driver won the 2008 FIA GT Championship ?</t>
+          <t>What city contains the home stadium of the winner of the 1993 John Hancock Bowl ?</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>Norman , Oklahoma</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>: The table provided contains data from the 2004 Canadian Grand Prix (Formula 1), not the 2008 FIA GT Championship. The FIA GT Championship is a separate motorsport series, and the table does not include any information about the 2008 FIA GT Championship or its constructors/drivers. Therefore, the query cannot be answered using the provided table.</t>
+          <t>: The city that contains the home stadium of the winner of the 1993 John Hancock Bowl (Oklahoma) is **Norman, Oklahoma**.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2004_Canadian_Grand_Prix_0</t>
+          <t>Bowl_Coalition_0</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Who is the older brother of the driver with a lap time of 1:33.297 ?</t>
+          <t>The owner of Dufferin Communications is a radio broadcasting company that operates an AM station that is the only what in Manitoba ?</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Michael Schumacher</t>
+          <t>multilingual radio station</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>: Michael Schumacher</t>
+          <t>: The owner of Dufferin Communications is Evanov Radio Group, which operates an AM station (810 AM CKJS) in Manitoba. This AM station is the only one in Manitoba that broadcasts ethnic content.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2001_Japanese_Grand_Prix_0</t>
+          <t>Media_in_Winnipeg_1</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>What is the Chinese title of the film whose director was born on 7 March 1926 ?</t>
+          <t>How long , in kilometers , is the road that is the end of route CR 10A ?</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>梁山伯与祝英台</t>
+          <t>522.59 km</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>: 霸王别姬</t>
+          <t>: The road that is the end of Route CR 10A is 1.75 kilometers long.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>List_of_Hong_Kong_submissions_for_the_Academy_Award_for_Best_Foreign_Language_Film_0</t>
+          <t>List_of_highways_in_Essex_County,_New_York_1</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2149,47 +2208,47 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>During the AFL 2013 draft , the 4th pick drafted by Western Bulldogs was born in what month ?</t>
+          <t>What year did the empire of Portugal establish the city of Santos Dumont Airport ?</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>1565</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>: The table does not contain birth month information for Marcus Bontempelli, so the birth month cannot be determined from the provided data.</t>
+          <t>: The city of Rio de Janeiro, served by Santos Dumont Airport, was established in 1565 by the Portuguese.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2013_AFL_Draft_1</t>
+          <t>List_of_the_busiest_airports_in_Latin_America_0</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>At the 2010 census , what was the population of the town that is the end of route CR 7 ?</t>
+          <t>What is the team for the racer who was brought in to replace fellow Italian Jarno Trulli ?</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1,163</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>: The table provided does not include population data for any towns, including Elizabethtown (the endpoint of CR 7). Therefore, the 2010 census population of Elizabethtown cannot be determined from the given information.</t>
+          <t>: The team for the racer who was brought in to replace Jarno Trulli is Toyota.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>List_of_highways_in_Essex_County,_New_York_1</t>
+          <t>2005_French_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2199,97 +2258,85 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>What Constructor made the vehicle for the Driver who overall won 32 Formula One races , 22 pole positions and 1,899 points from 311 starts ?</t>
+          <t>What island do the residents near the Lucerne shipwreck almost exclusively live on ?</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>: Ferrari</t>
-        </is>
-      </c>
+          <t>Madeline Island</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2004_Chinese_Grand_Prix_1</t>
+          <t>National_Register_of_Historic_Places_listings_in_Ashland_County,_Wisconsin_0</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Of the teams that did not play in the top division last season , the oldest one plays out of a stadium that was originally built to host what event ?</t>
+          <t>At the 2010 census , what was the population of the town that is the end of route CR 7 ?</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1999 Summer Universiade in Palma</t>
+          <t>1,163</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>: The oldest team that did not play in the top division last season is Osasuna (first season in top division: 1935-36). However, the provided table and materials do not specify the original event for which El Sadar stadium was built. The answer cannot be determined from the given information.</t>
+          <t>: The population of the town that is the endpoint of County Route (CR) 7, which is Elizabethtown, New York, was 1,163 in the 2010 census.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>List_of_football_clubs_in_Spain_0</t>
+          <t>List_of_highways_in_Essex_County,_New_York_1</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Which school is featured in the Netflix sport series that debuted on July 29 , 2016 ?</t>
+          <t>What Constructor made the vehicle for the Driver who overall won 32 Formula One races , 22 pole positions and 1,899 points from 311 starts ?</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>East Mississippi Community College</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>: East Mississippi Community College</t>
-        </is>
-      </c>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>List_of_original_programs_distributed_by_Netflix_9</t>
+          <t>2004_Chinese_Grand_Prix_1</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>What is the city of birth of the number 4 draft pick of the 2001 XFL Draft ?</t>
+          <t>Of the teams that did not play in the top division last season , the oldest one plays out of a stadium that was originally built to host what event ?</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Louisville</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>: The city of birth for the 4th draft pick is not provided in the given materials. The table lists the player (Jeff Brohm) and college (Louisville), but does not include birthplace information.</t>
-        </is>
-      </c>
+          <t>1999 Summer Universiade in Palma</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2001_XFL_Draft_0</t>
+          <t>List_of_football_clubs_in_Spain_0</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2299,22 +2346,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>What island do the residents near the Lucerne shipwreck almost exclusively live on ?</t>
+          <t>What kind of figure was the namesake of the stadium that has the same capacity as the stadium opened in 1981 , but is located in the city known as `` the city under Marko 's Towers '' ?</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Madeline Island</t>
+          <t>Revolutionary</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>: Long Island</t>
+          <t>: Goce Delčev was a revolutionary figure in Macedonian history, known for his significant role in the struggle against Ottoman rule and his efforts to promote national liberation. The Goce Delčev Stadium in Prilep, North Macedonia, is named after him, reflecting his status as a revered figure in Macedonian history.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>National_Register_of_Historic_Places_listings_in_Ashland_County,_Wisconsin_0</t>
+          <t>List_of_football_stadiums_in_the_Republic_of_Macedonia_0</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2324,22 +2371,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>How many million square kilometres is the country who had a player whose 2012-13 club 's arena is known locally as the Thunderdome ?</t>
+          <t>Which school is featured in the Netflix sport series that debuted on July 29 , 2016 ?</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>9.98</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
+          <t>East Mississippi Community College</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>: The series "Last Chance U" typically features junior college (JUCO) and community college football programs in the United States. Some of the schools featured include East Mississippi Community College, Fresno City College, and others.
+If you need more detailed information about the specific schools featured in "Last Chance U," please let me know!</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>List_of_Coventry_Blaze_players_0</t>
+          <t>List_of_original_programs_distributed_by_Netflix_9</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2353,39 +2405,31 @@
           <t>46.15%</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>: 100%</t>
-        </is>
-      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
           <t>1950_Italian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>What branch is the youngest chief of defence from ?</t>
+          <t>What is the capacity in MWs of the farm belonging to the company based in Edmonton ?</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Army</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>: Army</t>
-        </is>
-      </c>
+          <t>149.4</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Chief_of_Defence_(Norway)_0</t>
+          <t>List_of_wind_farms_in_Canada_1</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2395,22 +2439,18 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>The owner of Dufferin Communications is a radio broadcasting company that operates an AM station that is the only what in Manitoba ?</t>
+          <t>How many million square kilometres is the country who had a player whose 2012-13 club 's arena is known locally as the Thunderdome ?</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>multilingual radio station</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>: The table does not contain information about Dufferin Communications as an owner, nor does it provide details about radio stations in Manitoba. The query references a location (Manitoba) and entity (Dufferin Communications) not present in the provided London, Ontario media table. Therefore, the question cannot be answered using the given data.</t>
-        </is>
-      </c>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Media_in_Winnipeg_1</t>
+          <t>List_of_Coventry_Blaze_players_0</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2420,22 +2460,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>What is the completion year for the church who 's ruins are currently being researched by members of the Jamestown Rediscovery project ?</t>
+          <t>What is the city of birth of the number 4 draft pick of the 2001 XFL Draft ?</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1647</t>
+          <t>Louisville</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>: The completion year for the church whose ruins are currently being researched by members of the Jamestown Rediscovery project is 1647. This corresponds to the Jamestown Church in Jamestown, Virginia, which was completed in 1647 and is noted as the oldest church in the original 13 colonies, with only floor tiles and foundations remaining from the original structure.</t>
+          <t>: The city of birth of the number 4 draft pick of the 2001 XFL Draft is Louisville, Kentucky.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>List_of_the_oldest_churches_in_the_United_States_0</t>
+          <t>2001_XFL_Draft_0</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2445,18 +2485,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>What kind of figure was the namesake of the stadium that has the same capacity as the stadium opened in 1981 , but is located in the city known as `` the city under Marko 's Towers '' ?</t>
+          <t>What is the completion year for the church who 's ruins are currently being researched by members of the Jamestown Rediscovery project ?</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Revolutionary</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
+          <t>1647</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>: The completion year for the Jamestown Church, whose ruins are currently being researched by members of the Jamestown Rediscovery project, is 1647.</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>List_of_football_stadiums_in_the_Republic_of_Macedonia_0</t>
+          <t>List_of_the_oldest_churches_in_the_United_States_0</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2466,68 +2510,72 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>What is the capacity in MWs of the farm belonging to the company based in Edmonton ?</t>
+          <t>Which year did the person who completed the qualifying race of the Canadian Grand Prix of 1999 in 1:19.440 first get onto the podium ?</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>149.4</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>: 63.0</t>
+          <t>: Eddie Irvine first got onto the podium in Formula 1 in 1995.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>List_of_wind_farms_in_Canada_1</t>
+          <t>1999_Canadian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Which year did the person who completed the qualifying race of the Canadian Grand Prix of 1999 in 1:19.440 first get onto the podium ?</t>
+          <t>What branch is the youngest chief of defence from ?</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>Army</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>: 1995</t>
+          <t>: The youngest Chief of Defence, Folke Hauger Johannessen, is from the Navy.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1999_Canadian_Grand_Prix_0</t>
+          <t>Chief_of_Defence_(Norway)_0</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>For how long was the husband of the actress that made her film debut in Last Action Hero ranked world No . 1 ?</t>
+          <t>What age did the driver who finished at position 6 at the 2005 European Grand Prix qualifier start go-karting ?</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>286 weeks</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>three</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>: The driver who finished at position 6 in the 2005 European Grand Prix qualifier, Fernando Alonso, started go-karting at the age of three.</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Miss_Teen_USA_1</t>
+          <t>2005_European_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -2537,43 +2585,47 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>What age did the driver who finished at position 6 at the 2005 European Grand Prix qualifier start go-karting ?</t>
+          <t>For how long was the husband of the actress that made her film debut in Last Action Hero ranked world No . 1 ?</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>286 weeks</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>: The table provided does not contain information about the drivers' ages or when they started go-karting. The driver who finished at position 6 was Fernando Alonso, but the table only includes race results (position, constructor, lap time, etc.), not personal details like age or go-karting history. Therefore, the requested information cannot be determined from the given data.</t>
+          <t>: Pete Sampras, the husband of actress Bridgette Wilson-Sampras, was ranked world No. 1 for a total of 286 weeks.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2005_European_Grand_Prix_0</t>
+          <t>Miss_Teen_USA_1</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>What Trail has a section in the town that starts the highway that ends in a town on the eastern shore of Lake Huron at the mouth of the Maitland River ?</t>
+          <t>What month was the driver with a gap of +3.926 born ?</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Bruce</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>: Fernando Alonso was born in July.</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>List_of_highways_in_Ontario_0</t>
+          <t>2001_Japanese_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -2583,22 +2635,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>What is the national title of the film whose production country is a unitary parliamentary democracy and constitutional monarchy ?</t>
+          <t>Which publication designated the person who created the artwork King at Rest as renown in the northwestern region of the US ?</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Dogville</t>
+          <t>Willamette Week</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>: Dogville, Match Point</t>
+          <t>: The provided table and additional materials do not contain information about which publication designated Lorenzo Ghiglieri as renowned in the northwestern region of the US. To answer this question, we would need to consult other sources or publications that discuss his reputation and recognition.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Golden_Eagle_Award_for_Best_Foreign_Language_Film_0</t>
+          <t>List_of_public_art_in_Indianapolis_8</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -2608,147 +2660,147 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Which person had the most laps led from a winning manufacturer that had two men start the company on November 3 , 1911 with a pole position guy that had a three time champion of the Nascar Gander RV &amp; Outdoors Truck Series ?</t>
+          <t>What is the national title of the film whose production country is a unitary parliamentary democracy and constitutional monarchy ?</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>James Buescher</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
+          <t>Dogville</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>: The national titles of films whose production country is the United Kingdom are "Dogville" and "Match Point."</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2012_NASCAR_Camping_World_Truck_Series_0</t>
+          <t>Golden_Eagle_Award_for_Best_Foreign_Language_Film_0</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>What is the area of the small old center of the city that Big Brother participant Ben Duncan is from ?</t>
+          <t>What Trail has a section in the town that starts the highway that ends in a town on the eastern shore of Lake Huron at the mouth of the Maitland River ?</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1.12 square miles</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>: The table lists Ben Duncan's hometown as London, but it does not provide information about the specific area or small old center within London. Therefore, the requested area cannot be determined from the given table.</t>
-        </is>
-      </c>
+          <t>Bruce</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Big_Brother_11_(UK)_0</t>
+          <t>List_of_highways_in_Ontario_0</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>In which league was the player to debut against the Reggae Boyz the highest scorer ?</t>
+          <t>Which person had the most laps led from a winning manufacturer that had two men start the company on November 3 , 1911 with a pole position guy that had a three time champion of the Nascar Gander RV &amp; Outdoors Truck Series ?</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>K League 1</t>
+          <t>James Buescher</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>: The table provided contains information about the South Korea national football team's debut records but does not include details about players' club leagues or scoring records. The player who debuted against Jamaica (the Reggae Boyz) is Lee Dong-Gook, but the table does not specify the league in which he was the highest scorer. Therefore, the required information is not available in the provided table.</t>
+          <t>: James Buescher led the most laps in the UNOH 225 race where Chevrolet won and Matt Crafton had pole position. Therefore, the person who had the most laps led from a winning manufacturer that had two men start the company on November 3, 1911, with a pole position guy that had a three-time champion of the NASCAR Gander RV &amp; Outdoors Truck Series is **James Buescher**.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>South_Korea_national_football_team_records_2</t>
+          <t>2012_NASCAR_Camping_World_Truck_Series_0</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>What is the rank of the 555 meter South Korean building in the world in terms of height ?</t>
+          <t>In which league was the player to debut against the Reggae Boyz the highest scorer ?</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>K League 1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>: The Lotte World Tower, with a height of 555 meters, is ranked **1st** in South Korea based on the provided table. The table lists rankings within South Korea, not globally. Therefore, the rank of the 555-meter building in South Korea is **1**. The query's reference to "the world" appears to be a misunderstanding, as the table does not provide global rankings.</t>
+          <t>: The player who debuted against Jamaica (the Reggae Boyz) is Lee Dong-Gook, and he played in the K League 1, where he was a record scorer.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>List_of_tallest_buildings_in_South_Korea_0</t>
+          <t>South_Korea_national_football_team_records_2</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>In what year was the lyricist of `` Jis dil mein basa tha pyaar tera '' born ?</t>
+          <t>What is the area of the small old center of the city that Big Brother participant Ben Duncan is from ?</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>1.12 square miles</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>: The table does not provide the birth year of the lyricist Indeevar. While the table confirms that Indeevar was the lyricist for the song "Jis dil mein basa tha pyaar tera" (1965), it contains no information about the lyricist's birth year. Therefore, the requested information is not available in the provided data.</t>
+          <t>: The area of the small old center of the city that Big Brother participant Ben Duncan is from, which is London, is 1.12 square miles (2.9 km²).</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Binaca_Geetmala_annual_list_1975_0</t>
+          <t>Big_Brother_11_(UK)_0</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>On which date was this spacecraft decommissioned , which was built to explore the C-type asteroid composed of primitive carbonaceous material ?</t>
+          <t>In what month did the season conclude the year that Owen Turtenwald won the Grand Prix in Nice ?</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1 November 2018</t>
+          <t>August</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>: The table provided lists comets visited by spacecraft, not asteroids. The query asks about a spacecraft built to explore a C-type asteroid (composed of primitive carbonaceous material), but the table's "Body Discovered" entries are all comets. Therefore, the table does not contain information about spacecraft intended for C-type asteroids, as the listed missions were for comets. The spacecraft mentioned in the table (e.g., Rosetta, Dawn, Hayabusa) were designed for comet or asteroid missions, but the specific context of a C-type asteroid is not reflected in the table's data. The query cannot be answered using the provided table.</t>
+          <t>: The 2014-15 season concluded in **August**.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>List_of_comets_visited_by_spacecraft_3</t>
+          <t>Owen_Turtenwald_0</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2764,7 +2816,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>: The table provided does not contain information about the birth months of the competitors. Therefore, the month of birth for the number 3 ranked competitor (Elena Ivanova) cannot be determined from the given data.</t>
+          <t>: The month of birth of the number 3 ranked competitor in the 1997 World Junior Figure Skating Championships, Elena Ivanova, is **November**.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2773,53 +2825,49 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>What is the name of the racecourse whose country was first inhabited by modern humans during the Upper Palaeolithic period ?</t>
+          <t>What is the rank of the 555 meter South Korean building in the world in terms of height ?</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Bibury Racecourse</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>: The table provided does not contain information about when the countries (Wales or England) were first inhabited by modern humans during the Upper Palaeolithic period. The "Country" column lists the location of each racecourse, but the table does not include historical data regarding the habitation periods of these countries. Therefore, the query cannot be answered using the given table content.</t>
-        </is>
-      </c>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>List_of_British_racecourses_2</t>
+          <t>List_of_tallest_buildings_in_South_Korea_0</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>What month was the driver with a gap of +3.926 born ?</t>
+          <t>On which date was this spacecraft decommissioned , which was built to explore the C-type asteroid composed of primitive carbonaceous material ?</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>1 November 2018</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>: The table provided does not contain information about the birth months of the drivers. Therefore, it is not possible to determine the month in which Fernando Alonso (the driver with a gap of +3.926) was born based on the given data.</t>
+          <t>: As of the latest available information, the OSIRIS-REx spacecraft, which was built to explore a C-type asteroid composed of primitive carbonaceous material, has not been decommissioned. The mission is still active and ongoing.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2001_Japanese_Grand_Prix_0</t>
+          <t>List_of_comets_visited_by_spacecraft_3</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -2829,72 +2877,72 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>How many undergrad majors are in the university attended by Henry Ellard ?</t>
+          <t>In what year was the lyricist of `` Jis dil mein basa tha pyaar tera '' born ?</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>: The table does not provide information about the number of undergrad majors at Fresno State University. Therefore, the answer cannot be determined from the given data.</t>
+          <t>: The lyricist of "Jis dil mein basa tha pyaar tera" is Indeevar, and he was born in 1924.</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>List_of_Washington_Redskins_players_4</t>
+          <t>Binaca_Geetmala_annual_list_1975_0</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Where is this Publisher located whose Platform only has one entry on the list ?</t>
+          <t>When was the fastest driver for McLaren , Mercedes born ?</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>28 September 1968</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>: The publishers with only one platform entry in the table are 10tacle Studios, Capcom, EA Sports, Electronic Arts, Microsoft Game Studios, Namco Bandai Games, Peter Stock, RedOctane, and THQ. The table does not contain location information for publishers, so the question about "where" is based on a misunderstanding of the data provided.</t>
+          <t>: Mika Häkkinen, the fastest driver for McLaren-Mercedes in the 1998 Luxembourg Grand Prix, was born on 28 September 1968.</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2006_in_video_gaming_1</t>
+          <t>1998_Luxembourg_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>What is the league whose city forms part of the Pearl River Delta megalopolis ?</t>
+          <t>What is the name of the racecourse whose country was first inhabited by modern humans during the Upper Palaeolithic period ?</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>China Futsal Super League</t>
+          <t>Bibury Racecourse</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>: China League One</t>
+          <t>: The provided information does not allow us to definitively determine which racecourse's country (Wales or England) was first inhabited by modern humans during the Upper Palaeolithic period. Therefore, we cannot provide a specific racecourse name based on this query. If you have additional historical sources or archaeological evidence, please provide them for a more accurate response.</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Guangdong_1</t>
+          <t>List_of_British_racecourses_2</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -2904,47 +2952,47 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Which publication designated the person who created the artwork King at Rest as renown in the northwestern region of the US ?</t>
+          <t>How many undergrad majors are in the university attended by Henry Ellard ?</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Willamette Week</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>The New York Times&lt;/Answer&gt;</t>
+          <t>: Fresno State University offers 60 undergraduate majors.</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>List_of_public_art_in_Indianapolis_8</t>
+          <t>List_of_Washington_Redskins_players_4</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>For the latest member to serve , what were some of the things her party opposed ?</t>
+          <t>What is the league whose city forms part of the Pearl River Delta megalopolis ?</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>the abolition of slavery</t>
+          <t>China Futsal Super League</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>: The latest member to serve as Secretary of State of Puerto Rico was Marisara Pont Marchese (Party: PPD). However, the provided table does not contain information about what the PPD party opposed.</t>
+          <t>: The 2014 China League One</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>List_of_Secretaries_of_State_of_Puerto_Rico_0</t>
+          <t>Guangdong_1</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -2954,22 +3002,22 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>In what month did the season conclude the year that Owen Turtenwald won the Grand Prix in Nice ?</t>
+          <t>Where is this Publisher located whose Platform only has one entry on the list ?</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>: December</t>
+          <t>: The location of the Publisher 'Microsoft Game Studios', whose Platform only has one entry on the list, is Redmond, Washington.</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Owen_Turtenwald_0</t>
+          <t>2006_in_video_gaming_1</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -2979,68 +3027,72 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>When was the fastest driver for McLaren , Mercedes born ?</t>
+          <t>Which concrete arch dam is located in the country home to the two global cities and economic centres of Zürich and Geneva ?</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>28 September 1968</t>
+          <t>Mauvoisin Dam</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>: The fastest driver for McLaren, Mercedes in the 1998 Luxembourg Grand Prix was Mika Häkkinen. However, the provided table does not contain birth date information for any drivers, so the birth year cannot be determined from the given data.</t>
+          <t>: The concrete arch dam located in the country home to the two global cities and economic centers of Zürich and Geneva is the Mauvoisin Dam.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1998_Luxembourg_Grand_Prix_0</t>
+          <t>List_of_tallest_dams_in_the_world_0</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>What was the name of the prisoner who escape from Rio Piedras State Penitentiary in Puerto Rico ?</t>
+          <t>For the latest member to serve , what were some of the things her party opposed ?</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>William Lane</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>the abolition of slavery</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>: The Popular Democratic Party (PPD), to which Marisara Pont Marchese belonged, has historically opposed changes to Puerto Rico's status as a Commonwealth, proposals that contradict their vision for self-governance and the relationship with the United States, and extreme political positions from both the left and the right.</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>List_of_helicopter_prison_escapes_0</t>
+          <t>List_of_Secretaries_of_State_of_Puerto_Rico_0</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>What was the last year of the athletic program at the post-secondary school attended by Junior Galette ?</t>
+          <t>What is the name of the airport in the city that is the most populous urban area in Central America ?</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>La Aurora International Airport</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>: 2015</t>
+          <t>: The name of the airport in the city that is the most populous urban area in Central America (Guatemala City) is La Aurora International Airport.</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>List_of_Washington_Redskins_players_6</t>
+          <t>List_of_the_busiest_airports_in_Central_America_4</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -3050,18 +3102,18 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>What is the home city of competitor number 8 's team ?</t>
+          <t>Near what pass is the volcano that last erupted in the Holocene era ?</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Santiam Pass</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2013_New_York_Red_Bulls_season_1</t>
+          <t>List_of_Cascade_volcanoes_2</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -3071,18 +3123,18 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Near what pass is the volcano that last erupted in the Holocene era ?</t>
+          <t>What is the elevation of this park located in the district of 131,452 people in 2013 ?</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Santiam Pass</t>
+          <t>125 metres</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>List_of_Cascade_volcanoes_2</t>
+          <t>List_of_parks_in_Seoul_0</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -3092,47 +3144,43 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>In which year was the seat represented by the son of John Rempston split into two ?</t>
+          <t>What is the home city of competitor number 8 's team ?</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1832</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>: John Rempston is not listed in the table. The table contains an entry for Thomas Rempston (not John Rempston), but there is no mention of John Rempston or his son. Therefore, the query cannot be answered as the premise is incorrect.</t>
+          <t>: The home city of the team that competitor number 8 transferred to (Vålerenga) is Oslo.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Records_of_members_of_parliament_of_the_United_Kingdom_6</t>
+          <t>2013_New_York_Red_Bulls_season_1</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Which concrete arch dam is located in the country home to the two global cities and economic centres of Zürich and Geneva ?</t>
+          <t>What was the name of the prisoner who escape from Rio Piedras State Penitentiary in Puerto Rico ?</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Mauvoisin Dam</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>: Mauvoisin Dam</t>
-        </is>
-      </c>
+          <t>William Lane</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>List_of_tallest_dams_in_the_world_0</t>
+          <t>List_of_helicopter_prison_escapes_0</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -3142,268 +3190,268 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Located in Indianapolis , how many Grands Prix did this season consisted of where the event type usually takes place in the summer or autumn ?</t>
+          <t>In which year was the seat represented by the son of John Rempston split into two ?</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Twenty</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
+          <t>1832</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>: There is no historical record indicating that the seat represented by Thomas Rempston or his son was split. Therefore, we cannot determine a specific year when such a split occurred.</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Luis_Scott-Vargas_0</t>
+          <t>Records_of_members_of_parliament_of_the_United_Kingdom_6</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>What city was the trainer of the 1967 American Horse of the Year born ?</t>
+          <t>What was the last year of the athletic program at the post-secondary school attended by Junior Galette ?</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Centreville</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>: The table does not provide information about the birthplace or city of the trainer. The 1967 American Horse of the Year was trained by Frank Y. Whiteley, Jr., but the table does not include details about the trainer's birthplace.</t>
+          <t>: The last year of the athletic program at Stillman College, the post-secondary school attended by Junior Galette, was 2015. This is based on the information that Stillman College discontinued its football program and eliminated all athletic teams, except for men's and women's basketball, after the 2015 season due to increased costs associated with the athletic program.</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>American_Horse_of_the_Year_1</t>
+          <t>List_of_Washington_Redskins_players_6</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>What is the elevation of this park located in the district of 131,452 people in 2013 ?</t>
+          <t>Who designed a house in the county seat of Anne Arundel County ?</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>125 metres</t>
+          <t>William Buckland</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>: The provided data does not include elevation information for parks. The parks located in Jung-gu (the district with a population of 131,452 in 2013) are Hunlyunwon Park (area: 16,734.60㎥) and Hwangudan Park (area: 8,661.16㎡). Elevation is not recorded in the table.</t>
+          <t>: The Chase-Lloyd House in Annapolis, Anne Arundel County, was designed by William Buckland and William Noke. William Buckland was particularly involved in designing the interiors.</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>List_of_parks_in_Seoul_0</t>
+          <t>List_of_National_Historic_Landmarks_in_Maryland_0</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>How many clinical departments are contained in the post-secondary school attended by Charles Mann ?</t>
+          <t>What city was the trainer of the 1967 American Horse of the Year born ?</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>Centreville</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>: The table does not contain information about clinical departments at Nevada, the post-secondary school attended by Charles Mann. Therefore, the number of clinical departments cannot be determined from the provided data.</t>
+          <t>: The trainer of the 1967 American Horse of the Year, Frank Y. Whiteley, Jr., was born in Centreville, Maryland.</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>List_of_Washington_Redskins_players_12</t>
+          <t>American_Horse_of_the_Year_1</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>How many seasons did the driver who finished 8th in the 2004 Chinese Grand Prix qualifying round drive in Formula One ?</t>
+          <t>Located in Indianapolis , how many Grands Prix did this season consisted of where the event type usually takes place in the summer or autumn ?</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>Twenty</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>: 10</t>
+          <t>: There are no Grand Prix events in Indianapolis that usually take place in the summer or autumn. The only recorded Grand Prix event in Indianapolis took place in winter (December 22-23, 2012).</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2004_Chinese_Grand_Prix_0</t>
+          <t>Luis_Scott-Vargas_0</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>What is the single/pack of the artist who was born on 3 December 1948 ?</t>
+          <t>How many years is the claimed age of the city where 103+ were killed by a vehicle bomb on 27th of January ?</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Guitar Hero Track Pack 1</t>
+          <t>3,500</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>: No matching artist found in the provided data. The table does not contain birth dates of artists, and the query references a date (3 December 1948) that does not correspond to any artist listed in the table.</t>
+          <t>: The claimed age of the city where 103+ people were killed by a vehicle bomb on January 27 is over 3,500 years old.</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>List_of_songs_in_Guitar_Hero_II_2</t>
+          <t>List_of_mass_car_bombings_0</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>What is the name of the airport in the city that is the most populous urban area in Central America ?</t>
+          <t>How many clinical departments are contained in the post-secondary school attended by Charles Mann ?</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>La Aurora International Airport</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>: The table does not provide population data for the cities served by the airports, so it is not possible to determine the airport in the most populous urban area of Central America based on the given information.</t>
+          <t>: The University of Nevada, Reno's School of Medicine contains 16 clinical departments. Since the provided content does not mention other campuses with a School of Medicine, we can reasonably conclude that this is the number of clinical departments for the University of Nevada system as a whole. Therefore, the post-secondary school attended by Charles Mann (Nevada) has **16 clinical departments**.</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Central_America_4</t>
+          <t>List_of_Washington_Redskins_players_12</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Out of all top scorers , which one is the oldest ?</t>
+          <t>How many seasons did the driver who finished 8th in the 2004 Chinese Grand Prix qualifying round drive in Formula One ?</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Per Kristoffersen</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>: The table does not contain age information for the leading goalscorers. Therefore, it is impossible to determine which top scorer is the oldest based on the provided data.</t>
+          <t>: Olivier Panis drove in Formula One for ten seasons.</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>List_of_Norwegian_football_league_champions_2</t>
+          <t>2004_Chinese_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>What was the time of the only driver in history to win seven Formula One World Championships , five of which he won consecutively ?</t>
+          <t>What is the single/pack of the artist who was born on 3 December 1948 ?</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1:31.075</t>
+          <t>Guitar Hero Track Pack 1</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>: The time of Michael Schumacher in the 2000 Australian Grand Prix, where he was driving for Ferrari, is **1:31.075**. This is the race time listed in the provided table for the driver who later won seven Formula One World Championships (with five consecutive titles). The "time" referenced in the query corresponds to the race duration recorded in the table, not the championship history.</t>
+          <t>: There is no artist listed in the provided table who was born on 3 December 1948. Therefore, it is not possible to determine the single or pack for this artist based on the available information.</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2000_Australian_Grand_Prix_0</t>
+          <t>List_of_songs_in_Guitar_Hero_II_2</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>What is the area in km squared of the country that has members of the Baka ethnic group ?</t>
+          <t>Out of all top scorers , which one is the oldest ?</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>79,343</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>: The area in square kilometers of South Sudan (the country associated with the Baka ethnic group) is not provided in the given table. The table lists the country as "Western Equatoria in South Sudan" but does not include area data for any country.</t>
-        </is>
-      </c>
+          <t>Per Kristoffersen</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Ethnic_groups_in_Africa_4</t>
+          <t>List_of_Norwegian_football_league_champions_2</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>What temperature scale was invented in the city that was the capital of Sweden from 1273 to 1436 ?</t>
+          <t>What was the time of the only driver in history to win seven Formula One World Championships , five of which he won consecutively ?</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Celsius</t>
+          <t>1:31.075</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>: Celsius</t>
+          <t>: The time of Michael Schumacher in the 2000 Australian Grand Prix was 1:31.075.</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>List_of_former_national_capitals_6</t>
+          <t>2000_Australian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -3413,18 +3461,22 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Who designed a house in the county seat of Anne Arundel County ?</t>
+          <t>The route that goes through Treadwell Road ends at a town with what 2010 population ?</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>William Buckland</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
+          <t>2,411</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>: The route that goes through Treadwell Road ends at Franklin, and the 2010 population of Franklin, New York, was 2,411.</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>List_of_National_Historic_Landmarks_in_Maryland_0</t>
+          <t>List_of_county_routes_in_Delaware_County,_New_York_0</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -3434,22 +3486,18 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>How many Formula One races has the person who finished the qualifying race of the Canadian Grand Prix of 1999 in 1:20.378 obtained a win in ?</t>
+          <t>What temperature scale was invented in the city that was the capital of Sweden from 1273 to 1436 ?</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>three</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>: 3</t>
-        </is>
-      </c>
+          <t>Celsius</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1999_Canadian_Grand_Prix_0</t>
+          <t>List_of_former_national_capitals_6</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -3459,22 +3507,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>The route that goes through Treadwell Road ends at a town with what 2010 population ?</t>
+          <t>What is the area in km squared of the country that has members of the Baka ethnic group ?</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2,411</t>
+          <t>79,343</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>: The route that goes through Treadwell Road is CR 16, which ends at Franklin. However, the 2010 population data for Franklin is not provided in the given table.</t>
+          <t>: The area of Western Equatoria, South Sudan, where the Baka ethnic group resides, is 79,343 square kilometers.</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>List_of_county_routes_in_Delaware_County,_New_York_0</t>
+          <t>Ethnic_groups_in_Africa_4</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -3484,22 +3532,26 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>What division was the man in the Air Force in 1943 assigned to shortly before the US joined WWII ?</t>
+          <t>What is the name of the bridge whose county 's population was 281,674 in 2010 ?</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Air War Plans</t>
+          <t>Androscoggin Swinging Bridge</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>: Army Air Forces</t>
+          <t>: The bridges located in Cumberland County, which had a population of 281,674 in 2010, are:
+1. Androscoggin Swinging Bridge
+2. Babb's Bridge
+3. Bailey Island Cobwork Bridge
+If you need a single bridge as the answer, please let me know!</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>List_of_Medal_of_Honor_recipients_for_World_War_II_19</t>
+          <t>List_of_bridges_on_the_National_Register_of_Historic_Places_in_Maine_0</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -3509,26 +3561,26 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>In 1998 the Champion team was a part of what division ?</t>
+          <t>How many Formula One races has the person who finished the qualifying race of the Canadian Grand Prix of 1999 in 1:20.378 obtained a win in ?</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Atlantic Coast Conference of NCAA Division I soccer</t>
+          <t>three</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>: ACC</t>
+          <t>: Giancarlo Fisichella, who finished the qualifying race of the Canadian Grand Prix of 1999 with a time of 1:20.378, has obtained a total of three wins in Formula One races.</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>ACC_Men's_Soccer_Tournament_0</t>
+          <t>1999_Canadian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -3544,7 +3596,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>: 51,700</t>
+          <t>: The seating capacity of the stadium that is built on the site of the former Lansdowne Road Stadium is 51,700.</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3559,22 +3611,22 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>What is the capacity of the stadium that was completed in March 1999 at a cost of A $ 690 million ?</t>
+          <t>What division was the man in the Air Force in 1943 assigned to shortly before the US joined WWII ?</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>83,500</t>
+          <t>Air War Plans</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>: 110,000</t>
+          <t>: The provided table does not contain information about the division assignments of Air Force personnel prior to the United States joining World War II on December 7, 1941. Therefore, it is not possible to determine the division that any Air Force personnel were assigned to shortly before the U.S. joined WWII based on the given data.</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>List_of_Oceanian_stadiums_by_capacity_0</t>
+          <t>List_of_Medal_of_Honor_recipients_for_World_War_II_19</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -3584,43 +3636,47 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>When did the politician beaten by the current Minister of Mines and Energy resign as president of his party ?</t>
+          <t>In 1998 the Champion team was a part of what division ?</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>Atlantic Coast Conference of NCAA Division I soccer</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>: The provided table contains information about the 2010 Brazilian gubernatorial elections, but it does not include any data related to the Minister of Mines and Energy (a federal position) or resignations of party presidents. The query references a "current" Minister of Mines and Energy, which cannot be verified against the 2010 gubernatorial election data. Therefore, the question cannot be answered using the provided table.</t>
+          <t>: In 1998, the Champion team, Clemson, was a part of the Atlantic Coast Conference (ACC). The specific division within the ACC is not explicitly stated in the provided information, but typically, for men's soccer, teams compete in the conference without being divided into further divisions. Therefore, Clemson was part of the **Atlantic Coast Conference (ACC)** in 1998.</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Brazilian_gubernatorial_elections,_2010_0</t>
+          <t>ACC_Men's_Soccer_Tournament_0</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>How many years is the claimed age of the city where 103+ were killed by a vehicle bomb on 27th of January ?</t>
+          <t>What is the capacity of the stadium that was completed in March 1999 at a cost of A $ 690 million ?</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>3,500</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
+          <t>83,500</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>: The capacity of the stadium that was completed in March 1999 at a cost of A$ 690 million, known as Stadium Australia or ANZ Stadium, is 83,500.</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>List_of_mass_car_bombings_0</t>
+          <t>List_of_Oceanian_stadiums_by_capacity_0</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -3630,18 +3686,18 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>What is the scheduling number of the site where the remains of a Romano-Celtic Temple can be found ?</t>
+          <t>When did the politician beaten by the current Minister of Mines and Energy resign as president of his party ?</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1008211</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>List_of_National_Trust_properties_in_Somerset_0</t>
+          <t>Brazilian_gubernatorial_elections,_2010_0</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -3651,18 +3707,22 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>What is the name of the bridge whose county 's population was 281,674 in 2010 ?</t>
+          <t>What city hosted the World Championship in the season that Shouta Yasooka ranked 5th twice ?</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Androscoggin Swinging Bridge</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
+          <t>Chiba</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>: There is no city listed in the provided materials that hosted the World Championship in the seasons where Shouta Yasooka ranked 5th.</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>List_of_bridges_on_the_National_Register_of_Historic_Places_in_Maine_0</t>
+          <t>Shouta_Yasooka_0</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -3672,26 +3732,26 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>What is the birthday of Ford 's oldest winning driver ?</t>
+          <t>Which September 9 , 2000 main event person is youngest ?</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>October 28 , 1944</t>
+          <t>Justice Pain</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>: The table provided does not contain birthday information for any drivers. While the winning drivers for Ford-manufactured races are Joe Ruttman (races 9 and 16), Butch Miller (race 11), and Mike Bliss (race 17), the table lacks birthdates or age data. Therefore, the birthday of Ford's oldest winning driver cannot be determined from the given information.</t>
+          <t>: The youngest participant in the main event on September 9, 2000, is Justice Pain.</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1995_NASCAR_SuperTruck_Series_presented_by_Craftsman_0</t>
+          <t>CZW_Cage_of_Death_0</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3707,7 +3767,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>: Point Theatre</t>
+          <t>: The venue of the event where Ronan Keating hosted and gained widespread attention with his single "When You Say Nothing at All" was **Rotterdam Ahoy** in Rotterdam, Netherlands.</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3716,28 +3776,24 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Which team did the driver that finished fastest in the qualifying round of the 2005 British Grand Prix make his Formula One debut with ?</t>
+          <t>What is the birthday of Ford 's oldest winning driver ?</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Minardi</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>: Minardi</t>
-        </is>
-      </c>
+          <t>October 28 , 1944</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2005_British_Grand_Prix_0</t>
+          <t>1995_NASCAR_SuperTruck_Series_presented_by_Craftsman_0</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -3747,22 +3803,18 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>What is the nationality of the position 1 finisher of the 2000 San Marino Grand Prix ?</t>
+          <t>What is the scheduling number of the site where the remains of a Romano-Celtic Temple can be found ?</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Finnish</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>: Finnish</t>
-        </is>
-      </c>
+          <t>1008211</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2000_San_Marino_Grand_Prix_0</t>
+          <t>List_of_National_Trust_properties_in_Somerset_0</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -3772,114 +3824,123 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Which conflict caused the second place team of Campeonato Paulista in 1908 to not mention its German roots ?</t>
+          <t>What is the nationality of the position 1 finisher of the 2000 San Marino Grand Prix ?</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>World War II</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
+          <t>Finnish</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>: The nationality of the position 1 finisher of the 2000 San Marino Grand Prix, Mika Häkkinen, is Finnish.</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Campeonato_Paulista_1</t>
+          <t>2000_San_Marino_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>What city hosted the World Championship in the season that Shouta Yasooka ranked 5th twice ?</t>
+          <t>What album was released in 1967 by American sunshine pop band of the 1960s that was a part of a label headquartered in Los Angeles , California ?</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Feelin ' Groovy</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>: Paris</t>
+          <t>: The album "Feelin' Groovy" was released in 1967 by the American sunshine pop band Harpers Bizarre, and it was part of a label (Warner Bros. Records) headquartered in Los Angeles, California.</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Shouta_Yasooka_0</t>
+          <t>Dick_Hyde_(musician)_0</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Which city is located nearby this elaborate tomb in this country bordered by Romania to the north ?</t>
+          <t>Which conflict caused the second place team of Campeonato Paulista in 1908 to not mention its German roots ?</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Kazanlak , Bulgaria</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
+          <t>World War II</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>: Based on the available information, there is no clear conflict or reason mentioned that caused Germânia to not mention its German roots in the 1908 season of the Campeonato Paulista. Additional historical research would be necessary to provide a more definitive answer.</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>List_of_the_oldest_buildings_in_the_world_2</t>
+          <t>Campeonato_Paulista_1</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Which September 9 , 2000 main event person is youngest ?</t>
+          <t>Which team did the driver that finished fastest in the qualifying round of the 2005 British Grand Prix make his Formula One debut with ?</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Justice Pain</t>
+          <t>Minardi</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>: The information about the ages of the participants in the September 9, 2000 main event ("Lobo vs. John Zandig versus Justice Pain") is not provided in the table. The table contains event details, names, and dates but does not include age data for the wrestlers. Therefore, it is impossible to determine who among Lobo, John Zandig, and Justice Pain is the youngest based on the given materials.</t>
+          <t>: The driver who finished fastest in the qualifying round of the 2005 British Grand Prix, Fernando Alonso, made his Formula One debut with Minardi.</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>CZW_Cage_of_Death_0</t>
+          <t>2005_British_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>What film was directed by the director born on 28 November 1933 ?</t>
+          <t>Which city is located nearby this elaborate tomb in this country bordered by Romania to the north ?</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>The Upthrown Stone</t>
+          <t>Kazanlak , Bulgaria</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>: Palaver</t>
+          <t>: The city of Kyiv (Kiev) is located near several notable historical sites in Ukraine. While the provided table does not list any specific elaborate tombs in Ukraine, Kyiv is home to significant structures such as Saint Sophia's Cathedral and the Pechersk Lavra, which are important historical and cultural landmarks.
+If you have more specific information or a different context in mind, please provide additional details!</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>List_of_submissions_to_the_42nd_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
+          <t>List_of_the_oldest_buildings_in_the_world_2</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -3889,22 +3950,22 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Which university is the 1989 Most Outstanding Player of the America East Conference Men 's Basketball Tournament head basketball coach ?</t>
+          <t>What film was directed by the director born on 28 November 1933 ?</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>New Jersey City University</t>
+          <t>The Upthrown Stone</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>: Siena</t>
+          <t>: My Night at Maud's</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>America_East_Men's_Basketball_Tournament_0</t>
+          <t>List_of_submissions_to_the_42nd_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -3924,7 +3985,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>: Dallas Stars</t>
+          <t>: The team that plays in the arena with the sixteenth-highest seating capacity, the American Airlines Center, were originally known as the Minnesota North Stars.</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3933,53 +3994,53 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>The home stadium of the New York Jets is located how many miles west of New York City ?</t>
+          <t>What the original name of the team that won the FAI Cup in the 1925 - 26 season when they were founded ?</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>Fords F.C</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>: The table does not provide information about the distance of MetLife Stadium from New York City. Therefore, the question cannot be answered using the provided data.</t>
+          <t>: The original name of the team that won the FAI Cup in the 1925-26 season when they were founded was Fords F.C.</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>List_of_National_Football_League_attendance_figures_1</t>
+          <t>FAI_Cup_0</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Who is the oldest Minardi , Ford driver ?</t>
+          <t>How many trees are approximately growing in the city which contains City Road Cemetery ?</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Luca Badoer</t>
+          <t>4.5 million</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>: Luca Badoer</t>
+          <t>: Approximately 4.5 million trees are growing in Sheffield.</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1999_European_Grand_Prix_0</t>
+          <t>List_of_cemeteries_in_England_0</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -3989,97 +4050,97 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>How many years did the person who finished the qualifying round of the French Grand Prix of 1952 in 2:21.6 drive in Formula One ?</t>
+          <t>Which university is the 1989 Most Outstanding Player of the America East Conference Men 's Basketball Tournament head basketball coach ?</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>fourteen</t>
+          <t>New Jersey City University</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>: The table provided contains the 1952 French Grand Prix race results but does not include information about Maurice Trintignant's career duration in Formula One. Therefore, the number of years he drove in Formula One cannot be determined from the given table.</t>
+          <t>: Marc Brown, who was the Most Outstanding Player of the America East Conference Men's Basketball Tournament in 1989, is currently the head basketball coach at New Jersey City University.</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1952_French_Grand_Prix_0</t>
+          <t>America_East_Men's_Basketball_Tournament_0</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>There 's a good chance Santiago J. Erevia is a graduate of what ?</t>
+          <t>The home stadium of the New York Jets is located how many miles west of New York City ?</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>US Army Air Assault School</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>: The table provided does not contain information about Santiago J. Erevia's educational background or graduation. The table only includes details related to his military service, rank, unit, and actions during the Vietnam War. Therefore, it is not possible to determine what institution he graduated from based on the given data.</t>
+          <t>: MetLife Stadium, the home stadium of the New York Jets, is located 8 miles west of New York City.</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>List_of_Hispanic_Medal_of_Honor_recipients_3</t>
+          <t>List_of_National_Football_League_attendance_figures_1</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>What is the full name of the oldest suspended athlete that violated rules in 2010 or later ?</t>
+          <t>Who is the oldest Minardi , Ford driver ?</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Ahmed Ibrahim Baday</t>
+          <t>Luca Badoer</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>: Ahmed Baday</t>
+          <t>: Luca Badoer, who was 48 years old as of October 2019.</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>List_of_doping_cases_in_athletics_1</t>
+          <t>1999_European_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Which bridge spans the river that is the lower 12 miles ( 19 km ) of Washington state 's Green River ?</t>
+          <t>What is the full name of the oldest suspended athlete that violated rules in 2010 or later ?</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>First Avenue South Bridge</t>
+          <t>Ahmed Ibrahim Baday</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>: None of the bridges listed in the provided table span the Green River. The table includes bridges spanning bodies of water such as Lake Washington, Duwamish River, Salmon Bay, and others, but there is no bridge listed that spans the Green River or its lower 12 miles.</t>
+          <t>: The full name of the oldest suspended athlete who violated the rules in 2010 or later is **Živilė Balčiūnaitė**.</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>List_of_Seattle_bridges_0</t>
+          <t>List_of_doping_cases_in_athletics_1</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -4089,72 +4150,72 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>What are fans of the football club with 2016 revenue less than 169.3 but more than 164.8 called ?</t>
+          <t>How many years did the person who finished the qualifying round of the French Grand Prix of 1952 in 2:21.6 drive in Formula One ?</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Evertonians or Blues</t>
+          <t>fourteen</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>No football club in the 2016 Deloitte Football Money League table has revenue between 164.8 and 169.3 € million. All listed clubs have revenues ≥180.4 € million.&lt;/Answer&gt;</t>
+          <t>: Maurice Trintignant drove in Formula One for 14 years, from 1950 to 1964.</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Deloitte_Football_Money_League_5</t>
+          <t>1952_French_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Where is the channel that broadcasts multiple languages located ?</t>
+          <t>Which bridge spans the river that is the lower 12 miles ( 19 km ) of Washington state 's Green River ?</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Winnipeg , Manitoba</t>
+          <t>First Avenue South Bridge</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>: Winnipeg, Manitoba</t>
+          <t>: The bridges that span the river that is the lower 12 miles (19 km) of Washington state's Green River are the First Avenue South Bridge, the Jeanette Williams Memorial Bridge (West Seattle Bridge), and the Spokane Street Bridge.</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>List_of_television_stations_in_Canada_2</t>
+          <t>List_of_Seattle_bridges_0</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>How many times was the player nicknamed The Georgia Peach runner-up ?</t>
+          <t>There 's a good chance Santiago J. Erevia is a graduate of what ?</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>US Army Air Assault School</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>: 0</t>
+          <t>: There is no information available to determine if Santiago J. Erevia is a graduate of any specific institution based on the provided materials.</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>List_of_Major_League_Baseball_home_run_champions_0</t>
+          <t>List_of_Hispanic_Medal_of_Honor_recipients_3</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -4164,22 +4225,22 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>What the original name of the team that won the FAI Cup in the 1925 - 26 season when they were founded ?</t>
+          <t>What are fans of the football club with 2016 revenue less than 169.3 but more than 164.8 called ?</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Fords F.C</t>
+          <t>Evertonians or Blues</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>: Fordsons</t>
+          <t>: The fans of Internazionale are called Colorados.</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>FAI_Cup_0</t>
+          <t>Deloitte_Football_Money_League_5</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -4199,7 +4260,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>: 0</t>
+          <t>: The Druid City Dragons won 1 game in the World Basketball Association during their 2006 season.</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4214,22 +4275,22 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>What album was released in 1967 by American sunshine pop band of the 1960s that was a part of a label headquartered in Los Angeles , California ?</t>
+          <t>Where is the channel that broadcasts multiple languages located ?</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Feelin ' Groovy</t>
+          <t>Winnipeg , Manitoba</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>: The album released in 1967 by the American sunshine pop band Harpers Bizarre, which was part of a label headquartered in Los Angeles, California (Warner Bros.), is "Feelin' Groovy".</t>
+          <t>: The channels that broadcast multiple languages (APTN East, APTN West, and APTN HD) are located in Winnipeg, Manitoba.</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Dick_Hyde_(musician)_0</t>
+          <t>List_of_television_stations_in_Canada_2</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -4239,18 +4300,22 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>What location was the twelfth season of the Magic 's event take place that was the main event of a minimum three-day mini-convention ?</t>
+          <t>How many times was the player nicknamed The Georgia Peach runner-up ?</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>San Francisco</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr"/>
+          <t>four</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>: Ty Cobb, nicknamed "The Georgia Peach," was a runner-up in the home run championships 4 times. This occurred in the years 1909, 1910, 1912, and 1913.</t>
+        </is>
+      </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Paulo_Vitor_Damo_da_Rosa_0</t>
+          <t>List_of_Major_League_Baseball_home_run_champions_0</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -4268,35 +4333,35 @@
           <t>Ron Brewer</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>: There is no evidence to suggest that Mike Schultz, the Most Outstanding Player in 1978, was a first-round draft selection of the Portland Trail Blazers in 1978.</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr">
         <is>
           <t>List_of_Southwestern_Athletic_Conference_Men's_Basketball_Tournament_Finals_broadcasters_0</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>What was the establishment year of the university attended by Willie Adams ?</t>
+          <t>What is the length in km of the county route that cross the eastern part of the american state of New York ?</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1888</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>: The establishment year of New Mexico State University, attended by Willie Adams, is 1888.</t>
-        </is>
-      </c>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>List_of_Washington_Redskins_players_0</t>
+          <t>List_of_county_routes_in_Fulton_County,_New_York_1</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -4306,26 +4371,26 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>How many trees are approximately growing in the city which contains City Road Cemetery ?</t>
+          <t>What location was the twelfth season of the Magic 's event take place that was the main event of a minimum three-day mini-convention ?</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>4.5 million</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>: The city containing City Road Cemetery is Sheffield. According to the reference materials, Sheffield is estimated to contain around 4.5 million trees. Therefore, the approximate number of trees growing in the city is 4.5 million.</t>
+          <t>: The location for the twelfth season's event that was the main event of a minimum three-day mini-convention is Charleston.</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>List_of_cemeteries_in_England_0</t>
+          <t>Paulo_Vitor_Damo_da_Rosa_0</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -4339,156 +4404,163 @@
           <t>23,450㎡</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr"/>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>: There is no park located in a district that hosts both Konkuk University and Sejong University. However, in Gwangjin-gu (where Konkuk University is located), there are two parks:
+- **Achasan Echological Park**: 23,450㎡
+- **Children's Grand Park**: 593,036㎡
+If you have any further questions or need more information, feel free to ask!</t>
+        </is>
+      </c>
       <c r="D162" t="inlineStr">
         <is>
           <t>List_of_parks_in_Seoul_0</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>How many Formula One events did the person who finished the qualifying round of the San Marino Grand Prix of 1984 right behind Manfred Winkelhock compete in ?</t>
+          <t>What was the establishment year of the university attended by Willie Adams ?</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>: The table provided only contains qualifying results for the 1984 San Marino Grand Prix and does not include information about the total number of Formula One events Eddie Cheever competed in. Therefore, the answer cannot be determined from the given table content.</t>
+          <t>: The establishment year of the university attended by Willie Adams, New Mexico State University, is 1888.</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>1984_San_Marino_Grand_Prix_0</t>
+          <t>List_of_Washington_Redskins_players_0</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>What is the length in km of the county route that cross the eastern part of the american state of New York ?</t>
+          <t>Which 1964 player is the oldest ?</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>: The table provided contains county routes for Fulton County, New York, which is located in the central part of the state, not the eastern part. None of the listed routes cross into the eastern portion of New York State. Therefore, there is no county route in the provided table that meets the criteria, and the length cannot be determined from the given data.</t>
-        </is>
-      </c>
+          <t>Syl Apps</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>List_of_county_routes_in_Fulton_County,_New_York_1</t>
+          <t>List_of_New_York_Rangers_draft_picks_0</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Which 1964 player is the oldest ?</t>
+          <t>What color is the mascot of the club who 's player is younger brother of former Collingwood and Fremantle player , Chris Tarrant ?</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Syl Apps</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>: Bob Graham</t>
+          <t>: The mascot of the Kangaroos club, which drafted Robbie Tarrant, is a grey kangaroo. The color of the mascot is grey.</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>List_of_New_York_Rangers_draft_picks_0</t>
+          <t>2007_AFL_Draft_3</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>What color is the mascot of the club who 's player is younger brother of former Collingwood and Fremantle player , Chris Tarrant ?</t>
+          <t>Who is the brother of the winning driver of the pole position who drives the No . 14 Ford Mustang ?</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>grey</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr"/>
+          <t>Kurt Busch</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>: Based on the provided table, there is no race where the winning manufacturer was Ford and the winning driver drove the No. 14 car. Therefore, it is not possible to determine who had pole position in such a race or identify the brother of the winning driver.</t>
+        </is>
+      </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2007_AFL_Draft_3</t>
+          <t>2011_NASCAR_Camping_World_Truck_Series_0</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Who is the brother of the winning driver of the pole position who drives the No . 14 Ford Mustang ?</t>
+          <t>How many Formula One events did the person who finished the qualifying round of the San Marino Grand Prix of 1984 right behind Manfred Winkelhock compete in ?</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Kurt Busch</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>: The table does not contain information about the brothers of the drivers or the Ford Mustang manufacturer, as the winning manufacturers listed are Toyota and Chevrolet. The query references a "No. 14 Ford Mustang," but the table's "Winning manufacturer" column shows Chevrolet for race No. 14 (Kevin Harvick), and Ford is not listed as a manufacturer in the provided data. Additionally, the table does not include any details about drivers' family relationships. Therefore, the query cannot be answered with the given table content.</t>
+          <t>: Eddie Cheever, who finished the qualifying round of the 1984 San Marino Grand Prix right behind Manfred Winkelhock, competed in 143 Formula One events.</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2011_NASCAR_Camping_World_Truck_Series_0</t>
+          <t>1984_San_Marino_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>What racist policy did the 1881 Major League Baseball batting champion support ?</t>
+          <t>How many players that were born in 1990 and were acquired in 2012 , were defencemen ( D ) ?</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>segregation</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>: racial segregation</t>
+          <t>: There are 2 players that were born in 1990, were acquired in 2012, and were defencemen (D).</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>List_of_Major_League_Baseball_batting_champions_0</t>
+          <t>HK_Lida_0</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -4506,7 +4578,11 @@
           <t>8</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>: The number of seasons that included the New York Rangers as an opponent is **8**.</t>
+        </is>
+      </c>
       <c r="D169" t="inlineStr">
         <is>
           <t>List_of_NHL_playoff_series_26</t>
@@ -4519,47 +4595,47 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Which peninsula contains the passage grave first built in France in 4850 BC ?</t>
+          <t>What racist policy did the 1881 Major League Baseball batting champion support ?</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Kernéléhen</t>
+          <t>segregation</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>: Brittany</t>
+          <t>: Cap Anson supported racist policies that contributed to racial segregation in professional baseball, including refusing to play against teams with black players and influencing a vote to ban new contracts with black players.</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>List_of_the_oldest_buildings_in_the_world_0</t>
+          <t>List_of_Major_League_Baseball_batting_champions_0</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>What is the length ( km ) of the route whose via location is named after a Revolutionary War hero ?</t>
+          <t>Which peninsula contains the passage grave first built in France in 4850 BC ?</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>Kernéléhen</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>: 2.41</t>
+          <t>: The peninsula that contains the passage grave first built in France in 4850 BC is Brittany.</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>List_of_county_routes_in_Wayne_County,_New_York_1</t>
+          <t>List_of_the_oldest_buildings_in_the_world_0</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -4569,47 +4645,51 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>How many players that were born in 1990 and were acquired in 2012 , were defencemen ( D ) ?</t>
+          <t>What is the length ( km ) of the route whose via location is named after a Revolutionary War hero ?</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>: 2</t>
+          <t>: The lengths in kilometers of the routes whose via locations are named after a Revolutionary War hero (Marion) are:
+- CR 207: 7.08 km
+- CR 214: 2.09 km
+- CR 216: 2.62 km
+- CR 218: 10.54 km</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>HK_Lida_0</t>
+          <t>List_of_county_routes_in_Wayne_County,_New_York_1</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>This athlete was born in Allahabad in 1990 and won a bronze medal at the games ?</t>
+          <t>What is the full name of the politician that has served the most recently ?</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ashish Kumar</t>
+          <t>Angela Dawn Craig</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>: Vijay Kumar</t>
+          <t>: The full names of the politicians who have served the most recently are David Cicilline, Sean Maloney, Mark Pocan, Mark Takano, and Angie Craig.</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>India_at_the_2010_Asian_Games_3</t>
+          <t>List_of_LGBT_Americans_in_the_United_States_Congress_0</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -4619,43 +4699,47 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>What is the best achievement the racer who finished just behind Mark Webber at the San Marino Grand Prix of 2004 has gotten in the drivers ' championship of the world ?</t>
+          <t>Regarding the routes that start at the county named in honor of an U.S. Revolution War general , which one of them has more than 3 miles of extension ?</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>sixth</t>
+          <t>CR 132</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>: The driver who finished just behind Mark Webber (position 9) at the 2004 San Marino Grand Prix is Jarno Trulli. However, the provided table does not contain information about his best achievement in the drivers' championship. The table only includes race results for the 2004 San Marino Grand Prix and does not provide historical championship data.</t>
+          <t>: The route that starts at the Montgomery County line and has more than 3 miles of extension is CR 132. Its length is 3.03 miles.</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2004_San_Marino_Grand_Prix_0</t>
+          <t>List_of_county_routes_in_Fulton_County,_New_York_1</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>The senator representing a district that includes parts of Atoka , Choctaw , LeFlore , McCurtain and Pushmataha Counties , hails from a hometown that was named after a town in what state ?</t>
+          <t>What is the best achievement the racer who finished just behind Mark Webber at the San Marino Grand Prix of 2004 has gotten in the drivers ' championship of the world ?</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Nebraska</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr"/>
+          <t>sixth</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>: Jarno Trulli's best achievement in the World Drivers' Championship was sixth place, which he achieved in 2004. Additionally, it's worth noting that 2004 was also the year in which he scored his only win in Formula One at the Monaco Grand Prix.</t>
+        </is>
+      </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>List_of_current_members_of_the_Oklahoma_Senate_0</t>
+          <t>2004_San_Marino_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -4665,122 +4749,118 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>What is the full name of the politician that has served the most recently ?</t>
+          <t>The senator representing a district that includes parts of Atoka , Choctaw , LeFlore , McCurtain and Pushmataha Counties , hails from a hometown that was named after a town in what state ?</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Angela Dawn Craig</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>: Angie Craig</t>
-        </is>
-      </c>
+          <t>Nebraska</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
-          <t>List_of_LGBT_Americans_in_the_United_States_Congress_0</t>
+          <t>List_of_current_members_of_the_Oklahoma_Senate_0</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Regarding the routes that start at the county named in honor of an U.S. Revolution War general , which one of them has more than 3 miles of extension ?</t>
+          <t>This athlete was born in Allahabad in 1990 and won a bronze medal at the games ?</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>CR 132</t>
+          <t>Ashish Kumar</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>: CR 132</t>
+          <t>: Deepika Kumari, who was born in Allahabad in 1990, won a bronze medal in Archery (Women's Team) at the 2010 Asian Games.</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>List_of_county_routes_in_Fulton_County,_New_York_1</t>
+          <t>India_at_the_2010_Asian_Games_3</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>What is the net worth of the Governor of the state that was admitted to the Union on June 20 , 1863 ?</t>
+          <t>What is the full name of the earliest player of the year ?</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>$ 1.59 billion</t>
+          <t>Mário Rui Correia Tomás</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>: The net worth of the Governor of West Virginia, the state admitted to the Union on June 20, 1863, is **$1.59 billion** (Jim Justice, Governor of West Virginia, 2017-present).</t>
+          <t>: The full name of the earliest player of the year is Toy.</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>List_of_richest_American_politicians_2</t>
+          <t>SJPF_Segunda_Liga_Player_of_the_Month_0</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>What is the location whose winner was born on September 17 , 1978 ?</t>
+          <t>What is the net worth of the Governor of the state that was admitted to the Union on June 20 , 1863 ?</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>$ 1.59 billion</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>: No such location exists in the provided data. The table does not contain any information about winners' birth dates, making it impossible to determine the location based on the given query.</t>
+          <t>: The net worth of the Governor of West Virginia, who was admitted to the Union on June 20, 1863, is $1.59 billion.</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2004_LPGA_Tour_0</t>
+          <t>List_of_richest_American_politicians_2</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>When was the person with the Time of 1:40.240 born ?</t>
+          <t>what is the event of the competition that lasted from 6/22-6/25 ?</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>1 January 1981</t>
+          <t>Triple Jump</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>: The table provided does not contain birth date information for any drivers. Therefore, the birth date of Zsolt Baumgartner (the driver with Time 1:40.240) cannot be determined from the given data.</t>
+          <t>: Based on the available data, there are no competitions that took place at venues where events were held between June 22 and June 25. The table does not provide specific dates for each competition, so it is not possible to determine the event for the specified period.</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2004_Chinese_Grand_Prix_1</t>
+          <t>Will_Claye_1</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -4790,143 +4870,139 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>What was the final position of the skater from the country occupied by the Soviet Union during World War II in the free skating segment ?</t>
+          <t>What is the location whose winner was born on September 17 , 1978 ?</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>: 17</t>
+          <t>: The location whose winner was born on September 17, 1978, cannot be determined from the provided table content as it does not include birth date information for the winners.</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2009_Coupe_Internationale_de_Nice_1</t>
+          <t>2004_LPGA_Tour_0</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>This politician from a Ohio city with a population of 10,546 , served as a Representative for what district before becoming an Ohio Senator ?</t>
+          <t>How many municipalities are located in the state that transmits XETLAXHPBSD ?</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>7th District</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>: 1</t>
-        </is>
-      </c>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Ohio_House_of_Representatives,_127th_General_Assembly_0</t>
+          <t>Sistema_de_Radiodifusoras_Culturales_Indigenistas_0</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>What is the full name of the earliest player of the year ?</t>
+          <t>When was the person with the Time of 1:40.240 born ?</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Mário Rui Correia Tomás</t>
+          <t>1 January 1981</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>: Marinho</t>
+          <t>: The driver with a Time of 1:40.240 in the 2004 Chinese Grand Prix, Zsolt Baumgartner, was born on 1 January 1981.</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>SJPF_Segunda_Liga_Player_of_the_Month_0</t>
+          <t>2004_Chinese_Grand_Prix_1</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>What is the year of the song title whose artist has sold over 19 million albums worldwide ?</t>
+          <t>This politician from a Ohio city with a population of 10,546 , served as a Representative for what district before becoming an Ohio Senator ?</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>7th District</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>: The year of the song title whose artist has sold over 19 million albums worldwide is 2006. This corresponds to the My Chemical Romance songs "Famous Last Words," "Teenagers," and "This Is How I Disappear" listed in the table under the "My Chemical Romance Pack" release.</t>
+          <t>: The politician from Richmond Heights, which has a population of 10,546, served as a Representative for District 7 before becoming an Ohio Senator.</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>List_of_songs_in_Guitar_Hero_II_2</t>
+          <t>Ohio_House_of_Representatives,_127th_General_Assembly_0</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>what is the event of the competition that lasted from 6/22-6/25 ?</t>
+          <t>What was the final position of the skater from the country occupied by the Soviet Union during World War II in the free skating segment ?</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Triple Jump</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>: The table does not contain date information for competitions, so it is not possible to determine the event of a competition that lasted from June 22 to June 25 based on the provided data.</t>
+          <t>: The final position of the skater from the country occupied by the Soviet Union during World War II in the free skating segment was 17. This skater is Johanna Allik, who represented Estonia.</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Will_Claye_1</t>
+          <t>2009_Coupe_Internationale_de_Nice_1</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>How many municipalities are located in the state that transmits XETLAXHPBSD ?</t>
+          <t>What is the year of the song title whose artist has sold over 19 million albums worldwide ?</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Sistema_de_Radiodifusoras_Culturales_Indigenistas_0</t>
+          <t>List_of_songs_in_Guitar_Hero_II_2</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -4936,22 +5012,22 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Who won the championship in the year where the Stars made the playoffs ?</t>
+          <t>What genre was the earliest album ?</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Montreal Canadiens</t>
+          <t>progressive rock</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>: The Montreal Canadiens won the NHL championship in 1968, the year the Dallas Stars made the playoffs. This is confirmed by the 1968 Stanley Cup playoffs, where the Montreal Canadiens defeated the St. Louis Blues in four straight games to claim the title.</t>
+          <t>: The genre of the earliest album, "The Dark Side of the Moon" by Pink Floyd, is rock.</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>List_of_NHL_playoff_series_13</t>
+          <t>List_of_year-end_number-one_albums_(New_Zealand)_0</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -4971,7 +5047,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>: The games released on October 25, 2005, are Resident Evil 4 and Civilization IV. The phrase "controls minds" appears to be a typo or error in the query, as the table does not contain information about mind control features. The correct answer based on the provided table is Resident Evil 4 and Civilization IV.</t>
+          <t>: In the game "Resident Evil 4" released on October 25, 2005, the minds are controlled by a mind-controlling parasite that infects the villagers and causes them to act under the influence of a cult.</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4980,28 +5056,28 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>What was the literal English translation of the name of the currency used until 2009 in the country where the capital and largest city is Bratislava ?</t>
+          <t>Who won the championship in the year where the Stars made the playoffs ?</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Slovak crown</t>
+          <t>Montreal Canadiens</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>: crown</t>
+          <t>: The Dallas Stars won the championship in the year 1998-99.</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Currencies_of_the_European_Union_1</t>
+          <t>List_of_NHL_playoff_series_13</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -5011,18 +5087,22 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>What was the name of the person who was attacked in the biggest city that is the largest city in the United States on the US-Canadian border ?</t>
+          <t>Who are allowed in the event that was held at Yokohama among other places and was located at San Francisco ?</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Elizabeth Rivera</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr"/>
+          <t>All players</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>: The events held in San Francisco were a Grand Prix in 2007 and Worlds in 2011. The table does not provide specific participation rules, but participants likely followed standard rules for Block Constructed and Special formats. For detailed participation rules, refer to the official guidelines or rulebooks for these events.</t>
+        </is>
+      </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Fatal_dog_attacks_in_the_United_States_6</t>
+          <t>Luis_Scott-Vargas_0</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -5032,101 +5112,97 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>What position was the oldest driver in 2010 Masters of Formula 3 race ?</t>
+          <t>What was the name of the person who was attacked in the biggest city that is the largest city in the United States on the US-Canadian border ?</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>Elizabeth Rivera</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>: 18</t>
+          <t>: There is no record of a fatal dog attack in Seattle, Washington, in the provided table. Therefore, I cannot provide the name of a person who was attacked by dogs in Seattle.</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2010_Masters_of_Formula_3_0</t>
+          <t>Fatal_dog_attacks_in_the_United_States_6</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Of the athletes from the United States , who was born later ?</t>
+          <t>What was the literal English translation of the name of the currency used until 2009 in the country where the capital and largest city is Bratislava ?</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Michael Weiss</t>
+          <t>Slovak crown</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>: The table does not contain birth date information for any athletes, so it is impossible to determine who was born later among the United States athletes. The provided data includes only ranks, names, nations, and competition scores (SP, FS, TFP).</t>
+          <t>: The literal English translation of the name of the currency used until 2009 in the country where the capital and largest city is Bratislava (Slovakia) is "Slovak crown."</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Figure_skating_at_the_1998_Winter_Olympics_0</t>
+          <t>Currencies_of_the_European_Union_1</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>In what year was the university in the 196th highest population city in the US formally adopted by the state ?</t>
+          <t>What position was the oldest driver in 2010 Masters of Formula 3 race ?</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>1901</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>: The provided table does not contain population data for the cities listed, so it is impossible to determine which city is the 196th highest in population or the year a university in that city was formally adopted by the state. The query requires information beyond the scope of the given table.</t>
+          <t>: The oldest driver in the 2010 Masters of Formula 3 race was Nicolas Marroc, and he finished in 18th position.</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>List_of_Beta_Upsilon_Chi_chapters_0</t>
+          <t>2010_Masters_of_Formula_3_0</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Who are allowed in the event that was held at Yokohama among other places and was located at San Francisco ?</t>
+          <t>Of the athletes from the United States , who was born later ?</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>All players</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>: The table does not provide information about who is allowed to participate in the events. It only lists Luis Scott-Vargas' rank in each event. Additionally, there is no event listed in the table held at Yokohama, and the location "San Francisco" appears in the table for events in 2007 and 2011, but the table does not contain participant details.</t>
-        </is>
-      </c>
+          <t>Michael Weiss</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Luis_Scott-Vargas_0</t>
+          <t>Figure_skating_at_the_1998_Winter_Olympics_0</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -5142,7 +5218,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>: River Trent</t>
+          <t>: The river that borders Kegworth, Nottinghamshire, where the Ratcliffe-on-Soar Power Station is located, is the River Trent.</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5167,7 +5243,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>: Stanton, Delaware</t>
+          <t>: The location for the organization known as "DelPark" (Delaware Park Racetrack) is Stanton, Delaware.</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5176,53 +5252,53 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>What is the population of the city that was the capital of Ireland from 1642 to 1651 ?</t>
+          <t>How many people established the football club whose 2018 revenue was less than 355.6 but more than 272.5 ?</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>26,512</t>
+          <t>eighteen</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>: The table provided does not include population data for any cities. The capital city of Ireland from 1642 to 1651 was Kilkenny (as confirmed by the table), but population figures are not listed in the given table content. Therefore, the population cannot be determined from the provided information.</t>
+          <t>: The football club whose 2018 revenue was less than 355.6 million euros but more than 272.5 million euros (Borussia Dortmund) was established by eighteen people.</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>List_of_former_national_capitals_6</t>
+          <t>Deloitte_Football_Money_League_2</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>What genre was the earliest album ?</t>
+          <t>What is the population of the city that was the capital of Ireland from 1642 to 1651 ?</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>progressive rock</t>
+          <t>26,512</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>: The table does not contain genre information for any albums, so the genre of the earliest album (Pink Floyd's "The Dark Side of the Moon" from 1975) cannot be determined from the provided data.</t>
+          <t>: The population of Kilkenny during the period from 1642 to 1651 is not available in the provided table or through the SQL execution. Additional historical sources are needed to determine this information accurately.</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>List_of_year-end_number-one_albums_(New_Zealand)_0</t>
+          <t>List_of_former_national_capitals_6</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -5242,7 +5318,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>: The table lists the Calgary Flames' home arena as "Scotiabank Saddledome" but does not provide information about when the arena received its current name. Therefore, the specific year of the name change cannot be determined from the provided data.</t>
+          <t>: The Scotiabank Saddledome, the home arena of the Calgary Flames, received its current name in October 2010 when Scotiabank signed on as the title sponsor.</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5251,24 +5327,28 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Which route connects , the freeway begins at the Peace Bridge in Fort Erie and the highway that was established in 1937 due to rerouting of Highway 9 ?</t>
+          <t>When did the team with the second most games played change the spelling of their name ?</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Highway 25</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr"/>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>: The Dallas Stars did not change the spelling of their name; they adopted a new identity when they relocated from Minnesota to Dallas in 1993.</t>
+        </is>
+      </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>List_of_highways_in_Ontario_1</t>
+          <t>List_of_NHL_playoff_series_23</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -5278,43 +5358,39 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>What was the personal name of the Emperor whose documents currently reside at Daitōkyū Memorial Library ?</t>
+          <t>What is the name of the best selling album from rock band formed in Liverpool ?</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Liu Qi</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>: Jing</t>
-        </is>
-      </c>
+          <t>Sgt . Pepper 's Lonely Hearts Club Band</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
-          <t>List_of_National_Treasures_of_Japan_(writings__Chinese_books)_1</t>
+          <t>List_of_best-selling_albums_1</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>How many points for championships were gained by the person who finished the qualifying round of the British Grand Prix of 1952 right behind Ken Downing ?</t>
+          <t>Which route connects , the freeway begins at the Peace Bridge in Fort Erie and the highway that was established in 1937 due to rerouting of Highway 9 ?</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>nine</t>
+          <t>Highway 25</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
-          <t>1952_British_Grand_Prix_0</t>
+          <t>List_of_highways_in_Ontario_1</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -5324,43 +5400,47 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>How many people established the football club whose 2018 revenue was less than 355.6 but more than 272.5 ?</t>
+          <t>What was the personal name of the Emperor whose documents currently reside at Daitōkyū Memorial Library ?</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>eighteen</t>
+          <t>Liu Qi</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>: The table does not provide information about the number of people who established any football clubs. The query asks for a count of founders, but the table only contains financial data (revenue) and club rankings. Therefore, the question cannot be answered with the provided information.</t>
+          <t>: The personal name of the Emperor whose documents currently reside at Daitōkyū Memorial Library is Liu Qi (劉啟).</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Deloitte_Football_Money_League_2</t>
+          <t>List_of_National_Treasures_of_Japan_(writings__Chinese_books)_1</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>When did the team with the second most games played change the spelling of their name ?</t>
+          <t>What is the capacty of the stadium located in the city that is the capital of the Department of Huila ?</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr"/>
+          <t>27,000</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>: The capacity of the stadium located in the city that is the capital of the Department of Huila (Neiva) is 27,000.</t>
+        </is>
+      </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>List_of_NHL_playoff_series_23</t>
+          <t>List_of_association_football_stadiums_by_country_1</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -5370,72 +5450,72 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>What is the capacty of the stadium located in the city that is the capital of the Department of Huila ?</t>
+          <t>How many points for championships were gained by the person who finished the qualifying round of the British Grand Prix of 1952 right behind Ken Downing ?</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>27,000</t>
+          <t>nine</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>: The capacity of the stadium located in Neiva, the capital city of the Department of Huila, is 27,000. This is confirmed by the stadium "Estadio Guillermo Plazas Alcid" listed in the table under Neiva with a capacity of 27,000.</t>
+          <t>: The person who finished the qualifying round of the 1952 British Grand Prix right behind Ken Downing, Reg Parnell, gained 1 championship point.</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>List_of_association_football_stadiums_by_country_1</t>
+          <t>1952_British_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>What is the nationality of the person to have most recently found a fossil ?</t>
+          <t>Which site was the target of explosives at the Olympic Games in which Chan Sau Ying was the flag carrier for Hong Kong ?</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>British</t>
+          <t>Centennial Olympic Park</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>: Kenyan</t>
+          <t>: The site targeted by explosives during the Olympic Games where Chan Sau Ying was the flag bearer for Hong Kong was Centennial Olympic Park. This incident occurred on July 27, 1996, and is known as the Centennial Olympic Park bombing.</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>List_of_human_evolution_fossils_2</t>
+          <t>List_of_flag_bearers_for_Hong_Kong_at_the_Olympics_0</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Which site was the target of explosives at the Olympic Games in which Chan Sau Ying was the flag carrier for Hong Kong ?</t>
+          <t>Which line has a station located at the intersection of 36th Street and Northern Boulevard in Queens ?</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Centennial Olympic Park</t>
+          <t>Queens Boulevard Line</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>: Centennial Olympic Park</t>
+          <t>: The line that has a station located at the intersection of 36th Street and Northern Boulevard in Queens is the **Queens Boulevard Line**. The specific station is **36th Street**, which is served by the M train on weekdays, the R train at all times except nights, and the E train at night.</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>List_of_flag_bearers_for_Hong_Kong_at_the_Olympics_0</t>
+          <t>List_of_New_York_City_Subway_stations_in_Queens_1</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -5445,51 +5525,51 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Which river flows through this city that has the largest football stadium in England ?</t>
+          <t>What school did the player who was a pitcher for the Colorado Rockies of Major League Baseball ( MLB ) in 1996 and 1997 attend ?</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>the River Thames</t>
+          <t>Florida State</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>: Thames</t>
+          <t>: The player who was a pitcher for the Colorado Rockies of Major League Baseball (MLB) in 1996 and 1997, John Chandler Burke, attended the University of Florida.</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>List_of_rugby_league_stadiums_by_capacity_0</t>
+          <t>1991_College_Baseball_All-America_Team_0</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Which line has a station located at the intersection of 36th Street and Northern Boulevard in Queens ?</t>
+          <t>The city that has a population of approximately 90,000 as at the 2016 Census has what school ?</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Queens Boulevard Line</t>
+          <t>Al-Hidayah Islamic School</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>: Queens Boulevard Line</t>
+          <t>: There are no schools listed in the provided table for the City of Melville, which has a population of approximately 98,000 as of the 2016 Census. If you need more accurate information, please check the official website of the City of Melville or contact local education authorities.</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>List_of_New_York_City_Subway_stations_in_Queens_1</t>
+          <t>List_of_schools_in_Perth,_Western_Australia_6</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -5510,78 +5590,74 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>The city that has a population of approximately 90,000 as at the 2016 Census has what school ?</t>
+          <t>What is the nationality of the person to have most recently found a fossil ?</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Al-Hidayah Islamic School</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>: The provided table does not contain population data for any suburbs or LGAs. Since the table lacks a population column and the SQL query returned no matches for a suburb or LGA with a population of approximately 90,000, **the question cannot be answered using the given table**. The table only lists school names, suburbs, LGAs, categories, opening years, and websites, but does not include demographic or population statistics.</t>
-        </is>
-      </c>
+          <t>British</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr">
         <is>
-          <t>List_of_schools_in_Perth,_Western_Australia_6</t>
+          <t>List_of_human_evolution_fossils_2</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Who is the daughter of the directer of the Argentinian film ?</t>
+          <t>Which river flows through this city that has the largest football stadium in England ?</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Guadalupe Subiela</t>
+          <t>the River Thames</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>: The director of the Argentinian film "The Dark Side of the Heart" is Eliseo Subiela. However, the table does not provide information about the director's family members, including his daughter. Therefore, the name of the director's daughter cannot be determined from the given table content.</t>
+          <t>: The River Thames flows through this city that has the largest football stadium in England (Wembley Stadium).</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>List_of_submissions_to_the_65th_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
+          <t>List_of_rugby_league_stadiums_by_capacity_0</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>What is the name of the best selling album from rock band formed in Liverpool ?</t>
+          <t>What country recognizes as their national language the language which is spoken by the ethnicity with 1.1 million people ?</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Sgt . Pepper 's Lonely Hearts Club Band</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>: The best-selling album from the rock band formed in Liverpool (The Beatles) is "1".</t>
+          <t>: Angola recognizes Chokwe as their national language.</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>List_of_best-selling_albums_1</t>
+          <t>Ethnic_groups_in_Africa_4</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -5591,22 +5667,22 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>What school did the player who was a pitcher for the Colorado Rockies of Major League Baseball ( MLB ) in 1996 and 1997 attend ?</t>
+          <t>Who is the daughter of the directer of the Argentinian film ?</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Florida State</t>
+          <t>Guadalupe Subiela</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>: Florida</t>
+          <t>: The provided information does not contain any direct mention of Eliseo Subiela's daughter. Therefore, the name of Eliseo Subiela's daughter is not available in the given table content.</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>1991_College_Baseball_All-America_Team_0</t>
+          <t>List_of_submissions_to_the_65th_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -5626,7 +5702,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>: The provided table does not contain information about where the Generalleutnant-ranked pilot (Adolf Galland) graduated. The table includes details such as rank, victories, units, and notes about his military assignments and wounds, but no data regarding his education or graduation.</t>
+          <t>: The provided table and materials do not contain information about Adolf Galland's educational background or from which institution he graduated. To answer this question accurately, additional sources would be required.</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5641,18 +5717,22 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>What country recognizes as their national language the language which is spoken by the ethnicity with 1.1 million people ?</t>
+          <t>Who presently heads the basketball team of the university attended by Ralph Talley ?</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Angola</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr"/>
+          <t>Robert Jones</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>: The current head coach of the Norfolk State University basketball team is Robert Jones.</t>
+        </is>
+      </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Ethnic_groups_in_Africa_4</t>
+          <t>NABC_Player_of_the_Year_1</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -5670,39 +5750,35 @@
           <t>Connecticut at-large</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>: The table provided does not contain any district where the winner died on May 4, 1825. All dates in the table range from June 22, 1789, to April 18, 1796, and no entries reference the year 1825 or the specified date. Therefore, no such district exists in the provided data.</t>
-        </is>
-      </c>
+      <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
           <t>List_of_special_elections_to_the_United_States_House_of_Representatives_in_New_York_0</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>What number pick was the player born on February 28 , 1999 ?</t>
+          <t>What is the former name of the airport that serves 5,713,859 passengers a year ?</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Rancho-Boyeros Airport</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>: 3</t>
+          <t>: The former name of the airport that serves 5,713,859 passengers a year is Rancho-Boyeros Airport.</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Atlanta_Hawks_draft_history_0</t>
+          <t>List_of_the_busiest_airports_in_the_Caribbean_0</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -5712,18 +5788,22 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>What has the namesake of the airport that handled 6,453,100 flyers in 2009 been credited with contributing to ?</t>
+          <t>Which cheap airline is based in the airport in the city that is the capital of an Emirate ?</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Mexican independence</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr"/>
+          <t>flydubai</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>: The cheap airline based in the airport located in the city that is the capital of an Emirate (Dubai) is **flydubai**.</t>
+        </is>
+      </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Latin_America_10</t>
+          <t>List_of_the_busiest_airports_in_Asia_7</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -5733,72 +5813,72 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Which area is the island with a population of 122,974 off the coast of ?</t>
+          <t>In what division does the team playing at the stadium with the lowest total attendance play ?</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>mainland China</t>
+          <t>American Football Conference ( AFC ) South</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>: 132</t>
+          <t>: The team playing at the stadium with the lowest total attendance plays in the AFC South division.</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>List_of_islands_by_population_density_1</t>
+          <t>List_of_National_Football_League_attendance_figures_2</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>What is the former name of the airport that serves 5,713,859 passengers a year ?</t>
+          <t>What number pick was the player born on February 28 , 1999 ?</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Rancho-Boyeros Airport</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>: The airport serving 5,713,859 passengers annually is José Martí International Airport (Havana, Cuba). The provided table does not include information about the airport's former name.</t>
+          <t>: The player born on February 28, 1999, was selected as the 3rd overall pick by the Atlanta Hawks.</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_the_Caribbean_0</t>
+          <t>Atlanta_Hawks_draft_history_0</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>In what division does the team playing at the stadium with the lowest total attendance play ?</t>
+          <t>What has the namesake of the airport that handled 6,453,100 flyers in 2009 been credited with contributing to ?</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>American Football Conference ( AFC ) South</t>
+          <t>Mexican independence</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>: AFC South</t>
+          <t>: The namesake of the airport that handled 6,453,100 flyers in 2009 is Miguel Hidalgo y Costilla. He has been credited with initiating the war that led to Mexican independence from Spain and is often referred to as the father of Mexican independence.</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>List_of_National_Football_League_attendance_figures_2</t>
+          <t>List_of_the_busiest_airports_in_Latin_America_10</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -5818,7 +5898,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>: Somalia</t>
+          <t>: The city where 587 people were killed by a truck bomb on October 14th is Mogadishu, which is located in the coastal Banadir region on the Somali Sea. Therefore, the shoreside area that contains the city of Mogadishu is the Banadir region.</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -5827,28 +5907,28 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Which cheap airline is based in the airport in the city that is the capital of an Emirate ?</t>
+          <t>Which area is the island with a population of 122,974 off the coast of ?</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>flydubai</t>
+          <t>mainland China</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>: The table provided does not contain information about airlines or their pricing (e.g., "cheap airline"). While the airport in the city that is the capital of an Emirate (Dubai International Airport) can be identified from the table, the query specifically asks for a "cheap airline," which is not listed or described in the given data. Therefore, the question cannot be answered using the provided table.</t>
+          <t>: The island with a population of 122,974 is Kinmen, and its area is 132 square kilometers.</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Asia_7</t>
+          <t>List_of_islands_by_population_density_1</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -5868,7 +5948,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>: CART Indy Car World Series</t>
+          <t>: Nigel Mansell won the CART Indy Car World Series in his debut season.</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -5877,28 +5957,28 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Who was the teacher of the winner of the Gateway to the Open Mizuno Open Yomiuri Classic in 2010 when he was 10 ?</t>
+          <t>What town was the leader born in who had a secretary who was a member of the Richard Nixon , Gerald Ford , Jimmy Carter , and Ronald Reagan administrations ?</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Todd Baker</t>
+          <t>Greenwich</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>The table does not contain information about the winner's teacher or any personal details such as their age when they were 10. The winner of the tournament was Shunsuke Sonoda, but no data regarding his teacher is provided in the given dataset.&lt;/Answer&gt;</t>
+          <t>: No female Secretary of the United States Cabinet served in all four administrations (Richard Nixon, Gerald Ford, Jimmy Carter, and Ronald Reagan).</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2010_Japan_Golf_Tour_0</t>
+          <t>List_of_female_United_States_Cabinet_Secretaries_0</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -5908,22 +5988,22 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>What is the purpose of the 759 ft tower in Jersey City ?</t>
+          <t>Who was the teacher of the winner of the Gateway to the Open Mizuno Open Yomiuri Classic in 2010 when he was 10 ?</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>residential complex</t>
+          <t>Todd Baker</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>: The purpose of the 759 ft tower in Jersey City (Journal Squared Tower 2) is not specified in the provided table, as the Notes column for this entry is empty.</t>
+          <t>: The provided table and data do not contain information about Shunsuke Sonoda's teacher when he was 10 years old. Additional sources are needed to answer this part of the query.</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>List_of_tallest_buildings_in_the_United_States_3</t>
+          <t>2010_Japan_Golf_Tour_0</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -5933,22 +6013,22 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Who presently heads the basketball team of the university attended by Ralph Talley ?</t>
+          <t>What is the purpose of the 759 ft tower in Jersey City ?</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Robert Jones</t>
+          <t>residential complex</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>: The table provides historical data on the Player of the Year but does not include information about current or past head coaches of the universities. Ralph Talley attended Norfolk State University (as shown in the 1986-87 season), but the table does not list the current head coach of Norfolk State's basketball team. Therefore, the query cannot be answered using the provided table content.</t>
+          <t>: The 759 ft (231 m) tall building in Jersey City is named "Journal Squared Tower 2." The purpose of this tower is not specified in the available data.</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>NABC_Player_of_the_Year_1</t>
+          <t>List_of_tallest_buildings_in_the_United_States_3</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -5958,22 +6038,26 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>What town was the leader born in who had a secretary who was a member of the Richard Nixon , Gerald Ford , Jimmy Carter , and Ronald Reagan administrations ?</t>
+          <t>Who established the school that was the 2nd place winner of the 2002 Head of the River ( Queensland ) ?</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Greenwich</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr"/>
+          <t>Society of the Sacred Heart</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>: The school that was the 2nd place winner in the 2002 Head of the River (Queensland) is Stuartholme. Unfortunately, the provided materials do not contain information about who established Stuartholme School. To accurately answer your question, additional sources specific to the history and founding of Stuartholme School would be necessary.</t>
+        </is>
+      </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>List_of_female_United_States_Cabinet_Secretaries_0</t>
+          <t>Head_of_the_River_(Queensland)_13</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -5989,7 +6073,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Getafe B&lt;/Answer&gt;</t>
+          <t>: The club whose home city hosts an Airbus factory is Getafe B.</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6014,7 +6098,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>: Raipur</t>
+          <t>: The capital city of the state where the Sipat Thermal Power Station is located is Raipur.</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6029,47 +6113,48 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Who operates the airport that is located in Recife ?</t>
+          <t>Of the albums for 11:11 and A Bit of You , which album charted in more countries ?</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>AENA</t>
+          <t>Want One</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>: AENA</t>
+          <t>: The provided table and additional content do not contain information about the number of countries in which the albums "Want One" and "Rufus Wainwright [ Japan ]" charted. Additional information is needed to answer this question accurately.</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>List_of_the_busiest_airports_in_Latin_America_1</t>
+          <t>List_of_songs_recorded_by_Rufus_Wainwright_0</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Of the albums for 11:11 and A Bit of You , which album charted in more countries ?</t>
+          <t>How did the musician with the single Keep Me a Secret put out his first album ?</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Want One</t>
+          <t>independently</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>: The table does not provide information about the number of countries each album charted in. While "11:11" is associated with the album "Want One" and "A Bit of You" is associated with "Rufus Wainwright [ Japan ]", the table lacks data on chart performance or country-specific charting. Therefore, it is impossible to determine which album charted in more countries based on the provided information.</t>
+          <t xml:space="preserve">: How did Ainslie Henderson release his first album? 
+</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>List_of_songs_recorded_by_Rufus_Wainwright_0</t>
+          <t>Fame_Academy_discography_0</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -6079,50 +6164,1776 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>How did the musician with the single Keep Me a Secret put out his first album ?</t>
+          <t>Who operates the airport that is located in Recife ?</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>independently</t>
+          <t>AENA</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>: The table lists the single "Keep Me a Secret" by Ainslie Henderson, but it does not contain information about the musician's first album. The provided data only includes song titles, release dates, and chart positions for singles, not album details. Therefore, the question cannot be answered with the given table content.</t>
+          <t>: The airport located in Recife, known as Recife/Guararapes-Gilberto Freyre International Airport, is operated by AENA.</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Fame_Academy_discography_0</t>
+          <t>List_of_the_busiest_airports_in_Latin_America_1</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Who established the school that was the 2nd place winner of the 2002 Head of the River ( Queensland ) ?</t>
+          <t>Where did the second richest person move when he was 12 ?</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Society of the Sacred Heart</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>: The table does not contain information about who established Stuartholme, so the question cannot be answered based on the provided data.</t>
+          <t>: Henry Sy &amp; Family moved to the Philippines when he was 12 years old.</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Head_of_the_River_(Queensland)_13</t>
+          <t>List_of_South_East_Asian_people_by_net_worth_1</t>
         </is>
       </c>
       <c r="E235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>What is the approximate ( object comparison ) size of the 2008 Phone Model that was available from 5 different carrier and uses technology that is also called cdmaOne ?</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Post-It Note</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>List_of_Motorola_products_16</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Who was the CAA Champion when the venue was the one that was a 5,200-seat multi-purpose arena ?</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Old Dominion</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>: There is no venue in the provided table that matches the description of a 5,200-seat multi-purpose arena. Hence, it is not possible to determine the CAA Champion for such a venue.</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Colonial_Athletic_Association_8</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>What was the venue of the match held in a coastal seaport city in western Canada with the winner being originally organized in New Westminster in 1889 ?</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Empire Stadium</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>: The venue of the match held in a coastal seaport city in western Canada was Empire Stadium in Vancouver. There is no evidence to suggest that the British Lions were originally organized in New Westminster in 1889.</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>History_of_rugby_union_matches_between_the_British_and_Irish_Lions_and_other_countries_0</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>How many championship points did the driver with the highest numbered car score ?</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>: The driver with the highest numbered car, Gastón Mazzacane (Car Number 23), scored 0 championship points.</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2001_Malaysian_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>What is the official mascot of the tournament champion of the 1988 America East Conference tournament ?</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Rhett the Boston Terrier</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>: The official mascot of the tournament champion of the 1988 America East Conference tournament is Rhett the Boston Terrier.</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>America_East_Conference_11</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Which player was from the university whose home games are played at the Breslin Student Events Center ?</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Adreian Payne</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>: Adreian Payne was drafted from Michigan State University.</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Atlanta_Hawks_draft_history_0</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>what is the location of the Limited event during the the seventh season of the Magic : The Gathering Pro Tour ?</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Fukuoka</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>: The location of the Limited event during the seventh season (2005) of the Magic: The Gathering Pro Tour is Matsuyama.</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Shuhei_Nakamura_0</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>What is the name of the system in the city that was originally part of the 1785 Rancho San Pedro Spanish land grant ?</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Beach Cities Transit</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>: The bus transit system serving Redondo Beach, which was originally part of the 1785 Rancho San Pedro Spanish land grant, is likely **Beach Cities Transit**.</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>List_of_bus_transit_systems_in_the_United_States_4</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>What is the release date of the game that is a post-apocalyptic action role-playing video game ?</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2010-10-19</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>: The release date of the game "Fallout: New Vegas," which is a post-apocalyptic action role-playing video game, is October 19, 2010.</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>List_of_Games_for_Windows_titles_4</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Who founded Juan Pablo Montoya 's constructor ?</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Sir Frank Williams</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>: Sir Frank Williams and Sir Patrick Head founded Williams Grand Prix Engineering, which later partnered with BMW to form Williams - BMW.</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2001_Japanese_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>What is the best league result for a club who beat another club with paralympic sports ?</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>: The provided table does not contain information about clubs involved in Paralympic sports. Therefore, it is not possible to determine the best league result for a club that beat another club with Paralympic sports based on the given data. If you can provide more specific information about such clubs, I can help answer your query.</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Turkish_Cup_0</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>What is the alternative name for the historic place that is located in the township that was established in 1886 and that has the date listed # 14000426 ?</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Portage Entry Light</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>National_Register_of_Historic_Places_listings_in_Houghton_County,_Michigan_0</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>In 2009 , what percentage of its staff was lost by the developer of the game that is an Association Football manager simulation video game not available on Games for Windows - Live ?</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>80% of its staff</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>: Based on the provided table and additional context, there is no information available to determine what percentage of its staff was lost by Sports Interactive in 2009. If you have additional data or context regarding staff changes at Sports Interactive during 2009, please provide it for a more accurate response.</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>List_of_Games_for_Windows_titles_3</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>What is the suburb of the school that enrolled approximately 1,500 students in 2018 ?</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Bossley Park</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>: The suburbs of the schools that enrolled approximately 1,500 students in 2018 are Cabramatta (for Cabramatta High School) and Bossley Park (for Bossley Park High School).</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>List_of_schools_in_Greater_Western_Sydney_1</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>The senator whose hometown is named after two prominent Cherokee brothers was born when ?</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>September 30 , 1957</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>: The senator whose hometown is named after two prominent Cherokee brothers is Micheal Bergstrom, but his birth year is not provided in the available information. To determine his birth year, additional sources would be required.</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>List_of_current_members_of_the_Oklahoma_Senate_0</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>What services does the station have that is located between Avenue of the Americas and Seventh Avenue ?</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1 , 2 , 3</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>: The station located between Avenue of the Americas and Seventh Avenue provides services for the B, D, and E trains.</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>List_of_New_York_City_Subway_stations_in_Manhattan_1</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>What team did Pakistan play in the city founded by the Mughal Emperor Jehangir in 1607 ?</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Zimbabwe</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>: Based on the available information, Pakistan has played matches in Lahore at Gaddafi Stadium and Bagh-e-Jinnah. However, the specific team that Pakistan played against in the city founded by Mughal Emperor Jehangir in 1607 (Lahore) is not provided in the given data. To determine the exact team, additional historical records or match details would be required.</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Pakistan_national_cricket_team_0</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Which driver had the most races in a single season and had a team that is one of the oldest surviving ?</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Michael Schumacher</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>: Michael Schumacher holds the record for the most races won in a single season with 13 wins, and his team, Ferrari, is one of the oldest surviving teams in Formula One.</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>1998_Australian_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>What year was representative that served as mayor of the village of Shreve first elected ?</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>: James F. Carmichael, who served as the mayor of the village of Shreve from 1971 to 1979, was first elected to the Ohio House of Representatives in 2000.</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Ohio_House_of_Representatives,_127th_General_Assembly_0</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Where was the person who set a record in 1937 born ?</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Russian</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>: The provided materials do not specify where Mikhail Gromov was born.</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Flight_distance_record_0</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>What is the estimated population of the hometown of the first African American winner of Miss Teen USA ?</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>112,525</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>: The estimated population of the hometown of the first African American winner of Miss Teen USA (Manchester, New Hampshire) is 112,525.</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Miss_Teen_USA_1</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Which athlete from the country whose largest city is New York , was sanctioned for using a substance composed of tetrahydrocannabinol ?</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>John Capel</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>: John Capel was an athlete from the United States who was sanctioned for using a substance containing tetrahydrocannabinol (cannabis).</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>List_of_doping_cases_in_athletics_2</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>The director of `` Day for Night '' also directed a film submitted to the 53rd Academy Awards that starred what two actors ?</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Catherine Deneuve and Gérard Depardieu</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>: The director of "Day for Night" (French: La Nuit américaine) is François Truffaut. He also directed "The Last Metro" (French: Le Dernier Métro), which was submitted to the 53rd Academy Awards and starred Catherine Deneuve and Gérard Depardieu.</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>List_of_submissions_to_the_53rd_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Between and Lahaina Historic District and Keauhou Holua Slide , which landmark 's location has the bigger population ?</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Lahaina Historic District</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>: The location of Lahaina Historic District, Lāhainā on Maui, has a larger population with 11,704 residents compared to Keauhou Holua Slide, which is located in Keauhou on Hawaiʻi Island with 3,549 residents.</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>List_of_National_Historic_Landmarks_in_Hawaii_0</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>How many ODIs has the stadium first used in 2012 hosted ?</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>: The MCA Stadium has hosted 4 One Day Internationals (ODIs).</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>List_of_cricket_grounds_in_India_30</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>What is the birth date of the athlete from the country whose capital is Ankara and was sanctioned for using the brand Primobolan ?</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>June 10 , 1983</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>: The provided information does not contain Recep Çelik's birth date. Therefore, it is not possible to answer the question with the given data.</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>List_of_doping_cases_in_athletics_2</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Who beat the team in the World Series whose manager managed the Toronto Blue Jays from 1982 to 1985 ?</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Minnesota Twins</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>: The provided table and content do not contain sufficient information to determine which team beat the team managed by Bobby Mattick in the World Series. Additional sources are needed to confirm Bobby Mattick's managerial tenure beyond 1981 and any potential World Series appearances.</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Major_League_Baseball_Manager_of_the_Year_Award_1</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Does Butan or Manila house a university with preschool level courses ?</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Butuan</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>List_of_indoor_arenas_in_the_Philippines_1</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>What is the name of the racecourse whose location was recognized by the Queen in 1957 because of the presence of Windsor Castle ?</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Abingdon Racecourse</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>: The name of the racecourse whose location was recognized by the Queen in 1957 because of the presence of Windsor Castle is **Ascot Racecourse**.</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>List_of_British_racecourses_2</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>What are the remarks of the treasure whose present location is considered the oldest national museum in Japan ?</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Letter from Dahui 's exile in Meizhou to his friend , the lay practitioner Wuxiang</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>List_of_National_Treasures_of_Japan_(writings__others)_2</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>What is the difference in age between the man who is chairman of the Clermont Group and Lucio Tan ?</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>25 years</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>: The difference in age between the man who is the chairman of the Clermont Group (Richard Chandler) and Lucio Tan is approximately 12.5 years.</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>List_of_South_East_Asian_people_by_net_worth_2</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>How long is the most heavily traveled part of the highway that has the highway that was rerouted south of Tonawanda going to it ?</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>50-mile</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>: The most heavily traveled part of the highway that has the highway that was rerouted south of Tonawanda going to it is New York State Route 104, which is 182.31 miles long.</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>List_of_state_routes_in_New_York_1</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>What is the former name of the stadium where the only NFL team to record 20 straight winning seasons plays ?</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Cowboys Stadium</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>: The former name of the stadium where the Dallas Cowboys play is Cowboys Stadium.</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>List_of_National_Football_League_attendance_figures_0</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>What is the name of the second oldest opponent he played against between 1989 and 1991 ?</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Mike Hallett</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>: The name of the second oldest opponent John Parrott played against between 1989 and 1991 is Stephen Hendry.</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>John_Parrott_1</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>What district is the city in Austria that hosted the Diplomacy Tournament located in ?</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Oberpullendorf</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>: Lockenhaus, Austria, is located in the district of Oberpullendorf.</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>International_prize_list_of_Diplomacy_0</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>This former Ohio Senator and Representative also served as Chancellor of the Ohio Department of Higher Education , and he lives in a city that is the county seat of what county ?</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Wood County</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>: The former Ohio Senator and Representative who also served as Chancellor of the Ohio Department of Higher Education, Randall L. Gardner, lives in a city that is the county seat of Fairfield County.</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Ohio_House_of_Representatives,_127th_General_Assembly_0</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>For the player born June 26 , 1984 , what national team did he play on ?</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Puerto Rican National Team</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>: J. J. Barea played for the Puerto Rican national team.</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>List_of_oldest_and_youngest_National_Basketball_Association_players_1</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Who does the skater to finish 18th in the short program compete with ?</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Sarah May Coward</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>: The skater who finished 18th in the Short Program at the 2008 NRW Trophy is Georgi Kenchadze, and he competes for Bulgaria.</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2008_NRW_Trophy_0</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>What is the population of the home country of Elena Pingacheva ?</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>146.7 million</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>: The population of the home country of Elena Pingacheva, which is Russia, is 146.7 million inhabitants as of 2020.</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>1996_World_Junior_Figure_Skating_Championships_1</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>What is the 2018 population of the 'Notes on Poetic Style Through the Ages ' treasure 's present location ?</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1.47 million</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>: The population of Kyoto, where 'Notes on Poetic Style Through the Ages (古来風躰抄, korai fūteishō)' is located, was 1.47 million in 2018.</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>List_of_National_Treasures_of_Japan_(writings__Japanese_books)_0</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>How many times did the Husky of Honor with a hometown in Glenn Heights , Texas win the Nancy Lieberman Award ?</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>: The number of times Moriah Jefferson won the Nancy Lieberman Award is not specified in the given table and available information. Additional sources or detailed records would be needed to provide a precise answer.</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Huskies_of_Honor_1</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>What is the 1993 population estimate of the city that is the second-largest city in Myanmar ?</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>885,287</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>: The 1993 population estimate of the city that is the second-largest city in Myanmar, Mandalay, is 885,287.</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>List_of_cities_in_Burma_0</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>The driver who finished at position 4 in the 2005 Japanese Grand Prix was of born in what year ?</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>: The driver who finished at position 4 in the 2005 Japanese Grand Prix, Christian Klien, was born in the year 1983.</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2005_Japanese_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Which prehistoric immigrants got to the continent of the nation with 500,000 residents with origins in Lebanon ?</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Paleo-Indians</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>: The prehistoric immigrants who first arrived in North America are known as Paleo-Indians, Paleoindians, or Paleoamericans. These groups entered and inhabited the Americas during the final glacial episodes of the late Pleistocene period, approximately 40,000 to 17,000 years ago, by crossing the Bering land bridge (Beringia) from North Asia into Alaska. They were big-animal hunters who followed herds of large herbivores through ice-free corridors that developed along the Pacific coast and valleys of North America around 16,500 to 13,500 BCE.</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Lebanese_people_0</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>How many uninterrupted baseball seasons of more wins than losses have happened at the university attended by Todd Moser ?</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>: Florida Atlantic University (FAU) has had 19 uninterrupted baseball seasons with more wins than losses.</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>1999_College_Baseball_All-America_Team_0</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>What is the nation of the athlete who was born on August 1 , 1979 ?</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>: There is no information available about an athlete born on August 1, 1979, based on the given materials.</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>1997_World_Junior_Figure_Skating_Championships_0</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Which team won their 2nd MVC Tournament title against Indiana State ?</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Creighton</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>: Based on the provided table, no team has won their second Missouri Valley Conference (MVC) Tournament title against Indiana State. The only instance where a team won against Indiana State was Creighton in 1978, but this was their first title. If you have additional information or context, please provide it for a more accurate answer.</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>List_of_Missouri_Valley_Conference_Men's_Basketball_Tournament_Finals_broadcasters_0</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>What was the house in Cass County as station of ?</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Underground Railway</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>: The Reverend George B. Hitchcock House in Cass County, Iowa, was used as a station on the Underground Railway. It has features and documentary evidence indicating its role in sheltering and transporting escaped slaves.</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>List_of_National_Historic_Landmarks_in_Iowa_0</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>What animal returns yearly to rear offspring in the park near La Pointe ?</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Bald eagles</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>National_Register_of_Historic_Places_listings_in_Ashland_County,_Wisconsin_0</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>What is the championship team whose top scorer was born on 25 November 1918 ?</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>: There are no known top scorers who were born on 25 November 1918 based on the provided data. Therefore, we cannot determine a championship team whose top scorer was born on that date.</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>List_of_Serbian_football_champions_6</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>In which state lays the burial place of the United States president that led the Union Army as Commanding General of the United States Army in winning the American Civil War ?</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>: The burial place of Ulysses S. Grant, who led the Union Army as Commanding General of the United States Army during the American Civil War, is located in the state of New York.</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>List_of_burial_places_of_Presidents_of_the_United_States_0</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>How many square km is the area of the country of the pair ranked 2nd at the 2011 NRW Trophy ?</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>357,386</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>: The area of Germany, the country of the pair ranked 2nd at the 2011 NRW Trophy, is 357,386 square kilometers.</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2011_NRW_Trophy_7</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>What is the population of the city for the school that opened in 1907 ?</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>57,449 people</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>: The population of the city for the school that opened in 1907, which is "Carmel Adventist College Primary" located in the LGA of Kalamunda, is 57,449 people according to the 2016 Census.</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>List_of_schools_in_Perth,_Western_Australia_6</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>The driver who held the record for most Grand Prix victories until 2001 finished in what position ?</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>: Michael Schumacher held the record for the most Grand Prix victories until 2001, but he did not participate in the 1984 Dallas Grand Prix. Therefore, he did not have a qualifying position in this race.</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>1984_Dallas_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Which institution established in 1982 is located in a place that is also known as Kovai and Koyamuthur ?</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Bharathiar University</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>: The institution established in 1982 and located in a place that is also known as Kovai or Koyamuthur is Bharathiar University.</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>List_of_Tamil_Nadu_Government_educational_institutions_0</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>What is the residence of the Senator born September 18 , 1971 ?</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Toledo</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>: There is no information available to determine the residence of a senator born on September 18, 1971. The provided table does not include birth dates for the senators.</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>129th_Ohio_General_Assembly_0</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>How many beds are available in the city named after the only U.S . Senator ever killed in military combat ?</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>: The number of beds available in the city named after the only United States Senator ever killed in military combat (Baker City) is 25.</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>List_of_hospitals_in_Oregon_0</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>How many seats is the twin turboprop transport/passenger aircraft designed in 1957 manufactured by the company that works closely with a turbine manufacturer located in Zaporizhia ?</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>: The twin turboprop transport/passenger aircraft designed in 1957, which is the Antonov An-24, has a seating capacity of 44 seats. This information is based on the provided content and the known association between Ivchenko-Progress ZMKB and the Antonov Design Bureau.</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Turboprop_0</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>what is the elevation of a dormant volcano in the Caucasus Mountains in Southern Russia , near the border with Georgia ?</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>5,642</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>: The elevation of Mount Elbrus, a dormant volcano in the Caucasus Mountains in Southern Russia, near the border with Georgia, is 5,642 meters.</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>List_of_European_ultra_prominent_peaks_14</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>What is the full name of the person who won a medal in 1948 ?</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Mohammad-Jafar Salmasi</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>: Jafar Salmasi</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Iran_at_the_Olympics_3</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Which Ohio county does Randy Gardner live in ?</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Wood County</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>: Randy Gardner lives in Wood County, Ohio.</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>127th_Ohio_General_Assembly_1</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>What has the school of the tournament runner up of the 1990 America East Conference tournament won national championships in ?</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>skiing</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>: The University of Vermont has won six national championships, all in skiing.</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>America_East_Conference_11</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>How many drivers does the constructor known as `` The Prancing Horse '' have ?</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>: The constructor known as "The Prancing Horse" (Ferrari) has 2 drivers in the 2004 Brazilian Grand Prix.</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2004_Brazilian_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>The third busiest airport in Brazil has what IATA code ?</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>BSB</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>: The IATA code for the third busiest airport in Brazil, Presidente Juscelino Kubitschek International Airport, is BSB.</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>List_of_the_busiest_airports_in_Brazil_0</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>How many times in F1 did the person who finished the Hungarian Grand Prix qualifier in 1:18.515 in 1999 finish a race fastest ?</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>three</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>: Based on the available data, Giancarlo Fisichella did not finish the 1999 Hungarian Grand Prix with the fastest lap. To determine how many times he finished a race with the fastest lap across his entire Formula 1 career, additional data is required.</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>1999_Hungarian_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>What person is apart of the Electorate that was located in the adjacent Buller electorate until 1887 ?</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Patrick O'Regan</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>: Ralph Richardson was a part of the Suburbs of Nelson Electorate, which was located in an area adjacent to the Buller electorate until 1887.</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Baby_of_the_House_2</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>What is the % change of the Metropolitan statistical area which is built around the Mississippi river ?</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>+8.37%</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>: The percentage change of the Metropolitan statistical area which is built around the Mississippi River (Minneapolis-St. Paul-Bloomington, MN-WI MSA) is +8.37%.</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>List_of_Metropolitan_Statistical_Areas_0</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>How many cylinders did the manufacturers use whose country is the third largest country by area ?</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>: The manufacturers from China are Dongan Engine Manufacturing Company (DEMC). However, the number of cylinders for their engines is not provided in the given data. Additional sources or documentation from the manufacturer are required to determine the number of cylinders.</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Turboprop_0</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>What is the league whose city has a history of over 2,200 years and was a major terminus of the maritime Silk Road ?</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Hong Kong Premier League</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>: The league whose city has a history of over 2,200 years and was a major terminus of the maritime Silk Road is the 2014 Chinese Super League team from Guangzhou. Specifically, this team is Guangzhou Evergrande, which is based in Guangzhou and plays its home games at Tianhe Stadium.</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Guangdong_1</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Of the free and open source software browsers , which is currently on stable version 10 ?</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Mobile_browser_0</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
         <v>0</v>
       </c>
     </row>
